--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,70 +441,75 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>P_ac</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>P_in [KW]</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>status codes</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>hydrogen production [Kg/dt]</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>surplus electricity [kW]</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>H20 [kg/dt]</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Heat Cell [W/dt]</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Heat Cell [kw/dt]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Oxygen [kg/dt]</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>compression [kw]</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>gasdrying {kw/dt]</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>pump [kw/dt]</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>heat system [kW/dt]</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>efficiency [%]</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>efficency with compression [%]</t>
         </is>
@@ -517,46 +522,49 @@
       <c r="B2" t="n">
         <v>785.67</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
+      <c r="C2" t="n">
+        <v>784.9876777640598</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>285.67</v>
+        <v>2.56</v>
       </c>
       <c r="G2" t="n">
-        <v>62.87</v>
+        <v>284.99</v>
       </c>
       <c r="H2" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I2" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K2" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N2" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O2" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P2" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="3">
@@ -566,46 +574,49 @@
       <c r="B3" t="n">
         <v>1499.08</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
+      <c r="C3" t="n">
+        <v>1498.389264941757</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>999.08</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
-        <v>62.87</v>
+        <v>998.39</v>
       </c>
       <c r="H3" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I3" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K3" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M3" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N3" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O3" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +626,49 @@
       <c r="B4" t="n">
         <v>1697.51</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
+      <c r="C4" t="n">
+        <v>1696.818181918745</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>1197.51</v>
+        <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>62.87</v>
+        <v>1196.82</v>
       </c>
       <c r="H4" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I4" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K4" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M4" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N4" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O4" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +678,49 @@
       <c r="B5" t="n">
         <v>410.07</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
+      <c r="C5" t="n">
+        <v>409.4038695561462</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>2.14</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="G5" t="n">
-        <v>59.12</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>59.26</v>
+        <v>59.03</v>
       </c>
       <c r="I5" t="n">
-        <v>17.01</v>
+        <v>59.1</v>
       </c>
       <c r="J5" t="n">
-        <v>257.4</v>
+        <v>16.93</v>
       </c>
       <c r="K5" t="n">
-        <v>17.66</v>
+        <v>256.19</v>
       </c>
       <c r="L5" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.05</v>
       </c>
-      <c r="M5" t="n">
-        <v>-8.289999999999999</v>
-      </c>
       <c r="N5" t="n">
-        <v>80.42</v>
+        <v>8.27</v>
       </c>
       <c r="O5" t="n">
-        <v>49.84</v>
+        <v>77.15000000000001</v>
+      </c>
+      <c r="P5" t="n">
+        <v>48.56</v>
       </c>
     </row>
     <row r="6">
@@ -713,46 +730,49 @@
       <c r="B6" t="n">
         <v>185.82</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
+      <c r="C6" t="n">
+        <v>185.1947437783279</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.99</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>48.84</v>
       </c>
-      <c r="H6" t="n">
-        <v>15.08</v>
-      </c>
       <c r="I6" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="J6" t="n">
         <v>7.87</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>119.08</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>3.78</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.04</v>
       </c>
-      <c r="M6" t="n">
-        <v>-2.11</v>
-      </c>
       <c r="N6" t="n">
-        <v>83.22</v>
+        <v>2.1</v>
       </c>
       <c r="O6" t="n">
-        <v>50.9</v>
+        <v>81.66</v>
+      </c>
+      <c r="P6" t="n">
+        <v>50.31</v>
       </c>
     </row>
     <row r="7">
@@ -762,46 +782,49 @@
       <c r="B7" t="n">
         <v>73.69</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>4</v>
+      <c r="C7" t="n">
+        <v>73.17847725456491</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.36</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>43.22</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.4</v>
-      </c>
       <c r="I7" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J7" t="n">
         <v>2.86</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>43.3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.5</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M7" t="n">
-        <v>-0.34</v>
-      </c>
       <c r="N7" t="n">
-        <v>76.81</v>
+        <v>0.33</v>
       </c>
       <c r="O7" t="n">
-        <v>48.43</v>
+        <v>76.65000000000001</v>
+      </c>
+      <c r="P7" t="n">
+        <v>48.36</v>
       </c>
     </row>
     <row r="8">
@@ -811,46 +834,49 @@
       <c r="B8" t="n">
         <v>241.88</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>4</v>
+      <c r="C8" t="n">
+        <v>241.2374205758595</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.29</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>51.52</v>
       </c>
-      <c r="H8" t="n">
-        <v>24.08</v>
-      </c>
       <c r="I8" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="J8" t="n">
         <v>10.25</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>155.16</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>6.42</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.04</v>
       </c>
-      <c r="M8" t="n">
-        <v>-3.37</v>
-      </c>
       <c r="N8" t="n">
-        <v>83.01000000000001</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
-        <v>50.82</v>
+        <v>81</v>
+      </c>
+      <c r="P8" t="n">
+        <v>50.06</v>
       </c>
     </row>
     <row r="9">
@@ -860,46 +886,49 @@
       <c r="B9" t="n">
         <v>894.62</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4</v>
+      <c r="C9" t="n">
+        <v>893.9355249031867</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>394.62</v>
+        <v>2.56</v>
       </c>
       <c r="G9" t="n">
-        <v>62.87</v>
+        <v>393.94</v>
       </c>
       <c r="H9" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I9" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K9" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M9" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N9" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O9" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P9" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="10">
@@ -909,46 +938,49 @@
       <c r="B10" t="n">
         <v>410.07</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
+      <c r="C10" t="n">
+        <v>409.4038695561462</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>2.14</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="G10" t="n">
-        <v>59.12</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>59.26</v>
+        <v>59.03</v>
       </c>
       <c r="I10" t="n">
-        <v>17.01</v>
+        <v>59.1</v>
       </c>
       <c r="J10" t="n">
-        <v>257.4</v>
+        <v>16.93</v>
       </c>
       <c r="K10" t="n">
-        <v>17.66</v>
+        <v>256.19</v>
       </c>
       <c r="L10" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.05</v>
       </c>
-      <c r="M10" t="n">
-        <v>-8.289999999999999</v>
-      </c>
       <c r="N10" t="n">
-        <v>80.42</v>
+        <v>8.27</v>
       </c>
       <c r="O10" t="n">
-        <v>49.84</v>
+        <v>77.15000000000001</v>
+      </c>
+      <c r="P10" t="n">
+        <v>48.56</v>
       </c>
     </row>
     <row r="11">
@@ -958,46 +990,49 @@
       <c r="B11" t="n">
         <v>1499.08</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>4</v>
+      <c r="C11" t="n">
+        <v>1498.389264941757</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>999.08</v>
+        <v>2.56</v>
       </c>
       <c r="G11" t="n">
-        <v>62.87</v>
+        <v>998.39</v>
       </c>
       <c r="H11" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I11" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K11" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M11" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N11" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O11" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="12">
@@ -1007,46 +1042,49 @@
       <c r="B12" t="n">
         <v>1588.75</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
+      <c r="C12" t="n">
+        <v>1588.058742022904</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>1088.75</v>
+        <v>2.56</v>
       </c>
       <c r="G12" t="n">
-        <v>62.87</v>
+        <v>1088.06</v>
       </c>
       <c r="H12" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I12" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K12" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M12" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N12" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O12" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P12" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="13">
@@ -1056,46 +1094,49 @@
       <c r="B13" t="n">
         <v>1097.97</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>4</v>
+      <c r="C13" t="n">
+        <v>1097.282649606901</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>597.97</v>
+        <v>2.56</v>
       </c>
       <c r="G13" t="n">
-        <v>62.87</v>
+        <v>597.28</v>
       </c>
       <c r="H13" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I13" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K13" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M13" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N13" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O13" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P13" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="14">
@@ -1105,46 +1146,49 @@
       <c r="B14" t="n">
         <v>241.88</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>4</v>
+      <c r="C14" t="n">
+        <v>241.2374205758595</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
         <v>1.29</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>51.52</v>
       </c>
-      <c r="H14" t="n">
-        <v>24.08</v>
-      </c>
       <c r="I14" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="J14" t="n">
         <v>10.25</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>155.16</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>6.42</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>0.04</v>
       </c>
-      <c r="M14" t="n">
-        <v>-3.37</v>
-      </c>
       <c r="N14" t="n">
-        <v>83.01000000000001</v>
+        <v>3.35</v>
       </c>
       <c r="O14" t="n">
-        <v>50.82</v>
+        <v>81</v>
+      </c>
+      <c r="P14" t="n">
+        <v>50.06</v>
       </c>
     </row>
     <row r="15">
@@ -1154,46 +1198,49 @@
       <c r="B15" t="n">
         <v>1499.08</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>4</v>
+      <c r="C15" t="n">
+        <v>1498.389264941757</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>999.08</v>
+        <v>2.56</v>
       </c>
       <c r="G15" t="n">
-        <v>62.87</v>
+        <v>998.39</v>
       </c>
       <c r="H15" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I15" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K15" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M15" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N15" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O15" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P15" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="16">
@@ -1203,46 +1250,49 @@
       <c r="B16" t="n">
         <v>1097.97</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>4</v>
+      <c r="C16" t="n">
+        <v>1097.282649606901</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>597.97</v>
+        <v>2.56</v>
       </c>
       <c r="G16" t="n">
-        <v>62.87</v>
+        <v>597.28</v>
       </c>
       <c r="H16" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I16" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K16" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M16" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N16" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O16" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P16" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="17">
@@ -1252,46 +1302,49 @@
       <c r="B17" t="n">
         <v>678.27</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>4</v>
+      <c r="C17" t="n">
+        <v>677.5904769323262</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>178.27</v>
+        <v>2.56</v>
       </c>
       <c r="G17" t="n">
-        <v>62.87</v>
+        <v>177.59</v>
       </c>
       <c r="H17" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I17" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K17" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M17" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N17" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O17" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="18">
@@ -1301,46 +1354,49 @@
       <c r="B18" t="n">
         <v>185.82</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>4</v>
+      <c r="C18" t="n">
+        <v>185.1947437783279</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.99</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>48.84</v>
       </c>
-      <c r="H18" t="n">
-        <v>15.08</v>
-      </c>
       <c r="I18" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="J18" t="n">
         <v>7.87</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>119.08</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>3.78</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>0.04</v>
       </c>
-      <c r="M18" t="n">
-        <v>-2.11</v>
-      </c>
       <c r="N18" t="n">
-        <v>83.22</v>
+        <v>2.1</v>
       </c>
       <c r="O18" t="n">
-        <v>50.9</v>
+        <v>81.66</v>
+      </c>
+      <c r="P18" t="n">
+        <v>50.31</v>
       </c>
     </row>
     <row r="19">
@@ -1350,46 +1406,49 @@
       <c r="B19" t="n">
         <v>1299.63</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>4</v>
+      <c r="C19" t="n">
+        <v>1298.940686802312</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>799.63</v>
+        <v>2.56</v>
       </c>
       <c r="G19" t="n">
-        <v>62.87</v>
+        <v>798.9400000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I19" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K19" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M19" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N19" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O19" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P19" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="20">
@@ -1399,46 +1458,49 @@
       <c r="B20" t="n">
         <v>1588.75</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>4</v>
+      <c r="C20" t="n">
+        <v>1588.058742022904</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>1088.75</v>
+        <v>2.56</v>
       </c>
       <c r="G20" t="n">
-        <v>62.87</v>
+        <v>1088.06</v>
       </c>
       <c r="H20" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I20" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K20" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M20" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N20" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O20" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P20" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="21">
@@ -1448,46 +1510,49 @@
       <c r="B21" t="n">
         <v>73.69</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>4</v>
+      <c r="C21" t="n">
+        <v>73.17847725456491</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.36</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>43.22</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.4</v>
-      </c>
       <c r="I21" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J21" t="n">
         <v>2.86</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>43.3</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>0.5</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>0.03</v>
       </c>
-      <c r="M21" t="n">
-        <v>-0.34</v>
-      </c>
       <c r="N21" t="n">
-        <v>76.81</v>
+        <v>0.33</v>
       </c>
       <c r="O21" t="n">
-        <v>48.43</v>
+        <v>76.65000000000001</v>
+      </c>
+      <c r="P21" t="n">
+        <v>48.36</v>
       </c>
     </row>
     <row r="22">
@@ -1497,46 +1562,49 @@
       <c r="B22" t="n">
         <v>241.88</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>4</v>
+      <c r="C22" t="n">
+        <v>241.2374205758595</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
         <v>1.29</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>51.52</v>
       </c>
-      <c r="H22" t="n">
-        <v>24.08</v>
-      </c>
       <c r="I22" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="J22" t="n">
         <v>10.25</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>155.16</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>6.42</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>0.04</v>
       </c>
-      <c r="M22" t="n">
-        <v>-3.37</v>
-      </c>
       <c r="N22" t="n">
-        <v>83.01000000000001</v>
+        <v>3.35</v>
       </c>
       <c r="O22" t="n">
-        <v>50.82</v>
+        <v>81</v>
+      </c>
+      <c r="P22" t="n">
+        <v>50.06</v>
       </c>
     </row>
     <row r="23">
@@ -1546,46 +1614,49 @@
       <c r="B23" t="n">
         <v>410.07</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>4</v>
+      <c r="C23" t="n">
+        <v>409.4038695561462</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>2.14</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="G23" t="n">
-        <v>59.12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>59.26</v>
+        <v>59.03</v>
       </c>
       <c r="I23" t="n">
-        <v>17.01</v>
+        <v>59.1</v>
       </c>
       <c r="J23" t="n">
-        <v>257.4</v>
+        <v>16.93</v>
       </c>
       <c r="K23" t="n">
-        <v>17.66</v>
+        <v>256.19</v>
       </c>
       <c r="L23" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="M23" t="n">
         <v>0.05</v>
       </c>
-      <c r="M23" t="n">
-        <v>-8.289999999999999</v>
-      </c>
       <c r="N23" t="n">
-        <v>80.42</v>
+        <v>8.27</v>
       </c>
       <c r="O23" t="n">
-        <v>49.84</v>
+        <v>77.15000000000001</v>
+      </c>
+      <c r="P23" t="n">
+        <v>48.56</v>
       </c>
     </row>
     <row r="24">
@@ -1595,46 +1666,49 @@
       <c r="B24" t="n">
         <v>1396.64</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>4</v>
+      <c r="C24" t="n">
+        <v>1395.949944501725</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>896.64</v>
+        <v>2.56</v>
       </c>
       <c r="G24" t="n">
-        <v>62.87</v>
+        <v>895.95</v>
       </c>
       <c r="H24" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I24" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K24" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M24" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N24" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O24" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P24" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="25">
@@ -1644,46 +1718,49 @@
       <c r="B25" t="n">
         <v>894.62</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>4</v>
+      <c r="C25" t="n">
+        <v>893.9355249031867</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>394.62</v>
+        <v>2.56</v>
       </c>
       <c r="G25" t="n">
-        <v>62.87</v>
+        <v>393.94</v>
       </c>
       <c r="H25" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I25" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K25" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M25" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N25" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O25" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P25" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="26">
@@ -1693,46 +1770,49 @@
       <c r="B26" t="n">
         <v>993.85</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>4</v>
+      <c r="C26" t="n">
+        <v>993.1639748341188</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E26" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>493.85</v>
+        <v>2.56</v>
       </c>
       <c r="G26" t="n">
-        <v>62.87</v>
+        <v>493.16</v>
       </c>
       <c r="H26" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I26" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K26" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L26" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M26" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N26" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O26" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P26" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="27">
@@ -1742,46 +1822,49 @@
       <c r="B27" t="n">
         <v>1299.63</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>4</v>
+      <c r="C27" t="n">
+        <v>1298.940686802312</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>799.63</v>
+        <v>2.56</v>
       </c>
       <c r="G27" t="n">
-        <v>62.87</v>
+        <v>798.9400000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I27" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K27" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L27" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M27" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N27" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O27" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P27" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="28">
@@ -1791,46 +1874,49 @@
       <c r="B28" t="n">
         <v>297.94</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>4</v>
+      <c r="C28" t="n">
+        <v>297.2866163955457</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.58</v>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>54.11</v>
       </c>
-      <c r="H28" t="n">
-        <v>34.54</v>
-      </c>
       <c r="I28" t="n">
+        <v>34.41</v>
+      </c>
+      <c r="J28" t="n">
         <v>12.56</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>190.04</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>9.630000000000001</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>0.04</v>
       </c>
-      <c r="M28" t="n">
-        <v>-4.83</v>
-      </c>
       <c r="N28" t="n">
-        <v>82.26000000000001</v>
+        <v>4.81</v>
       </c>
       <c r="O28" t="n">
-        <v>50.54</v>
+        <v>79.89</v>
+      </c>
+      <c r="P28" t="n">
+        <v>49.63</v>
       </c>
     </row>
     <row r="29">
@@ -1840,17 +1926,17 @@
       <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>hot standby</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -1879,6 +1965,9 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1889,22 +1978,22 @@
       <c r="B30" t="n">
         <v>1396.64</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>1395.949944501725</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>booting</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>3</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
-        <v>1392.39</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1391.699944501725</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1928,6 +2017,9 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1938,46 +2030,49 @@
       <c r="B31" t="n">
         <v>1499.08</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>4</v>
+      <c r="C31" t="n">
+        <v>1498.389264941757</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E31" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>999.08</v>
+        <v>2.56</v>
       </c>
       <c r="G31" t="n">
-        <v>62.87</v>
+        <v>998.39</v>
       </c>
       <c r="H31" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I31" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K31" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L31" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M31" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N31" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O31" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P31" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="32">
@@ -1987,46 +2082,49 @@
       <c r="B32" t="n">
         <v>1588.75</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>4</v>
+      <c r="C32" t="n">
+        <v>1588.058742022904</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E32" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>1088.75</v>
+        <v>2.56</v>
       </c>
       <c r="G32" t="n">
-        <v>62.87</v>
+        <v>1088.06</v>
       </c>
       <c r="H32" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I32" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K32" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L32" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M32" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N32" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O32" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P32" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="33">
@@ -2036,46 +2134,49 @@
       <c r="B33" t="n">
         <v>2349.96</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>4</v>
+      <c r="C33" t="n">
+        <v>2349.265910266085</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E33" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>1849.96</v>
+        <v>2.56</v>
       </c>
       <c r="G33" t="n">
-        <v>62.87</v>
+        <v>1849.27</v>
       </c>
       <c r="H33" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I33" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K33" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L33" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M33" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N33" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O33" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P33" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="34">
@@ -2085,46 +2186,49 @@
       <c r="B34" t="n">
         <v>5039.02</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>4</v>
+      <c r="C34" t="n">
+        <v>5038.322756267864</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E34" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>4539.02</v>
+        <v>2.56</v>
       </c>
       <c r="G34" t="n">
-        <v>62.87</v>
+        <v>4538.32</v>
       </c>
       <c r="H34" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I34" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K34" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L34" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M34" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N34" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O34" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P34" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="35">
@@ -2134,46 +2238,49 @@
       <c r="B35" t="n">
         <v>6299.2</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>4</v>
+      <c r="C35" t="n">
+        <v>6298.502204865521</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E35" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>5799.2</v>
+        <v>2.56</v>
       </c>
       <c r="G35" t="n">
-        <v>62.87</v>
+        <v>5798.5</v>
       </c>
       <c r="H35" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I35" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K35" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L35" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M35" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N35" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O35" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P35" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="36">
@@ -2183,46 +2290,49 @@
       <c r="B36" t="n">
         <v>3684.43</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>4</v>
+      <c r="C36" t="n">
+        <v>3683.733769616708</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E36" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>3184.43</v>
+        <v>2.56</v>
       </c>
       <c r="G36" t="n">
-        <v>62.87</v>
+        <v>3183.73</v>
       </c>
       <c r="H36" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I36" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K36" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L36" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M36" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N36" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O36" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P36" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="37">
@@ -2232,46 +2342,49 @@
       <c r="B37" t="n">
         <v>3875.43</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>4</v>
+      <c r="C37" t="n">
+        <v>3874.733583831701</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E37" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>3375.43</v>
+        <v>2.56</v>
       </c>
       <c r="G37" t="n">
-        <v>62.87</v>
+        <v>3374.73</v>
       </c>
       <c r="H37" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I37" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K37" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L37" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M37" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N37" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O37" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P37" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="38">
@@ -2281,46 +2394,49 @@
       <c r="B38" t="n">
         <v>7260.34</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>4</v>
+      <c r="C38" t="n">
+        <v>7259.641912980506</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E38" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>6760.34</v>
+        <v>2.56</v>
       </c>
       <c r="G38" t="n">
-        <v>62.87</v>
+        <v>6759.64</v>
       </c>
       <c r="H38" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I38" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K38" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L38" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M38" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N38" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O38" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P38" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="39">
@@ -2330,17 +2446,17 @@
       <c r="B39" t="n">
         <v>0</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>hot standby</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
@@ -2369,6 +2485,9 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2379,17 +2498,17 @@
       <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>hot standby</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>1</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
@@ -2418,6 +2537,9 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2428,17 +2550,17 @@
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>hot standby</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
@@ -2467,6 +2589,9 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2477,14 +2602,14 @@
       <c r="B42" t="n">
         <v>0</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>cold standby</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
@@ -2516,6 +2641,9 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,22 +2654,22 @@
       <c r="B43" t="n">
         <v>410.07</v>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>409.4038695561462</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>booting</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>3</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
       <c r="F43" t="n">
-        <v>405.82</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>405.1538695561462</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2565,6 +2693,9 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2575,22 +2706,22 @@
       <c r="B44" t="n">
         <v>1396.64</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>1395.949944501725</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>booting</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>3</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
-        <v>1392.39</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1391.699944501725</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2614,6 +2745,9 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2624,46 +2758,49 @@
       <c r="B45" t="n">
         <v>3108.37</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>4</v>
+      <c r="C45" t="n">
+        <v>3107.674468222538</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E45" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>2608.37</v>
+        <v>2.56</v>
       </c>
       <c r="G45" t="n">
-        <v>62.87</v>
+        <v>2607.67</v>
       </c>
       <c r="H45" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I45" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K45" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L45" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M45" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N45" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O45" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P45" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="46">
@@ -2673,46 +2810,49 @@
       <c r="B46" t="n">
         <v>4415.54</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>4</v>
+      <c r="C46" t="n">
+        <v>4414.843145456476</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E46" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>3915.54</v>
+        <v>2.56</v>
       </c>
       <c r="G46" t="n">
-        <v>62.87</v>
+        <v>3914.84</v>
       </c>
       <c r="H46" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I46" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K46" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L46" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M46" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N46" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O46" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P46" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="47">
@@ -2722,46 +2862,49 @@
       <c r="B47" t="n">
         <v>3493.03</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>4</v>
+      <c r="C47" t="n">
+        <v>3492.333976172231</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E47" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>2993.03</v>
+        <v>2.56</v>
       </c>
       <c r="G47" t="n">
-        <v>62.87</v>
+        <v>2992.33</v>
       </c>
       <c r="H47" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I47" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K47" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L47" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M47" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N47" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O47" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P47" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="48">
@@ -2771,46 +2914,49 @@
       <c r="B48" t="n">
         <v>5668.84</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>4</v>
+      <c r="C48" t="n">
+        <v>5668.142450040729</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E48" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>5168.84</v>
+        <v>2.56</v>
       </c>
       <c r="G48" t="n">
-        <v>62.87</v>
+        <v>5168.14</v>
       </c>
       <c r="H48" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I48" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K48" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L48" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M48" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N48" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O48" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P48" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="49">
@@ -2820,46 +2966,49 @@
       <c r="B49" t="n">
         <v>4415.54</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>4</v>
+      <c r="C49" t="n">
+        <v>4414.843145456476</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E49" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>3915.54</v>
+        <v>2.56</v>
       </c>
       <c r="G49" t="n">
-        <v>62.87</v>
+        <v>3914.84</v>
       </c>
       <c r="H49" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I49" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K49" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L49" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M49" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N49" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O49" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P49" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="50">
@@ -2869,46 +3018,49 @@
       <c r="B50" t="n">
         <v>11066.59</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>4</v>
+      <c r="C50" t="n">
+        <v>11065.89125502878</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E50" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>10566.59</v>
+        <v>2.56</v>
       </c>
       <c r="G50" t="n">
-        <v>62.87</v>
+        <v>10565.89</v>
       </c>
       <c r="H50" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I50" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K50" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L50" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M50" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N50" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O50" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P50" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="51">
@@ -2918,46 +3070,49 @@
       <c r="B51" t="n">
         <v>9335.299999999999</v>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>4</v>
+      <c r="C51" t="n">
+        <v>9334.60148778174</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E51" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>8835.299999999999</v>
+        <v>2.56</v>
       </c>
       <c r="G51" t="n">
-        <v>62.87</v>
+        <v>8834.6</v>
       </c>
       <c r="H51" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I51" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J51" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K51" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L51" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M51" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N51" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O51" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P51" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="52">
@@ -2967,46 +3122,49 @@
       <c r="B52" t="n">
         <v>3493.03</v>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>4</v>
+      <c r="C52" t="n">
+        <v>3492.333976172231</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E52" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>2993.03</v>
+        <v>2.56</v>
       </c>
       <c r="G52" t="n">
-        <v>62.87</v>
+        <v>2992.33</v>
       </c>
       <c r="H52" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I52" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J52" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K52" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L52" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M52" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N52" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O52" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P52" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="53">
@@ -3016,46 +3174,49 @@
       <c r="B53" t="n">
         <v>3108.37</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>4</v>
+      <c r="C53" t="n">
+        <v>3107.674468222538</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E53" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>2608.37</v>
+        <v>2.56</v>
       </c>
       <c r="G53" t="n">
-        <v>62.87</v>
+        <v>2607.67</v>
       </c>
       <c r="H53" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I53" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J53" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K53" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L53" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M53" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N53" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O53" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P53" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="54">
@@ -3065,46 +3226,49 @@
       <c r="B54" t="n">
         <v>2918.18</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>4</v>
+      <c r="C54" t="n">
+        <v>2917.484759435295</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E54" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>2418.18</v>
+        <v>2.56</v>
       </c>
       <c r="G54" t="n">
-        <v>62.87</v>
+        <v>2417.48</v>
       </c>
       <c r="H54" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I54" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J54" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K54" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L54" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M54" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N54" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O54" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P54" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="55">
@@ -3114,46 +3278,49 @@
       <c r="B55" t="n">
         <v>1969.43</v>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>4</v>
+      <c r="C55" t="n">
+        <v>1968.737052237901</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E55" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>1469.43</v>
+        <v>2.56</v>
       </c>
       <c r="G55" t="n">
-        <v>62.87</v>
+        <v>1468.74</v>
       </c>
       <c r="H55" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I55" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K55" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L55" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M55" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N55" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O55" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P55" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="56">
@@ -3163,46 +3330,49 @@
       <c r="B56" t="n">
         <v>2539.76</v>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>4</v>
+      <c r="C56" t="n">
+        <v>2539.065468583208</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E56" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>2039.76</v>
+        <v>2.56</v>
       </c>
       <c r="G56" t="n">
-        <v>62.87</v>
+        <v>2039.07</v>
       </c>
       <c r="H56" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I56" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K56" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L56" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M56" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N56" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O56" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P56" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="57">
@@ -3212,46 +3382,49 @@
       <c r="B57" t="n">
         <v>7625.64</v>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>4</v>
+      <c r="C57" t="n">
+        <v>7624.941821340752</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E57" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>7125.64</v>
+        <v>2.56</v>
       </c>
       <c r="G57" t="n">
-        <v>62.87</v>
+        <v>7124.94</v>
       </c>
       <c r="H57" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I57" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J57" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K57" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L57" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M57" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N57" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O57" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P57" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="58">
@@ -3261,46 +3434,49 @@
       <c r="B58" t="n">
         <v>12499.26</v>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>4</v>
+      <c r="C58" t="n">
+        <v>12498.56111117689</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E58" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>11999.26</v>
+        <v>2.56</v>
       </c>
       <c r="G58" t="n">
-        <v>62.87</v>
+        <v>11998.56</v>
       </c>
       <c r="H58" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I58" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K58" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L58" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M58" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N58" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O58" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P58" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="59">
@@ -3310,46 +3486,49 @@
       <c r="B59" t="n">
         <v>11066.59</v>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>4</v>
+      <c r="C59" t="n">
+        <v>11065.89125502878</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E59" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>10566.59</v>
+        <v>2.56</v>
       </c>
       <c r="G59" t="n">
-        <v>62.87</v>
+        <v>10565.89</v>
       </c>
       <c r="H59" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I59" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K59" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L59" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M59" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N59" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O59" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P59" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="60">
@@ -3359,46 +3538,49 @@
       <c r="B60" t="n">
         <v>10199.66</v>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>4</v>
+      <c r="C60" t="n">
+        <v>10198.96136170116</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E60" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
-        <v>9699.66</v>
+        <v>2.56</v>
       </c>
       <c r="G60" t="n">
-        <v>62.87</v>
+        <v>9698.959999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I60" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J60" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K60" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L60" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M60" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N60" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O60" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P60" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="61">
@@ -3408,46 +3590,49 @@
       <c r="B61" t="n">
         <v>14187.12</v>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>4</v>
+      <c r="C61" t="n">
+        <v>14186.42097897874</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E61" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>13687.12</v>
+        <v>2.56</v>
       </c>
       <c r="G61" t="n">
-        <v>62.87</v>
+        <v>13686.42</v>
       </c>
       <c r="H61" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I61" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J61" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K61" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L61" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M61" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N61" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O61" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P61" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="62">
@@ -3457,46 +3642,49 @@
       <c r="B62" t="n">
         <v>13065.35</v>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>4</v>
+      <c r="C62" t="n">
+        <v>13064.65106303229</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E62" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>12565.35</v>
+        <v>2.56</v>
       </c>
       <c r="G62" t="n">
-        <v>62.87</v>
+        <v>12564.65</v>
       </c>
       <c r="H62" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I62" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K62" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L62" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M62" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N62" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O62" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P62" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="63">
@@ -3506,46 +3694,49 @@
       <c r="B63" t="n">
         <v>10199.66</v>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>4</v>
+      <c r="C63" t="n">
+        <v>10198.96136170116</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E63" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>9699.66</v>
+        <v>2.56</v>
       </c>
       <c r="G63" t="n">
-        <v>62.87</v>
+        <v>9698.959999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I63" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K63" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L63" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M63" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N63" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O63" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P63" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="64">
@@ -3555,46 +3746,49 @@
       <c r="B64" t="n">
         <v>11066.59</v>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>4</v>
+      <c r="C64" t="n">
+        <v>11065.89125502878</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E64" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F64" t="n">
-        <v>10566.59</v>
+        <v>2.56</v>
       </c>
       <c r="G64" t="n">
-        <v>62.87</v>
+        <v>10565.89</v>
       </c>
       <c r="H64" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I64" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J64" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K64" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L64" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M64" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N64" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O64" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P64" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="65">
@@ -3604,46 +3798,49 @@
       <c r="B65" t="n">
         <v>7625.64</v>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>4</v>
+      <c r="C65" t="n">
+        <v>7624.941821340752</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E65" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
-        <v>7125.64</v>
+        <v>2.56</v>
       </c>
       <c r="G65" t="n">
-        <v>62.87</v>
+        <v>7124.94</v>
       </c>
       <c r="H65" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I65" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K65" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L65" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M65" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N65" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O65" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P65" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="66">
@@ -3653,46 +3850,49 @@
       <c r="B66" t="n">
         <v>5668.84</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>4</v>
+      <c r="C66" t="n">
+        <v>5668.142450040729</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E66" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>5168.84</v>
+        <v>2.56</v>
       </c>
       <c r="G66" t="n">
-        <v>62.87</v>
+        <v>5168.14</v>
       </c>
       <c r="H66" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I66" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J66" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K66" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L66" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M66" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N66" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O66" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P66" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="67">
@@ -3702,46 +3902,49 @@
       <c r="B67" t="n">
         <v>7625.64</v>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>4</v>
+      <c r="C67" t="n">
+        <v>7624.941821340752</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E67" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>7125.64</v>
+        <v>2.56</v>
       </c>
       <c r="G67" t="n">
-        <v>62.87</v>
+        <v>7124.94</v>
       </c>
       <c r="H67" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I67" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J67" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K67" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L67" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M67" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N67" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O67" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P67" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="68">
@@ -3751,46 +3954,49 @@
       <c r="B68" t="n">
         <v>11506.95</v>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>4</v>
+      <c r="C68" t="n">
+        <v>11506.25120700002</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E68" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>11006.95</v>
+        <v>2.56</v>
       </c>
       <c r="G68" t="n">
-        <v>62.87</v>
+        <v>11006.25</v>
       </c>
       <c r="H68" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I68" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K68" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L68" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M68" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N68" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O68" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P68" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="69">
@@ -3800,17 +4006,17 @@
       <c r="B69" t="n">
         <v>0</v>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>hot standby</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>1</v>
       </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
@@ -3839,6 +4045,9 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3849,17 +4058,17 @@
       <c r="B70" t="n">
         <v>0</v>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>hot standby</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>1</v>
       </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
@@ -3888,6 +4097,9 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3898,17 +4110,17 @@
       <c r="B71" t="n">
         <v>0</v>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>hot standby</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>1</v>
       </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
@@ -3937,6 +4149,9 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3947,14 +4162,14 @@
       <c r="B72" t="n">
         <v>0</v>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>cold standby</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
@@ -3986,6 +4201,9 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,14 +4214,14 @@
       <c r="B73" t="n">
         <v>0</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>cold standby</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
@@ -4035,6 +4253,9 @@
         <v>0</v>
       </c>
       <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4045,14 +4266,14 @@
       <c r="B74" t="n">
         <v>0</v>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>cold standby</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
@@ -4084,6 +4305,9 @@
         <v>0</v>
       </c>
       <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4094,14 +4318,14 @@
       <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>cold standby</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
@@ -4133,6 +4357,9 @@
         <v>0</v>
       </c>
       <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4143,14 +4370,14 @@
       <c r="B76" t="n">
         <v>0</v>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>cold standby</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
@@ -4182,6 +4409,9 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4192,14 +4422,14 @@
       <c r="B77" t="n">
         <v>0</v>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>cold standby</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
@@ -4231,6 +4461,9 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4241,22 +4474,22 @@
       <c r="B78" t="n">
         <v>12499.26</v>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" t="n">
+        <v>12498.56111117689</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>booting</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>3</v>
       </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
       <c r="F78" t="n">
-        <v>12495.01</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>12494.31111117689</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -4280,6 +4513,9 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4290,22 +4526,22 @@
       <c r="B79" t="n">
         <v>5668.84</v>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" t="n">
+        <v>5668.142450040729</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>booting</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>3</v>
       </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
       <c r="F79" t="n">
-        <v>5664.59</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>5663.892450040729</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -4329,6 +4565,9 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4339,46 +4578,49 @@
       <c r="B80" t="n">
         <v>13065.35</v>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>4</v>
+      <c r="C80" t="n">
+        <v>13064.65106303229</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E80" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>12565.35</v>
+        <v>2.56</v>
       </c>
       <c r="G80" t="n">
-        <v>62.87</v>
+        <v>12564.65</v>
       </c>
       <c r="H80" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I80" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J80" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K80" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M80" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N80" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O80" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P80" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="81">
@@ -4388,46 +4630,49 @@
       <c r="B81" t="n">
         <v>11947.91</v>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>4</v>
+      <c r="C81" t="n">
+        <v>11947.21116245342</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E81" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>11447.91</v>
+        <v>2.56</v>
       </c>
       <c r="G81" t="n">
-        <v>62.87</v>
+        <v>11447.21</v>
       </c>
       <c r="H81" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I81" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J81" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K81" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M81" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N81" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O81" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P81" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="82">
@@ -4437,46 +4682,49 @@
       <c r="B82" t="n">
         <v>11066.59</v>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>4</v>
+      <c r="C82" t="n">
+        <v>11065.89125502878</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E82" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>10566.59</v>
+        <v>2.56</v>
       </c>
       <c r="G82" t="n">
-        <v>62.87</v>
+        <v>10565.89</v>
       </c>
       <c r="H82" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I82" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J82" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K82" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L82" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M82" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N82" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O82" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P82" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="83">
@@ -4486,46 +4734,49 @@
       <c r="B83" t="n">
         <v>3875.43</v>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>4</v>
+      <c r="C83" t="n">
+        <v>3874.733583831701</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E83" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>3375.43</v>
+        <v>2.56</v>
       </c>
       <c r="G83" t="n">
-        <v>62.87</v>
+        <v>3374.73</v>
       </c>
       <c r="H83" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I83" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J83" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K83" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M83" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N83" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O83" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P83" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="84">
@@ -4535,46 +4786,49 @@
       <c r="B84" t="n">
         <v>11947.91</v>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>4</v>
+      <c r="C84" t="n">
+        <v>11947.21116245342</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E84" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>11447.91</v>
+        <v>2.56</v>
       </c>
       <c r="G84" t="n">
-        <v>62.87</v>
+        <v>11447.21</v>
       </c>
       <c r="H84" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I84" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J84" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K84" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M84" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N84" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O84" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P84" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="85">
@@ -4584,46 +4838,49 @@
       <c r="B85" t="n">
         <v>20149.83</v>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>4</v>
+      <c r="C85" t="n">
+        <v>20149.1306892807</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E85" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>19649.83</v>
+        <v>2.56</v>
       </c>
       <c r="G85" t="n">
-        <v>62.87</v>
+        <v>19649.13</v>
       </c>
       <c r="H85" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I85" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J85" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K85" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M85" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N85" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O85" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P85" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="86">
@@ -4633,46 +4890,49 @@
       <c r="B86" t="n">
         <v>18867.67</v>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>4</v>
+      <c r="C86" t="n">
+        <v>18866.97073612104</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E86" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>18367.67</v>
+        <v>2.56</v>
       </c>
       <c r="G86" t="n">
-        <v>62.87</v>
+        <v>18366.97</v>
       </c>
       <c r="H86" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I86" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J86" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K86" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M86" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N86" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O86" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P86" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="87">
@@ -4682,46 +4942,49 @@
       <c r="B87" t="n">
         <v>17608.59</v>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>4</v>
+      <c r="C87" t="n">
+        <v>17607.89078875645</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E87" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
-        <v>17108.59</v>
+        <v>2.56</v>
       </c>
       <c r="G87" t="n">
-        <v>62.87</v>
+        <v>17107.89</v>
       </c>
       <c r="H87" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I87" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J87" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K87" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M87" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N87" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O87" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P87" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="88">
@@ -4731,46 +4994,49 @@
       <c r="B88" t="n">
         <v>15881.65</v>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>4</v>
+      <c r="C88" t="n">
+        <v>15880.9508745243</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E88" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
-        <v>15381.65</v>
+        <v>2.56</v>
       </c>
       <c r="G88" t="n">
-        <v>62.87</v>
+        <v>15380.95</v>
       </c>
       <c r="H88" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I88" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J88" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K88" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M88" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N88" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O88" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P88" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="89">
@@ -4780,46 +5046,49 @@
       <c r="B89" t="n">
         <v>17608.59</v>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>4</v>
+      <c r="C89" t="n">
+        <v>17607.89078875645</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E89" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>17108.59</v>
+        <v>2.56</v>
       </c>
       <c r="G89" t="n">
-        <v>62.87</v>
+        <v>17107.89</v>
       </c>
       <c r="H89" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I89" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J89" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K89" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M89" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N89" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O89" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P89" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="90">
@@ -4829,46 +5098,49 @@
       <c r="B90" t="n">
         <v>15315.1</v>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>4</v>
+      <c r="C90" t="n">
+        <v>15314.40090687549</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E90" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
-        <v>14815.1</v>
+        <v>2.56</v>
       </c>
       <c r="G90" t="n">
-        <v>62.87</v>
+        <v>14814.4</v>
       </c>
       <c r="H90" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I90" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J90" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K90" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M90" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N90" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O90" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P90" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="91">
@@ -4878,46 +5150,49 @@
       <c r="B91" t="n">
         <v>17608.59</v>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>4</v>
+      <c r="C91" t="n">
+        <v>17607.89078875645</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E91" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
-        <v>17108.59</v>
+        <v>2.56</v>
       </c>
       <c r="G91" t="n">
-        <v>62.87</v>
+        <v>17107.89</v>
       </c>
       <c r="H91" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I91" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J91" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K91" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M91" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N91" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O91" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P91" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="92">
@@ -4927,46 +5202,49 @@
       <c r="B92" t="n">
         <v>18227.92</v>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>4</v>
+      <c r="C92" t="n">
+        <v>18227.22076195687</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E92" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>17727.92</v>
+        <v>2.56</v>
       </c>
       <c r="G92" t="n">
-        <v>62.87</v>
+        <v>17727.22</v>
       </c>
       <c r="H92" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I92" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J92" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K92" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M92" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N92" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O92" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P92" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="93">
@@ -4976,46 +5254,49 @@
       <c r="B93" t="n">
         <v>31786.66</v>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>4</v>
+      <c r="C93" t="n">
+        <v>31785.96043694081</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E93" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
-        <v>31286.66</v>
+        <v>2.56</v>
       </c>
       <c r="G93" t="n">
-        <v>62.87</v>
+        <v>31285.96</v>
       </c>
       <c r="H93" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I93" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J93" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K93" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M93" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N93" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O93" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P93" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="94">
@@ -5025,46 +5306,49 @@
       <c r="B94" t="n">
         <v>25315.81</v>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>4</v>
+      <c r="C94" t="n">
+        <v>25315.1105486251</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E94" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>24815.81</v>
+        <v>2.56</v>
       </c>
       <c r="G94" t="n">
-        <v>62.87</v>
+        <v>24815.11</v>
       </c>
       <c r="H94" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I94" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J94" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K94" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M94" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N94" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O94" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P94" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="95">
@@ -5074,46 +5358,49 @@
       <c r="B95" t="n">
         <v>20149.83</v>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>4</v>
+      <c r="C95" t="n">
+        <v>20149.1306892807</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E95" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>19649.83</v>
+        <v>2.56</v>
       </c>
       <c r="G95" t="n">
-        <v>62.87</v>
+        <v>19649.13</v>
       </c>
       <c r="H95" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I95" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J95" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K95" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M95" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N95" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O95" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P95" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="96">
@@ -5123,46 +5410,49 @@
       <c r="B96" t="n">
         <v>15315.1</v>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>4</v>
+      <c r="C96" t="n">
+        <v>15314.40090687549</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E96" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
-        <v>14815.1</v>
+        <v>2.56</v>
       </c>
       <c r="G96" t="n">
-        <v>62.87</v>
+        <v>14814.4</v>
       </c>
       <c r="H96" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I96" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J96" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K96" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M96" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N96" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O96" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P96" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="97">
@@ -5172,46 +5462,49 @@
       <c r="B97" t="n">
         <v>14187.12</v>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>4</v>
+      <c r="C97" t="n">
+        <v>14186.42097897874</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E97" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>13687.12</v>
+        <v>2.56</v>
       </c>
       <c r="G97" t="n">
-        <v>62.87</v>
+        <v>13686.42</v>
       </c>
       <c r="H97" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I97" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J97" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K97" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M97" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N97" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O97" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P97" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="98">
@@ -5221,46 +5514,49 @@
       <c r="B98" t="n">
         <v>11066.59</v>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>4</v>
+      <c r="C98" t="n">
+        <v>11065.89125502878</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E98" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
-        <v>10566.59</v>
+        <v>2.56</v>
       </c>
       <c r="G98" t="n">
-        <v>62.87</v>
+        <v>10565.89</v>
       </c>
       <c r="H98" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I98" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J98" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K98" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M98" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N98" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O98" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P98" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="99">
@@ -5270,46 +5566,49 @@
       <c r="B99" t="n">
         <v>16454.26</v>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>4</v>
+      <c r="C99" t="n">
+        <v>16453.56084409076</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E99" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
-        <v>15954.26</v>
+        <v>2.56</v>
       </c>
       <c r="G99" t="n">
-        <v>62.87</v>
+        <v>15953.56</v>
       </c>
       <c r="H99" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I99" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J99" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K99" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M99" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N99" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O99" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P99" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="100">
@@ -5319,46 +5618,49 @@
       <c r="B100" t="n">
         <v>20149.83</v>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>4</v>
+      <c r="C100" t="n">
+        <v>20149.1306892807</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E100" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F100" t="n">
-        <v>19649.83</v>
+        <v>2.56</v>
       </c>
       <c r="G100" t="n">
-        <v>62.87</v>
+        <v>19649.13</v>
       </c>
       <c r="H100" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I100" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J100" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K100" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M100" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N100" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O100" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P100" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="101">
@@ -5368,46 +5670,49 @@
       <c r="B101" t="n">
         <v>32845.48</v>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>4</v>
+      <c r="C101" t="n">
+        <v>32844.78042285542</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="E101" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>32345.48</v>
+        <v>2.56</v>
       </c>
       <c r="G101" t="n">
-        <v>62.87</v>
+        <v>32344.78</v>
       </c>
       <c r="H101" t="n">
-        <v>82.26000000000001</v>
+        <v>62.87</v>
       </c>
       <c r="I101" t="n">
-        <v>20.35</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J101" t="n">
-        <v>307.91</v>
+        <v>20.35</v>
       </c>
       <c r="K101" t="n">
-        <v>25.27</v>
+        <v>307.91</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06</v>
+        <v>25.27</v>
       </c>
       <c r="M101" t="n">
-        <v>-11.51</v>
+        <v>0.06</v>
       </c>
       <c r="N101" t="n">
-        <v>78.54000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="O101" t="n">
-        <v>49.11</v>
+        <v>75.17</v>
+      </c>
+      <c r="P101" t="n">
+        <v>47.77</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -534,37 +534,37 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>2.56</v>
+        <v>2.05</v>
       </c>
       <c r="G2" t="n">
-        <v>284.99</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>62.87</v>
+        <v>58.31</v>
       </c>
       <c r="I2" t="n">
-        <v>82.26000000000001</v>
+        <v>55.08</v>
       </c>
       <c r="J2" t="n">
-        <v>20.35</v>
+        <v>16.3</v>
       </c>
       <c r="K2" t="n">
-        <v>307.91</v>
+        <v>246.57</v>
       </c>
       <c r="L2" t="n">
-        <v>25.27</v>
+        <v>16.21</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="N2" t="n">
-        <v>11.51</v>
+        <v>7.71</v>
       </c>
       <c r="O2" t="n">
-        <v>75.17</v>
+        <v>39.95</v>
       </c>
       <c r="P2" t="n">
-        <v>47.77</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="3">
@@ -589,7 +589,7 @@
         <v>2.56</v>
       </c>
       <c r="G3" t="n">
-        <v>998.39</v>
+        <v>498.39</v>
       </c>
       <c r="H3" t="n">
         <v>62.87</v>
@@ -613,10 +613,10 @@
         <v>11.51</v>
       </c>
       <c r="O3" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P3" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="4">
@@ -641,7 +641,7 @@
         <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>1196.82</v>
+        <v>696.8200000000001</v>
       </c>
       <c r="H4" t="n">
         <v>62.87</v>
@@ -665,10 +665,10 @@
         <v>11.51</v>
       </c>
       <c r="O4" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P4" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="5">
@@ -690,37 +690,37 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>2.13</v>
+        <v>1.09</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>59.03</v>
+        <v>49.74</v>
       </c>
       <c r="I5" t="n">
-        <v>59.1</v>
+        <v>17.93</v>
       </c>
       <c r="J5" t="n">
-        <v>16.93</v>
+        <v>8.66</v>
       </c>
       <c r="K5" t="n">
-        <v>256.19</v>
+        <v>131.1</v>
       </c>
       <c r="L5" t="n">
-        <v>17.49</v>
+        <v>4.58</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="N5" t="n">
-        <v>8.27</v>
+        <v>2.51</v>
       </c>
       <c r="O5" t="n">
-        <v>77.15000000000001</v>
+        <v>41.25</v>
       </c>
       <c r="P5" t="n">
-        <v>48.56</v>
+        <v>31.38</v>
       </c>
     </row>
     <row r="6">
@@ -742,37 +742,37 @@
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.99</v>
+        <v>0.47</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>48.84</v>
+        <v>44.2</v>
       </c>
       <c r="I6" t="n">
-        <v>14.99</v>
+        <v>3.96</v>
       </c>
       <c r="J6" t="n">
-        <v>7.87</v>
+        <v>3.74</v>
       </c>
       <c r="K6" t="n">
-        <v>119.08</v>
+        <v>56.53</v>
       </c>
       <c r="L6" t="n">
-        <v>3.78</v>
+        <v>0.85</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="N6" t="n">
-        <v>2.1</v>
+        <v>0.55</v>
       </c>
       <c r="O6" t="n">
-        <v>81.66</v>
+        <v>39.7</v>
       </c>
       <c r="P6" t="n">
-        <v>50.31</v>
+        <v>30.47</v>
       </c>
     </row>
     <row r="7">
@@ -787,44 +787,44 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>73.17847725456491</v>
       </c>
       <c r="H7" t="n">
-        <v>43.22</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>43.3</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>76.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>48.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -839,44 +839,44 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>232.7374205758595</v>
       </c>
       <c r="H8" t="n">
-        <v>51.52</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>23.97</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>155.16</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>6.42</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>50.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>2.56</v>
+        <v>2.31</v>
       </c>
       <c r="G9" t="n">
-        <v>393.94</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>62.87</v>
+        <v>60.64</v>
       </c>
       <c r="I9" t="n">
-        <v>82.26000000000001</v>
+        <v>68.38</v>
       </c>
       <c r="J9" t="n">
-        <v>20.35</v>
+        <v>18.36</v>
       </c>
       <c r="K9" t="n">
-        <v>307.91</v>
+        <v>277.84</v>
       </c>
       <c r="L9" t="n">
-        <v>25.27</v>
+        <v>20.58</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="N9" t="n">
-        <v>11.51</v>
+        <v>9.57</v>
       </c>
       <c r="O9" t="n">
-        <v>75.17</v>
+        <v>39.4</v>
       </c>
       <c r="P9" t="n">
-        <v>47.77</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="10">
@@ -950,37 +950,37 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>2.13</v>
+        <v>1.09</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>59.03</v>
+        <v>49.74</v>
       </c>
       <c r="I10" t="n">
-        <v>59.1</v>
+        <v>17.93</v>
       </c>
       <c r="J10" t="n">
-        <v>16.93</v>
+        <v>8.66</v>
       </c>
       <c r="K10" t="n">
-        <v>256.19</v>
+        <v>131.1</v>
       </c>
       <c r="L10" t="n">
-        <v>17.49</v>
+        <v>4.58</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="N10" t="n">
-        <v>8.27</v>
+        <v>2.51</v>
       </c>
       <c r="O10" t="n">
-        <v>77.15000000000001</v>
+        <v>41.25</v>
       </c>
       <c r="P10" t="n">
-        <v>48.56</v>
+        <v>31.38</v>
       </c>
     </row>
     <row r="11">
@@ -1005,7 +1005,7 @@
         <v>2.56</v>
       </c>
       <c r="G11" t="n">
-        <v>998.39</v>
+        <v>498.39</v>
       </c>
       <c r="H11" t="n">
         <v>62.87</v>
@@ -1029,10 +1029,10 @@
         <v>11.51</v>
       </c>
       <c r="O11" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P11" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="12">
@@ -1057,7 +1057,7 @@
         <v>2.56</v>
       </c>
       <c r="G12" t="n">
-        <v>1088.06</v>
+        <v>588.0599999999999</v>
       </c>
       <c r="H12" t="n">
         <v>62.87</v>
@@ -1081,10 +1081,10 @@
         <v>11.51</v>
       </c>
       <c r="O12" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P12" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2.56</v>
       </c>
       <c r="G13" t="n">
-        <v>597.28</v>
+        <v>97.28</v>
       </c>
       <c r="H13" t="n">
         <v>62.87</v>
@@ -1133,10 +1133,10 @@
         <v>11.51</v>
       </c>
       <c r="O13" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P13" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="14">
@@ -1158,37 +1158,37 @@
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>1.29</v>
+        <v>0.63</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>51.52</v>
+        <v>45.63</v>
       </c>
       <c r="I14" t="n">
-        <v>23.97</v>
+        <v>6.73</v>
       </c>
       <c r="J14" t="n">
-        <v>10.25</v>
+        <v>5.01</v>
       </c>
       <c r="K14" t="n">
-        <v>155.16</v>
+        <v>75.78</v>
       </c>
       <c r="L14" t="n">
-        <v>6.42</v>
+        <v>1.53</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="N14" t="n">
-        <v>3.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>81</v>
+        <v>40.75</v>
       </c>
       <c r="P14" t="n">
-        <v>50.06</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="15">
@@ -1213,7 +1213,7 @@
         <v>2.56</v>
       </c>
       <c r="G15" t="n">
-        <v>998.39</v>
+        <v>498.39</v>
       </c>
       <c r="H15" t="n">
         <v>62.87</v>
@@ -1237,10 +1237,10 @@
         <v>11.51</v>
       </c>
       <c r="O15" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P15" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="16">
@@ -1265,7 +1265,7 @@
         <v>2.56</v>
       </c>
       <c r="G16" t="n">
-        <v>597.28</v>
+        <v>97.28</v>
       </c>
       <c r="H16" t="n">
         <v>62.87</v>
@@ -1289,10 +1289,10 @@
         <v>11.51</v>
       </c>
       <c r="O16" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P16" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="17">
@@ -1314,37 +1314,37 @@
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>2.56</v>
+        <v>1.79</v>
       </c>
       <c r="G17" t="n">
-        <v>177.59</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>62.87</v>
+        <v>55.99</v>
       </c>
       <c r="I17" t="n">
-        <v>82.26000000000001</v>
+        <v>42.99</v>
       </c>
       <c r="J17" t="n">
-        <v>20.35</v>
+        <v>14.23</v>
       </c>
       <c r="K17" t="n">
-        <v>307.91</v>
+        <v>215.3</v>
       </c>
       <c r="L17" t="n">
-        <v>25.27</v>
+        <v>12.36</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="N17" t="n">
-        <v>11.51</v>
+        <v>6.02</v>
       </c>
       <c r="O17" t="n">
-        <v>75.17</v>
+        <v>40.54</v>
       </c>
       <c r="P17" t="n">
-        <v>47.77</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="18">
@@ -1366,37 +1366,37 @@
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.99</v>
+        <v>0.47</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>48.84</v>
+        <v>44.2</v>
       </c>
       <c r="I18" t="n">
-        <v>14.99</v>
+        <v>3.96</v>
       </c>
       <c r="J18" t="n">
-        <v>7.87</v>
+        <v>3.74</v>
       </c>
       <c r="K18" t="n">
-        <v>119.08</v>
+        <v>56.53</v>
       </c>
       <c r="L18" t="n">
-        <v>3.78</v>
+        <v>0.85</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="N18" t="n">
-        <v>2.1</v>
+        <v>0.55</v>
       </c>
       <c r="O18" t="n">
-        <v>81.66</v>
+        <v>39.7</v>
       </c>
       <c r="P18" t="n">
-        <v>50.31</v>
+        <v>30.47</v>
       </c>
     </row>
     <row r="19">
@@ -1421,7 +1421,7 @@
         <v>2.56</v>
       </c>
       <c r="G19" t="n">
-        <v>798.9400000000001</v>
+        <v>298.94</v>
       </c>
       <c r="H19" t="n">
         <v>62.87</v>
@@ -1445,10 +1445,10 @@
         <v>11.51</v>
       </c>
       <c r="O19" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P19" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="20">
@@ -1473,7 +1473,7 @@
         <v>2.56</v>
       </c>
       <c r="G20" t="n">
-        <v>1088.06</v>
+        <v>588.0599999999999</v>
       </c>
       <c r="H20" t="n">
         <v>62.87</v>
@@ -1497,10 +1497,10 @@
         <v>11.51</v>
       </c>
       <c r="O20" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P20" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="21">
@@ -1515,44 +1515,44 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>73.17847725456491</v>
       </c>
       <c r="H21" t="n">
-        <v>43.22</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>43.3</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>76.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>48.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1567,44 +1567,44 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>232.7374205758595</v>
       </c>
       <c r="H22" t="n">
-        <v>51.52</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>23.97</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>155.16</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>6.42</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>50.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1626,37 +1626,37 @@
         <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>2.13</v>
+        <v>1.09</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>59.03</v>
+        <v>49.74</v>
       </c>
       <c r="I23" t="n">
-        <v>59.1</v>
+        <v>17.93</v>
       </c>
       <c r="J23" t="n">
-        <v>16.93</v>
+        <v>8.66</v>
       </c>
       <c r="K23" t="n">
-        <v>256.19</v>
+        <v>131.1</v>
       </c>
       <c r="L23" t="n">
-        <v>17.49</v>
+        <v>4.58</v>
       </c>
       <c r="M23" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="N23" t="n">
-        <v>8.27</v>
+        <v>2.51</v>
       </c>
       <c r="O23" t="n">
-        <v>77.15000000000001</v>
+        <v>41.25</v>
       </c>
       <c r="P23" t="n">
-        <v>48.56</v>
+        <v>31.38</v>
       </c>
     </row>
     <row r="24">
@@ -1681,7 +1681,7 @@
         <v>2.56</v>
       </c>
       <c r="G24" t="n">
-        <v>895.95</v>
+        <v>395.95</v>
       </c>
       <c r="H24" t="n">
         <v>62.87</v>
@@ -1705,10 +1705,10 @@
         <v>11.51</v>
       </c>
       <c r="O24" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P24" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="25">
@@ -1730,37 +1730,37 @@
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>2.56</v>
+        <v>2.31</v>
       </c>
       <c r="G25" t="n">
-        <v>393.94</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>62.87</v>
+        <v>60.64</v>
       </c>
       <c r="I25" t="n">
-        <v>82.26000000000001</v>
+        <v>68.38</v>
       </c>
       <c r="J25" t="n">
-        <v>20.35</v>
+        <v>18.36</v>
       </c>
       <c r="K25" t="n">
-        <v>307.91</v>
+        <v>277.84</v>
       </c>
       <c r="L25" t="n">
-        <v>25.27</v>
+        <v>20.58</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="N25" t="n">
-        <v>11.51</v>
+        <v>9.57</v>
       </c>
       <c r="O25" t="n">
-        <v>75.17</v>
+        <v>39.4</v>
       </c>
       <c r="P25" t="n">
-        <v>47.77</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="26">
@@ -1782,37 +1782,37 @@
         <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G26" t="n">
-        <v>493.16</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>62.87</v>
+        <v>62.69</v>
       </c>
       <c r="I26" t="n">
-        <v>82.26000000000001</v>
+        <v>81.34</v>
       </c>
       <c r="J26" t="n">
-        <v>20.35</v>
+        <v>20.19</v>
       </c>
       <c r="K26" t="n">
-        <v>307.91</v>
+        <v>305.51</v>
       </c>
       <c r="L26" t="n">
-        <v>25.27</v>
+        <v>24.88</v>
       </c>
       <c r="M26" t="n">
         <v>0.06</v>
       </c>
       <c r="N26" t="n">
-        <v>11.51</v>
+        <v>11.38</v>
       </c>
       <c r="O26" t="n">
-        <v>75.17</v>
+        <v>38.89</v>
       </c>
       <c r="P26" t="n">
-        <v>47.77</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="27">
@@ -1837,7 +1837,7 @@
         <v>2.56</v>
       </c>
       <c r="G27" t="n">
-        <v>798.9400000000001</v>
+        <v>298.94</v>
       </c>
       <c r="H27" t="n">
         <v>62.87</v>
@@ -1861,10 +1861,10 @@
         <v>11.51</v>
       </c>
       <c r="O27" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P27" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="28">
@@ -1886,37 +1886,37 @@
         <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>1.58</v>
+        <v>0.79</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>54.11</v>
+        <v>47.06</v>
       </c>
       <c r="I28" t="n">
-        <v>34.41</v>
+        <v>10.01</v>
       </c>
       <c r="J28" t="n">
-        <v>12.56</v>
+        <v>6.28</v>
       </c>
       <c r="K28" t="n">
-        <v>190.04</v>
+        <v>95.02</v>
       </c>
       <c r="L28" t="n">
-        <v>9.630000000000001</v>
+        <v>2.41</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="N28" t="n">
-        <v>4.81</v>
+        <v>1.4</v>
       </c>
       <c r="O28" t="n">
-        <v>79.89</v>
+        <v>41.36</v>
       </c>
       <c r="P28" t="n">
-        <v>49.63</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="29">
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1391.699944501725</v>
+        <v>1387.449944501725</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>2.56</v>
       </c>
       <c r="G31" t="n">
-        <v>998.39</v>
+        <v>498.39</v>
       </c>
       <c r="H31" t="n">
         <v>62.87</v>
@@ -2069,10 +2069,10 @@
         <v>11.51</v>
       </c>
       <c r="O31" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P31" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="32">
@@ -2097,7 +2097,7 @@
         <v>2.56</v>
       </c>
       <c r="G32" t="n">
-        <v>1088.06</v>
+        <v>588.0599999999999</v>
       </c>
       <c r="H32" t="n">
         <v>62.87</v>
@@ -2121,10 +2121,10 @@
         <v>11.51</v>
       </c>
       <c r="O32" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P32" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="33">
@@ -2149,7 +2149,7 @@
         <v>2.56</v>
       </c>
       <c r="G33" t="n">
-        <v>1849.27</v>
+        <v>1349.27</v>
       </c>
       <c r="H33" t="n">
         <v>62.87</v>
@@ -2173,10 +2173,10 @@
         <v>11.51</v>
       </c>
       <c r="O33" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P33" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="34">
@@ -2201,7 +2201,7 @@
         <v>2.56</v>
       </c>
       <c r="G34" t="n">
-        <v>4538.32</v>
+        <v>4038.32</v>
       </c>
       <c r="H34" t="n">
         <v>62.87</v>
@@ -2225,10 +2225,10 @@
         <v>11.51</v>
       </c>
       <c r="O34" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P34" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="35">
@@ -2253,7 +2253,7 @@
         <v>2.56</v>
       </c>
       <c r="G35" t="n">
-        <v>5798.5</v>
+        <v>5298.5</v>
       </c>
       <c r="H35" t="n">
         <v>62.87</v>
@@ -2277,10 +2277,10 @@
         <v>11.51</v>
       </c>
       <c r="O35" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P35" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="36">
@@ -2305,7 +2305,7 @@
         <v>2.56</v>
       </c>
       <c r="G36" t="n">
-        <v>3183.73</v>
+        <v>2683.73</v>
       </c>
       <c r="H36" t="n">
         <v>62.87</v>
@@ -2329,10 +2329,10 @@
         <v>11.51</v>
       </c>
       <c r="O36" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P36" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="37">
@@ -2357,7 +2357,7 @@
         <v>2.56</v>
       </c>
       <c r="G37" t="n">
-        <v>3374.73</v>
+        <v>2874.73</v>
       </c>
       <c r="H37" t="n">
         <v>62.87</v>
@@ -2381,10 +2381,10 @@
         <v>11.51</v>
       </c>
       <c r="O37" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P37" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="38">
@@ -2409,7 +2409,7 @@
         <v>2.56</v>
       </c>
       <c r="G38" t="n">
-        <v>6759.64</v>
+        <v>6259.64</v>
       </c>
       <c r="H38" t="n">
         <v>62.87</v>
@@ -2433,10 +2433,10 @@
         <v>11.51</v>
       </c>
       <c r="O38" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P38" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="39">
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>405.1538695561462</v>
+        <v>400.9038695561462</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1391.699944501725</v>
+        <v>1387.449944501725</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>2.56</v>
       </c>
       <c r="G45" t="n">
-        <v>2607.67</v>
+        <v>2107.67</v>
       </c>
       <c r="H45" t="n">
         <v>62.87</v>
@@ -2797,10 +2797,10 @@
         <v>11.51</v>
       </c>
       <c r="O45" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P45" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="46">
@@ -2825,7 +2825,7 @@
         <v>2.56</v>
       </c>
       <c r="G46" t="n">
-        <v>3914.84</v>
+        <v>3414.84</v>
       </c>
       <c r="H46" t="n">
         <v>62.87</v>
@@ -2849,10 +2849,10 @@
         <v>11.51</v>
       </c>
       <c r="O46" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P46" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="47">
@@ -2877,7 +2877,7 @@
         <v>2.56</v>
       </c>
       <c r="G47" t="n">
-        <v>2992.33</v>
+        <v>2492.33</v>
       </c>
       <c r="H47" t="n">
         <v>62.87</v>
@@ -2901,10 +2901,10 @@
         <v>11.51</v>
       </c>
       <c r="O47" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P47" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="48">
@@ -2929,7 +2929,7 @@
         <v>2.56</v>
       </c>
       <c r="G48" t="n">
-        <v>5168.14</v>
+        <v>4668.14</v>
       </c>
       <c r="H48" t="n">
         <v>62.87</v>
@@ -2953,10 +2953,10 @@
         <v>11.51</v>
       </c>
       <c r="O48" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P48" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="49">
@@ -2981,7 +2981,7 @@
         <v>2.56</v>
       </c>
       <c r="G49" t="n">
-        <v>3914.84</v>
+        <v>3414.84</v>
       </c>
       <c r="H49" t="n">
         <v>62.87</v>
@@ -3005,10 +3005,10 @@
         <v>11.51</v>
       </c>
       <c r="O49" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P49" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="50">
@@ -3033,7 +3033,7 @@
         <v>2.56</v>
       </c>
       <c r="G50" t="n">
-        <v>10565.89</v>
+        <v>10065.89</v>
       </c>
       <c r="H50" t="n">
         <v>62.87</v>
@@ -3057,10 +3057,10 @@
         <v>11.51</v>
       </c>
       <c r="O50" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P50" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="51">
@@ -3085,7 +3085,7 @@
         <v>2.56</v>
       </c>
       <c r="G51" t="n">
-        <v>8834.6</v>
+        <v>8334.6</v>
       </c>
       <c r="H51" t="n">
         <v>62.87</v>
@@ -3109,10 +3109,10 @@
         <v>11.51</v>
       </c>
       <c r="O51" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P51" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="52">
@@ -3137,7 +3137,7 @@
         <v>2.56</v>
       </c>
       <c r="G52" t="n">
-        <v>2992.33</v>
+        <v>2492.33</v>
       </c>
       <c r="H52" t="n">
         <v>62.87</v>
@@ -3161,10 +3161,10 @@
         <v>11.51</v>
       </c>
       <c r="O52" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P52" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="53">
@@ -3189,7 +3189,7 @@
         <v>2.56</v>
       </c>
       <c r="G53" t="n">
-        <v>2607.67</v>
+        <v>2107.67</v>
       </c>
       <c r="H53" t="n">
         <v>62.87</v>
@@ -3213,10 +3213,10 @@
         <v>11.51</v>
       </c>
       <c r="O53" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P53" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="54">
@@ -3241,7 +3241,7 @@
         <v>2.56</v>
       </c>
       <c r="G54" t="n">
-        <v>2417.48</v>
+        <v>1917.48</v>
       </c>
       <c r="H54" t="n">
         <v>62.87</v>
@@ -3265,10 +3265,10 @@
         <v>11.51</v>
       </c>
       <c r="O54" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P54" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="55">
@@ -3293,7 +3293,7 @@
         <v>2.56</v>
       </c>
       <c r="G55" t="n">
-        <v>1468.74</v>
+        <v>968.74</v>
       </c>
       <c r="H55" t="n">
         <v>62.87</v>
@@ -3317,10 +3317,10 @@
         <v>11.51</v>
       </c>
       <c r="O55" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P55" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="56">
@@ -3345,7 +3345,7 @@
         <v>2.56</v>
       </c>
       <c r="G56" t="n">
-        <v>2039.07</v>
+        <v>1539.07</v>
       </c>
       <c r="H56" t="n">
         <v>62.87</v>
@@ -3369,10 +3369,10 @@
         <v>11.51</v>
       </c>
       <c r="O56" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P56" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="57">
@@ -3397,7 +3397,7 @@
         <v>2.56</v>
       </c>
       <c r="G57" t="n">
-        <v>7124.94</v>
+        <v>6624.94</v>
       </c>
       <c r="H57" t="n">
         <v>62.87</v>
@@ -3421,10 +3421,10 @@
         <v>11.51</v>
       </c>
       <c r="O57" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P57" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="58">
@@ -3449,7 +3449,7 @@
         <v>2.56</v>
       </c>
       <c r="G58" t="n">
-        <v>11998.56</v>
+        <v>11498.56</v>
       </c>
       <c r="H58" t="n">
         <v>62.87</v>
@@ -3473,10 +3473,10 @@
         <v>11.51</v>
       </c>
       <c r="O58" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P58" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="59">
@@ -3501,7 +3501,7 @@
         <v>2.56</v>
       </c>
       <c r="G59" t="n">
-        <v>10565.89</v>
+        <v>10065.89</v>
       </c>
       <c r="H59" t="n">
         <v>62.87</v>
@@ -3525,10 +3525,10 @@
         <v>11.51</v>
       </c>
       <c r="O59" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P59" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="60">
@@ -3553,7 +3553,7 @@
         <v>2.56</v>
       </c>
       <c r="G60" t="n">
-        <v>9698.959999999999</v>
+        <v>9198.959999999999</v>
       </c>
       <c r="H60" t="n">
         <v>62.87</v>
@@ -3577,10 +3577,10 @@
         <v>11.51</v>
       </c>
       <c r="O60" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P60" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="61">
@@ -3605,7 +3605,7 @@
         <v>2.56</v>
       </c>
       <c r="G61" t="n">
-        <v>13686.42</v>
+        <v>13186.42</v>
       </c>
       <c r="H61" t="n">
         <v>62.87</v>
@@ -3629,10 +3629,10 @@
         <v>11.51</v>
       </c>
       <c r="O61" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P61" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="62">
@@ -3657,7 +3657,7 @@
         <v>2.56</v>
       </c>
       <c r="G62" t="n">
-        <v>12564.65</v>
+        <v>12064.65</v>
       </c>
       <c r="H62" t="n">
         <v>62.87</v>
@@ -3681,10 +3681,10 @@
         <v>11.51</v>
       </c>
       <c r="O62" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P62" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="63">
@@ -3709,7 +3709,7 @@
         <v>2.56</v>
       </c>
       <c r="G63" t="n">
-        <v>9698.959999999999</v>
+        <v>9198.959999999999</v>
       </c>
       <c r="H63" t="n">
         <v>62.87</v>
@@ -3733,10 +3733,10 @@
         <v>11.51</v>
       </c>
       <c r="O63" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P63" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="64">
@@ -3761,7 +3761,7 @@
         <v>2.56</v>
       </c>
       <c r="G64" t="n">
-        <v>10565.89</v>
+        <v>10065.89</v>
       </c>
       <c r="H64" t="n">
         <v>62.87</v>
@@ -3785,10 +3785,10 @@
         <v>11.51</v>
       </c>
       <c r="O64" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P64" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="65">
@@ -3813,7 +3813,7 @@
         <v>2.56</v>
       </c>
       <c r="G65" t="n">
-        <v>7124.94</v>
+        <v>6624.94</v>
       </c>
       <c r="H65" t="n">
         <v>62.87</v>
@@ -3837,10 +3837,10 @@
         <v>11.51</v>
       </c>
       <c r="O65" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P65" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="66">
@@ -3865,7 +3865,7 @@
         <v>2.56</v>
       </c>
       <c r="G66" t="n">
-        <v>5168.14</v>
+        <v>4668.14</v>
       </c>
       <c r="H66" t="n">
         <v>62.87</v>
@@ -3889,10 +3889,10 @@
         <v>11.51</v>
       </c>
       <c r="O66" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P66" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="67">
@@ -3917,7 +3917,7 @@
         <v>2.56</v>
       </c>
       <c r="G67" t="n">
-        <v>7124.94</v>
+        <v>6624.94</v>
       </c>
       <c r="H67" t="n">
         <v>62.87</v>
@@ -3941,10 +3941,10 @@
         <v>11.51</v>
       </c>
       <c r="O67" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P67" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="68">
@@ -3969,7 +3969,7 @@
         <v>2.56</v>
       </c>
       <c r="G68" t="n">
-        <v>11006.25</v>
+        <v>10506.25</v>
       </c>
       <c r="H68" t="n">
         <v>62.87</v>
@@ -3993,10 +3993,10 @@
         <v>11.51</v>
       </c>
       <c r="O68" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P68" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="69">
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>12494.31111117689</v>
+        <v>12490.06111117689</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>5663.892450040729</v>
+        <v>5659.642450040729</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>2.56</v>
       </c>
       <c r="G80" t="n">
-        <v>12564.65</v>
+        <v>12064.65</v>
       </c>
       <c r="H80" t="n">
         <v>62.87</v>
@@ -4617,10 +4617,10 @@
         <v>11.51</v>
       </c>
       <c r="O80" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P80" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="81">
@@ -4645,7 +4645,7 @@
         <v>2.56</v>
       </c>
       <c r="G81" t="n">
-        <v>11447.21</v>
+        <v>10947.21</v>
       </c>
       <c r="H81" t="n">
         <v>62.87</v>
@@ -4669,10 +4669,10 @@
         <v>11.51</v>
       </c>
       <c r="O81" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P81" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="82">
@@ -4697,7 +4697,7 @@
         <v>2.56</v>
       </c>
       <c r="G82" t="n">
-        <v>10565.89</v>
+        <v>10065.89</v>
       </c>
       <c r="H82" t="n">
         <v>62.87</v>
@@ -4721,10 +4721,10 @@
         <v>11.51</v>
       </c>
       <c r="O82" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P82" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="83">
@@ -4749,7 +4749,7 @@
         <v>2.56</v>
       </c>
       <c r="G83" t="n">
-        <v>3374.73</v>
+        <v>2874.73</v>
       </c>
       <c r="H83" t="n">
         <v>62.87</v>
@@ -4773,10 +4773,10 @@
         <v>11.51</v>
       </c>
       <c r="O83" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P83" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="84">
@@ -4801,7 +4801,7 @@
         <v>2.56</v>
       </c>
       <c r="G84" t="n">
-        <v>11447.21</v>
+        <v>10947.21</v>
       </c>
       <c r="H84" t="n">
         <v>62.87</v>
@@ -4825,10 +4825,10 @@
         <v>11.51</v>
       </c>
       <c r="O84" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P84" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="85">
@@ -4853,7 +4853,7 @@
         <v>2.56</v>
       </c>
       <c r="G85" t="n">
-        <v>19649.13</v>
+        <v>19149.13</v>
       </c>
       <c r="H85" t="n">
         <v>62.87</v>
@@ -4877,10 +4877,10 @@
         <v>11.51</v>
       </c>
       <c r="O85" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P85" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="86">
@@ -4905,7 +4905,7 @@
         <v>2.56</v>
       </c>
       <c r="G86" t="n">
-        <v>18366.97</v>
+        <v>17866.97</v>
       </c>
       <c r="H86" t="n">
         <v>62.87</v>
@@ -4929,10 +4929,10 @@
         <v>11.51</v>
       </c>
       <c r="O86" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P86" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="87">
@@ -4957,7 +4957,7 @@
         <v>2.56</v>
       </c>
       <c r="G87" t="n">
-        <v>17107.89</v>
+        <v>16607.89</v>
       </c>
       <c r="H87" t="n">
         <v>62.87</v>
@@ -4981,10 +4981,10 @@
         <v>11.51</v>
       </c>
       <c r="O87" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P87" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="88">
@@ -5009,7 +5009,7 @@
         <v>2.56</v>
       </c>
       <c r="G88" t="n">
-        <v>15380.95</v>
+        <v>14880.95</v>
       </c>
       <c r="H88" t="n">
         <v>62.87</v>
@@ -5033,10 +5033,10 @@
         <v>11.51</v>
       </c>
       <c r="O88" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P88" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="89">
@@ -5061,7 +5061,7 @@
         <v>2.56</v>
       </c>
       <c r="G89" t="n">
-        <v>17107.89</v>
+        <v>16607.89</v>
       </c>
       <c r="H89" t="n">
         <v>62.87</v>
@@ -5085,10 +5085,10 @@
         <v>11.51</v>
       </c>
       <c r="O89" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P89" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="90">
@@ -5113,7 +5113,7 @@
         <v>2.56</v>
       </c>
       <c r="G90" t="n">
-        <v>14814.4</v>
+        <v>14314.4</v>
       </c>
       <c r="H90" t="n">
         <v>62.87</v>
@@ -5137,10 +5137,10 @@
         <v>11.51</v>
       </c>
       <c r="O90" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P90" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="91">
@@ -5165,7 +5165,7 @@
         <v>2.56</v>
       </c>
       <c r="G91" t="n">
-        <v>17107.89</v>
+        <v>16607.89</v>
       </c>
       <c r="H91" t="n">
         <v>62.87</v>
@@ -5189,10 +5189,10 @@
         <v>11.51</v>
       </c>
       <c r="O91" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P91" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="92">
@@ -5217,7 +5217,7 @@
         <v>2.56</v>
       </c>
       <c r="G92" t="n">
-        <v>17727.22</v>
+        <v>17227.22</v>
       </c>
       <c r="H92" t="n">
         <v>62.87</v>
@@ -5241,10 +5241,10 @@
         <v>11.51</v>
       </c>
       <c r="O92" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P92" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="93">
@@ -5269,7 +5269,7 @@
         <v>2.56</v>
       </c>
       <c r="G93" t="n">
-        <v>31285.96</v>
+        <v>30785.96</v>
       </c>
       <c r="H93" t="n">
         <v>62.87</v>
@@ -5293,10 +5293,10 @@
         <v>11.51</v>
       </c>
       <c r="O93" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P93" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="94">
@@ -5321,7 +5321,7 @@
         <v>2.56</v>
       </c>
       <c r="G94" t="n">
-        <v>24815.11</v>
+        <v>24315.11</v>
       </c>
       <c r="H94" t="n">
         <v>62.87</v>
@@ -5345,10 +5345,10 @@
         <v>11.51</v>
       </c>
       <c r="O94" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P94" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="95">
@@ -5373,7 +5373,7 @@
         <v>2.56</v>
       </c>
       <c r="G95" t="n">
-        <v>19649.13</v>
+        <v>19149.13</v>
       </c>
       <c r="H95" t="n">
         <v>62.87</v>
@@ -5397,10 +5397,10 @@
         <v>11.51</v>
       </c>
       <c r="O95" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P95" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="96">
@@ -5425,7 +5425,7 @@
         <v>2.56</v>
       </c>
       <c r="G96" t="n">
-        <v>14814.4</v>
+        <v>14314.4</v>
       </c>
       <c r="H96" t="n">
         <v>62.87</v>
@@ -5449,10 +5449,10 @@
         <v>11.51</v>
       </c>
       <c r="O96" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P96" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="97">
@@ -5477,7 +5477,7 @@
         <v>2.56</v>
       </c>
       <c r="G97" t="n">
-        <v>13686.42</v>
+        <v>13186.42</v>
       </c>
       <c r="H97" t="n">
         <v>62.87</v>
@@ -5501,10 +5501,10 @@
         <v>11.51</v>
       </c>
       <c r="O97" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P97" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="98">
@@ -5529,7 +5529,7 @@
         <v>2.56</v>
       </c>
       <c r="G98" t="n">
-        <v>10565.89</v>
+        <v>10065.89</v>
       </c>
       <c r="H98" t="n">
         <v>62.87</v>
@@ -5553,10 +5553,10 @@
         <v>11.51</v>
       </c>
       <c r="O98" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P98" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="99">
@@ -5581,7 +5581,7 @@
         <v>2.56</v>
       </c>
       <c r="G99" t="n">
-        <v>15953.56</v>
+        <v>15453.56</v>
       </c>
       <c r="H99" t="n">
         <v>62.87</v>
@@ -5605,10 +5605,10 @@
         <v>11.51</v>
       </c>
       <c r="O99" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P99" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="100">
@@ -5633,7 +5633,7 @@
         <v>2.56</v>
       </c>
       <c r="G100" t="n">
-        <v>19649.13</v>
+        <v>19149.13</v>
       </c>
       <c r="H100" t="n">
         <v>62.87</v>
@@ -5657,10 +5657,10 @@
         <v>11.51</v>
       </c>
       <c r="O100" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P100" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="101">
@@ -5685,7 +5685,7 @@
         <v>2.56</v>
       </c>
       <c r="G101" t="n">
-        <v>32344.78</v>
+        <v>31844.78</v>
       </c>
       <c r="H101" t="n">
         <v>62.87</v>
@@ -5709,10 +5709,10 @@
         <v>11.51</v>
       </c>
       <c r="O101" t="n">
-        <v>75.17</v>
+        <v>38.92</v>
       </c>
       <c r="P101" t="n">
-        <v>47.77</v>
+        <v>30.01</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -534,37 +534,37 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05</v>
+        <v>10.24</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>284.99</v>
       </c>
       <c r="H2" t="n">
-        <v>58.31</v>
+        <v>131.48</v>
       </c>
       <c r="I2" t="n">
-        <v>55.08</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>16.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>246.57</v>
+        <v>1231.66</v>
       </c>
       <c r="L2" t="n">
-        <v>16.21</v>
+        <v>25.27</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05</v>
+        <v>0.26</v>
       </c>
       <c r="N2" t="n">
-        <v>7.71</v>
+        <v>11.44</v>
       </c>
       <c r="O2" t="n">
-        <v>39.95</v>
+        <v>75.16</v>
       </c>
       <c r="P2" t="n">
-        <v>30.62</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="3">
@@ -586,37 +586,37 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G3" t="n">
-        <v>498.39</v>
+        <v>998.39</v>
       </c>
       <c r="H3" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I3" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L3" t="n">
         <v>25.27</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N3" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O3" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="4">
@@ -638,37 +638,37 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G4" t="n">
-        <v>696.8200000000001</v>
+        <v>1196.82</v>
       </c>
       <c r="H4" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I4" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L4" t="n">
         <v>25.27</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N4" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O4" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="5">
@@ -690,37 +690,37 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>1.09</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>49.74</v>
+        <v>116.2</v>
       </c>
       <c r="I5" t="n">
-        <v>17.93</v>
+        <v>59.1</v>
       </c>
       <c r="J5" t="n">
-        <v>8.66</v>
+        <v>67.81</v>
       </c>
       <c r="K5" t="n">
-        <v>131.1</v>
+        <v>1025.98</v>
       </c>
       <c r="L5" t="n">
-        <v>4.58</v>
+        <v>17.54</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="N5" t="n">
-        <v>2.51</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>41.25</v>
+        <v>77.22</v>
       </c>
       <c r="P5" t="n">
-        <v>31.38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -742,37 +742,37 @@
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.47</v>
+        <v>3.96</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>44.2</v>
+        <v>75.38</v>
       </c>
       <c r="I6" t="n">
-        <v>3.96</v>
+        <v>14.99</v>
       </c>
       <c r="J6" t="n">
-        <v>3.74</v>
+        <v>31.48</v>
       </c>
       <c r="K6" t="n">
-        <v>56.53</v>
+        <v>476.3</v>
       </c>
       <c r="L6" t="n">
-        <v>0.85</v>
+        <v>3.78</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="N6" t="n">
-        <v>0.55</v>
+        <v>2.07</v>
       </c>
       <c r="O6" t="n">
-        <v>39.7</v>
+        <v>81.66</v>
       </c>
       <c r="P6" t="n">
-        <v>30.47</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="7">
@@ -787,44 +787,44 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>production</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
-        <v>73.17847725456491</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>52.77</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>11.37</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>76.13</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>22.91</v>
       </c>
     </row>
     <row r="8">
@@ -839,44 +839,44 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="G8" t="n">
-        <v>232.7374205758595</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>23.97</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>40.94</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>619.4400000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.39</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>80.84</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>2.31</v>
+        <v>10.24</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>393.94</v>
       </c>
       <c r="H9" t="n">
-        <v>60.64</v>
+        <v>131.48</v>
       </c>
       <c r="I9" t="n">
-        <v>68.38</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>18.36</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>277.84</v>
+        <v>1231.66</v>
       </c>
       <c r="L9" t="n">
-        <v>20.58</v>
+        <v>25.27</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05</v>
+        <v>0.26</v>
       </c>
       <c r="N9" t="n">
-        <v>9.57</v>
+        <v>11.44</v>
       </c>
       <c r="O9" t="n">
-        <v>39.4</v>
+        <v>75.16</v>
       </c>
       <c r="P9" t="n">
-        <v>30.3</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="10">
@@ -950,37 +950,37 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>1.09</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>49.74</v>
+        <v>116.2</v>
       </c>
       <c r="I10" t="n">
-        <v>17.93</v>
+        <v>59.1</v>
       </c>
       <c r="J10" t="n">
-        <v>8.66</v>
+        <v>67.81</v>
       </c>
       <c r="K10" t="n">
-        <v>131.1</v>
+        <v>1025.98</v>
       </c>
       <c r="L10" t="n">
-        <v>4.58</v>
+        <v>17.54</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="N10" t="n">
-        <v>2.51</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>41.25</v>
+        <v>77.22</v>
       </c>
       <c r="P10" t="n">
-        <v>31.38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -1002,37 +1002,37 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G11" t="n">
-        <v>498.39</v>
+        <v>998.39</v>
       </c>
       <c r="H11" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I11" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L11" t="n">
         <v>25.27</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N11" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O11" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="12">
@@ -1054,37 +1054,37 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G12" t="n">
-        <v>588.0599999999999</v>
+        <v>1088.06</v>
       </c>
       <c r="H12" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I12" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L12" t="n">
         <v>25.27</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N12" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O12" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P12" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="13">
@@ -1106,37 +1106,37 @@
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G13" t="n">
-        <v>97.28</v>
+        <v>597.28</v>
       </c>
       <c r="H13" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I13" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L13" t="n">
         <v>25.27</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N13" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O13" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P13" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="14">
@@ -1158,37 +1158,37 @@
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>0.63</v>
+        <v>5.15</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>45.63</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>6.73</v>
+        <v>23.97</v>
       </c>
       <c r="J14" t="n">
-        <v>5.01</v>
+        <v>40.94</v>
       </c>
       <c r="K14" t="n">
-        <v>75.78</v>
+        <v>619.4400000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>1.53</v>
+        <v>6.39</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9399999999999999</v>
+        <v>3.32</v>
       </c>
       <c r="O14" t="n">
-        <v>40.75</v>
+        <v>80.84</v>
       </c>
       <c r="P14" t="n">
-        <v>31.08</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="15">
@@ -1210,37 +1210,37 @@
         <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G15" t="n">
-        <v>498.39</v>
+        <v>998.39</v>
       </c>
       <c r="H15" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I15" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L15" t="n">
         <v>25.27</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N15" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O15" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P15" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="16">
@@ -1262,37 +1262,37 @@
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G16" t="n">
-        <v>97.28</v>
+        <v>597.28</v>
       </c>
       <c r="H16" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I16" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L16" t="n">
         <v>25.27</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N16" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O16" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P16" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="17">
@@ -1314,37 +1314,37 @@
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>1.79</v>
+        <v>10.24</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>177.59</v>
       </c>
       <c r="H17" t="n">
-        <v>55.99</v>
+        <v>131.48</v>
       </c>
       <c r="I17" t="n">
-        <v>42.99</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>14.23</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>215.3</v>
+        <v>1231.66</v>
       </c>
       <c r="L17" t="n">
-        <v>12.36</v>
+        <v>25.27</v>
       </c>
       <c r="M17" t="n">
-        <v>0.05</v>
+        <v>0.26</v>
       </c>
       <c r="N17" t="n">
-        <v>6.02</v>
+        <v>11.44</v>
       </c>
       <c r="O17" t="n">
-        <v>40.54</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P17" t="n">
-        <v>30.96</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="18">
@@ -1366,37 +1366,37 @@
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.47</v>
+        <v>3.96</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>44.2</v>
+        <v>75.38</v>
       </c>
       <c r="I18" t="n">
-        <v>3.96</v>
+        <v>14.99</v>
       </c>
       <c r="J18" t="n">
-        <v>3.74</v>
+        <v>31.48</v>
       </c>
       <c r="K18" t="n">
-        <v>56.53</v>
+        <v>476.3</v>
       </c>
       <c r="L18" t="n">
-        <v>0.85</v>
+        <v>3.78</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="N18" t="n">
-        <v>0.55</v>
+        <v>2.07</v>
       </c>
       <c r="O18" t="n">
-        <v>39.7</v>
+        <v>81.66</v>
       </c>
       <c r="P18" t="n">
-        <v>30.47</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="19">
@@ -1418,37 +1418,37 @@
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G19" t="n">
-        <v>298.94</v>
+        <v>798.9400000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I19" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L19" t="n">
         <v>25.27</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N19" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O19" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="20">
@@ -1470,37 +1470,37 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G20" t="n">
-        <v>588.0599999999999</v>
+        <v>1088.06</v>
       </c>
       <c r="H20" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I20" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L20" t="n">
         <v>25.27</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N20" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O20" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P20" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="21">
@@ -1515,44 +1515,44 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>production</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="G21" t="n">
-        <v>73.17847725456491</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>52.77</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>11.37</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>76.13</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>22.91</v>
       </c>
     </row>
     <row r="22">
@@ -1567,44 +1567,44 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="G22" t="n">
-        <v>232.7374205758595</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>23.97</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>40.94</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>619.4400000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>6.39</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>80.84</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="23">
@@ -1626,37 +1626,37 @@
         <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>1.09</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>49.74</v>
+        <v>116.2</v>
       </c>
       <c r="I23" t="n">
-        <v>17.93</v>
+        <v>59.1</v>
       </c>
       <c r="J23" t="n">
-        <v>8.66</v>
+        <v>67.81</v>
       </c>
       <c r="K23" t="n">
-        <v>131.1</v>
+        <v>1025.98</v>
       </c>
       <c r="L23" t="n">
-        <v>4.58</v>
+        <v>17.54</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="N23" t="n">
-        <v>2.51</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="O23" t="n">
-        <v>41.25</v>
+        <v>77.22</v>
       </c>
       <c r="P23" t="n">
-        <v>31.38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -1678,37 +1678,37 @@
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G24" t="n">
-        <v>395.95</v>
+        <v>895.95</v>
       </c>
       <c r="H24" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I24" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L24" t="n">
         <v>25.27</v>
       </c>
       <c r="M24" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N24" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O24" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P24" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="25">
@@ -1730,37 +1730,37 @@
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>2.31</v>
+        <v>10.24</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>393.94</v>
       </c>
       <c r="H25" t="n">
-        <v>60.64</v>
+        <v>131.48</v>
       </c>
       <c r="I25" t="n">
-        <v>68.38</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>18.36</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>277.84</v>
+        <v>1231.66</v>
       </c>
       <c r="L25" t="n">
-        <v>20.58</v>
+        <v>25.27</v>
       </c>
       <c r="M25" t="n">
-        <v>0.05</v>
+        <v>0.26</v>
       </c>
       <c r="N25" t="n">
-        <v>9.57</v>
+        <v>11.44</v>
       </c>
       <c r="O25" t="n">
-        <v>39.4</v>
+        <v>75.16</v>
       </c>
       <c r="P25" t="n">
-        <v>30.3</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="26">
@@ -1782,37 +1782,37 @@
         <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>2.54</v>
+        <v>10.24</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>493.16</v>
       </c>
       <c r="H26" t="n">
-        <v>62.69</v>
+        <v>131.48</v>
       </c>
       <c r="I26" t="n">
-        <v>81.34</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>20.19</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>305.51</v>
+        <v>1231.66</v>
       </c>
       <c r="L26" t="n">
-        <v>24.88</v>
+        <v>25.27</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N26" t="n">
-        <v>11.38</v>
+        <v>11.44</v>
       </c>
       <c r="O26" t="n">
-        <v>38.89</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P26" t="n">
-        <v>29.99</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="27">
@@ -1834,37 +1834,37 @@
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G27" t="n">
-        <v>298.94</v>
+        <v>798.9400000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I27" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L27" t="n">
         <v>25.27</v>
       </c>
       <c r="M27" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N27" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O27" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P27" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="28">
@@ -1886,37 +1886,37 @@
         <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>0.79</v>
+        <v>6.31</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.06</v>
+        <v>96.37</v>
       </c>
       <c r="I28" t="n">
-        <v>10.01</v>
+        <v>34.41</v>
       </c>
       <c r="J28" t="n">
-        <v>6.28</v>
+        <v>50.16</v>
       </c>
       <c r="K28" t="n">
-        <v>95.02</v>
+        <v>758.96</v>
       </c>
       <c r="L28" t="n">
-        <v>2.41</v>
+        <v>9.6</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="N28" t="n">
-        <v>1.4</v>
+        <v>4.77</v>
       </c>
       <c r="O28" t="n">
-        <v>41.36</v>
+        <v>79.76000000000001</v>
       </c>
       <c r="P28" t="n">
-        <v>31.44</v>
+        <v>23.22</v>
       </c>
     </row>
     <row r="29">
@@ -1931,11 +1931,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1387.449944501725</v>
+        <v>1391.699944501725</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2042,37 +2042,37 @@
         <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G31" t="n">
-        <v>498.39</v>
+        <v>998.39</v>
       </c>
       <c r="H31" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I31" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L31" t="n">
         <v>25.27</v>
       </c>
       <c r="M31" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N31" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O31" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P31" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="32">
@@ -2094,37 +2094,37 @@
         <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G32" t="n">
-        <v>588.0599999999999</v>
+        <v>1088.06</v>
       </c>
       <c r="H32" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I32" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L32" t="n">
         <v>25.27</v>
       </c>
       <c r="M32" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N32" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O32" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P32" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="33">
@@ -2146,37 +2146,37 @@
         <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G33" t="n">
-        <v>1349.27</v>
+        <v>1849.27</v>
       </c>
       <c r="H33" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I33" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L33" t="n">
         <v>25.27</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N33" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O33" t="n">
-        <v>38.92</v>
+        <v>75.16</v>
       </c>
       <c r="P33" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="34">
@@ -2198,37 +2198,37 @@
         <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G34" t="n">
-        <v>4038.32</v>
+        <v>4538.32</v>
       </c>
       <c r="H34" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I34" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L34" t="n">
         <v>25.27</v>
       </c>
       <c r="M34" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N34" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O34" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P34" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="35">
@@ -2250,37 +2250,37 @@
         <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G35" t="n">
-        <v>5298.5</v>
+        <v>5798.5</v>
       </c>
       <c r="H35" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I35" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L35" t="n">
         <v>25.27</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N35" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O35" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P35" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="36">
@@ -2302,37 +2302,37 @@
         <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G36" t="n">
-        <v>2683.73</v>
+        <v>3183.73</v>
       </c>
       <c r="H36" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I36" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L36" t="n">
         <v>25.27</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N36" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O36" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P36" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="37">
@@ -2354,37 +2354,37 @@
         <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G37" t="n">
-        <v>2874.73</v>
+        <v>3374.73</v>
       </c>
       <c r="H37" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I37" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L37" t="n">
         <v>25.27</v>
       </c>
       <c r="M37" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N37" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O37" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P37" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="38">
@@ -2406,37 +2406,37 @@
         <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G38" t="n">
-        <v>6259.64</v>
+        <v>6759.64</v>
       </c>
       <c r="H38" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I38" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L38" t="n">
         <v>25.27</v>
       </c>
       <c r="M38" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N38" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O38" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P38" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="39">
@@ -2451,11 +2451,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -2503,11 +2503,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2555,11 +2555,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>400.9038695561462</v>
+        <v>405.1538695561462</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2711,44 +2711,44 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>10.24</v>
       </c>
       <c r="G44" t="n">
-        <v>1387.449944501725</v>
+        <v>895.95</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>131.48</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1231.66</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>25.27</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>11.44</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="45">
@@ -2770,37 +2770,37 @@
         <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G45" t="n">
-        <v>2107.67</v>
+        <v>2607.67</v>
       </c>
       <c r="H45" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I45" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L45" t="n">
         <v>25.27</v>
       </c>
       <c r="M45" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N45" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O45" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P45" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="46">
@@ -2822,37 +2822,37 @@
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G46" t="n">
-        <v>3414.84</v>
+        <v>3914.84</v>
       </c>
       <c r="H46" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I46" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L46" t="n">
         <v>25.27</v>
       </c>
       <c r="M46" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N46" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O46" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P46" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="47">
@@ -2874,37 +2874,37 @@
         <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G47" t="n">
-        <v>2492.33</v>
+        <v>2992.33</v>
       </c>
       <c r="H47" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I47" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L47" t="n">
         <v>25.27</v>
       </c>
       <c r="M47" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N47" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O47" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P47" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="48">
@@ -2926,37 +2926,37 @@
         <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G48" t="n">
-        <v>4668.14</v>
+        <v>5168.14</v>
       </c>
       <c r="H48" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I48" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L48" t="n">
         <v>25.27</v>
       </c>
       <c r="M48" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N48" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O48" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P48" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="49">
@@ -2978,37 +2978,37 @@
         <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G49" t="n">
-        <v>3414.84</v>
+        <v>3914.84</v>
       </c>
       <c r="H49" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I49" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L49" t="n">
         <v>25.27</v>
       </c>
       <c r="M49" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N49" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O49" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P49" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="50">
@@ -3030,37 +3030,37 @@
         <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G50" t="n">
-        <v>10065.89</v>
+        <v>10565.89</v>
       </c>
       <c r="H50" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I50" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L50" t="n">
         <v>25.27</v>
       </c>
       <c r="M50" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N50" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O50" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P50" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="51">
@@ -3082,37 +3082,37 @@
         <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G51" t="n">
-        <v>8334.6</v>
+        <v>8834.6</v>
       </c>
       <c r="H51" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I51" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J51" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L51" t="n">
         <v>25.27</v>
       </c>
       <c r="M51" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N51" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O51" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P51" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="52">
@@ -3134,37 +3134,37 @@
         <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G52" t="n">
-        <v>2492.33</v>
+        <v>2992.33</v>
       </c>
       <c r="H52" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I52" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J52" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L52" t="n">
         <v>25.27</v>
       </c>
       <c r="M52" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N52" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O52" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P52" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="53">
@@ -3186,37 +3186,37 @@
         <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G53" t="n">
-        <v>2107.67</v>
+        <v>2607.67</v>
       </c>
       <c r="H53" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I53" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J53" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L53" t="n">
         <v>25.27</v>
       </c>
       <c r="M53" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N53" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O53" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P53" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="54">
@@ -3238,37 +3238,37 @@
         <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G54" t="n">
-        <v>1917.48</v>
+        <v>2417.48</v>
       </c>
       <c r="H54" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I54" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J54" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L54" t="n">
         <v>25.27</v>
       </c>
       <c r="M54" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N54" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O54" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P54" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="55">
@@ -3290,37 +3290,37 @@
         <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G55" t="n">
-        <v>968.74</v>
+        <v>1468.74</v>
       </c>
       <c r="H55" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I55" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L55" t="n">
         <v>25.27</v>
       </c>
       <c r="M55" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N55" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O55" t="n">
-        <v>38.92</v>
+        <v>75.16</v>
       </c>
       <c r="P55" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="56">
@@ -3342,37 +3342,37 @@
         <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G56" t="n">
-        <v>1539.07</v>
+        <v>2039.07</v>
       </c>
       <c r="H56" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I56" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L56" t="n">
         <v>25.27</v>
       </c>
       <c r="M56" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N56" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O56" t="n">
-        <v>38.92</v>
+        <v>75.16</v>
       </c>
       <c r="P56" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="57">
@@ -3394,37 +3394,37 @@
         <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G57" t="n">
-        <v>6624.94</v>
+        <v>7124.94</v>
       </c>
       <c r="H57" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I57" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J57" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L57" t="n">
         <v>25.27</v>
       </c>
       <c r="M57" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N57" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O57" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P57" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="58">
@@ -3446,37 +3446,37 @@
         <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G58" t="n">
-        <v>11498.56</v>
+        <v>11998.56</v>
       </c>
       <c r="H58" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I58" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L58" t="n">
         <v>25.27</v>
       </c>
       <c r="M58" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N58" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O58" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P58" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="59">
@@ -3498,37 +3498,37 @@
         <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G59" t="n">
-        <v>10065.89</v>
+        <v>10565.89</v>
       </c>
       <c r="H59" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I59" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L59" t="n">
         <v>25.27</v>
       </c>
       <c r="M59" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N59" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O59" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P59" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="60">
@@ -3550,37 +3550,37 @@
         <v>4</v>
       </c>
       <c r="F60" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G60" t="n">
-        <v>9198.959999999999</v>
+        <v>9698.959999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I60" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J60" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L60" t="n">
         <v>25.27</v>
       </c>
       <c r="M60" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N60" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O60" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P60" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="61">
@@ -3602,37 +3602,37 @@
         <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G61" t="n">
-        <v>13186.42</v>
+        <v>13686.42</v>
       </c>
       <c r="H61" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I61" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J61" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L61" t="n">
         <v>25.27</v>
       </c>
       <c r="M61" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N61" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O61" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P61" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="62">
@@ -3654,37 +3654,37 @@
         <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G62" t="n">
-        <v>12064.65</v>
+        <v>12564.65</v>
       </c>
       <c r="H62" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I62" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L62" t="n">
         <v>25.27</v>
       </c>
       <c r="M62" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N62" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O62" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P62" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="63">
@@ -3706,37 +3706,37 @@
         <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G63" t="n">
-        <v>9198.959999999999</v>
+        <v>9698.959999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I63" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L63" t="n">
         <v>25.27</v>
       </c>
       <c r="M63" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N63" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O63" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P63" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="64">
@@ -3758,37 +3758,37 @@
         <v>4</v>
       </c>
       <c r="F64" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G64" t="n">
-        <v>10065.89</v>
+        <v>10565.89</v>
       </c>
       <c r="H64" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I64" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J64" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L64" t="n">
         <v>25.27</v>
       </c>
       <c r="M64" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N64" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O64" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P64" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="65">
@@ -3810,37 +3810,37 @@
         <v>4</v>
       </c>
       <c r="F65" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G65" t="n">
-        <v>6624.94</v>
+        <v>7124.94</v>
       </c>
       <c r="H65" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I65" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L65" t="n">
         <v>25.27</v>
       </c>
       <c r="M65" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N65" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O65" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P65" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="66">
@@ -3862,37 +3862,37 @@
         <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G66" t="n">
-        <v>4668.14</v>
+        <v>5168.14</v>
       </c>
       <c r="H66" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I66" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J66" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L66" t="n">
         <v>25.27</v>
       </c>
       <c r="M66" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N66" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O66" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P66" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="67">
@@ -3914,37 +3914,37 @@
         <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G67" t="n">
-        <v>6624.94</v>
+        <v>7124.94</v>
       </c>
       <c r="H67" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I67" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J67" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L67" t="n">
         <v>25.27</v>
       </c>
       <c r="M67" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N67" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O67" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P67" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="68">
@@ -3966,37 +3966,37 @@
         <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G68" t="n">
-        <v>10506.25</v>
+        <v>11006.25</v>
       </c>
       <c r="H68" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I68" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L68" t="n">
         <v>25.27</v>
       </c>
       <c r="M68" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N68" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O68" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P68" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="69">
@@ -4011,11 +4011,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -4063,11 +4063,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -4115,11 +4115,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>12490.06111117689</v>
+        <v>12494.31111117689</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -4531,44 +4531,44 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>10.24</v>
       </c>
       <c r="G79" t="n">
-        <v>5659.642450040729</v>
+        <v>5168.14</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>131.48</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1231.66</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>25.27</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>11.44</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="80">
@@ -4590,37 +4590,37 @@
         <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G80" t="n">
-        <v>12064.65</v>
+        <v>12564.65</v>
       </c>
       <c r="H80" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I80" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J80" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L80" t="n">
         <v>25.27</v>
       </c>
       <c r="M80" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N80" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O80" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P80" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="81">
@@ -4642,37 +4642,37 @@
         <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G81" t="n">
-        <v>10947.21</v>
+        <v>11447.21</v>
       </c>
       <c r="H81" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I81" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J81" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L81" t="n">
         <v>25.27</v>
       </c>
       <c r="M81" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N81" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O81" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P81" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="82">
@@ -4694,37 +4694,37 @@
         <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G82" t="n">
-        <v>10065.89</v>
+        <v>10565.89</v>
       </c>
       <c r="H82" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I82" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J82" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L82" t="n">
         <v>25.27</v>
       </c>
       <c r="M82" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N82" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O82" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P82" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="83">
@@ -4746,37 +4746,37 @@
         <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G83" t="n">
-        <v>2874.73</v>
+        <v>3374.73</v>
       </c>
       <c r="H83" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I83" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J83" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L83" t="n">
         <v>25.27</v>
       </c>
       <c r="M83" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N83" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O83" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P83" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="84">
@@ -4798,37 +4798,37 @@
         <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G84" t="n">
-        <v>10947.21</v>
+        <v>11447.21</v>
       </c>
       <c r="H84" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I84" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J84" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K84" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L84" t="n">
         <v>25.27</v>
       </c>
       <c r="M84" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N84" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O84" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P84" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="85">
@@ -4850,37 +4850,37 @@
         <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G85" t="n">
-        <v>19149.13</v>
+        <v>19649.13</v>
       </c>
       <c r="H85" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I85" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J85" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L85" t="n">
         <v>25.27</v>
       </c>
       <c r="M85" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N85" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O85" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P85" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="86">
@@ -4902,37 +4902,37 @@
         <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G86" t="n">
-        <v>17866.97</v>
+        <v>18366.97</v>
       </c>
       <c r="H86" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I86" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J86" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L86" t="n">
         <v>25.27</v>
       </c>
       <c r="M86" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N86" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O86" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P86" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="87">
@@ -4954,37 +4954,37 @@
         <v>4</v>
       </c>
       <c r="F87" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G87" t="n">
-        <v>16607.89</v>
+        <v>17107.89</v>
       </c>
       <c r="H87" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I87" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J87" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K87" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L87" t="n">
         <v>25.27</v>
       </c>
       <c r="M87" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N87" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O87" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P87" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="88">
@@ -5006,37 +5006,37 @@
         <v>4</v>
       </c>
       <c r="F88" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G88" t="n">
-        <v>14880.95</v>
+        <v>15380.95</v>
       </c>
       <c r="H88" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I88" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J88" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L88" t="n">
         <v>25.27</v>
       </c>
       <c r="M88" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N88" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O88" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P88" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="89">
@@ -5058,37 +5058,37 @@
         <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G89" t="n">
-        <v>16607.89</v>
+        <v>17107.89</v>
       </c>
       <c r="H89" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I89" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J89" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K89" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L89" t="n">
         <v>25.27</v>
       </c>
       <c r="M89" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N89" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O89" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P89" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="90">
@@ -5110,37 +5110,37 @@
         <v>4</v>
       </c>
       <c r="F90" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G90" t="n">
-        <v>14314.4</v>
+        <v>14814.4</v>
       </c>
       <c r="H90" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I90" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J90" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L90" t="n">
         <v>25.27</v>
       </c>
       <c r="M90" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N90" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O90" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P90" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="91">
@@ -5162,37 +5162,37 @@
         <v>4</v>
       </c>
       <c r="F91" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G91" t="n">
-        <v>16607.89</v>
+        <v>17107.89</v>
       </c>
       <c r="H91" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I91" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J91" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L91" t="n">
         <v>25.27</v>
       </c>
       <c r="M91" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N91" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O91" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P91" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="92">
@@ -5214,37 +5214,37 @@
         <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G92" t="n">
-        <v>17227.22</v>
+        <v>17727.22</v>
       </c>
       <c r="H92" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I92" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J92" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L92" t="n">
         <v>25.27</v>
       </c>
       <c r="M92" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N92" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O92" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P92" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="93">
@@ -5266,37 +5266,37 @@
         <v>4</v>
       </c>
       <c r="F93" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G93" t="n">
-        <v>30785.96</v>
+        <v>31285.96</v>
       </c>
       <c r="H93" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I93" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J93" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L93" t="n">
         <v>25.27</v>
       </c>
       <c r="M93" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N93" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O93" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P93" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="94">
@@ -5318,37 +5318,37 @@
         <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G94" t="n">
-        <v>24315.11</v>
+        <v>24815.11</v>
       </c>
       <c r="H94" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I94" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J94" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L94" t="n">
         <v>25.27</v>
       </c>
       <c r="M94" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N94" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O94" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P94" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="95">
@@ -5370,37 +5370,37 @@
         <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G95" t="n">
-        <v>19149.13</v>
+        <v>19649.13</v>
       </c>
       <c r="H95" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I95" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J95" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L95" t="n">
         <v>25.27</v>
       </c>
       <c r="M95" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N95" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O95" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P95" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="96">
@@ -5422,37 +5422,37 @@
         <v>4</v>
       </c>
       <c r="F96" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G96" t="n">
-        <v>14314.4</v>
+        <v>14814.4</v>
       </c>
       <c r="H96" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I96" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J96" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K96" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L96" t="n">
         <v>25.27</v>
       </c>
       <c r="M96" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N96" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O96" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P96" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="97">
@@ -5474,37 +5474,37 @@
         <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G97" t="n">
-        <v>13186.42</v>
+        <v>13686.42</v>
       </c>
       <c r="H97" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I97" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J97" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L97" t="n">
         <v>25.27</v>
       </c>
       <c r="M97" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N97" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O97" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P97" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="98">
@@ -5526,37 +5526,37 @@
         <v>4</v>
       </c>
       <c r="F98" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G98" t="n">
-        <v>10065.89</v>
+        <v>10565.89</v>
       </c>
       <c r="H98" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I98" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J98" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K98" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L98" t="n">
         <v>25.27</v>
       </c>
       <c r="M98" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N98" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O98" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P98" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="99">
@@ -5578,37 +5578,37 @@
         <v>4</v>
       </c>
       <c r="F99" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G99" t="n">
-        <v>15453.56</v>
+        <v>15953.56</v>
       </c>
       <c r="H99" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I99" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J99" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K99" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L99" t="n">
         <v>25.27</v>
       </c>
       <c r="M99" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N99" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O99" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P99" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="100">
@@ -5630,37 +5630,37 @@
         <v>4</v>
       </c>
       <c r="F100" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G100" t="n">
-        <v>19149.13</v>
+        <v>19649.13</v>
       </c>
       <c r="H100" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I100" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J100" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L100" t="n">
         <v>25.27</v>
       </c>
       <c r="M100" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N100" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O100" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P100" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="101">
@@ -5682,37 +5682,37 @@
         <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="G101" t="n">
-        <v>31844.78</v>
+        <v>32344.78</v>
       </c>
       <c r="H101" t="n">
-        <v>62.87</v>
+        <v>131.48</v>
       </c>
       <c r="I101" t="n">
         <v>82.26000000000001</v>
       </c>
       <c r="J101" t="n">
-        <v>20.35</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K101" t="n">
-        <v>307.91</v>
+        <v>1231.66</v>
       </c>
       <c r="L101" t="n">
         <v>25.27</v>
       </c>
       <c r="M101" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N101" t="n">
-        <v>11.51</v>
+        <v>11.44</v>
       </c>
       <c r="O101" t="n">
-        <v>38.92</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="P101" t="n">
-        <v>30.01</v>
+        <v>22.82</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -549,10 +549,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L2" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M2" t="n">
         <v>7.05</v>
@@ -561,10 +561,10 @@
         <v>11.44</v>
       </c>
       <c r="O2" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P2" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="3">
@@ -601,10 +601,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L3" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M3" t="n">
         <v>7.05</v>
@@ -613,10 +613,10 @@
         <v>11.44</v>
       </c>
       <c r="O3" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P3" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="4">
@@ -653,10 +653,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L4" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M4" t="n">
         <v>7.05</v>
@@ -665,10 +665,10 @@
         <v>11.44</v>
       </c>
       <c r="O4" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P4" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="5">
@@ -705,10 +705,10 @@
         <v>59.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2068.37</v>
+        <v>143.57</v>
       </c>
       <c r="L5" t="n">
-        <v>74.01000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="M5" t="n">
         <v>6.23</v>
@@ -717,10 +717,10 @@
         <v>8.210000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>67.52</v>
+        <v>77.95</v>
       </c>
       <c r="P5" t="n">
-        <v>13.1</v>
+        <v>58.48</v>
       </c>
     </row>
     <row r="6">
@@ -757,10 +757,10 @@
         <v>14.99</v>
       </c>
       <c r="K6" t="n">
-        <v>960.23</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>34.36</v>
+        <v>3.44</v>
       </c>
       <c r="M6" t="n">
         <v>4.04</v>
@@ -769,10 +769,10 @@
         <v>2.07</v>
       </c>
       <c r="O6" t="n">
-        <v>69.16</v>
+        <v>80.14</v>
       </c>
       <c r="P6" t="n">
-        <v>13.16</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="7">
@@ -809,10 +809,10 @@
         <v>2.36</v>
       </c>
       <c r="K7" t="n">
-        <v>346.75</v>
+        <v>24.07</v>
       </c>
       <c r="L7" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="M7" t="n">
         <v>2.83</v>
@@ -821,10 +821,10 @@
         <v>0.32</v>
       </c>
       <c r="O7" t="n">
-        <v>63.51</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>12.94</v>
+        <v>55.45</v>
       </c>
     </row>
     <row r="8">
@@ -861,10 +861,10 @@
         <v>23.97</v>
       </c>
       <c r="K8" t="n">
-        <v>1248.78</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>44.68</v>
+        <v>4.47</v>
       </c>
       <c r="M8" t="n">
         <v>4.61</v>
@@ -873,10 +873,10 @@
         <v>3.32</v>
       </c>
       <c r="O8" t="n">
-        <v>69.06999999999999</v>
+        <v>80.02</v>
       </c>
       <c r="P8" t="n">
-        <v>13.16</v>
+        <v>59.64</v>
       </c>
     </row>
     <row r="9">
@@ -913,10 +913,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L9" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M9" t="n">
         <v>7.05</v>
@@ -925,10 +925,10 @@
         <v>11.44</v>
       </c>
       <c r="O9" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P9" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="10">
@@ -965,10 +965,10 @@
         <v>59.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2068.37</v>
+        <v>143.57</v>
       </c>
       <c r="L10" t="n">
-        <v>74.01000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="M10" t="n">
         <v>6.23</v>
@@ -977,10 +977,10 @@
         <v>8.210000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>67.52</v>
+        <v>77.95</v>
       </c>
       <c r="P10" t="n">
-        <v>13.1</v>
+        <v>58.48</v>
       </c>
     </row>
     <row r="11">
@@ -1017,10 +1017,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L11" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M11" t="n">
         <v>7.05</v>
@@ -1029,10 +1029,10 @@
         <v>11.44</v>
       </c>
       <c r="O11" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P11" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="12">
@@ -1069,10 +1069,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L12" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M12" t="n">
         <v>7.05</v>
@@ -1081,10 +1081,10 @@
         <v>11.44</v>
       </c>
       <c r="O12" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P12" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="13">
@@ -1121,10 +1121,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L13" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M13" t="n">
         <v>7.05</v>
@@ -1133,10 +1133,10 @@
         <v>11.44</v>
       </c>
       <c r="O13" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P13" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="14">
@@ -1173,10 +1173,10 @@
         <v>23.97</v>
       </c>
       <c r="K14" t="n">
-        <v>1248.78</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>44.68</v>
+        <v>4.47</v>
       </c>
       <c r="M14" t="n">
         <v>4.61</v>
@@ -1185,10 +1185,10 @@
         <v>3.32</v>
       </c>
       <c r="O14" t="n">
-        <v>69.06999999999999</v>
+        <v>80.02</v>
       </c>
       <c r="P14" t="n">
-        <v>13.16</v>
+        <v>59.64</v>
       </c>
     </row>
     <row r="15">
@@ -1225,10 +1225,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L15" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M15" t="n">
         <v>7.05</v>
@@ -1237,10 +1237,10 @@
         <v>11.44</v>
       </c>
       <c r="O15" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P15" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="16">
@@ -1277,10 +1277,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L16" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M16" t="n">
         <v>7.05</v>
@@ -1289,10 +1289,10 @@
         <v>11.44</v>
       </c>
       <c r="O16" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P16" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="17">
@@ -1329,10 +1329,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L17" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M17" t="n">
         <v>7.05</v>
@@ -1341,10 +1341,10 @@
         <v>11.44</v>
       </c>
       <c r="O17" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P17" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="18">
@@ -1381,10 +1381,10 @@
         <v>14.99</v>
       </c>
       <c r="K18" t="n">
-        <v>960.23</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="L18" t="n">
-        <v>34.36</v>
+        <v>3.44</v>
       </c>
       <c r="M18" t="n">
         <v>4.04</v>
@@ -1393,10 +1393,10 @@
         <v>2.07</v>
       </c>
       <c r="O18" t="n">
-        <v>69.16</v>
+        <v>80.14</v>
       </c>
       <c r="P18" t="n">
-        <v>13.16</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="19">
@@ -1433,10 +1433,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L19" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M19" t="n">
         <v>7.05</v>
@@ -1445,10 +1445,10 @@
         <v>11.44</v>
       </c>
       <c r="O19" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P19" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="20">
@@ -1485,10 +1485,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L20" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M20" t="n">
         <v>7.05</v>
@@ -1497,10 +1497,10 @@
         <v>11.44</v>
       </c>
       <c r="O20" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P20" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="21">
@@ -1537,10 +1537,10 @@
         <v>2.36</v>
       </c>
       <c r="K21" t="n">
-        <v>346.75</v>
+        <v>24.07</v>
       </c>
       <c r="L21" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="M21" t="n">
         <v>2.83</v>
@@ -1549,10 +1549,10 @@
         <v>0.32</v>
       </c>
       <c r="O21" t="n">
-        <v>63.51</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="P21" t="n">
-        <v>12.94</v>
+        <v>55.45</v>
       </c>
     </row>
     <row r="22">
@@ -1589,10 +1589,10 @@
         <v>23.97</v>
       </c>
       <c r="K22" t="n">
-        <v>1248.78</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>44.68</v>
+        <v>4.47</v>
       </c>
       <c r="M22" t="n">
         <v>4.61</v>
@@ -1601,10 +1601,10 @@
         <v>3.32</v>
       </c>
       <c r="O22" t="n">
-        <v>69.06999999999999</v>
+        <v>80.02</v>
       </c>
       <c r="P22" t="n">
-        <v>13.16</v>
+        <v>59.64</v>
       </c>
     </row>
     <row r="23">
@@ -1641,10 +1641,10 @@
         <v>59.1</v>
       </c>
       <c r="K23" t="n">
-        <v>2068.37</v>
+        <v>143.57</v>
       </c>
       <c r="L23" t="n">
-        <v>74.01000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="M23" t="n">
         <v>6.23</v>
@@ -1653,10 +1653,10 @@
         <v>8.210000000000001</v>
       </c>
       <c r="O23" t="n">
-        <v>67.52</v>
+        <v>77.95</v>
       </c>
       <c r="P23" t="n">
-        <v>13.1</v>
+        <v>58.48</v>
       </c>
     </row>
     <row r="24">
@@ -1693,10 +1693,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L24" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M24" t="n">
         <v>7.05</v>
@@ -1705,10 +1705,10 @@
         <v>11.44</v>
       </c>
       <c r="O24" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P24" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="25">
@@ -1745,10 +1745,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L25" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M25" t="n">
         <v>7.05</v>
@@ -1757,10 +1757,10 @@
         <v>11.44</v>
       </c>
       <c r="O25" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P25" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="26">
@@ -1797,10 +1797,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L26" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M26" t="n">
         <v>7.05</v>
@@ -1809,10 +1809,10 @@
         <v>11.44</v>
       </c>
       <c r="O26" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P26" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="27">
@@ -1849,10 +1849,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L27" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M27" t="n">
         <v>7.05</v>
@@ -1861,10 +1861,10 @@
         <v>11.44</v>
       </c>
       <c r="O27" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P27" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="28">
@@ -1901,10 +1901,10 @@
         <v>34.41</v>
       </c>
       <c r="K28" t="n">
-        <v>1530.06</v>
+        <v>106.21</v>
       </c>
       <c r="L28" t="n">
-        <v>54.75</v>
+        <v>5.47</v>
       </c>
       <c r="M28" t="n">
         <v>5.17</v>
@@ -1913,10 +1913,10 @@
         <v>4.77</v>
       </c>
       <c r="O28" t="n">
-        <v>68.7</v>
+        <v>79.53</v>
       </c>
       <c r="P28" t="n">
-        <v>13.14</v>
+        <v>59.36</v>
       </c>
     </row>
     <row r="29">
@@ -2057,10 +2057,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L31" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M31" t="n">
         <v>7.05</v>
@@ -2069,10 +2069,10 @@
         <v>11.44</v>
       </c>
       <c r="O31" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P31" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="32">
@@ -2109,10 +2109,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L32" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M32" t="n">
         <v>7.05</v>
@@ -2121,10 +2121,10 @@
         <v>11.44</v>
       </c>
       <c r="O32" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P32" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="33">
@@ -2161,10 +2161,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L33" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M33" t="n">
         <v>7.05</v>
@@ -2173,10 +2173,10 @@
         <v>11.44</v>
       </c>
       <c r="O33" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P33" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="34">
@@ -2213,10 +2213,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L34" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M34" t="n">
         <v>7.05</v>
@@ -2225,10 +2225,10 @@
         <v>11.44</v>
       </c>
       <c r="O34" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P34" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="35">
@@ -2265,10 +2265,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L35" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M35" t="n">
         <v>7.05</v>
@@ -2277,10 +2277,10 @@
         <v>11.44</v>
       </c>
       <c r="O35" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P35" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="36">
@@ -2317,10 +2317,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L36" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M36" t="n">
         <v>7.05</v>
@@ -2329,10 +2329,10 @@
         <v>11.44</v>
       </c>
       <c r="O36" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P36" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="37">
@@ -2369,10 +2369,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L37" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M37" t="n">
         <v>7.05</v>
@@ -2381,10 +2381,10 @@
         <v>11.44</v>
       </c>
       <c r="O37" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P37" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="38">
@@ -2421,10 +2421,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L38" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M38" t="n">
         <v>7.05</v>
@@ -2433,10 +2433,10 @@
         <v>11.44</v>
       </c>
       <c r="O38" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P38" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="39">
@@ -2733,10 +2733,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L44" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M44" t="n">
         <v>7.05</v>
@@ -2745,10 +2745,10 @@
         <v>11.44</v>
       </c>
       <c r="O44" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P44" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="45">
@@ -2785,10 +2785,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L45" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M45" t="n">
         <v>7.05</v>
@@ -2797,10 +2797,10 @@
         <v>11.44</v>
       </c>
       <c r="O45" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P45" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="46">
@@ -2837,10 +2837,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L46" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M46" t="n">
         <v>7.05</v>
@@ -2849,10 +2849,10 @@
         <v>11.44</v>
       </c>
       <c r="O46" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P46" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="47">
@@ -2889,10 +2889,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L47" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M47" t="n">
         <v>7.05</v>
@@ -2901,10 +2901,10 @@
         <v>11.44</v>
       </c>
       <c r="O47" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P47" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="48">
@@ -2941,10 +2941,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L48" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M48" t="n">
         <v>7.05</v>
@@ -2953,10 +2953,10 @@
         <v>11.44</v>
       </c>
       <c r="O48" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P48" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="49">
@@ -2993,10 +2993,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L49" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M49" t="n">
         <v>7.05</v>
@@ -3005,10 +3005,10 @@
         <v>11.44</v>
       </c>
       <c r="O49" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P49" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="50">
@@ -3045,10 +3045,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L50" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M50" t="n">
         <v>7.05</v>
@@ -3057,10 +3057,10 @@
         <v>11.44</v>
       </c>
       <c r="O50" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P50" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="51">
@@ -3097,10 +3097,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L51" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M51" t="n">
         <v>7.05</v>
@@ -3109,10 +3109,10 @@
         <v>11.44</v>
       </c>
       <c r="O51" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P51" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="52">
@@ -3149,10 +3149,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L52" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M52" t="n">
         <v>7.05</v>
@@ -3161,10 +3161,10 @@
         <v>11.44</v>
       </c>
       <c r="O52" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P52" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="53">
@@ -3201,10 +3201,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L53" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M53" t="n">
         <v>7.05</v>
@@ -3213,10 +3213,10 @@
         <v>11.44</v>
       </c>
       <c r="O53" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P53" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="54">
@@ -3253,10 +3253,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L54" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M54" t="n">
         <v>7.05</v>
@@ -3265,10 +3265,10 @@
         <v>11.44</v>
       </c>
       <c r="O54" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P54" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="55">
@@ -3305,10 +3305,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L55" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M55" t="n">
         <v>7.05</v>
@@ -3317,10 +3317,10 @@
         <v>11.44</v>
       </c>
       <c r="O55" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P55" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="56">
@@ -3357,10 +3357,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L56" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M56" t="n">
         <v>7.05</v>
@@ -3369,10 +3369,10 @@
         <v>11.44</v>
       </c>
       <c r="O56" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P56" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="57">
@@ -3409,10 +3409,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L57" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M57" t="n">
         <v>7.05</v>
@@ -3421,10 +3421,10 @@
         <v>11.44</v>
       </c>
       <c r="O57" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P57" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="58">
@@ -3461,10 +3461,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L58" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M58" t="n">
         <v>7.05</v>
@@ -3473,10 +3473,10 @@
         <v>11.44</v>
       </c>
       <c r="O58" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P58" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="59">
@@ -3513,10 +3513,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L59" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M59" t="n">
         <v>7.05</v>
@@ -3525,10 +3525,10 @@
         <v>11.44</v>
       </c>
       <c r="O59" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P59" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="60">
@@ -3565,10 +3565,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L60" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M60" t="n">
         <v>7.05</v>
@@ -3577,10 +3577,10 @@
         <v>11.44</v>
       </c>
       <c r="O60" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P60" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="61">
@@ -3617,10 +3617,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L61" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M61" t="n">
         <v>7.05</v>
@@ -3629,10 +3629,10 @@
         <v>11.44</v>
       </c>
       <c r="O61" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P61" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="62">
@@ -3669,10 +3669,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L62" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M62" t="n">
         <v>7.05</v>
@@ -3681,10 +3681,10 @@
         <v>11.44</v>
       </c>
       <c r="O62" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P62" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="63">
@@ -3721,10 +3721,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L63" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M63" t="n">
         <v>7.05</v>
@@ -3733,10 +3733,10 @@
         <v>11.44</v>
       </c>
       <c r="O63" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P63" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="64">
@@ -3773,10 +3773,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L64" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M64" t="n">
         <v>7.05</v>
@@ -3785,10 +3785,10 @@
         <v>11.44</v>
       </c>
       <c r="O64" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P64" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="65">
@@ -3825,10 +3825,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L65" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M65" t="n">
         <v>7.05</v>
@@ -3837,10 +3837,10 @@
         <v>11.44</v>
       </c>
       <c r="O65" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P65" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="66">
@@ -3877,10 +3877,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L66" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M66" t="n">
         <v>7.05</v>
@@ -3889,10 +3889,10 @@
         <v>11.44</v>
       </c>
       <c r="O66" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P66" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="67">
@@ -3929,10 +3929,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L67" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M67" t="n">
         <v>7.05</v>
@@ -3941,10 +3941,10 @@
         <v>11.44</v>
       </c>
       <c r="O67" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P67" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="68">
@@ -3981,10 +3981,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L68" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M68" t="n">
         <v>7.05</v>
@@ -3993,10 +3993,10 @@
         <v>11.44</v>
       </c>
       <c r="O68" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P68" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="69">
@@ -4553,10 +4553,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L79" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M79" t="n">
         <v>7.05</v>
@@ -4565,10 +4565,10 @@
         <v>11.44</v>
       </c>
       <c r="O79" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P79" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="80">
@@ -4605,10 +4605,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L80" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M80" t="n">
         <v>7.05</v>
@@ -4617,10 +4617,10 @@
         <v>11.44</v>
       </c>
       <c r="O80" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P80" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="81">
@@ -4657,10 +4657,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L81" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M81" t="n">
         <v>7.05</v>
@@ -4669,10 +4669,10 @@
         <v>11.44</v>
       </c>
       <c r="O81" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P81" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="82">
@@ -4709,10 +4709,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L82" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M82" t="n">
         <v>7.05</v>
@@ -4721,10 +4721,10 @@
         <v>11.44</v>
       </c>
       <c r="O82" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P82" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="83">
@@ -4761,10 +4761,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L83" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M83" t="n">
         <v>7.05</v>
@@ -4773,10 +4773,10 @@
         <v>11.44</v>
       </c>
       <c r="O83" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P83" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="84">
@@ -4813,10 +4813,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K84" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L84" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M84" t="n">
         <v>7.05</v>
@@ -4825,10 +4825,10 @@
         <v>11.44</v>
       </c>
       <c r="O84" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P84" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="85">
@@ -4865,10 +4865,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L85" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M85" t="n">
         <v>7.05</v>
@@ -4877,10 +4877,10 @@
         <v>11.44</v>
       </c>
       <c r="O85" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P85" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="86">
@@ -4917,10 +4917,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L86" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M86" t="n">
         <v>7.05</v>
@@ -4929,10 +4929,10 @@
         <v>11.44</v>
       </c>
       <c r="O86" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P86" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="87">
@@ -4969,10 +4969,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K87" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L87" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M87" t="n">
         <v>7.05</v>
@@ -4981,10 +4981,10 @@
         <v>11.44</v>
       </c>
       <c r="O87" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P87" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="88">
@@ -5021,10 +5021,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L88" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M88" t="n">
         <v>7.05</v>
@@ -5033,10 +5033,10 @@
         <v>11.44</v>
       </c>
       <c r="O88" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P88" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="89">
@@ -5073,10 +5073,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K89" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L89" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M89" t="n">
         <v>7.05</v>
@@ -5085,10 +5085,10 @@
         <v>11.44</v>
       </c>
       <c r="O89" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P89" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="90">
@@ -5125,10 +5125,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L90" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M90" t="n">
         <v>7.05</v>
@@ -5137,10 +5137,10 @@
         <v>11.44</v>
       </c>
       <c r="O90" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P90" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="91">
@@ -5177,10 +5177,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L91" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M91" t="n">
         <v>7.05</v>
@@ -5189,10 +5189,10 @@
         <v>11.44</v>
       </c>
       <c r="O91" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P91" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="92">
@@ -5229,10 +5229,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L92" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M92" t="n">
         <v>7.05</v>
@@ -5241,10 +5241,10 @@
         <v>11.44</v>
       </c>
       <c r="O92" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P92" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="93">
@@ -5281,10 +5281,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L93" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M93" t="n">
         <v>7.05</v>
@@ -5293,10 +5293,10 @@
         <v>11.44</v>
       </c>
       <c r="O93" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P93" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="94">
@@ -5333,10 +5333,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L94" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M94" t="n">
         <v>7.05</v>
@@ -5345,10 +5345,10 @@
         <v>11.44</v>
       </c>
       <c r="O94" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P94" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="95">
@@ -5385,10 +5385,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L95" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M95" t="n">
         <v>7.05</v>
@@ -5397,10 +5397,10 @@
         <v>11.44</v>
       </c>
       <c r="O95" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P95" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="96">
@@ -5437,10 +5437,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K96" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L96" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M96" t="n">
         <v>7.05</v>
@@ -5449,10 +5449,10 @@
         <v>11.44</v>
       </c>
       <c r="O96" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P96" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="97">
@@ -5489,10 +5489,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L97" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M97" t="n">
         <v>7.05</v>
@@ -5501,10 +5501,10 @@
         <v>11.44</v>
       </c>
       <c r="O97" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P97" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="98">
@@ -5541,10 +5541,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K98" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L98" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M98" t="n">
         <v>7.05</v>
@@ -5553,10 +5553,10 @@
         <v>11.44</v>
       </c>
       <c r="O98" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P98" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="99">
@@ -5593,10 +5593,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K99" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L99" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M99" t="n">
         <v>7.05</v>
@@ -5605,10 +5605,10 @@
         <v>11.44</v>
       </c>
       <c r="O99" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P99" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="100">
@@ -5645,10 +5645,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L100" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M100" t="n">
         <v>7.05</v>
@@ -5657,10 +5657,10 @@
         <v>11.44</v>
       </c>
       <c r="O100" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P100" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="101">
@@ -5697,10 +5697,10 @@
         <v>82.26000000000001</v>
       </c>
       <c r="K101" t="n">
-        <v>2483.02</v>
+        <v>172.36</v>
       </c>
       <c r="L101" t="n">
-        <v>88.84999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="M101" t="n">
         <v>7.05</v>
@@ -5709,10 +5709,10 @@
         <v>11.44</v>
       </c>
       <c r="O101" t="n">
-        <v>66.45</v>
+        <v>76.52</v>
       </c>
       <c r="P101" t="n">
-        <v>13.06</v>
+        <v>57.67</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -491,17 +491,17 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>gasdrying {kw/dt]</t>
+          <t>gasdrying {%]</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>pump [kw/dt]</t>
+          <t>pump [%]</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>heat system [kW/dt]</t>
+          <t>heat system [%]</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -534,16 +534,16 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G2" t="n">
         <v>284.99</v>
       </c>
       <c r="H2" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I2" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J2" t="n">
         <v>82.26000000000001</v>
@@ -552,19 +552,19 @@
         <v>172.36</v>
       </c>
       <c r="L2" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M2" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N2" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O2" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P2" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="3">
@@ -586,16 +586,16 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
         <v>998.39</v>
       </c>
       <c r="H3" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I3" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J3" t="n">
         <v>82.26000000000001</v>
@@ -604,19 +604,19 @@
         <v>172.36</v>
       </c>
       <c r="L3" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M3" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N3" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O3" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P3" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="4">
@@ -638,16 +638,16 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G4" t="n">
         <v>1196.82</v>
       </c>
       <c r="H4" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I4" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J4" t="n">
         <v>82.26000000000001</v>
@@ -656,19 +656,19 @@
         <v>172.36</v>
       </c>
       <c r="L4" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M4" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N4" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O4" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P4" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="5">
@@ -690,37 +690,37 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>8.529999999999999</v>
+        <v>2.13</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>116.2</v>
+        <v>59.03</v>
       </c>
       <c r="I5" t="n">
-        <v>67.81</v>
+        <v>16.93</v>
       </c>
       <c r="J5" t="n">
         <v>59.1</v>
       </c>
       <c r="K5" t="n">
-        <v>143.57</v>
+        <v>143.41</v>
       </c>
       <c r="L5" t="n">
-        <v>7.4</v>
+        <v>1.81</v>
       </c>
       <c r="M5" t="n">
-        <v>6.23</v>
+        <v>0.19</v>
       </c>
       <c r="N5" t="n">
-        <v>8.210000000000001</v>
+        <v>1.99</v>
       </c>
       <c r="O5" t="n">
-        <v>77.95</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>58.48</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="6">
@@ -742,16 +742,16 @@
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>3.96</v>
+        <v>0.99</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>75.38</v>
+        <v>48.84</v>
       </c>
       <c r="I6" t="n">
-        <v>31.48</v>
+        <v>7.87</v>
       </c>
       <c r="J6" t="n">
         <v>14.99</v>
@@ -760,19 +760,19 @@
         <v>66.65000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>3.44</v>
+        <v>1.86</v>
       </c>
       <c r="M6" t="n">
-        <v>4.04</v>
+        <v>0.35</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07</v>
+        <v>1.08</v>
       </c>
       <c r="O6" t="n">
-        <v>80.14</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="P6" t="n">
-        <v>59.7</v>
+        <v>61.17</v>
       </c>
     </row>
     <row r="7">
@@ -794,37 +794,37 @@
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>1.43</v>
+        <v>0.36</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>52.77</v>
+        <v>43.22</v>
       </c>
       <c r="I7" t="n">
-        <v>11.37</v>
+        <v>2.86</v>
       </c>
       <c r="J7" t="n">
         <v>2.36</v>
       </c>
       <c r="K7" t="n">
-        <v>24.07</v>
+        <v>24.24</v>
       </c>
       <c r="L7" t="n">
-        <v>1.24</v>
+        <v>1.71</v>
       </c>
       <c r="M7" t="n">
-        <v>2.83</v>
+        <v>0.79</v>
       </c>
       <c r="N7" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="O7" t="n">
-        <v>72.65000000000001</v>
+        <v>97.16</v>
       </c>
       <c r="P7" t="n">
-        <v>55.45</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="8">
@@ -846,37 +846,37 @@
         <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>5.15</v>
+        <v>1.29</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>86.01000000000001</v>
+        <v>51.52</v>
       </c>
       <c r="I8" t="n">
-        <v>40.94</v>
+        <v>10.25</v>
       </c>
       <c r="J8" t="n">
         <v>23.97</v>
       </c>
       <c r="K8" t="n">
-        <v>86.68000000000001</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>4.47</v>
+        <v>1.86</v>
       </c>
       <c r="M8" t="n">
-        <v>4.61</v>
+        <v>0.29</v>
       </c>
       <c r="N8" t="n">
-        <v>3.32</v>
+        <v>1.35</v>
       </c>
       <c r="O8" t="n">
-        <v>80.02</v>
+        <v>96.5</v>
       </c>
       <c r="P8" t="n">
-        <v>59.64</v>
+        <v>61.33</v>
       </c>
     </row>
     <row r="9">
@@ -898,16 +898,16 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G9" t="n">
         <v>393.94</v>
       </c>
       <c r="H9" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I9" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J9" t="n">
         <v>82.26000000000001</v>
@@ -916,19 +916,19 @@
         <v>172.36</v>
       </c>
       <c r="L9" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M9" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N9" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O9" t="n">
-        <v>76.52</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="P9" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="10">
@@ -950,37 +950,37 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>8.529999999999999</v>
+        <v>2.13</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>116.2</v>
+        <v>59.03</v>
       </c>
       <c r="I10" t="n">
-        <v>67.81</v>
+        <v>16.93</v>
       </c>
       <c r="J10" t="n">
         <v>59.1</v>
       </c>
       <c r="K10" t="n">
-        <v>143.57</v>
+        <v>143.41</v>
       </c>
       <c r="L10" t="n">
-        <v>7.4</v>
+        <v>1.81</v>
       </c>
       <c r="M10" t="n">
-        <v>6.23</v>
+        <v>0.19</v>
       </c>
       <c r="N10" t="n">
-        <v>8.210000000000001</v>
+        <v>1.99</v>
       </c>
       <c r="O10" t="n">
-        <v>77.95</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>58.48</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="11">
@@ -1002,16 +1002,16 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G11" t="n">
         <v>998.39</v>
       </c>
       <c r="H11" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I11" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J11" t="n">
         <v>82.26000000000001</v>
@@ -1020,19 +1020,19 @@
         <v>172.36</v>
       </c>
       <c r="L11" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M11" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N11" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O11" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P11" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="12">
@@ -1054,16 +1054,16 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G12" t="n">
         <v>1088.06</v>
       </c>
       <c r="H12" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I12" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J12" t="n">
         <v>82.26000000000001</v>
@@ -1072,19 +1072,19 @@
         <v>172.36</v>
       </c>
       <c r="L12" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M12" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N12" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O12" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P12" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="13">
@@ -1106,16 +1106,16 @@
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G13" t="n">
         <v>597.28</v>
       </c>
       <c r="H13" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I13" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J13" t="n">
         <v>82.26000000000001</v>
@@ -1124,19 +1124,19 @@
         <v>172.36</v>
       </c>
       <c r="L13" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M13" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N13" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O13" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P13" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="14">
@@ -1158,37 +1158,37 @@
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>5.15</v>
+        <v>1.29</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>86.01000000000001</v>
+        <v>51.52</v>
       </c>
       <c r="I14" t="n">
-        <v>40.94</v>
+        <v>10.25</v>
       </c>
       <c r="J14" t="n">
         <v>23.97</v>
       </c>
       <c r="K14" t="n">
-        <v>86.68000000000001</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>4.47</v>
+        <v>1.86</v>
       </c>
       <c r="M14" t="n">
-        <v>4.61</v>
+        <v>0.29</v>
       </c>
       <c r="N14" t="n">
-        <v>3.32</v>
+        <v>1.35</v>
       </c>
       <c r="O14" t="n">
-        <v>80.02</v>
+        <v>96.5</v>
       </c>
       <c r="P14" t="n">
-        <v>59.64</v>
+        <v>61.33</v>
       </c>
     </row>
     <row r="15">
@@ -1210,16 +1210,16 @@
         <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G15" t="n">
         <v>998.39</v>
       </c>
       <c r="H15" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I15" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J15" t="n">
         <v>82.26000000000001</v>
@@ -1228,19 +1228,19 @@
         <v>172.36</v>
       </c>
       <c r="L15" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M15" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N15" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O15" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P15" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="16">
@@ -1262,16 +1262,16 @@
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G16" t="n">
         <v>597.28</v>
       </c>
       <c r="H16" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I16" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J16" t="n">
         <v>82.26000000000001</v>
@@ -1280,19 +1280,19 @@
         <v>172.36</v>
       </c>
       <c r="L16" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M16" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N16" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O16" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P16" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="17">
@@ -1314,16 +1314,16 @@
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G17" t="n">
         <v>177.59</v>
       </c>
       <c r="H17" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I17" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J17" t="n">
         <v>82.26000000000001</v>
@@ -1332,19 +1332,19 @@
         <v>172.36</v>
       </c>
       <c r="L17" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M17" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N17" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O17" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P17" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="18">
@@ -1366,16 +1366,16 @@
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>3.96</v>
+        <v>0.99</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>75.38</v>
+        <v>48.84</v>
       </c>
       <c r="I18" t="n">
-        <v>31.48</v>
+        <v>7.87</v>
       </c>
       <c r="J18" t="n">
         <v>14.99</v>
@@ -1384,19 +1384,19 @@
         <v>66.65000000000001</v>
       </c>
       <c r="L18" t="n">
-        <v>3.44</v>
+        <v>1.86</v>
       </c>
       <c r="M18" t="n">
-        <v>4.04</v>
+        <v>0.35</v>
       </c>
       <c r="N18" t="n">
-        <v>2.07</v>
+        <v>1.08</v>
       </c>
       <c r="O18" t="n">
-        <v>80.14</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="P18" t="n">
-        <v>59.7</v>
+        <v>61.17</v>
       </c>
     </row>
     <row r="19">
@@ -1418,16 +1418,16 @@
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G19" t="n">
         <v>798.9400000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I19" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J19" t="n">
         <v>82.26000000000001</v>
@@ -1436,19 +1436,19 @@
         <v>172.36</v>
       </c>
       <c r="L19" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M19" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N19" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O19" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P19" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="20">
@@ -1470,16 +1470,16 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G20" t="n">
         <v>1088.06</v>
       </c>
       <c r="H20" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I20" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J20" t="n">
         <v>82.26000000000001</v>
@@ -1488,19 +1488,19 @@
         <v>172.36</v>
       </c>
       <c r="L20" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M20" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N20" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O20" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P20" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="21">
@@ -1522,37 +1522,37 @@
         <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>1.43</v>
+        <v>0.36</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>52.77</v>
+        <v>43.22</v>
       </c>
       <c r="I21" t="n">
-        <v>11.37</v>
+        <v>2.86</v>
       </c>
       <c r="J21" t="n">
         <v>2.36</v>
       </c>
       <c r="K21" t="n">
-        <v>24.07</v>
+        <v>24.24</v>
       </c>
       <c r="L21" t="n">
-        <v>1.24</v>
+        <v>1.71</v>
       </c>
       <c r="M21" t="n">
-        <v>2.83</v>
+        <v>0.79</v>
       </c>
       <c r="N21" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="O21" t="n">
-        <v>72.65000000000001</v>
+        <v>97.16</v>
       </c>
       <c r="P21" t="n">
-        <v>55.45</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="22">
@@ -1574,37 +1574,37 @@
         <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>5.15</v>
+        <v>1.29</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>86.01000000000001</v>
+        <v>51.52</v>
       </c>
       <c r="I22" t="n">
-        <v>40.94</v>
+        <v>10.25</v>
       </c>
       <c r="J22" t="n">
         <v>23.97</v>
       </c>
       <c r="K22" t="n">
-        <v>86.68000000000001</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>4.47</v>
+        <v>1.86</v>
       </c>
       <c r="M22" t="n">
-        <v>4.61</v>
+        <v>0.29</v>
       </c>
       <c r="N22" t="n">
-        <v>3.32</v>
+        <v>1.35</v>
       </c>
       <c r="O22" t="n">
-        <v>80.02</v>
+        <v>96.5</v>
       </c>
       <c r="P22" t="n">
-        <v>59.64</v>
+        <v>61.33</v>
       </c>
     </row>
     <row r="23">
@@ -1626,37 +1626,37 @@
         <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>8.529999999999999</v>
+        <v>2.13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>116.2</v>
+        <v>59.03</v>
       </c>
       <c r="I23" t="n">
-        <v>67.81</v>
+        <v>16.93</v>
       </c>
       <c r="J23" t="n">
         <v>59.1</v>
       </c>
       <c r="K23" t="n">
-        <v>143.57</v>
+        <v>143.41</v>
       </c>
       <c r="L23" t="n">
-        <v>7.4</v>
+        <v>1.81</v>
       </c>
       <c r="M23" t="n">
-        <v>6.23</v>
+        <v>0.19</v>
       </c>
       <c r="N23" t="n">
-        <v>8.210000000000001</v>
+        <v>1.99</v>
       </c>
       <c r="O23" t="n">
-        <v>77.95</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="24">
@@ -1678,16 +1678,16 @@
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G24" t="n">
         <v>895.95</v>
       </c>
       <c r="H24" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I24" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J24" t="n">
         <v>82.26000000000001</v>
@@ -1696,19 +1696,19 @@
         <v>172.36</v>
       </c>
       <c r="L24" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M24" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N24" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O24" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P24" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="25">
@@ -1730,16 +1730,16 @@
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G25" t="n">
         <v>393.94</v>
       </c>
       <c r="H25" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I25" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J25" t="n">
         <v>82.26000000000001</v>
@@ -1748,19 +1748,19 @@
         <v>172.36</v>
       </c>
       <c r="L25" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M25" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N25" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O25" t="n">
-        <v>76.52</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="P25" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="26">
@@ -1782,16 +1782,16 @@
         <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G26" t="n">
         <v>493.16</v>
       </c>
       <c r="H26" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I26" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J26" t="n">
         <v>82.26000000000001</v>
@@ -1800,19 +1800,19 @@
         <v>172.36</v>
       </c>
       <c r="L26" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M26" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N26" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O26" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P26" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="27">
@@ -1834,16 +1834,16 @@
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G27" t="n">
         <v>798.9400000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I27" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J27" t="n">
         <v>82.26000000000001</v>
@@ -1852,19 +1852,19 @@
         <v>172.36</v>
       </c>
       <c r="L27" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M27" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N27" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O27" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P27" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="28">
@@ -1886,37 +1886,37 @@
         <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>6.31</v>
+        <v>1.58</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>96.37</v>
+        <v>54.11</v>
       </c>
       <c r="I28" t="n">
-        <v>50.16</v>
+        <v>12.56</v>
       </c>
       <c r="J28" t="n">
         <v>34.41</v>
       </c>
       <c r="K28" t="n">
-        <v>106.21</v>
+        <v>106.38</v>
       </c>
       <c r="L28" t="n">
-        <v>5.47</v>
+        <v>1.84</v>
       </c>
       <c r="M28" t="n">
-        <v>5.17</v>
+        <v>0.24</v>
       </c>
       <c r="N28" t="n">
-        <v>4.77</v>
+        <v>1.59</v>
       </c>
       <c r="O28" t="n">
-        <v>79.53</v>
+        <v>96.33</v>
       </c>
       <c r="P28" t="n">
-        <v>59.36</v>
+        <v>61.15</v>
       </c>
     </row>
     <row r="29">
@@ -1931,11 +1931,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2042,16 +2042,16 @@
         <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G31" t="n">
         <v>998.39</v>
       </c>
       <c r="H31" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I31" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J31" t="n">
         <v>82.26000000000001</v>
@@ -2060,19 +2060,19 @@
         <v>172.36</v>
       </c>
       <c r="L31" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M31" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N31" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O31" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P31" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="32">
@@ -2094,16 +2094,16 @@
         <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G32" t="n">
         <v>1088.06</v>
       </c>
       <c r="H32" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I32" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J32" t="n">
         <v>82.26000000000001</v>
@@ -2112,19 +2112,19 @@
         <v>172.36</v>
       </c>
       <c r="L32" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M32" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N32" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O32" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P32" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="33">
@@ -2146,16 +2146,16 @@
         <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G33" t="n">
         <v>1849.27</v>
       </c>
       <c r="H33" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I33" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J33" t="n">
         <v>82.26000000000001</v>
@@ -2164,19 +2164,19 @@
         <v>172.36</v>
       </c>
       <c r="L33" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M33" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N33" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O33" t="n">
-        <v>76.52</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="P33" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="34">
@@ -2198,16 +2198,16 @@
         <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G34" t="n">
         <v>4538.32</v>
       </c>
       <c r="H34" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I34" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J34" t="n">
         <v>82.26000000000001</v>
@@ -2216,19 +2216,19 @@
         <v>172.36</v>
       </c>
       <c r="L34" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M34" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N34" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O34" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P34" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="35">
@@ -2250,16 +2250,16 @@
         <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G35" t="n">
         <v>5798.5</v>
       </c>
       <c r="H35" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I35" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J35" t="n">
         <v>82.26000000000001</v>
@@ -2268,19 +2268,19 @@
         <v>172.36</v>
       </c>
       <c r="L35" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M35" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N35" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O35" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P35" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="36">
@@ -2302,16 +2302,16 @@
         <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G36" t="n">
         <v>3183.73</v>
       </c>
       <c r="H36" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I36" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J36" t="n">
         <v>82.26000000000001</v>
@@ -2320,19 +2320,19 @@
         <v>172.36</v>
       </c>
       <c r="L36" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M36" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N36" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O36" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P36" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="37">
@@ -2354,16 +2354,16 @@
         <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G37" t="n">
         <v>3374.73</v>
       </c>
       <c r="H37" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I37" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J37" t="n">
         <v>82.26000000000001</v>
@@ -2372,19 +2372,19 @@
         <v>172.36</v>
       </c>
       <c r="L37" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M37" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N37" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O37" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P37" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="38">
@@ -2406,16 +2406,16 @@
         <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G38" t="n">
         <v>6759.64</v>
       </c>
       <c r="H38" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I38" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J38" t="n">
         <v>82.26000000000001</v>
@@ -2424,19 +2424,19 @@
         <v>172.36</v>
       </c>
       <c r="L38" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M38" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N38" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O38" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P38" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="39">
@@ -2451,11 +2451,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -2503,11 +2503,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2555,11 +2555,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2711,44 +2711,44 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
-        <v>10.24</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>895.95</v>
+        <v>1391.699944501725</v>
       </c>
       <c r="H44" t="n">
-        <v>131.48</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>81.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>82.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>172.36</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.880000000000001</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>7.05</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>11.44</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>76.52</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>57.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2770,16 +2770,16 @@
         <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G45" t="n">
         <v>2607.67</v>
       </c>
       <c r="H45" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I45" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J45" t="n">
         <v>82.26000000000001</v>
@@ -2788,19 +2788,19 @@
         <v>172.36</v>
       </c>
       <c r="L45" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M45" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N45" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O45" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P45" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="46">
@@ -2822,16 +2822,16 @@
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G46" t="n">
         <v>3914.84</v>
       </c>
       <c r="H46" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I46" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J46" t="n">
         <v>82.26000000000001</v>
@@ -2840,19 +2840,19 @@
         <v>172.36</v>
       </c>
       <c r="L46" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M46" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N46" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O46" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P46" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="47">
@@ -2874,16 +2874,16 @@
         <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G47" t="n">
         <v>2992.33</v>
       </c>
       <c r="H47" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I47" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J47" t="n">
         <v>82.26000000000001</v>
@@ -2892,19 +2892,19 @@
         <v>172.36</v>
       </c>
       <c r="L47" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M47" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N47" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O47" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P47" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="48">
@@ -2926,16 +2926,16 @@
         <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G48" t="n">
         <v>5168.14</v>
       </c>
       <c r="H48" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I48" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J48" t="n">
         <v>82.26000000000001</v>
@@ -2944,19 +2944,19 @@
         <v>172.36</v>
       </c>
       <c r="L48" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M48" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N48" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O48" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P48" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="49">
@@ -2978,16 +2978,16 @@
         <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G49" t="n">
         <v>3914.84</v>
       </c>
       <c r="H49" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I49" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J49" t="n">
         <v>82.26000000000001</v>
@@ -2996,19 +2996,19 @@
         <v>172.36</v>
       </c>
       <c r="L49" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M49" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N49" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O49" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P49" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="50">
@@ -3030,16 +3030,16 @@
         <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G50" t="n">
         <v>10565.89</v>
       </c>
       <c r="H50" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I50" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J50" t="n">
         <v>82.26000000000001</v>
@@ -3048,19 +3048,19 @@
         <v>172.36</v>
       </c>
       <c r="L50" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M50" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N50" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O50" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P50" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="51">
@@ -3082,16 +3082,16 @@
         <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G51" t="n">
         <v>8834.6</v>
       </c>
       <c r="H51" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I51" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J51" t="n">
         <v>82.26000000000001</v>
@@ -3100,19 +3100,19 @@
         <v>172.36</v>
       </c>
       <c r="L51" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M51" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N51" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O51" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P51" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="52">
@@ -3134,16 +3134,16 @@
         <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G52" t="n">
         <v>2992.33</v>
       </c>
       <c r="H52" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I52" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J52" t="n">
         <v>82.26000000000001</v>
@@ -3152,19 +3152,19 @@
         <v>172.36</v>
       </c>
       <c r="L52" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M52" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N52" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O52" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P52" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="53">
@@ -3186,16 +3186,16 @@
         <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G53" t="n">
         <v>2607.67</v>
       </c>
       <c r="H53" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I53" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J53" t="n">
         <v>82.26000000000001</v>
@@ -3204,19 +3204,19 @@
         <v>172.36</v>
       </c>
       <c r="L53" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M53" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N53" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O53" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P53" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="54">
@@ -3238,16 +3238,16 @@
         <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G54" t="n">
         <v>2417.48</v>
       </c>
       <c r="H54" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I54" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J54" t="n">
         <v>82.26000000000001</v>
@@ -3256,19 +3256,19 @@
         <v>172.36</v>
       </c>
       <c r="L54" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M54" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N54" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O54" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P54" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="55">
@@ -3290,16 +3290,16 @@
         <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G55" t="n">
         <v>1468.74</v>
       </c>
       <c r="H55" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I55" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J55" t="n">
         <v>82.26000000000001</v>
@@ -3308,19 +3308,19 @@
         <v>172.36</v>
       </c>
       <c r="L55" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M55" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N55" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O55" t="n">
-        <v>76.52</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="P55" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="56">
@@ -3342,16 +3342,16 @@
         <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G56" t="n">
         <v>2039.07</v>
       </c>
       <c r="H56" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I56" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J56" t="n">
         <v>82.26000000000001</v>
@@ -3360,19 +3360,19 @@
         <v>172.36</v>
       </c>
       <c r="L56" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M56" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N56" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O56" t="n">
-        <v>76.52</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="P56" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="57">
@@ -3394,16 +3394,16 @@
         <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G57" t="n">
         <v>7124.94</v>
       </c>
       <c r="H57" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I57" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J57" t="n">
         <v>82.26000000000001</v>
@@ -3412,19 +3412,19 @@
         <v>172.36</v>
       </c>
       <c r="L57" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M57" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N57" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O57" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P57" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="58">
@@ -3446,16 +3446,16 @@
         <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G58" t="n">
         <v>11998.56</v>
       </c>
       <c r="H58" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I58" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J58" t="n">
         <v>82.26000000000001</v>
@@ -3464,19 +3464,19 @@
         <v>172.36</v>
       </c>
       <c r="L58" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M58" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N58" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O58" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P58" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="59">
@@ -3498,16 +3498,16 @@
         <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G59" t="n">
         <v>10565.89</v>
       </c>
       <c r="H59" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I59" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J59" t="n">
         <v>82.26000000000001</v>
@@ -3516,19 +3516,19 @@
         <v>172.36</v>
       </c>
       <c r="L59" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M59" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N59" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O59" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P59" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="60">
@@ -3550,16 +3550,16 @@
         <v>4</v>
       </c>
       <c r="F60" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G60" t="n">
         <v>9698.959999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I60" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J60" t="n">
         <v>82.26000000000001</v>
@@ -3568,19 +3568,19 @@
         <v>172.36</v>
       </c>
       <c r="L60" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M60" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N60" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O60" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P60" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="61">
@@ -3602,16 +3602,16 @@
         <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G61" t="n">
         <v>13686.42</v>
       </c>
       <c r="H61" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I61" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J61" t="n">
         <v>82.26000000000001</v>
@@ -3620,19 +3620,19 @@
         <v>172.36</v>
       </c>
       <c r="L61" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M61" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N61" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O61" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P61" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="62">
@@ -3654,16 +3654,16 @@
         <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G62" t="n">
         <v>12564.65</v>
       </c>
       <c r="H62" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I62" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J62" t="n">
         <v>82.26000000000001</v>
@@ -3672,19 +3672,19 @@
         <v>172.36</v>
       </c>
       <c r="L62" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M62" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N62" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O62" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P62" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="63">
@@ -3706,16 +3706,16 @@
         <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G63" t="n">
         <v>9698.959999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I63" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J63" t="n">
         <v>82.26000000000001</v>
@@ -3724,19 +3724,19 @@
         <v>172.36</v>
       </c>
       <c r="L63" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M63" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N63" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O63" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P63" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="64">
@@ -3758,16 +3758,16 @@
         <v>4</v>
       </c>
       <c r="F64" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G64" t="n">
         <v>10565.89</v>
       </c>
       <c r="H64" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I64" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J64" t="n">
         <v>82.26000000000001</v>
@@ -3776,19 +3776,19 @@
         <v>172.36</v>
       </c>
       <c r="L64" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M64" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N64" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O64" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P64" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="65">
@@ -3810,16 +3810,16 @@
         <v>4</v>
       </c>
       <c r="F65" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G65" t="n">
         <v>7124.94</v>
       </c>
       <c r="H65" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I65" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J65" t="n">
         <v>82.26000000000001</v>
@@ -3828,19 +3828,19 @@
         <v>172.36</v>
       </c>
       <c r="L65" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M65" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N65" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O65" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P65" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="66">
@@ -3862,16 +3862,16 @@
         <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G66" t="n">
         <v>5168.14</v>
       </c>
       <c r="H66" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I66" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J66" t="n">
         <v>82.26000000000001</v>
@@ -3880,19 +3880,19 @@
         <v>172.36</v>
       </c>
       <c r="L66" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M66" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N66" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O66" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P66" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="67">
@@ -3914,16 +3914,16 @@
         <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G67" t="n">
         <v>7124.94</v>
       </c>
       <c r="H67" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I67" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J67" t="n">
         <v>82.26000000000001</v>
@@ -3932,19 +3932,19 @@
         <v>172.36</v>
       </c>
       <c r="L67" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M67" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N67" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O67" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P67" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="68">
@@ -3966,16 +3966,16 @@
         <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G68" t="n">
         <v>11006.25</v>
       </c>
       <c r="H68" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I68" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J68" t="n">
         <v>82.26000000000001</v>
@@ -3984,19 +3984,19 @@
         <v>172.36</v>
       </c>
       <c r="L68" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M68" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N68" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O68" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P68" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="69">
@@ -4011,11 +4011,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -4063,11 +4063,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -4115,11 +4115,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -4531,44 +4531,44 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
-        <v>10.24</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>5168.14</v>
+        <v>5663.892450040729</v>
       </c>
       <c r="H79" t="n">
-        <v>131.48</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>81.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>82.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>172.36</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>8.880000000000001</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>7.05</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>11.44</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>76.52</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>57.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4590,16 +4590,16 @@
         <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G80" t="n">
         <v>12564.65</v>
       </c>
       <c r="H80" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I80" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J80" t="n">
         <v>82.26000000000001</v>
@@ -4608,19 +4608,19 @@
         <v>172.36</v>
       </c>
       <c r="L80" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M80" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N80" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O80" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P80" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="81">
@@ -4642,16 +4642,16 @@
         <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G81" t="n">
         <v>11447.21</v>
       </c>
       <c r="H81" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I81" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J81" t="n">
         <v>82.26000000000001</v>
@@ -4660,19 +4660,19 @@
         <v>172.36</v>
       </c>
       <c r="L81" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M81" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N81" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O81" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P81" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="82">
@@ -4694,16 +4694,16 @@
         <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G82" t="n">
         <v>10565.89</v>
       </c>
       <c r="H82" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I82" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J82" t="n">
         <v>82.26000000000001</v>
@@ -4712,19 +4712,19 @@
         <v>172.36</v>
       </c>
       <c r="L82" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M82" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N82" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O82" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P82" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="83">
@@ -4746,16 +4746,16 @@
         <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G83" t="n">
         <v>3374.73</v>
       </c>
       <c r="H83" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I83" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J83" t="n">
         <v>82.26000000000001</v>
@@ -4764,19 +4764,19 @@
         <v>172.36</v>
       </c>
       <c r="L83" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M83" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N83" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O83" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P83" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="84">
@@ -4798,16 +4798,16 @@
         <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G84" t="n">
         <v>11447.21</v>
       </c>
       <c r="H84" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I84" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J84" t="n">
         <v>82.26000000000001</v>
@@ -4816,19 +4816,19 @@
         <v>172.36</v>
       </c>
       <c r="L84" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M84" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N84" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O84" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P84" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="85">
@@ -4850,16 +4850,16 @@
         <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G85" t="n">
         <v>19649.13</v>
       </c>
       <c r="H85" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I85" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J85" t="n">
         <v>82.26000000000001</v>
@@ -4868,19 +4868,19 @@
         <v>172.36</v>
       </c>
       <c r="L85" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M85" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N85" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O85" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P85" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="86">
@@ -4902,16 +4902,16 @@
         <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G86" t="n">
         <v>18366.97</v>
       </c>
       <c r="H86" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I86" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J86" t="n">
         <v>82.26000000000001</v>
@@ -4920,19 +4920,19 @@
         <v>172.36</v>
       </c>
       <c r="L86" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M86" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N86" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O86" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P86" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="87">
@@ -4954,16 +4954,16 @@
         <v>4</v>
       </c>
       <c r="F87" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G87" t="n">
         <v>17107.89</v>
       </c>
       <c r="H87" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I87" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J87" t="n">
         <v>82.26000000000001</v>
@@ -4972,19 +4972,19 @@
         <v>172.36</v>
       </c>
       <c r="L87" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M87" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N87" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O87" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P87" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="88">
@@ -5006,16 +5006,16 @@
         <v>4</v>
       </c>
       <c r="F88" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G88" t="n">
         <v>15380.95</v>
       </c>
       <c r="H88" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I88" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J88" t="n">
         <v>82.26000000000001</v>
@@ -5024,19 +5024,19 @@
         <v>172.36</v>
       </c>
       <c r="L88" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M88" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N88" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O88" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P88" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="89">
@@ -5058,16 +5058,16 @@
         <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G89" t="n">
         <v>17107.89</v>
       </c>
       <c r="H89" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I89" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J89" t="n">
         <v>82.26000000000001</v>
@@ -5076,19 +5076,19 @@
         <v>172.36</v>
       </c>
       <c r="L89" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M89" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N89" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O89" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P89" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="90">
@@ -5110,16 +5110,16 @@
         <v>4</v>
       </c>
       <c r="F90" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G90" t="n">
         <v>14814.4</v>
       </c>
       <c r="H90" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I90" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J90" t="n">
         <v>82.26000000000001</v>
@@ -5128,19 +5128,19 @@
         <v>172.36</v>
       </c>
       <c r="L90" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M90" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N90" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O90" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P90" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="91">
@@ -5162,16 +5162,16 @@
         <v>4</v>
       </c>
       <c r="F91" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G91" t="n">
         <v>17107.89</v>
       </c>
       <c r="H91" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I91" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J91" t="n">
         <v>82.26000000000001</v>
@@ -5180,19 +5180,19 @@
         <v>172.36</v>
       </c>
       <c r="L91" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M91" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N91" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O91" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P91" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="92">
@@ -5214,16 +5214,16 @@
         <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G92" t="n">
         <v>17727.22</v>
       </c>
       <c r="H92" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I92" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J92" t="n">
         <v>82.26000000000001</v>
@@ -5232,19 +5232,19 @@
         <v>172.36</v>
       </c>
       <c r="L92" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M92" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N92" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O92" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P92" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="93">
@@ -5266,16 +5266,16 @@
         <v>4</v>
       </c>
       <c r="F93" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G93" t="n">
         <v>31285.96</v>
       </c>
       <c r="H93" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I93" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J93" t="n">
         <v>82.26000000000001</v>
@@ -5284,19 +5284,19 @@
         <v>172.36</v>
       </c>
       <c r="L93" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M93" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N93" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O93" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P93" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="94">
@@ -5318,16 +5318,16 @@
         <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G94" t="n">
         <v>24815.11</v>
       </c>
       <c r="H94" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I94" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J94" t="n">
         <v>82.26000000000001</v>
@@ -5336,19 +5336,19 @@
         <v>172.36</v>
       </c>
       <c r="L94" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M94" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N94" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O94" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P94" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="95">
@@ -5370,16 +5370,16 @@
         <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G95" t="n">
         <v>19649.13</v>
       </c>
       <c r="H95" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I95" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J95" t="n">
         <v>82.26000000000001</v>
@@ -5388,19 +5388,19 @@
         <v>172.36</v>
       </c>
       <c r="L95" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M95" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N95" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O95" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P95" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="96">
@@ -5422,16 +5422,16 @@
         <v>4</v>
       </c>
       <c r="F96" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G96" t="n">
         <v>14814.4</v>
       </c>
       <c r="H96" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I96" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J96" t="n">
         <v>82.26000000000001</v>
@@ -5440,19 +5440,19 @@
         <v>172.36</v>
       </c>
       <c r="L96" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M96" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N96" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O96" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P96" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="97">
@@ -5474,16 +5474,16 @@
         <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G97" t="n">
         <v>13686.42</v>
       </c>
       <c r="H97" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I97" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J97" t="n">
         <v>82.26000000000001</v>
@@ -5492,19 +5492,19 @@
         <v>172.36</v>
       </c>
       <c r="L97" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M97" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N97" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O97" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P97" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="98">
@@ -5526,16 +5526,16 @@
         <v>4</v>
       </c>
       <c r="F98" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G98" t="n">
         <v>10565.89</v>
       </c>
       <c r="H98" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I98" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J98" t="n">
         <v>82.26000000000001</v>
@@ -5544,19 +5544,19 @@
         <v>172.36</v>
       </c>
       <c r="L98" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M98" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N98" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O98" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P98" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="99">
@@ -5578,16 +5578,16 @@
         <v>4</v>
       </c>
       <c r="F99" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G99" t="n">
         <v>15953.56</v>
       </c>
       <c r="H99" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I99" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J99" t="n">
         <v>82.26000000000001</v>
@@ -5596,19 +5596,19 @@
         <v>172.36</v>
       </c>
       <c r="L99" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M99" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N99" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O99" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P99" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="100">
@@ -5630,16 +5630,16 @@
         <v>4</v>
       </c>
       <c r="F100" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G100" t="n">
         <v>19649.13</v>
       </c>
       <c r="H100" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I100" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J100" t="n">
         <v>82.26000000000001</v>
@@ -5648,19 +5648,19 @@
         <v>172.36</v>
       </c>
       <c r="L100" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M100" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N100" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O100" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P100" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="101">
@@ -5682,16 +5682,16 @@
         <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="G101" t="n">
         <v>32344.78</v>
       </c>
       <c r="H101" t="n">
-        <v>131.48</v>
+        <v>62.87</v>
       </c>
       <c r="I101" t="n">
-        <v>81.40000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J101" t="n">
         <v>82.26000000000001</v>
@@ -5700,19 +5700,19 @@
         <v>172.36</v>
       </c>
       <c r="L101" t="n">
-        <v>8.880000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="M101" t="n">
-        <v>7.05</v>
+        <v>0.17</v>
       </c>
       <c r="N101" t="n">
-        <v>11.44</v>
+        <v>2.28</v>
       </c>
       <c r="O101" t="n">
-        <v>76.52</v>
+        <v>80.03</v>
       </c>
       <c r="P101" t="n">
-        <v>57.67</v>
+        <v>59.65</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -481,12 +481,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Heat Cell [kw/dt]</t>
+          <t>Heat Cell [%]</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>compression [kw/dt]</t>
+          <t>compression [%]</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -546,10 +546,10 @@
         <v>20.35</v>
       </c>
       <c r="J2" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K2" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L2" t="n">
         <v>1.78</v>
@@ -561,10 +561,10 @@
         <v>2.28</v>
       </c>
       <c r="O2" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="3">
@@ -598,10 +598,10 @@
         <v>20.35</v>
       </c>
       <c r="J3" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K3" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L3" t="n">
         <v>1.78</v>
@@ -613,10 +613,10 @@
         <v>2.28</v>
       </c>
       <c r="O3" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="4">
@@ -650,10 +650,10 @@
         <v>20.35</v>
       </c>
       <c r="J4" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K4" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L4" t="n">
         <v>1.78</v>
@@ -665,10 +665,10 @@
         <v>2.28</v>
       </c>
       <c r="O4" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="5">
@@ -702,10 +702,10 @@
         <v>16.93</v>
       </c>
       <c r="J5" t="n">
-        <v>59.1</v>
+        <v>14.44</v>
       </c>
       <c r="K5" t="n">
-        <v>143.41</v>
+        <v>1835.39</v>
       </c>
       <c r="L5" t="n">
         <v>1.81</v>
@@ -717,10 +717,10 @@
         <v>1.99</v>
       </c>
       <c r="O5" t="n">
-        <v>96.01000000000001</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>60.3</v>
+        <v>-1753.82</v>
       </c>
     </row>
     <row r="6">
@@ -754,10 +754,10 @@
         <v>7.87</v>
       </c>
       <c r="J6" t="n">
-        <v>14.99</v>
+        <v>8.09</v>
       </c>
       <c r="K6" t="n">
-        <v>66.65000000000001</v>
+        <v>4057.44</v>
       </c>
       <c r="L6" t="n">
         <v>1.86</v>
@@ -769,10 +769,10 @@
         <v>1.08</v>
       </c>
       <c r="O6" t="n">
-        <v>96.70999999999999</v>
+        <v>88.62</v>
       </c>
       <c r="P6" t="n">
-        <v>61.17</v>
+        <v>-3968.82</v>
       </c>
     </row>
     <row r="7">
@@ -806,10 +806,10 @@
         <v>2.86</v>
       </c>
       <c r="J7" t="n">
-        <v>2.36</v>
+        <v>3.23</v>
       </c>
       <c r="K7" t="n">
-        <v>24.24</v>
+        <v>10268.28</v>
       </c>
       <c r="L7" t="n">
         <v>1.71</v>
@@ -821,10 +821,10 @@
         <v>0.34</v>
       </c>
       <c r="O7" t="n">
-        <v>97.16</v>
+        <v>93.93000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>56.6</v>
+        <v>-10174.35</v>
       </c>
     </row>
     <row r="8">
@@ -858,10 +858,10 @@
         <v>10.25</v>
       </c>
       <c r="J8" t="n">
-        <v>23.97</v>
+        <v>9.93</v>
       </c>
       <c r="K8" t="n">
-        <v>86.84999999999999</v>
+        <v>3114.85</v>
       </c>
       <c r="L8" t="n">
         <v>1.86</v>
@@ -873,10 +873,10 @@
         <v>1.35</v>
       </c>
       <c r="O8" t="n">
-        <v>96.5</v>
+        <v>86.56999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>61.33</v>
+        <v>-3028.28</v>
       </c>
     </row>
     <row r="9">
@@ -910,10 +910,10 @@
         <v>20.35</v>
       </c>
       <c r="J9" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K9" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L9" t="n">
         <v>1.78</v>
@@ -925,10 +925,10 @@
         <v>2.28</v>
       </c>
       <c r="O9" t="n">
-        <v>80.04000000000001</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="10">
@@ -962,10 +962,10 @@
         <v>16.93</v>
       </c>
       <c r="J10" t="n">
-        <v>59.1</v>
+        <v>14.44</v>
       </c>
       <c r="K10" t="n">
-        <v>143.41</v>
+        <v>1835.39</v>
       </c>
       <c r="L10" t="n">
         <v>1.81</v>
@@ -977,10 +977,10 @@
         <v>1.99</v>
       </c>
       <c r="O10" t="n">
-        <v>96.01000000000001</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="P10" t="n">
-        <v>60.3</v>
+        <v>-1753.82</v>
       </c>
     </row>
     <row r="11">
@@ -1014,10 +1014,10 @@
         <v>20.35</v>
       </c>
       <c r="J11" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K11" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L11" t="n">
         <v>1.78</v>
@@ -1029,10 +1029,10 @@
         <v>2.28</v>
       </c>
       <c r="O11" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="12">
@@ -1066,10 +1066,10 @@
         <v>20.35</v>
       </c>
       <c r="J12" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K12" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L12" t="n">
         <v>1.78</v>
@@ -1081,10 +1081,10 @@
         <v>2.28</v>
       </c>
       <c r="O12" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P12" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="13">
@@ -1118,10 +1118,10 @@
         <v>20.35</v>
       </c>
       <c r="J13" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K13" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L13" t="n">
         <v>1.78</v>
@@ -1133,10 +1133,10 @@
         <v>2.28</v>
       </c>
       <c r="O13" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="14">
@@ -1170,10 +1170,10 @@
         <v>10.25</v>
       </c>
       <c r="J14" t="n">
-        <v>23.97</v>
+        <v>9.93</v>
       </c>
       <c r="K14" t="n">
-        <v>86.84999999999999</v>
+        <v>3114.85</v>
       </c>
       <c r="L14" t="n">
         <v>1.86</v>
@@ -1185,10 +1185,10 @@
         <v>1.35</v>
       </c>
       <c r="O14" t="n">
-        <v>96.5</v>
+        <v>86.56999999999999</v>
       </c>
       <c r="P14" t="n">
-        <v>61.33</v>
+        <v>-3028.28</v>
       </c>
     </row>
     <row r="15">
@@ -1222,10 +1222,10 @@
         <v>20.35</v>
       </c>
       <c r="J15" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K15" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L15" t="n">
         <v>1.78</v>
@@ -1237,10 +1237,10 @@
         <v>2.28</v>
       </c>
       <c r="O15" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P15" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="16">
@@ -1274,10 +1274,10 @@
         <v>20.35</v>
       </c>
       <c r="J16" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K16" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L16" t="n">
         <v>1.78</v>
@@ -1289,10 +1289,10 @@
         <v>2.28</v>
       </c>
       <c r="O16" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P16" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="17">
@@ -1326,10 +1326,10 @@
         <v>20.35</v>
       </c>
       <c r="J17" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K17" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L17" t="n">
         <v>1.78</v>
@@ -1341,10 +1341,10 @@
         <v>2.28</v>
       </c>
       <c r="O17" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="18">
@@ -1378,10 +1378,10 @@
         <v>7.87</v>
       </c>
       <c r="J18" t="n">
-        <v>14.99</v>
+        <v>8.09</v>
       </c>
       <c r="K18" t="n">
-        <v>66.65000000000001</v>
+        <v>4057.44</v>
       </c>
       <c r="L18" t="n">
         <v>1.86</v>
@@ -1393,10 +1393,10 @@
         <v>1.08</v>
       </c>
       <c r="O18" t="n">
-        <v>96.70999999999999</v>
+        <v>88.62</v>
       </c>
       <c r="P18" t="n">
-        <v>61.17</v>
+        <v>-3968.82</v>
       </c>
     </row>
     <row r="19">
@@ -1430,10 +1430,10 @@
         <v>20.35</v>
       </c>
       <c r="J19" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K19" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L19" t="n">
         <v>1.78</v>
@@ -1445,10 +1445,10 @@
         <v>2.28</v>
       </c>
       <c r="O19" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P19" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="20">
@@ -1482,10 +1482,10 @@
         <v>20.35</v>
       </c>
       <c r="J20" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K20" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L20" t="n">
         <v>1.78</v>
@@ -1497,10 +1497,10 @@
         <v>2.28</v>
       </c>
       <c r="O20" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P20" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="21">
@@ -1534,10 +1534,10 @@
         <v>2.86</v>
       </c>
       <c r="J21" t="n">
-        <v>2.36</v>
+        <v>3.23</v>
       </c>
       <c r="K21" t="n">
-        <v>24.24</v>
+        <v>10268.28</v>
       </c>
       <c r="L21" t="n">
         <v>1.71</v>
@@ -1549,10 +1549,10 @@
         <v>0.34</v>
       </c>
       <c r="O21" t="n">
-        <v>97.16</v>
+        <v>93.93000000000001</v>
       </c>
       <c r="P21" t="n">
-        <v>56.6</v>
+        <v>-10174.35</v>
       </c>
     </row>
     <row r="22">
@@ -1586,10 +1586,10 @@
         <v>10.25</v>
       </c>
       <c r="J22" t="n">
-        <v>23.97</v>
+        <v>9.93</v>
       </c>
       <c r="K22" t="n">
-        <v>86.84999999999999</v>
+        <v>3114.85</v>
       </c>
       <c r="L22" t="n">
         <v>1.86</v>
@@ -1601,10 +1601,10 @@
         <v>1.35</v>
       </c>
       <c r="O22" t="n">
-        <v>96.5</v>
+        <v>86.56999999999999</v>
       </c>
       <c r="P22" t="n">
-        <v>61.33</v>
+        <v>-3028.28</v>
       </c>
     </row>
     <row r="23">
@@ -1638,10 +1638,10 @@
         <v>16.93</v>
       </c>
       <c r="J23" t="n">
-        <v>59.1</v>
+        <v>14.44</v>
       </c>
       <c r="K23" t="n">
-        <v>143.41</v>
+        <v>1835.39</v>
       </c>
       <c r="L23" t="n">
         <v>1.81</v>
@@ -1653,10 +1653,10 @@
         <v>1.99</v>
       </c>
       <c r="O23" t="n">
-        <v>96.01000000000001</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="P23" t="n">
-        <v>60.3</v>
+        <v>-1753.82</v>
       </c>
     </row>
     <row r="24">
@@ -1690,10 +1690,10 @@
         <v>20.35</v>
       </c>
       <c r="J24" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K24" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L24" t="n">
         <v>1.78</v>
@@ -1705,10 +1705,10 @@
         <v>2.28</v>
       </c>
       <c r="O24" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P24" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="25">
@@ -1742,10 +1742,10 @@
         <v>20.35</v>
       </c>
       <c r="J25" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K25" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L25" t="n">
         <v>1.78</v>
@@ -1757,10 +1757,10 @@
         <v>2.28</v>
       </c>
       <c r="O25" t="n">
-        <v>80.04000000000001</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="26">
@@ -1794,10 +1794,10 @@
         <v>20.35</v>
       </c>
       <c r="J26" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K26" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L26" t="n">
         <v>1.78</v>
@@ -1809,10 +1809,10 @@
         <v>2.28</v>
       </c>
       <c r="O26" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P26" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="27">
@@ -1846,10 +1846,10 @@
         <v>20.35</v>
       </c>
       <c r="J27" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K27" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L27" t="n">
         <v>1.78</v>
@@ -1861,10 +1861,10 @@
         <v>2.28</v>
       </c>
       <c r="O27" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P27" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="28">
@@ -1898,10 +1898,10 @@
         <v>12.56</v>
       </c>
       <c r="J28" t="n">
-        <v>34.41</v>
+        <v>11.57</v>
       </c>
       <c r="K28" t="n">
-        <v>106.38</v>
+        <v>2527.59</v>
       </c>
       <c r="L28" t="n">
         <v>1.84</v>
@@ -1913,10 +1913,10 @@
         <v>1.59</v>
       </c>
       <c r="O28" t="n">
-        <v>96.33</v>
+        <v>84.76000000000001</v>
       </c>
       <c r="P28" t="n">
-        <v>61.15</v>
+        <v>-2442.83</v>
       </c>
     </row>
     <row r="29">
@@ -2054,10 +2054,10 @@
         <v>20.35</v>
       </c>
       <c r="J31" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K31" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L31" t="n">
         <v>1.78</v>
@@ -2069,10 +2069,10 @@
         <v>2.28</v>
       </c>
       <c r="O31" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P31" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="32">
@@ -2106,10 +2106,10 @@
         <v>20.35</v>
       </c>
       <c r="J32" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K32" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L32" t="n">
         <v>1.78</v>
@@ -2121,10 +2121,10 @@
         <v>2.28</v>
       </c>
       <c r="O32" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P32" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="33">
@@ -2158,10 +2158,10 @@
         <v>20.35</v>
       </c>
       <c r="J33" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K33" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L33" t="n">
         <v>1.78</v>
@@ -2173,10 +2173,10 @@
         <v>2.28</v>
       </c>
       <c r="O33" t="n">
-        <v>80.04000000000001</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P33" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="34">
@@ -2210,10 +2210,10 @@
         <v>20.35</v>
       </c>
       <c r="J34" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K34" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L34" t="n">
         <v>1.78</v>
@@ -2225,10 +2225,10 @@
         <v>2.28</v>
       </c>
       <c r="O34" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P34" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="35">
@@ -2262,10 +2262,10 @@
         <v>20.35</v>
       </c>
       <c r="J35" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K35" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L35" t="n">
         <v>1.78</v>
@@ -2277,10 +2277,10 @@
         <v>2.28</v>
       </c>
       <c r="O35" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P35" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="36">
@@ -2314,10 +2314,10 @@
         <v>20.35</v>
       </c>
       <c r="J36" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K36" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L36" t="n">
         <v>1.78</v>
@@ -2329,10 +2329,10 @@
         <v>2.28</v>
       </c>
       <c r="O36" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P36" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="37">
@@ -2366,10 +2366,10 @@
         <v>20.35</v>
       </c>
       <c r="J37" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K37" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L37" t="n">
         <v>1.78</v>
@@ -2381,10 +2381,10 @@
         <v>2.28</v>
       </c>
       <c r="O37" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P37" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="38">
@@ -2418,10 +2418,10 @@
         <v>20.35</v>
       </c>
       <c r="J38" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K38" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L38" t="n">
         <v>1.78</v>
@@ -2433,10 +2433,10 @@
         <v>2.28</v>
       </c>
       <c r="O38" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P38" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="39">
@@ -2782,10 +2782,10 @@
         <v>20.35</v>
       </c>
       <c r="J45" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K45" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L45" t="n">
         <v>1.78</v>
@@ -2797,10 +2797,10 @@
         <v>2.28</v>
       </c>
       <c r="O45" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P45" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="46">
@@ -2834,10 +2834,10 @@
         <v>20.35</v>
       </c>
       <c r="J46" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K46" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L46" t="n">
         <v>1.78</v>
@@ -2849,10 +2849,10 @@
         <v>2.28</v>
       </c>
       <c r="O46" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P46" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="47">
@@ -2886,10 +2886,10 @@
         <v>20.35</v>
       </c>
       <c r="J47" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K47" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L47" t="n">
         <v>1.78</v>
@@ -2901,10 +2901,10 @@
         <v>2.28</v>
       </c>
       <c r="O47" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P47" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="48">
@@ -2938,10 +2938,10 @@
         <v>20.35</v>
       </c>
       <c r="J48" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K48" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L48" t="n">
         <v>1.78</v>
@@ -2953,10 +2953,10 @@
         <v>2.28</v>
       </c>
       <c r="O48" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P48" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="49">
@@ -2990,10 +2990,10 @@
         <v>20.35</v>
       </c>
       <c r="J49" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K49" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L49" t="n">
         <v>1.78</v>
@@ -3005,10 +3005,10 @@
         <v>2.28</v>
       </c>
       <c r="O49" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P49" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="50">
@@ -3042,10 +3042,10 @@
         <v>20.35</v>
       </c>
       <c r="J50" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K50" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L50" t="n">
         <v>1.78</v>
@@ -3057,10 +3057,10 @@
         <v>2.28</v>
       </c>
       <c r="O50" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P50" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="51">
@@ -3094,10 +3094,10 @@
         <v>20.35</v>
       </c>
       <c r="J51" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K51" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L51" t="n">
         <v>1.78</v>
@@ -3109,10 +3109,10 @@
         <v>2.28</v>
       </c>
       <c r="O51" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P51" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="52">
@@ -3146,10 +3146,10 @@
         <v>20.35</v>
       </c>
       <c r="J52" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K52" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L52" t="n">
         <v>1.78</v>
@@ -3161,10 +3161,10 @@
         <v>2.28</v>
       </c>
       <c r="O52" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P52" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="53">
@@ -3198,10 +3198,10 @@
         <v>20.35</v>
       </c>
       <c r="J53" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K53" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L53" t="n">
         <v>1.78</v>
@@ -3213,10 +3213,10 @@
         <v>2.28</v>
       </c>
       <c r="O53" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P53" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="54">
@@ -3250,10 +3250,10 @@
         <v>20.35</v>
       </c>
       <c r="J54" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K54" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L54" t="n">
         <v>1.78</v>
@@ -3265,10 +3265,10 @@
         <v>2.28</v>
       </c>
       <c r="O54" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P54" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="55">
@@ -3302,10 +3302,10 @@
         <v>20.35</v>
       </c>
       <c r="J55" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K55" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L55" t="n">
         <v>1.78</v>
@@ -3317,10 +3317,10 @@
         <v>2.28</v>
       </c>
       <c r="O55" t="n">
-        <v>80.04000000000001</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P55" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="56">
@@ -3354,10 +3354,10 @@
         <v>20.35</v>
       </c>
       <c r="J56" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K56" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L56" t="n">
         <v>1.78</v>
@@ -3369,10 +3369,10 @@
         <v>2.28</v>
       </c>
       <c r="O56" t="n">
-        <v>80.04000000000001</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P56" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="57">
@@ -3406,10 +3406,10 @@
         <v>20.35</v>
       </c>
       <c r="J57" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K57" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L57" t="n">
         <v>1.78</v>
@@ -3421,10 +3421,10 @@
         <v>2.28</v>
       </c>
       <c r="O57" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P57" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="58">
@@ -3458,10 +3458,10 @@
         <v>20.35</v>
       </c>
       <c r="J58" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K58" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L58" t="n">
         <v>1.78</v>
@@ -3473,10 +3473,10 @@
         <v>2.28</v>
       </c>
       <c r="O58" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P58" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="59">
@@ -3510,10 +3510,10 @@
         <v>20.35</v>
       </c>
       <c r="J59" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K59" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L59" t="n">
         <v>1.78</v>
@@ -3525,10 +3525,10 @@
         <v>2.28</v>
       </c>
       <c r="O59" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P59" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="60">
@@ -3562,10 +3562,10 @@
         <v>20.35</v>
       </c>
       <c r="J60" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K60" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L60" t="n">
         <v>1.78</v>
@@ -3577,10 +3577,10 @@
         <v>2.28</v>
       </c>
       <c r="O60" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P60" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="61">
@@ -3614,10 +3614,10 @@
         <v>20.35</v>
       </c>
       <c r="J61" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K61" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L61" t="n">
         <v>1.78</v>
@@ -3629,10 +3629,10 @@
         <v>2.28</v>
       </c>
       <c r="O61" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P61" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="62">
@@ -3666,10 +3666,10 @@
         <v>20.35</v>
       </c>
       <c r="J62" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K62" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L62" t="n">
         <v>1.78</v>
@@ -3681,10 +3681,10 @@
         <v>2.28</v>
       </c>
       <c r="O62" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P62" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="63">
@@ -3718,10 +3718,10 @@
         <v>20.35</v>
       </c>
       <c r="J63" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K63" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L63" t="n">
         <v>1.78</v>
@@ -3733,10 +3733,10 @@
         <v>2.28</v>
       </c>
       <c r="O63" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P63" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="64">
@@ -3770,10 +3770,10 @@
         <v>20.35</v>
       </c>
       <c r="J64" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K64" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L64" t="n">
         <v>1.78</v>
@@ -3785,10 +3785,10 @@
         <v>2.28</v>
       </c>
       <c r="O64" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P64" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="65">
@@ -3822,10 +3822,10 @@
         <v>20.35</v>
       </c>
       <c r="J65" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K65" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L65" t="n">
         <v>1.78</v>
@@ -3837,10 +3837,10 @@
         <v>2.28</v>
       </c>
       <c r="O65" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P65" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="66">
@@ -3874,10 +3874,10 @@
         <v>20.35</v>
       </c>
       <c r="J66" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K66" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L66" t="n">
         <v>1.78</v>
@@ -3889,10 +3889,10 @@
         <v>2.28</v>
       </c>
       <c r="O66" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P66" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="67">
@@ -3926,10 +3926,10 @@
         <v>20.35</v>
       </c>
       <c r="J67" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K67" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L67" t="n">
         <v>1.78</v>
@@ -3941,10 +3941,10 @@
         <v>2.28</v>
       </c>
       <c r="O67" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P67" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="68">
@@ -3978,10 +3978,10 @@
         <v>20.35</v>
       </c>
       <c r="J68" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K68" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L68" t="n">
         <v>1.78</v>
@@ -3993,10 +3993,10 @@
         <v>2.28</v>
       </c>
       <c r="O68" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P68" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="69">
@@ -4602,10 +4602,10 @@
         <v>20.35</v>
       </c>
       <c r="J80" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K80" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L80" t="n">
         <v>1.78</v>
@@ -4617,10 +4617,10 @@
         <v>2.28</v>
       </c>
       <c r="O80" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P80" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="81">
@@ -4654,10 +4654,10 @@
         <v>20.35</v>
       </c>
       <c r="J81" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K81" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L81" t="n">
         <v>1.78</v>
@@ -4669,10 +4669,10 @@
         <v>2.28</v>
       </c>
       <c r="O81" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P81" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="82">
@@ -4706,10 +4706,10 @@
         <v>20.35</v>
       </c>
       <c r="J82" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K82" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L82" t="n">
         <v>1.78</v>
@@ -4721,10 +4721,10 @@
         <v>2.28</v>
       </c>
       <c r="O82" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P82" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="83">
@@ -4758,10 +4758,10 @@
         <v>20.35</v>
       </c>
       <c r="J83" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K83" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L83" t="n">
         <v>1.78</v>
@@ -4773,10 +4773,10 @@
         <v>2.28</v>
       </c>
       <c r="O83" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P83" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="84">
@@ -4810,10 +4810,10 @@
         <v>20.35</v>
       </c>
       <c r="J84" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K84" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L84" t="n">
         <v>1.78</v>
@@ -4825,10 +4825,10 @@
         <v>2.28</v>
       </c>
       <c r="O84" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P84" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="85">
@@ -4862,10 +4862,10 @@
         <v>20.35</v>
       </c>
       <c r="J85" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K85" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L85" t="n">
         <v>1.78</v>
@@ -4877,10 +4877,10 @@
         <v>2.28</v>
       </c>
       <c r="O85" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P85" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="86">
@@ -4914,10 +4914,10 @@
         <v>20.35</v>
       </c>
       <c r="J86" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K86" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L86" t="n">
         <v>1.78</v>
@@ -4929,10 +4929,10 @@
         <v>2.28</v>
       </c>
       <c r="O86" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P86" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="87">
@@ -4966,10 +4966,10 @@
         <v>20.35</v>
       </c>
       <c r="J87" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K87" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L87" t="n">
         <v>1.78</v>
@@ -4981,10 +4981,10 @@
         <v>2.28</v>
       </c>
       <c r="O87" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P87" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="88">
@@ -5018,10 +5018,10 @@
         <v>20.35</v>
       </c>
       <c r="J88" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K88" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L88" t="n">
         <v>1.78</v>
@@ -5033,10 +5033,10 @@
         <v>2.28</v>
       </c>
       <c r="O88" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P88" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="89">
@@ -5070,10 +5070,10 @@
         <v>20.35</v>
       </c>
       <c r="J89" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K89" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L89" t="n">
         <v>1.78</v>
@@ -5085,10 +5085,10 @@
         <v>2.28</v>
       </c>
       <c r="O89" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P89" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="90">
@@ -5122,10 +5122,10 @@
         <v>20.35</v>
       </c>
       <c r="J90" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K90" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L90" t="n">
         <v>1.78</v>
@@ -5137,10 +5137,10 @@
         <v>2.28</v>
       </c>
       <c r="O90" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P90" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="91">
@@ -5174,10 +5174,10 @@
         <v>20.35</v>
       </c>
       <c r="J91" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K91" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L91" t="n">
         <v>1.78</v>
@@ -5189,10 +5189,10 @@
         <v>2.28</v>
       </c>
       <c r="O91" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P91" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="92">
@@ -5226,10 +5226,10 @@
         <v>20.35</v>
       </c>
       <c r="J92" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K92" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L92" t="n">
         <v>1.78</v>
@@ -5241,10 +5241,10 @@
         <v>2.28</v>
       </c>
       <c r="O92" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P92" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="93">
@@ -5278,10 +5278,10 @@
         <v>20.35</v>
       </c>
       <c r="J93" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K93" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L93" t="n">
         <v>1.78</v>
@@ -5293,10 +5293,10 @@
         <v>2.28</v>
       </c>
       <c r="O93" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P93" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="94">
@@ -5330,10 +5330,10 @@
         <v>20.35</v>
       </c>
       <c r="J94" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K94" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L94" t="n">
         <v>1.78</v>
@@ -5345,10 +5345,10 @@
         <v>2.28</v>
       </c>
       <c r="O94" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P94" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="95">
@@ -5382,10 +5382,10 @@
         <v>20.35</v>
       </c>
       <c r="J95" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K95" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L95" t="n">
         <v>1.78</v>
@@ -5397,10 +5397,10 @@
         <v>2.28</v>
       </c>
       <c r="O95" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P95" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="96">
@@ -5434,10 +5434,10 @@
         <v>20.35</v>
       </c>
       <c r="J96" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K96" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L96" t="n">
         <v>1.78</v>
@@ -5449,10 +5449,10 @@
         <v>2.28</v>
       </c>
       <c r="O96" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P96" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="97">
@@ -5486,10 +5486,10 @@
         <v>20.35</v>
       </c>
       <c r="J97" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K97" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L97" t="n">
         <v>1.78</v>
@@ -5501,10 +5501,10 @@
         <v>2.28</v>
       </c>
       <c r="O97" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P97" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="98">
@@ -5538,10 +5538,10 @@
         <v>20.35</v>
       </c>
       <c r="J98" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K98" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L98" t="n">
         <v>1.78</v>
@@ -5553,10 +5553,10 @@
         <v>2.28</v>
       </c>
       <c r="O98" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P98" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="99">
@@ -5590,10 +5590,10 @@
         <v>20.35</v>
       </c>
       <c r="J99" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K99" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L99" t="n">
         <v>1.78</v>
@@ -5605,10 +5605,10 @@
         <v>2.28</v>
       </c>
       <c r="O99" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P99" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="100">
@@ -5642,10 +5642,10 @@
         <v>20.35</v>
       </c>
       <c r="J100" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K100" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L100" t="n">
         <v>1.78</v>
@@ -5657,10 +5657,10 @@
         <v>2.28</v>
       </c>
       <c r="O100" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P100" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
     <row r="101">
@@ -5694,10 +5694,10 @@
         <v>20.35</v>
       </c>
       <c r="J101" t="n">
-        <v>82.26000000000001</v>
+        <v>16.45</v>
       </c>
       <c r="K101" t="n">
-        <v>172.36</v>
+        <v>1502.83</v>
       </c>
       <c r="L101" t="n">
         <v>1.78</v>
@@ -5709,10 +5709,10 @@
         <v>2.28</v>
       </c>
       <c r="O101" t="n">
-        <v>80.03</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="P101" t="n">
-        <v>59.65</v>
+        <v>-1423.51</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -534,37 +534,37 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
         <v>284.99</v>
       </c>
       <c r="H2" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I2" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J2" t="n">
         <v>16.45</v>
       </c>
       <c r="K2" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L2" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M2" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P2" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="3">
@@ -586,37 +586,37 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
         <v>998.39</v>
       </c>
       <c r="H3" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I3" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J3" t="n">
         <v>16.45</v>
       </c>
       <c r="K3" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M3" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O3" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P3" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="4">
@@ -638,37 +638,37 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
         <v>1196.82</v>
       </c>
       <c r="H4" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I4" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J4" t="n">
         <v>16.45</v>
       </c>
       <c r="K4" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L4" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M4" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O4" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P4" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="5">
@@ -690,37 +690,37 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>2.13</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>59.03</v>
+        <v>40.36</v>
       </c>
       <c r="I5" t="n">
-        <v>16.93</v>
+        <v>0.32</v>
       </c>
       <c r="J5" t="n">
         <v>14.44</v>
       </c>
       <c r="K5" t="n">
-        <v>1835.39</v>
+        <v>30.59</v>
       </c>
       <c r="L5" t="n">
-        <v>1.81</v>
+        <v>2.03</v>
       </c>
       <c r="M5" t="n">
-        <v>0.19</v>
+        <v>35.26</v>
       </c>
       <c r="N5" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="O5" t="n">
-        <v>81.56999999999999</v>
+        <v>46.25</v>
       </c>
       <c r="P5" t="n">
-        <v>-1753.82</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="6">
@@ -742,37 +742,37 @@
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.99</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>48.84</v>
+        <v>40.18</v>
       </c>
       <c r="I6" t="n">
-        <v>7.87</v>
+        <v>0.16</v>
       </c>
       <c r="J6" t="n">
         <v>8.09</v>
       </c>
       <c r="K6" t="n">
-        <v>4057.44</v>
+        <v>67.62</v>
       </c>
       <c r="L6" t="n">
-        <v>1.86</v>
+        <v>2.25</v>
       </c>
       <c r="M6" t="n">
-        <v>0.35</v>
+        <v>77.59</v>
       </c>
       <c r="N6" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="O6" t="n">
-        <v>88.62</v>
+        <v>10.95</v>
       </c>
       <c r="P6" t="n">
-        <v>-3968.82</v>
+        <v>-56.67</v>
       </c>
     </row>
     <row r="7">
@@ -794,37 +794,37 @@
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>43.22</v>
+        <v>40.09</v>
       </c>
       <c r="I7" t="n">
-        <v>2.86</v>
+        <v>0.08</v>
       </c>
       <c r="J7" t="n">
         <v>3.23</v>
       </c>
       <c r="K7" t="n">
-        <v>10268.28</v>
+        <v>171.14</v>
       </c>
       <c r="L7" t="n">
-        <v>1.71</v>
+        <v>2.85</v>
       </c>
       <c r="M7" t="n">
-        <v>0.79</v>
+        <v>195.92</v>
       </c>
       <c r="N7" t="n">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="O7" t="n">
-        <v>93.93000000000001</v>
+        <v>-102.43</v>
       </c>
       <c r="P7" t="n">
-        <v>-10174.35</v>
+        <v>-273.57</v>
       </c>
     </row>
     <row r="8">
@@ -846,37 +846,37 @@
         <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>1.29</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>51.52</v>
+        <v>40.18</v>
       </c>
       <c r="I8" t="n">
-        <v>10.25</v>
+        <v>0.16</v>
       </c>
       <c r="J8" t="n">
         <v>9.93</v>
       </c>
       <c r="K8" t="n">
-        <v>3114.85</v>
+        <v>51.91</v>
       </c>
       <c r="L8" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="M8" t="n">
-        <v>0.29</v>
+        <v>59.57</v>
       </c>
       <c r="N8" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="O8" t="n">
-        <v>86.56999999999999</v>
+        <v>27.39</v>
       </c>
       <c r="P8" t="n">
-        <v>-3028.28</v>
+        <v>-24.52</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G9" t="n">
         <v>393.94</v>
       </c>
       <c r="H9" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I9" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J9" t="n">
         <v>16.45</v>
       </c>
       <c r="K9" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L9" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M9" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O9" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P9" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="10">
@@ -950,37 +950,37 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>2.13</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>59.03</v>
+        <v>40.36</v>
       </c>
       <c r="I10" t="n">
-        <v>16.93</v>
+        <v>0.32</v>
       </c>
       <c r="J10" t="n">
         <v>14.44</v>
       </c>
       <c r="K10" t="n">
-        <v>1835.39</v>
+        <v>30.59</v>
       </c>
       <c r="L10" t="n">
-        <v>1.81</v>
+        <v>2.03</v>
       </c>
       <c r="M10" t="n">
-        <v>0.19</v>
+        <v>35.26</v>
       </c>
       <c r="N10" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="O10" t="n">
-        <v>81.56999999999999</v>
+        <v>46.25</v>
       </c>
       <c r="P10" t="n">
-        <v>-1753.82</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="11">
@@ -1002,37 +1002,37 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="n">
         <v>998.39</v>
       </c>
       <c r="H11" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I11" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J11" t="n">
         <v>16.45</v>
       </c>
       <c r="K11" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L11" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M11" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O11" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P11" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="12">
@@ -1054,37 +1054,37 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G12" t="n">
         <v>1088.06</v>
       </c>
       <c r="H12" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I12" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J12" t="n">
         <v>16.45</v>
       </c>
       <c r="K12" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L12" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M12" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O12" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P12" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="13">
@@ -1106,37 +1106,37 @@
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G13" t="n">
         <v>597.28</v>
       </c>
       <c r="H13" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I13" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J13" t="n">
         <v>16.45</v>
       </c>
       <c r="K13" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L13" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M13" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N13" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O13" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P13" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="14">
@@ -1158,37 +1158,37 @@
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>1.29</v>
+        <v>0.02</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>51.52</v>
+        <v>40.18</v>
       </c>
       <c r="I14" t="n">
-        <v>10.25</v>
+        <v>0.16</v>
       </c>
       <c r="J14" t="n">
         <v>9.93</v>
       </c>
       <c r="K14" t="n">
-        <v>3114.85</v>
+        <v>51.91</v>
       </c>
       <c r="L14" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="M14" t="n">
-        <v>0.29</v>
+        <v>59.57</v>
       </c>
       <c r="N14" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="O14" t="n">
-        <v>86.56999999999999</v>
+        <v>27.39</v>
       </c>
       <c r="P14" t="n">
-        <v>-3028.28</v>
+        <v>-24.52</v>
       </c>
     </row>
     <row r="15">
@@ -1210,37 +1210,37 @@
         <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G15" t="n">
         <v>998.39</v>
       </c>
       <c r="H15" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I15" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J15" t="n">
         <v>16.45</v>
       </c>
       <c r="K15" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L15" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M15" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N15" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O15" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P15" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="16">
@@ -1262,37 +1262,37 @@
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G16" t="n">
         <v>597.28</v>
       </c>
       <c r="H16" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I16" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J16" t="n">
         <v>16.45</v>
       </c>
       <c r="K16" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L16" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M16" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O16" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P16" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="17">
@@ -1314,37 +1314,37 @@
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G17" t="n">
         <v>177.59</v>
       </c>
       <c r="H17" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I17" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J17" t="n">
         <v>16.45</v>
       </c>
       <c r="K17" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L17" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M17" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N17" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O17" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P17" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="18">
@@ -1366,37 +1366,37 @@
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.99</v>
+        <v>0.02</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>48.84</v>
+        <v>40.18</v>
       </c>
       <c r="I18" t="n">
-        <v>7.87</v>
+        <v>0.16</v>
       </c>
       <c r="J18" t="n">
         <v>8.09</v>
       </c>
       <c r="K18" t="n">
-        <v>4057.44</v>
+        <v>67.62</v>
       </c>
       <c r="L18" t="n">
-        <v>1.86</v>
+        <v>2.25</v>
       </c>
       <c r="M18" t="n">
-        <v>0.35</v>
+        <v>77.59</v>
       </c>
       <c r="N18" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="O18" t="n">
-        <v>88.62</v>
+        <v>10.95</v>
       </c>
       <c r="P18" t="n">
-        <v>-3968.82</v>
+        <v>-56.67</v>
       </c>
     </row>
     <row r="19">
@@ -1418,37 +1418,37 @@
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G19" t="n">
         <v>798.9400000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I19" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J19" t="n">
         <v>16.45</v>
       </c>
       <c r="K19" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L19" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M19" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N19" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O19" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P19" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="20">
@@ -1470,37 +1470,37 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G20" t="n">
         <v>1088.06</v>
       </c>
       <c r="H20" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I20" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J20" t="n">
         <v>16.45</v>
       </c>
       <c r="K20" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L20" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M20" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O20" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P20" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="21">
@@ -1522,37 +1522,37 @@
         <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>43.22</v>
+        <v>40.09</v>
       </c>
       <c r="I21" t="n">
-        <v>2.86</v>
+        <v>0.08</v>
       </c>
       <c r="J21" t="n">
         <v>3.23</v>
       </c>
       <c r="K21" t="n">
-        <v>10268.28</v>
+        <v>171.14</v>
       </c>
       <c r="L21" t="n">
-        <v>1.71</v>
+        <v>2.85</v>
       </c>
       <c r="M21" t="n">
-        <v>0.79</v>
+        <v>195.92</v>
       </c>
       <c r="N21" t="n">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="O21" t="n">
-        <v>93.93000000000001</v>
+        <v>-102.43</v>
       </c>
       <c r="P21" t="n">
-        <v>-10174.35</v>
+        <v>-273.57</v>
       </c>
     </row>
     <row r="22">
@@ -1574,37 +1574,37 @@
         <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>1.29</v>
+        <v>0.02</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>51.52</v>
+        <v>40.18</v>
       </c>
       <c r="I22" t="n">
-        <v>10.25</v>
+        <v>0.16</v>
       </c>
       <c r="J22" t="n">
         <v>9.93</v>
       </c>
       <c r="K22" t="n">
-        <v>3114.85</v>
+        <v>51.91</v>
       </c>
       <c r="L22" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="M22" t="n">
-        <v>0.29</v>
+        <v>59.57</v>
       </c>
       <c r="N22" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="O22" t="n">
-        <v>86.56999999999999</v>
+        <v>27.39</v>
       </c>
       <c r="P22" t="n">
-        <v>-3028.28</v>
+        <v>-24.52</v>
       </c>
     </row>
     <row r="23">
@@ -1626,37 +1626,37 @@
         <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>2.13</v>
+        <v>0.04</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>59.03</v>
+        <v>40.36</v>
       </c>
       <c r="I23" t="n">
-        <v>16.93</v>
+        <v>0.32</v>
       </c>
       <c r="J23" t="n">
         <v>14.44</v>
       </c>
       <c r="K23" t="n">
-        <v>1835.39</v>
+        <v>30.59</v>
       </c>
       <c r="L23" t="n">
-        <v>1.81</v>
+        <v>2.03</v>
       </c>
       <c r="M23" t="n">
-        <v>0.19</v>
+        <v>35.26</v>
       </c>
       <c r="N23" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="O23" t="n">
-        <v>81.56999999999999</v>
+        <v>46.25</v>
       </c>
       <c r="P23" t="n">
-        <v>-1753.82</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="24">
@@ -1678,37 +1678,37 @@
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G24" t="n">
         <v>895.95</v>
       </c>
       <c r="H24" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I24" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J24" t="n">
         <v>16.45</v>
       </c>
       <c r="K24" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L24" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M24" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N24" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O24" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P24" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="25">
@@ -1730,37 +1730,37 @@
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G25" t="n">
         <v>393.94</v>
       </c>
       <c r="H25" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I25" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J25" t="n">
         <v>16.45</v>
       </c>
       <c r="K25" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L25" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M25" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N25" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O25" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P25" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="26">
@@ -1782,37 +1782,37 @@
         <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G26" t="n">
         <v>493.16</v>
       </c>
       <c r="H26" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I26" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J26" t="n">
         <v>16.45</v>
       </c>
       <c r="K26" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L26" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M26" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N26" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O26" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P26" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="27">
@@ -1834,37 +1834,37 @@
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G27" t="n">
         <v>798.9400000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I27" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J27" t="n">
         <v>16.45</v>
       </c>
       <c r="K27" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L27" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M27" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N27" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O27" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P27" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="28">
@@ -1886,37 +1886,37 @@
         <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>1.58</v>
+        <v>0.03</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>54.11</v>
+        <v>40.27</v>
       </c>
       <c r="I28" t="n">
-        <v>12.56</v>
+        <v>0.24</v>
       </c>
       <c r="J28" t="n">
         <v>11.57</v>
       </c>
       <c r="K28" t="n">
-        <v>2527.59</v>
+        <v>42.13</v>
       </c>
       <c r="L28" t="n">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.24</v>
+        <v>48.44</v>
       </c>
       <c r="N28" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="O28" t="n">
-        <v>84.76000000000001</v>
+        <v>36.28</v>
       </c>
       <c r="P28" t="n">
-        <v>-2442.83</v>
+        <v>-5.85</v>
       </c>
     </row>
     <row r="29">
@@ -1931,11 +1931,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1983,44 +1983,44 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G30" t="n">
-        <v>1391.699944501725</v>
+        <v>895.95</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>40.36</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>16.45</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>25.05</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>28.87</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>50.71</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="31">
@@ -2042,37 +2042,37 @@
         <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G31" t="n">
         <v>998.39</v>
       </c>
       <c r="H31" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I31" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J31" t="n">
         <v>16.45</v>
       </c>
       <c r="K31" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L31" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M31" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N31" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O31" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P31" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="32">
@@ -2094,37 +2094,37 @@
         <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G32" t="n">
         <v>1088.06</v>
       </c>
       <c r="H32" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I32" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J32" t="n">
         <v>16.45</v>
       </c>
       <c r="K32" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L32" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M32" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N32" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O32" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P32" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="33">
@@ -2146,37 +2146,37 @@
         <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G33" t="n">
         <v>1849.27</v>
       </c>
       <c r="H33" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I33" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J33" t="n">
         <v>16.45</v>
       </c>
       <c r="K33" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L33" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M33" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N33" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O33" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P33" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="34">
@@ -2198,37 +2198,37 @@
         <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G34" t="n">
         <v>4538.32</v>
       </c>
       <c r="H34" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I34" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J34" t="n">
         <v>16.45</v>
       </c>
       <c r="K34" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L34" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M34" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N34" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O34" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P34" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="35">
@@ -2250,37 +2250,37 @@
         <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G35" t="n">
         <v>5798.5</v>
       </c>
       <c r="H35" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I35" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J35" t="n">
         <v>16.45</v>
       </c>
       <c r="K35" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L35" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M35" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N35" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O35" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P35" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="36">
@@ -2302,37 +2302,37 @@
         <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G36" t="n">
         <v>3183.73</v>
       </c>
       <c r="H36" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I36" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J36" t="n">
         <v>16.45</v>
       </c>
       <c r="K36" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L36" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M36" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N36" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O36" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P36" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="37">
@@ -2354,37 +2354,37 @@
         <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G37" t="n">
         <v>3374.73</v>
       </c>
       <c r="H37" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I37" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J37" t="n">
         <v>16.45</v>
       </c>
       <c r="K37" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L37" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M37" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N37" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O37" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P37" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="38">
@@ -2406,37 +2406,37 @@
         <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G38" t="n">
         <v>6759.64</v>
       </c>
       <c r="H38" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I38" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J38" t="n">
         <v>16.45</v>
       </c>
       <c r="K38" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L38" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M38" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N38" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O38" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P38" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="39">
@@ -2451,11 +2451,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -2503,11 +2503,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2555,11 +2555,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -2659,44 +2659,44 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G43" t="n">
-        <v>405.1538695561462</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>40.36</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>14.44</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>30.59</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>35.26</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>46.25</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="44">
@@ -2711,44 +2711,44 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G44" t="n">
-        <v>1391.699944501725</v>
+        <v>895.95</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>40.36</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>16.45</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>25.05</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>28.87</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>50.71</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="45">
@@ -2770,37 +2770,37 @@
         <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G45" t="n">
         <v>2607.67</v>
       </c>
       <c r="H45" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I45" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J45" t="n">
         <v>16.45</v>
       </c>
       <c r="K45" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L45" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M45" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N45" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O45" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P45" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="46">
@@ -2822,37 +2822,37 @@
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G46" t="n">
         <v>3914.84</v>
       </c>
       <c r="H46" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I46" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J46" t="n">
         <v>16.45</v>
       </c>
       <c r="K46" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L46" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M46" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N46" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O46" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P46" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="47">
@@ -2874,37 +2874,37 @@
         <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G47" t="n">
         <v>2992.33</v>
       </c>
       <c r="H47" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I47" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J47" t="n">
         <v>16.45</v>
       </c>
       <c r="K47" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L47" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M47" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N47" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O47" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P47" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="48">
@@ -2926,37 +2926,37 @@
         <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G48" t="n">
         <v>5168.14</v>
       </c>
       <c r="H48" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I48" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J48" t="n">
         <v>16.45</v>
       </c>
       <c r="K48" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L48" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M48" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N48" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O48" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P48" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="49">
@@ -2978,37 +2978,37 @@
         <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G49" t="n">
         <v>3914.84</v>
       </c>
       <c r="H49" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I49" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J49" t="n">
         <v>16.45</v>
       </c>
       <c r="K49" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L49" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M49" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N49" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O49" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P49" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="50">
@@ -3030,37 +3030,37 @@
         <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G50" t="n">
         <v>10565.89</v>
       </c>
       <c r="H50" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I50" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J50" t="n">
         <v>16.45</v>
       </c>
       <c r="K50" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L50" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M50" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N50" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O50" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P50" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="51">
@@ -3082,37 +3082,37 @@
         <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G51" t="n">
         <v>8834.6</v>
       </c>
       <c r="H51" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I51" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J51" t="n">
         <v>16.45</v>
       </c>
       <c r="K51" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L51" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M51" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N51" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O51" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P51" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="52">
@@ -3134,37 +3134,37 @@
         <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G52" t="n">
         <v>2992.33</v>
       </c>
       <c r="H52" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I52" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J52" t="n">
         <v>16.45</v>
       </c>
       <c r="K52" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L52" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M52" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N52" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O52" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P52" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="53">
@@ -3186,37 +3186,37 @@
         <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G53" t="n">
         <v>2607.67</v>
       </c>
       <c r="H53" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I53" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J53" t="n">
         <v>16.45</v>
       </c>
       <c r="K53" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L53" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M53" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N53" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O53" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P53" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="54">
@@ -3238,37 +3238,37 @@
         <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G54" t="n">
         <v>2417.48</v>
       </c>
       <c r="H54" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I54" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J54" t="n">
         <v>16.45</v>
       </c>
       <c r="K54" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L54" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M54" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N54" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O54" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P54" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="55">
@@ -3290,37 +3290,37 @@
         <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G55" t="n">
         <v>1468.74</v>
       </c>
       <c r="H55" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I55" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J55" t="n">
         <v>16.45</v>
       </c>
       <c r="K55" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L55" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M55" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N55" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O55" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P55" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="56">
@@ -3342,37 +3342,37 @@
         <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G56" t="n">
         <v>2039.07</v>
       </c>
       <c r="H56" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I56" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J56" t="n">
         <v>16.45</v>
       </c>
       <c r="K56" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L56" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M56" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N56" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O56" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P56" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="57">
@@ -3394,37 +3394,37 @@
         <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G57" t="n">
         <v>7124.94</v>
       </c>
       <c r="H57" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I57" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J57" t="n">
         <v>16.45</v>
       </c>
       <c r="K57" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L57" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M57" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N57" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O57" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P57" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="58">
@@ -3446,37 +3446,37 @@
         <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G58" t="n">
         <v>11998.56</v>
       </c>
       <c r="H58" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I58" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J58" t="n">
         <v>16.45</v>
       </c>
       <c r="K58" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L58" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M58" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N58" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O58" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P58" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="59">
@@ -3498,37 +3498,37 @@
         <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G59" t="n">
         <v>10565.89</v>
       </c>
       <c r="H59" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I59" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J59" t="n">
         <v>16.45</v>
       </c>
       <c r="K59" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L59" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M59" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N59" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O59" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P59" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="60">
@@ -3550,37 +3550,37 @@
         <v>4</v>
       </c>
       <c r="F60" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G60" t="n">
         <v>9698.959999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I60" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J60" t="n">
         <v>16.45</v>
       </c>
       <c r="K60" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L60" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M60" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N60" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O60" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P60" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="61">
@@ -3602,37 +3602,37 @@
         <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G61" t="n">
         <v>13686.42</v>
       </c>
       <c r="H61" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I61" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J61" t="n">
         <v>16.45</v>
       </c>
       <c r="K61" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L61" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M61" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N61" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O61" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P61" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="62">
@@ -3654,37 +3654,37 @@
         <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G62" t="n">
         <v>12564.65</v>
       </c>
       <c r="H62" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I62" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J62" t="n">
         <v>16.45</v>
       </c>
       <c r="K62" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L62" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M62" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N62" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O62" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P62" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="63">
@@ -3706,37 +3706,37 @@
         <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G63" t="n">
         <v>9698.959999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I63" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J63" t="n">
         <v>16.45</v>
       </c>
       <c r="K63" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L63" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M63" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N63" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O63" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P63" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="64">
@@ -3758,37 +3758,37 @@
         <v>4</v>
       </c>
       <c r="F64" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G64" t="n">
         <v>10565.89</v>
       </c>
       <c r="H64" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I64" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J64" t="n">
         <v>16.45</v>
       </c>
       <c r="K64" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L64" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M64" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N64" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O64" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P64" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="65">
@@ -3810,37 +3810,37 @@
         <v>4</v>
       </c>
       <c r="F65" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G65" t="n">
         <v>7124.94</v>
       </c>
       <c r="H65" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I65" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J65" t="n">
         <v>16.45</v>
       </c>
       <c r="K65" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L65" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M65" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N65" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O65" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P65" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="66">
@@ -3862,37 +3862,37 @@
         <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G66" t="n">
         <v>5168.14</v>
       </c>
       <c r="H66" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I66" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J66" t="n">
         <v>16.45</v>
       </c>
       <c r="K66" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L66" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M66" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N66" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O66" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P66" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="67">
@@ -3914,37 +3914,37 @@
         <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G67" t="n">
         <v>7124.94</v>
       </c>
       <c r="H67" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I67" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J67" t="n">
         <v>16.45</v>
       </c>
       <c r="K67" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L67" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M67" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N67" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O67" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P67" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="68">
@@ -3966,37 +3966,37 @@
         <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G68" t="n">
         <v>11006.25</v>
       </c>
       <c r="H68" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I68" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J68" t="n">
         <v>16.45</v>
       </c>
       <c r="K68" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L68" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M68" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N68" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O68" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P68" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="69">
@@ -4011,11 +4011,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -4063,11 +4063,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -4115,11 +4115,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -4167,11 +4167,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -4219,11 +4219,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -4271,11 +4271,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -4323,11 +4323,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -4375,11 +4375,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -4427,11 +4427,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -4479,44 +4479,44 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G78" t="n">
-        <v>12494.31111117689</v>
+        <v>11998.56</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>40.36</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>16.45</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>25.05</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>28.87</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>50.71</v>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="79">
@@ -4531,44 +4531,44 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G79" t="n">
-        <v>5663.892450040729</v>
+        <v>5168.14</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>40.36</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>16.45</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>25.05</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>28.87</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>50.71</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="80">
@@ -4590,37 +4590,37 @@
         <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G80" t="n">
         <v>12564.65</v>
       </c>
       <c r="H80" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I80" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J80" t="n">
         <v>16.45</v>
       </c>
       <c r="K80" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L80" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M80" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N80" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O80" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P80" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="81">
@@ -4642,37 +4642,37 @@
         <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G81" t="n">
         <v>11447.21</v>
       </c>
       <c r="H81" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I81" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J81" t="n">
         <v>16.45</v>
       </c>
       <c r="K81" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L81" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M81" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N81" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O81" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P81" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="82">
@@ -4694,37 +4694,37 @@
         <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G82" t="n">
         <v>10565.89</v>
       </c>
       <c r="H82" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I82" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J82" t="n">
         <v>16.45</v>
       </c>
       <c r="K82" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L82" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M82" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N82" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O82" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P82" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="83">
@@ -4746,37 +4746,37 @@
         <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G83" t="n">
         <v>3374.73</v>
       </c>
       <c r="H83" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I83" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J83" t="n">
         <v>16.45</v>
       </c>
       <c r="K83" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L83" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M83" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N83" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O83" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P83" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="84">
@@ -4798,37 +4798,37 @@
         <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G84" t="n">
         <v>11447.21</v>
       </c>
       <c r="H84" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I84" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J84" t="n">
         <v>16.45</v>
       </c>
       <c r="K84" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L84" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M84" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N84" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O84" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P84" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="85">
@@ -4850,37 +4850,37 @@
         <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G85" t="n">
         <v>19649.13</v>
       </c>
       <c r="H85" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I85" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J85" t="n">
         <v>16.45</v>
       </c>
       <c r="K85" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L85" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M85" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N85" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O85" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P85" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="86">
@@ -4902,37 +4902,37 @@
         <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G86" t="n">
         <v>18366.97</v>
       </c>
       <c r="H86" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I86" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J86" t="n">
         <v>16.45</v>
       </c>
       <c r="K86" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L86" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M86" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N86" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O86" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P86" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="87">
@@ -4954,37 +4954,37 @@
         <v>4</v>
       </c>
       <c r="F87" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G87" t="n">
         <v>17107.89</v>
       </c>
       <c r="H87" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I87" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J87" t="n">
         <v>16.45</v>
       </c>
       <c r="K87" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L87" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M87" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N87" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O87" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P87" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="88">
@@ -5006,37 +5006,37 @@
         <v>4</v>
       </c>
       <c r="F88" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G88" t="n">
         <v>15380.95</v>
       </c>
       <c r="H88" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I88" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J88" t="n">
         <v>16.45</v>
       </c>
       <c r="K88" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L88" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M88" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N88" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O88" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P88" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="89">
@@ -5058,37 +5058,37 @@
         <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G89" t="n">
         <v>17107.89</v>
       </c>
       <c r="H89" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I89" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J89" t="n">
         <v>16.45</v>
       </c>
       <c r="K89" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L89" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M89" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N89" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O89" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P89" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="90">
@@ -5110,37 +5110,37 @@
         <v>4</v>
       </c>
       <c r="F90" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G90" t="n">
         <v>14814.4</v>
       </c>
       <c r="H90" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I90" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J90" t="n">
         <v>16.45</v>
       </c>
       <c r="K90" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L90" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M90" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N90" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O90" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P90" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="91">
@@ -5162,37 +5162,37 @@
         <v>4</v>
       </c>
       <c r="F91" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G91" t="n">
         <v>17107.89</v>
       </c>
       <c r="H91" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I91" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J91" t="n">
         <v>16.45</v>
       </c>
       <c r="K91" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L91" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M91" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N91" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O91" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P91" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="92">
@@ -5214,37 +5214,37 @@
         <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G92" t="n">
         <v>17727.22</v>
       </c>
       <c r="H92" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I92" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J92" t="n">
         <v>16.45</v>
       </c>
       <c r="K92" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L92" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M92" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N92" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O92" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P92" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="93">
@@ -5266,37 +5266,37 @@
         <v>4</v>
       </c>
       <c r="F93" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G93" t="n">
         <v>31285.96</v>
       </c>
       <c r="H93" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I93" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J93" t="n">
         <v>16.45</v>
       </c>
       <c r="K93" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L93" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M93" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N93" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O93" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P93" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="94">
@@ -5318,37 +5318,37 @@
         <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G94" t="n">
         <v>24815.11</v>
       </c>
       <c r="H94" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I94" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J94" t="n">
         <v>16.45</v>
       </c>
       <c r="K94" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L94" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M94" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N94" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O94" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P94" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="95">
@@ -5370,37 +5370,37 @@
         <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G95" t="n">
         <v>19649.13</v>
       </c>
       <c r="H95" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I95" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J95" t="n">
         <v>16.45</v>
       </c>
       <c r="K95" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L95" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M95" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N95" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O95" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P95" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="96">
@@ -5422,37 +5422,37 @@
         <v>4</v>
       </c>
       <c r="F96" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G96" t="n">
         <v>14814.4</v>
       </c>
       <c r="H96" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I96" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J96" t="n">
         <v>16.45</v>
       </c>
       <c r="K96" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L96" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M96" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N96" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O96" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P96" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="97">
@@ -5474,37 +5474,37 @@
         <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G97" t="n">
         <v>13686.42</v>
       </c>
       <c r="H97" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I97" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J97" t="n">
         <v>16.45</v>
       </c>
       <c r="K97" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L97" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M97" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N97" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O97" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P97" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="98">
@@ -5526,37 +5526,37 @@
         <v>4</v>
       </c>
       <c r="F98" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G98" t="n">
         <v>10565.89</v>
       </c>
       <c r="H98" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I98" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J98" t="n">
         <v>16.45</v>
       </c>
       <c r="K98" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L98" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M98" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N98" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O98" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P98" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="99">
@@ -5578,37 +5578,37 @@
         <v>4</v>
       </c>
       <c r="F99" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G99" t="n">
         <v>15953.56</v>
       </c>
       <c r="H99" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I99" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J99" t="n">
         <v>16.45</v>
       </c>
       <c r="K99" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L99" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M99" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N99" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O99" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P99" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="100">
@@ -5630,37 +5630,37 @@
         <v>4</v>
       </c>
       <c r="F100" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G100" t="n">
         <v>19649.13</v>
       </c>
       <c r="H100" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I100" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J100" t="n">
         <v>16.45</v>
       </c>
       <c r="K100" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L100" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M100" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N100" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O100" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P100" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="101">
@@ -5682,37 +5682,37 @@
         <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="G101" t="n">
         <v>32344.78</v>
       </c>
       <c r="H101" t="n">
-        <v>62.87</v>
+        <v>40.36</v>
       </c>
       <c r="I101" t="n">
-        <v>20.35</v>
+        <v>0.32</v>
       </c>
       <c r="J101" t="n">
         <v>16.45</v>
       </c>
       <c r="K101" t="n">
-        <v>1502.83</v>
+        <v>25.05</v>
       </c>
       <c r="L101" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M101" t="n">
-        <v>0.17</v>
+        <v>28.87</v>
       </c>
       <c r="N101" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O101" t="n">
-        <v>79.31999999999999</v>
+        <v>50.71</v>
       </c>
       <c r="P101" t="n">
-        <v>-1423.51</v>
+        <v>25.66</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,35 +481,40 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>cooling Water [kg/dt]</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Heat Cell [%]</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>compression [%]</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>gasdrying {%]</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>pump [%]</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>heat system [%]</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>efficiency [%]</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>efficency with compression [%]</t>
         </is>
@@ -523,7 +528,7 @@
         <v>785.67</v>
       </c>
       <c r="C2" t="n">
-        <v>784.9876777640598</v>
+        <v>784.99</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -534,37 +539,40 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G2" t="n">
         <v>284.99</v>
       </c>
       <c r="H2" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I2" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J2" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K2" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L2" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M2" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O2" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P2" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="3">
@@ -575,7 +583,7 @@
         <v>1499.08</v>
       </c>
       <c r="C3" t="n">
-        <v>1498.389264941757</v>
+        <v>1498.39</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -586,37 +594,40 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
         <v>998.39</v>
       </c>
       <c r="H3" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I3" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J3" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K3" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M3" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N3" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O3" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P3" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="4">
@@ -627,7 +638,7 @@
         <v>1697.51</v>
       </c>
       <c r="C4" t="n">
-        <v>1696.818181918745</v>
+        <v>1696.82</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -638,37 +649,40 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G4" t="n">
         <v>1196.82</v>
       </c>
       <c r="H4" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I4" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J4" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K4" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L4" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M4" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N4" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O4" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P4" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="5">
@@ -679,7 +693,7 @@
         <v>410.07</v>
       </c>
       <c r="C5" t="n">
-        <v>409.4038695561462</v>
+        <v>409.4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -690,37 +704,40 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>2.13</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>40.36</v>
+        <v>59.03</v>
       </c>
       <c r="I5" t="n">
-        <v>0.32</v>
+        <v>16.93</v>
       </c>
       <c r="J5" t="n">
+        <v>213.6</v>
+      </c>
+      <c r="K5" t="n">
         <v>14.44</v>
       </c>
-      <c r="K5" t="n">
-        <v>30.59</v>
-      </c>
       <c r="L5" t="n">
-        <v>2.03</v>
+        <v>117.52</v>
       </c>
       <c r="M5" t="n">
-        <v>35.26</v>
+        <v>1.81</v>
       </c>
       <c r="N5" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="O5" t="n">
         <v>2.02</v>
       </c>
-      <c r="O5" t="n">
-        <v>46.25</v>
-      </c>
       <c r="P5" t="n">
-        <v>15.66</v>
+        <v>80.87</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-36.65</v>
       </c>
     </row>
     <row r="6">
@@ -731,7 +748,7 @@
         <v>185.82</v>
       </c>
       <c r="C6" t="n">
-        <v>185.1947437783279</v>
+        <v>185.19</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -742,37 +759,40 @@
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.99</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>40.18</v>
+        <v>48.84</v>
       </c>
       <c r="I6" t="n">
-        <v>0.16</v>
+        <v>7.87</v>
       </c>
       <c r="J6" t="n">
+        <v>54.15</v>
+      </c>
+      <c r="K6" t="n">
         <v>8.09</v>
       </c>
-      <c r="K6" t="n">
-        <v>67.62</v>
-      </c>
       <c r="L6" t="n">
-        <v>2.25</v>
+        <v>259.8</v>
       </c>
       <c r="M6" t="n">
-        <v>77.59</v>
+        <v>1.86</v>
       </c>
       <c r="N6" t="n">
-        <v>1.12</v>
+        <v>1.57</v>
       </c>
       <c r="O6" t="n">
-        <v>10.95</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>-56.67</v>
+        <v>87.34999999999999</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-172.45</v>
       </c>
     </row>
     <row r="7">
@@ -783,7 +803,7 @@
         <v>73.69</v>
       </c>
       <c r="C7" t="n">
-        <v>73.17847725456491</v>
+        <v>73.18000000000001</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -794,37 +814,40 @@
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.36</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>40.09</v>
+        <v>43.22</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08</v>
+        <v>2.86</v>
       </c>
       <c r="J7" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.23</v>
       </c>
-      <c r="K7" t="n">
-        <v>171.14</v>
-      </c>
       <c r="L7" t="n">
-        <v>2.85</v>
+        <v>657.4400000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>195.92</v>
+        <v>1.71</v>
       </c>
       <c r="N7" t="n">
-        <v>0.43</v>
+        <v>3.52</v>
       </c>
       <c r="O7" t="n">
-        <v>-102.43</v>
+        <v>0.45</v>
       </c>
       <c r="P7" t="n">
-        <v>-273.57</v>
+        <v>91.09</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-566.35</v>
       </c>
     </row>
     <row r="8">
@@ -835,7 +858,7 @@
         <v>241.88</v>
       </c>
       <c r="C8" t="n">
-        <v>241.2374205758595</v>
+        <v>241.24</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -846,37 +869,40 @@
         <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>1.29</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>40.18</v>
+        <v>51.52</v>
       </c>
       <c r="I8" t="n">
-        <v>0.16</v>
+        <v>10.25</v>
       </c>
       <c r="J8" t="n">
+        <v>86.61</v>
+      </c>
+      <c r="K8" t="n">
         <v>9.93</v>
       </c>
-      <c r="K8" t="n">
-        <v>51.91</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.73</v>
+        <v>199.43</v>
       </c>
       <c r="M8" t="n">
-        <v>59.57</v>
+        <v>1.86</v>
       </c>
       <c r="N8" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="O8" t="n">
-        <v>27.39</v>
+        <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>-24.52</v>
+        <v>85.55</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-113.88</v>
       </c>
     </row>
     <row r="9">
@@ -887,7 +913,7 @@
         <v>894.62</v>
       </c>
       <c r="C9" t="n">
-        <v>893.9355249031867</v>
+        <v>893.9400000000001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -898,37 +924,40 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G9" t="n">
         <v>393.94</v>
       </c>
       <c r="H9" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I9" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J9" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K9" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M9" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N9" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O9" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P9" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="10">
@@ -939,7 +968,7 @@
         <v>410.07</v>
       </c>
       <c r="C10" t="n">
-        <v>409.4038695561462</v>
+        <v>409.4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -950,37 +979,40 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>2.13</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>40.36</v>
+        <v>59.03</v>
       </c>
       <c r="I10" t="n">
-        <v>0.32</v>
+        <v>16.93</v>
       </c>
       <c r="J10" t="n">
+        <v>213.6</v>
+      </c>
+      <c r="K10" t="n">
         <v>14.44</v>
       </c>
-      <c r="K10" t="n">
-        <v>30.59</v>
-      </c>
       <c r="L10" t="n">
-        <v>2.03</v>
+        <v>117.52</v>
       </c>
       <c r="M10" t="n">
-        <v>35.26</v>
+        <v>1.81</v>
       </c>
       <c r="N10" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="O10" t="n">
         <v>2.02</v>
       </c>
-      <c r="O10" t="n">
-        <v>46.25</v>
-      </c>
       <c r="P10" t="n">
-        <v>15.66</v>
+        <v>80.87</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-36.65</v>
       </c>
     </row>
     <row r="11">
@@ -991,7 +1023,7 @@
         <v>1499.08</v>
       </c>
       <c r="C11" t="n">
-        <v>1498.389264941757</v>
+        <v>1498.39</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1002,37 +1034,40 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G11" t="n">
         <v>998.39</v>
       </c>
       <c r="H11" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I11" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J11" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K11" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L11" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M11" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N11" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O11" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P11" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="12">
@@ -1043,7 +1078,7 @@
         <v>1588.75</v>
       </c>
       <c r="C12" t="n">
-        <v>1588.058742022904</v>
+        <v>1588.06</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1054,37 +1089,40 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G12" t="n">
         <v>1088.06</v>
       </c>
       <c r="H12" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I12" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J12" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K12" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M12" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N12" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O12" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P12" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="13">
@@ -1095,7 +1133,7 @@
         <v>1097.97</v>
       </c>
       <c r="C13" t="n">
-        <v>1097.282649606901</v>
+        <v>1097.28</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1106,37 +1144,40 @@
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G13" t="n">
         <v>597.28</v>
       </c>
       <c r="H13" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I13" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J13" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K13" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L13" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M13" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N13" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O13" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P13" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="14">
@@ -1147,7 +1188,7 @@
         <v>241.88</v>
       </c>
       <c r="C14" t="n">
-        <v>241.2374205758595</v>
+        <v>241.24</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1158,37 +1199,40 @@
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02</v>
+        <v>1.29</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>40.18</v>
+        <v>51.52</v>
       </c>
       <c r="I14" t="n">
-        <v>0.16</v>
+        <v>10.25</v>
       </c>
       <c r="J14" t="n">
+        <v>86.61</v>
+      </c>
+      <c r="K14" t="n">
         <v>9.93</v>
       </c>
-      <c r="K14" t="n">
-        <v>51.91</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.73</v>
+        <v>199.43</v>
       </c>
       <c r="M14" t="n">
-        <v>59.57</v>
+        <v>1.86</v>
       </c>
       <c r="N14" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="O14" t="n">
-        <v>27.39</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>-24.52</v>
+        <v>85.55</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-113.88</v>
       </c>
     </row>
     <row r="15">
@@ -1199,7 +1243,7 @@
         <v>1499.08</v>
       </c>
       <c r="C15" t="n">
-        <v>1498.389264941757</v>
+        <v>1498.39</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1210,37 +1254,40 @@
         <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G15" t="n">
         <v>998.39</v>
       </c>
       <c r="H15" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I15" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J15" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K15" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L15" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M15" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N15" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O15" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P15" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="16">
@@ -1251,7 +1298,7 @@
         <v>1097.97</v>
       </c>
       <c r="C16" t="n">
-        <v>1097.282649606901</v>
+        <v>1097.28</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1262,37 +1309,40 @@
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G16" t="n">
         <v>597.28</v>
       </c>
       <c r="H16" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I16" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J16" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K16" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L16" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M16" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N16" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O16" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P16" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="17">
@@ -1303,7 +1353,7 @@
         <v>678.27</v>
       </c>
       <c r="C17" t="n">
-        <v>677.5904769323262</v>
+        <v>677.59</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1314,37 +1364,40 @@
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G17" t="n">
         <v>177.59</v>
       </c>
       <c r="H17" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I17" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J17" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K17" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L17" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M17" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N17" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O17" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P17" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="18">
@@ -1355,7 +1408,7 @@
         <v>185.82</v>
       </c>
       <c r="C18" t="n">
-        <v>185.1947437783279</v>
+        <v>185.19</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1366,37 +1419,40 @@
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02</v>
+        <v>0.99</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>40.18</v>
+        <v>48.84</v>
       </c>
       <c r="I18" t="n">
-        <v>0.16</v>
+        <v>7.87</v>
       </c>
       <c r="J18" t="n">
+        <v>54.15</v>
+      </c>
+      <c r="K18" t="n">
         <v>8.09</v>
       </c>
-      <c r="K18" t="n">
-        <v>67.62</v>
-      </c>
       <c r="L18" t="n">
-        <v>2.25</v>
+        <v>259.8</v>
       </c>
       <c r="M18" t="n">
-        <v>77.59</v>
+        <v>1.86</v>
       </c>
       <c r="N18" t="n">
-        <v>1.12</v>
+        <v>1.57</v>
       </c>
       <c r="O18" t="n">
-        <v>10.95</v>
+        <v>1.13</v>
       </c>
       <c r="P18" t="n">
-        <v>-56.67</v>
+        <v>87.34999999999999</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-172.45</v>
       </c>
     </row>
     <row r="19">
@@ -1407,7 +1463,7 @@
         <v>1299.63</v>
       </c>
       <c r="C19" t="n">
-        <v>1298.940686802312</v>
+        <v>1298.94</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1418,37 +1474,40 @@
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G19" t="n">
         <v>798.9400000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I19" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J19" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K19" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M19" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N19" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O19" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P19" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="20">
@@ -1459,7 +1518,7 @@
         <v>1588.75</v>
       </c>
       <c r="C20" t="n">
-        <v>1588.058742022904</v>
+        <v>1588.06</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1470,37 +1529,40 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G20" t="n">
         <v>1088.06</v>
       </c>
       <c r="H20" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I20" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J20" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K20" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L20" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M20" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N20" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O20" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P20" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="21">
@@ -1511,7 +1573,7 @@
         <v>73.69</v>
       </c>
       <c r="C21" t="n">
-        <v>73.17847725456491</v>
+        <v>73.18000000000001</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1522,37 +1584,40 @@
         <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01</v>
+        <v>0.36</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>40.09</v>
+        <v>43.22</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08</v>
+        <v>2.86</v>
       </c>
       <c r="J21" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.23</v>
       </c>
-      <c r="K21" t="n">
-        <v>171.14</v>
-      </c>
       <c r="L21" t="n">
-        <v>2.85</v>
+        <v>657.4400000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>195.92</v>
+        <v>1.71</v>
       </c>
       <c r="N21" t="n">
-        <v>0.43</v>
+        <v>3.52</v>
       </c>
       <c r="O21" t="n">
-        <v>-102.43</v>
+        <v>0.45</v>
       </c>
       <c r="P21" t="n">
-        <v>-273.57</v>
+        <v>91.09</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-566.35</v>
       </c>
     </row>
     <row r="22">
@@ -1563,7 +1628,7 @@
         <v>241.88</v>
       </c>
       <c r="C22" t="n">
-        <v>241.2374205758595</v>
+        <v>241.24</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1574,37 +1639,40 @@
         <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02</v>
+        <v>1.29</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>40.18</v>
+        <v>51.52</v>
       </c>
       <c r="I22" t="n">
-        <v>0.16</v>
+        <v>10.25</v>
       </c>
       <c r="J22" t="n">
+        <v>86.61</v>
+      </c>
+      <c r="K22" t="n">
         <v>9.93</v>
       </c>
-      <c r="K22" t="n">
-        <v>51.91</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.73</v>
+        <v>199.43</v>
       </c>
       <c r="M22" t="n">
-        <v>59.57</v>
+        <v>1.86</v>
       </c>
       <c r="N22" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="O22" t="n">
-        <v>27.39</v>
+        <v>1.39</v>
       </c>
       <c r="P22" t="n">
-        <v>-24.52</v>
+        <v>85.55</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-113.88</v>
       </c>
     </row>
     <row r="23">
@@ -1615,7 +1683,7 @@
         <v>410.07</v>
       </c>
       <c r="C23" t="n">
-        <v>409.4038695561462</v>
+        <v>409.4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1626,37 +1694,40 @@
         <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04</v>
+        <v>2.13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>40.36</v>
+        <v>59.03</v>
       </c>
       <c r="I23" t="n">
-        <v>0.32</v>
+        <v>16.93</v>
       </c>
       <c r="J23" t="n">
+        <v>213.6</v>
+      </c>
+      <c r="K23" t="n">
         <v>14.44</v>
       </c>
-      <c r="K23" t="n">
-        <v>30.59</v>
-      </c>
       <c r="L23" t="n">
-        <v>2.03</v>
+        <v>117.52</v>
       </c>
       <c r="M23" t="n">
-        <v>35.26</v>
+        <v>1.81</v>
       </c>
       <c r="N23" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="O23" t="n">
         <v>2.02</v>
       </c>
-      <c r="O23" t="n">
-        <v>46.25</v>
-      </c>
       <c r="P23" t="n">
-        <v>15.66</v>
+        <v>80.87</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-36.65</v>
       </c>
     </row>
     <row r="24">
@@ -1667,7 +1738,7 @@
         <v>1396.64</v>
       </c>
       <c r="C24" t="n">
-        <v>1395.949944501725</v>
+        <v>1395.95</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1678,37 +1749,40 @@
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G24" t="n">
         <v>895.95</v>
       </c>
       <c r="H24" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I24" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J24" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K24" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L24" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M24" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N24" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O24" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P24" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="25">
@@ -1719,7 +1793,7 @@
         <v>894.62</v>
       </c>
       <c r="C25" t="n">
-        <v>893.9355249031867</v>
+        <v>893.9400000000001</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1730,37 +1804,40 @@
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G25" t="n">
         <v>393.94</v>
       </c>
       <c r="H25" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I25" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J25" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K25" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M25" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N25" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O25" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P25" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="26">
@@ -1771,7 +1848,7 @@
         <v>993.85</v>
       </c>
       <c r="C26" t="n">
-        <v>993.1639748341188</v>
+        <v>993.16</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1782,37 +1859,40 @@
         <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G26" t="n">
         <v>493.16</v>
       </c>
       <c r="H26" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I26" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J26" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K26" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M26" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N26" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O26" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P26" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="27">
@@ -1823,7 +1903,7 @@
         <v>1299.63</v>
       </c>
       <c r="C27" t="n">
-        <v>1298.940686802312</v>
+        <v>1298.94</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1834,37 +1914,40 @@
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G27" t="n">
         <v>798.9400000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I27" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J27" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K27" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L27" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M27" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N27" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O27" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P27" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="28">
@@ -1875,7 +1958,7 @@
         <v>297.94</v>
       </c>
       <c r="C28" t="n">
-        <v>297.2866163955457</v>
+        <v>297.29</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1886,37 +1969,40 @@
         <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03</v>
+        <v>1.58</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>40.27</v>
+        <v>54.11</v>
       </c>
       <c r="I28" t="n">
-        <v>0.24</v>
+        <v>12.56</v>
       </c>
       <c r="J28" t="n">
+        <v>124.36</v>
+      </c>
+      <c r="K28" t="n">
         <v>11.57</v>
       </c>
-      <c r="K28" t="n">
-        <v>42.13</v>
-      </c>
       <c r="L28" t="n">
-        <v>2.1</v>
+        <v>161.83</v>
       </c>
       <c r="M28" t="n">
-        <v>48.44</v>
+        <v>1.84</v>
       </c>
       <c r="N28" t="n">
-        <v>1.61</v>
+        <v>1.08</v>
       </c>
       <c r="O28" t="n">
-        <v>36.28</v>
+        <v>1.62</v>
       </c>
       <c r="P28" t="n">
-        <v>-5.85</v>
+        <v>83.89</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-77.94</v>
       </c>
     </row>
     <row r="29">
@@ -1931,11 +2017,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1968,6 +2054,9 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1979,48 +2068,51 @@
         <v>1396.64</v>
       </c>
       <c r="C30" t="n">
-        <v>1395.949944501725</v>
+        <v>1395.95</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>895.95</v>
+        <v>1391.7</v>
       </c>
       <c r="H30" t="n">
-        <v>40.36</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>16.45</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>25.05</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>28.87</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>50.71</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>25.66</v>
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2031,7 +2123,7 @@
         <v>1499.08</v>
       </c>
       <c r="C31" t="n">
-        <v>1498.389264941757</v>
+        <v>1498.39</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2042,37 +2134,40 @@
         <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G31" t="n">
         <v>998.39</v>
       </c>
       <c r="H31" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I31" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J31" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K31" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L31" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M31" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N31" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O31" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P31" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="32">
@@ -2083,7 +2178,7 @@
         <v>1588.75</v>
       </c>
       <c r="C32" t="n">
-        <v>1588.058742022904</v>
+        <v>1588.06</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2094,37 +2189,40 @@
         <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G32" t="n">
         <v>1088.06</v>
       </c>
       <c r="H32" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I32" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J32" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K32" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M32" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N32" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O32" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P32" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="33">
@@ -2135,7 +2233,7 @@
         <v>2349.96</v>
       </c>
       <c r="C33" t="n">
-        <v>2349.265910266085</v>
+        <v>2349.27</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2146,37 +2244,40 @@
         <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G33" t="n">
         <v>1849.27</v>
       </c>
       <c r="H33" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I33" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J33" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K33" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L33" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M33" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N33" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O33" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P33" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="34">
@@ -2187,7 +2288,7 @@
         <v>5039.02</v>
       </c>
       <c r="C34" t="n">
-        <v>5038.322756267864</v>
+        <v>5038.32</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2198,37 +2299,40 @@
         <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G34" t="n">
         <v>4538.32</v>
       </c>
       <c r="H34" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I34" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J34" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K34" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L34" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M34" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N34" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O34" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P34" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="35">
@@ -2239,7 +2343,7 @@
         <v>6299.2</v>
       </c>
       <c r="C35" t="n">
-        <v>6298.502204865521</v>
+        <v>6298.5</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2250,37 +2354,40 @@
         <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G35" t="n">
         <v>5798.5</v>
       </c>
       <c r="H35" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I35" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J35" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K35" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L35" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M35" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N35" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O35" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P35" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="36">
@@ -2291,7 +2398,7 @@
         <v>3684.43</v>
       </c>
       <c r="C36" t="n">
-        <v>3683.733769616708</v>
+        <v>3683.73</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2302,37 +2409,40 @@
         <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G36" t="n">
         <v>3183.73</v>
       </c>
       <c r="H36" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I36" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J36" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K36" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L36" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M36" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N36" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O36" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P36" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="37">
@@ -2343,7 +2453,7 @@
         <v>3875.43</v>
       </c>
       <c r="C37" t="n">
-        <v>3874.733583831701</v>
+        <v>3874.73</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2354,37 +2464,40 @@
         <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G37" t="n">
         <v>3374.73</v>
       </c>
       <c r="H37" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I37" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J37" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K37" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L37" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M37" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N37" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O37" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P37" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="38">
@@ -2395,7 +2508,7 @@
         <v>7260.34</v>
       </c>
       <c r="C38" t="n">
-        <v>7259.641912980506</v>
+        <v>7259.64</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2406,37 +2519,40 @@
         <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G38" t="n">
         <v>6759.64</v>
       </c>
       <c r="H38" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I38" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J38" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K38" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L38" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M38" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N38" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O38" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P38" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="39">
@@ -2451,11 +2567,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -2488,6 +2604,9 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2503,11 +2622,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2540,6 +2659,9 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2555,11 +2677,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2592,6 +2714,9 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2607,11 +2732,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -2644,6 +2769,9 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2655,48 +2783,51 @@
         <v>410.07</v>
       </c>
       <c r="C43" t="n">
-        <v>409.4038695561462</v>
+        <v>409.4</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>405.15</v>
       </c>
       <c r="H43" t="n">
-        <v>40.36</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>14.44</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>30.59</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>35.26</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>46.25</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>15.66</v>
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2707,48 +2838,51 @@
         <v>1396.64</v>
       </c>
       <c r="C44" t="n">
-        <v>1395.949944501725</v>
+        <v>1395.95</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>895.95</v>
+        <v>1391.7</v>
       </c>
       <c r="H44" t="n">
-        <v>40.36</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>16.45</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>25.05</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>28.87</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>50.71</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>25.66</v>
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2759,7 +2893,7 @@
         <v>3108.37</v>
       </c>
       <c r="C45" t="n">
-        <v>3107.674468222538</v>
+        <v>3107.67</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2770,37 +2904,40 @@
         <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G45" t="n">
         <v>2607.67</v>
       </c>
       <c r="H45" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I45" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J45" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K45" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L45" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M45" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N45" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O45" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P45" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="46">
@@ -2811,7 +2948,7 @@
         <v>4415.54</v>
       </c>
       <c r="C46" t="n">
-        <v>4414.843145456476</v>
+        <v>4414.84</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2822,37 +2959,40 @@
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G46" t="n">
         <v>3914.84</v>
       </c>
       <c r="H46" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I46" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J46" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K46" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L46" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M46" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N46" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O46" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P46" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="47">
@@ -2863,7 +3003,7 @@
         <v>3493.03</v>
       </c>
       <c r="C47" t="n">
-        <v>3492.333976172231</v>
+        <v>3492.33</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2874,37 +3014,40 @@
         <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G47" t="n">
         <v>2992.33</v>
       </c>
       <c r="H47" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I47" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J47" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K47" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L47" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M47" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N47" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O47" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P47" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="48">
@@ -2915,7 +3058,7 @@
         <v>5668.84</v>
       </c>
       <c r="C48" t="n">
-        <v>5668.142450040729</v>
+        <v>5668.14</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2926,37 +3069,40 @@
         <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G48" t="n">
         <v>5168.14</v>
       </c>
       <c r="H48" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I48" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J48" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K48" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L48" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M48" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N48" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O48" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P48" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="49">
@@ -2967,7 +3113,7 @@
         <v>4415.54</v>
       </c>
       <c r="C49" t="n">
-        <v>4414.843145456476</v>
+        <v>4414.84</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2978,37 +3124,40 @@
         <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G49" t="n">
         <v>3914.84</v>
       </c>
       <c r="H49" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I49" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J49" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K49" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L49" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M49" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N49" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O49" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P49" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="50">
@@ -3019,7 +3168,7 @@
         <v>11066.59</v>
       </c>
       <c r="C50" t="n">
-        <v>11065.89125502878</v>
+        <v>11065.89</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3030,37 +3179,40 @@
         <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G50" t="n">
         <v>10565.89</v>
       </c>
       <c r="H50" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I50" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J50" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K50" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L50" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M50" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N50" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O50" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P50" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="51">
@@ -3071,7 +3223,7 @@
         <v>9335.299999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>9334.60148778174</v>
+        <v>9334.6</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3082,37 +3234,40 @@
         <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G51" t="n">
         <v>8834.6</v>
       </c>
       <c r="H51" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I51" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J51" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K51" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L51" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M51" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N51" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O51" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P51" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="52">
@@ -3123,7 +3278,7 @@
         <v>3493.03</v>
       </c>
       <c r="C52" t="n">
-        <v>3492.333976172231</v>
+        <v>3492.33</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3134,37 +3289,40 @@
         <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G52" t="n">
         <v>2992.33</v>
       </c>
       <c r="H52" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I52" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J52" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K52" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L52" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M52" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N52" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O52" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P52" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="53">
@@ -3175,7 +3333,7 @@
         <v>3108.37</v>
       </c>
       <c r="C53" t="n">
-        <v>3107.674468222538</v>
+        <v>3107.67</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3186,37 +3344,40 @@
         <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G53" t="n">
         <v>2607.67</v>
       </c>
       <c r="H53" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I53" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J53" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K53" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L53" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M53" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N53" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O53" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P53" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="54">
@@ -3227,7 +3388,7 @@
         <v>2918.18</v>
       </c>
       <c r="C54" t="n">
-        <v>2917.484759435295</v>
+        <v>2917.48</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3238,37 +3399,40 @@
         <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G54" t="n">
         <v>2417.48</v>
       </c>
       <c r="H54" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I54" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J54" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K54" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L54" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M54" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N54" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O54" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P54" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="55">
@@ -3279,7 +3443,7 @@
         <v>1969.43</v>
       </c>
       <c r="C55" t="n">
-        <v>1968.737052237901</v>
+        <v>1968.74</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3290,37 +3454,40 @@
         <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G55" t="n">
         <v>1468.74</v>
       </c>
       <c r="H55" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I55" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J55" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K55" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L55" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M55" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N55" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O55" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P55" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="56">
@@ -3331,7 +3498,7 @@
         <v>2539.76</v>
       </c>
       <c r="C56" t="n">
-        <v>2539.065468583208</v>
+        <v>2539.07</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3342,37 +3509,40 @@
         <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G56" t="n">
         <v>2039.07</v>
       </c>
       <c r="H56" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I56" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J56" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K56" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L56" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M56" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N56" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O56" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P56" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="57">
@@ -3383,7 +3553,7 @@
         <v>7625.64</v>
       </c>
       <c r="C57" t="n">
-        <v>7624.941821340752</v>
+        <v>7624.94</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3394,37 +3564,40 @@
         <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G57" t="n">
         <v>7124.94</v>
       </c>
       <c r="H57" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I57" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J57" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K57" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L57" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M57" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N57" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O57" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P57" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="58">
@@ -3435,7 +3608,7 @@
         <v>12499.26</v>
       </c>
       <c r="C58" t="n">
-        <v>12498.56111117689</v>
+        <v>12498.56</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3446,37 +3619,40 @@
         <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G58" t="n">
         <v>11998.56</v>
       </c>
       <c r="H58" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I58" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J58" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K58" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L58" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M58" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N58" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O58" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P58" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="59">
@@ -3487,7 +3663,7 @@
         <v>11066.59</v>
       </c>
       <c r="C59" t="n">
-        <v>11065.89125502878</v>
+        <v>11065.89</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3498,37 +3674,40 @@
         <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G59" t="n">
         <v>10565.89</v>
       </c>
       <c r="H59" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I59" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J59" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K59" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L59" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M59" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N59" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O59" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P59" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="60">
@@ -3539,7 +3718,7 @@
         <v>10199.66</v>
       </c>
       <c r="C60" t="n">
-        <v>10198.96136170116</v>
+        <v>10198.96</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3550,37 +3729,40 @@
         <v>4</v>
       </c>
       <c r="F60" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G60" t="n">
         <v>9698.959999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I60" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J60" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K60" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L60" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M60" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N60" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O60" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P60" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="61">
@@ -3591,7 +3773,7 @@
         <v>14187.12</v>
       </c>
       <c r="C61" t="n">
-        <v>14186.42097897874</v>
+        <v>14186.42</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3602,37 +3784,40 @@
         <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G61" t="n">
         <v>13686.42</v>
       </c>
       <c r="H61" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I61" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J61" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K61" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L61" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M61" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N61" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O61" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P61" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="62">
@@ -3643,7 +3828,7 @@
         <v>13065.35</v>
       </c>
       <c r="C62" t="n">
-        <v>13064.65106303229</v>
+        <v>13064.65</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -3654,37 +3839,40 @@
         <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G62" t="n">
         <v>12564.65</v>
       </c>
       <c r="H62" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I62" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J62" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K62" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L62" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M62" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N62" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O62" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P62" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="63">
@@ -3695,7 +3883,7 @@
         <v>10199.66</v>
       </c>
       <c r="C63" t="n">
-        <v>10198.96136170116</v>
+        <v>10198.96</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3706,37 +3894,40 @@
         <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G63" t="n">
         <v>9698.959999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I63" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J63" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K63" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L63" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M63" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N63" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O63" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P63" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="64">
@@ -3747,7 +3938,7 @@
         <v>11066.59</v>
       </c>
       <c r="C64" t="n">
-        <v>11065.89125502878</v>
+        <v>11065.89</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3758,37 +3949,40 @@
         <v>4</v>
       </c>
       <c r="F64" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G64" t="n">
         <v>10565.89</v>
       </c>
       <c r="H64" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I64" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J64" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K64" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L64" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M64" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N64" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O64" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P64" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="65">
@@ -3799,7 +3993,7 @@
         <v>7625.64</v>
       </c>
       <c r="C65" t="n">
-        <v>7624.941821340752</v>
+        <v>7624.94</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3810,37 +4004,40 @@
         <v>4</v>
       </c>
       <c r="F65" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G65" t="n">
         <v>7124.94</v>
       </c>
       <c r="H65" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I65" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J65" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K65" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L65" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M65" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N65" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O65" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P65" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="66">
@@ -3851,7 +4048,7 @@
         <v>5668.84</v>
       </c>
       <c r="C66" t="n">
-        <v>5668.142450040729</v>
+        <v>5668.14</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -3862,37 +4059,40 @@
         <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G66" t="n">
         <v>5168.14</v>
       </c>
       <c r="H66" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I66" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J66" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K66" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L66" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M66" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N66" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O66" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P66" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="67">
@@ -3903,7 +4103,7 @@
         <v>7625.64</v>
       </c>
       <c r="C67" t="n">
-        <v>7624.941821340752</v>
+        <v>7624.94</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3914,37 +4114,40 @@
         <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G67" t="n">
         <v>7124.94</v>
       </c>
       <c r="H67" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I67" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J67" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K67" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L67" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M67" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N67" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O67" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P67" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="68">
@@ -3955,7 +4158,7 @@
         <v>11506.95</v>
       </c>
       <c r="C68" t="n">
-        <v>11506.25120700002</v>
+        <v>11506.25</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3966,37 +4169,40 @@
         <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G68" t="n">
         <v>11006.25</v>
       </c>
       <c r="H68" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I68" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J68" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K68" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L68" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M68" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N68" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O68" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P68" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="69">
@@ -4011,11 +4217,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -4048,6 +4254,9 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4063,11 +4272,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -4100,6 +4309,9 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4115,11 +4327,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -4152,6 +4364,9 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4167,11 +4382,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -4204,6 +4419,9 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4219,11 +4437,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -4256,6 +4474,9 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4271,11 +4492,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -4308,6 +4529,9 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4323,11 +4547,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -4360,6 +4584,9 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4375,11 +4602,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -4412,6 +4639,9 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4427,11 +4657,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -4464,6 +4694,9 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4475,48 +4708,51 @@
         <v>12499.26</v>
       </c>
       <c r="C78" t="n">
-        <v>12498.56111117689</v>
+        <v>12498.56</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>11998.56</v>
+        <v>12494.31</v>
       </c>
       <c r="H78" t="n">
-        <v>40.36</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>16.45</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>25.05</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>28.87</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>50.71</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>25.66</v>
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -4527,48 +4763,51 @@
         <v>5668.84</v>
       </c>
       <c r="C79" t="n">
-        <v>5668.142450040729</v>
+        <v>5668.14</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>5168.14</v>
+        <v>5663.89</v>
       </c>
       <c r="H79" t="n">
-        <v>40.36</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>16.45</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>25.05</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>28.87</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>50.71</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>25.66</v>
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4579,7 +4818,7 @@
         <v>13065.35</v>
       </c>
       <c r="C80" t="n">
-        <v>13064.65106303229</v>
+        <v>13064.65</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -4590,37 +4829,40 @@
         <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G80" t="n">
         <v>12564.65</v>
       </c>
       <c r="H80" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I80" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J80" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K80" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L80" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M80" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N80" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O80" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P80" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="81">
@@ -4631,7 +4873,7 @@
         <v>11947.91</v>
       </c>
       <c r="C81" t="n">
-        <v>11947.21116245342</v>
+        <v>11947.21</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -4642,37 +4884,40 @@
         <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G81" t="n">
         <v>11447.21</v>
       </c>
       <c r="H81" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I81" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J81" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K81" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L81" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M81" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N81" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O81" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P81" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="82">
@@ -4683,7 +4928,7 @@
         <v>11066.59</v>
       </c>
       <c r="C82" t="n">
-        <v>11065.89125502878</v>
+        <v>11065.89</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4694,37 +4939,40 @@
         <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G82" t="n">
         <v>10565.89</v>
       </c>
       <c r="H82" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I82" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J82" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K82" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L82" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M82" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N82" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O82" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P82" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="83">
@@ -4735,7 +4983,7 @@
         <v>3875.43</v>
       </c>
       <c r="C83" t="n">
-        <v>3874.733583831701</v>
+        <v>3874.73</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -4746,37 +4994,40 @@
         <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G83" t="n">
         <v>3374.73</v>
       </c>
       <c r="H83" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I83" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J83" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K83" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L83" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M83" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N83" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O83" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P83" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="84">
@@ -4787,7 +5038,7 @@
         <v>11947.91</v>
       </c>
       <c r="C84" t="n">
-        <v>11947.21116245342</v>
+        <v>11947.21</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -4798,37 +5049,40 @@
         <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G84" t="n">
         <v>11447.21</v>
       </c>
       <c r="H84" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I84" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J84" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K84" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L84" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M84" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N84" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O84" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P84" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="85">
@@ -4839,7 +5093,7 @@
         <v>20149.83</v>
       </c>
       <c r="C85" t="n">
-        <v>20149.1306892807</v>
+        <v>20149.13</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -4850,37 +5104,40 @@
         <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G85" t="n">
         <v>19649.13</v>
       </c>
       <c r="H85" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I85" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J85" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K85" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L85" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M85" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N85" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O85" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P85" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="86">
@@ -4891,7 +5148,7 @@
         <v>18867.67</v>
       </c>
       <c r="C86" t="n">
-        <v>18866.97073612104</v>
+        <v>18866.97</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -4902,37 +5159,40 @@
         <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G86" t="n">
         <v>18366.97</v>
       </c>
       <c r="H86" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I86" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J86" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K86" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L86" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M86" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N86" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O86" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P86" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="87">
@@ -4943,7 +5203,7 @@
         <v>17608.59</v>
       </c>
       <c r="C87" t="n">
-        <v>17607.89078875645</v>
+        <v>17607.89</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -4954,37 +5214,40 @@
         <v>4</v>
       </c>
       <c r="F87" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G87" t="n">
         <v>17107.89</v>
       </c>
       <c r="H87" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I87" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J87" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K87" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L87" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M87" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N87" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O87" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P87" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="88">
@@ -4995,7 +5258,7 @@
         <v>15881.65</v>
       </c>
       <c r="C88" t="n">
-        <v>15880.9508745243</v>
+        <v>15880.95</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5006,37 +5269,40 @@
         <v>4</v>
       </c>
       <c r="F88" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G88" t="n">
         <v>15380.95</v>
       </c>
       <c r="H88" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I88" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J88" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K88" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L88" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M88" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N88" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O88" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P88" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="89">
@@ -5047,7 +5313,7 @@
         <v>17608.59</v>
       </c>
       <c r="C89" t="n">
-        <v>17607.89078875645</v>
+        <v>17607.89</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5058,37 +5324,40 @@
         <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G89" t="n">
         <v>17107.89</v>
       </c>
       <c r="H89" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I89" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J89" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K89" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L89" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M89" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N89" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O89" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P89" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="90">
@@ -5099,7 +5368,7 @@
         <v>15315.1</v>
       </c>
       <c r="C90" t="n">
-        <v>15314.40090687549</v>
+        <v>15314.4</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5110,37 +5379,40 @@
         <v>4</v>
       </c>
       <c r="F90" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G90" t="n">
         <v>14814.4</v>
       </c>
       <c r="H90" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I90" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J90" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K90" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L90" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M90" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N90" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O90" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P90" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="91">
@@ -5151,7 +5423,7 @@
         <v>17608.59</v>
       </c>
       <c r="C91" t="n">
-        <v>17607.89078875645</v>
+        <v>17607.89</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5162,37 +5434,40 @@
         <v>4</v>
       </c>
       <c r="F91" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G91" t="n">
         <v>17107.89</v>
       </c>
       <c r="H91" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I91" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J91" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K91" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L91" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M91" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N91" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O91" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P91" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="92">
@@ -5203,7 +5478,7 @@
         <v>18227.92</v>
       </c>
       <c r="C92" t="n">
-        <v>18227.22076195687</v>
+        <v>18227.22</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5214,37 +5489,40 @@
         <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G92" t="n">
         <v>17727.22</v>
       </c>
       <c r="H92" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I92" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J92" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K92" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L92" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M92" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N92" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O92" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P92" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="93">
@@ -5255,7 +5533,7 @@
         <v>31786.66</v>
       </c>
       <c r="C93" t="n">
-        <v>31785.96043694081</v>
+        <v>31785.96</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5266,37 +5544,40 @@
         <v>4</v>
       </c>
       <c r="F93" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G93" t="n">
         <v>31285.96</v>
       </c>
       <c r="H93" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I93" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J93" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K93" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L93" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M93" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N93" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O93" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P93" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="94">
@@ -5307,7 +5588,7 @@
         <v>25315.81</v>
       </c>
       <c r="C94" t="n">
-        <v>25315.1105486251</v>
+        <v>25315.11</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5318,37 +5599,40 @@
         <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G94" t="n">
         <v>24815.11</v>
       </c>
       <c r="H94" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I94" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J94" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K94" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L94" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M94" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N94" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O94" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P94" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="95">
@@ -5359,7 +5643,7 @@
         <v>20149.83</v>
       </c>
       <c r="C95" t="n">
-        <v>20149.1306892807</v>
+        <v>20149.13</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5370,37 +5654,40 @@
         <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G95" t="n">
         <v>19649.13</v>
       </c>
       <c r="H95" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I95" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J95" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K95" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L95" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M95" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N95" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O95" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P95" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="96">
@@ -5411,7 +5698,7 @@
         <v>15315.1</v>
       </c>
       <c r="C96" t="n">
-        <v>15314.40090687549</v>
+        <v>15314.4</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5422,37 +5709,40 @@
         <v>4</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G96" t="n">
         <v>14814.4</v>
       </c>
       <c r="H96" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I96" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J96" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K96" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L96" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M96" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N96" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O96" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P96" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="97">
@@ -5463,7 +5753,7 @@
         <v>14187.12</v>
       </c>
       <c r="C97" t="n">
-        <v>14186.42097897874</v>
+        <v>14186.42</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -5474,37 +5764,40 @@
         <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G97" t="n">
         <v>13686.42</v>
       </c>
       <c r="H97" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I97" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J97" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K97" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L97" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M97" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N97" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O97" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P97" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="98">
@@ -5515,7 +5808,7 @@
         <v>11066.59</v>
       </c>
       <c r="C98" t="n">
-        <v>11065.89125502878</v>
+        <v>11065.89</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -5526,37 +5819,40 @@
         <v>4</v>
       </c>
       <c r="F98" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G98" t="n">
         <v>10565.89</v>
       </c>
       <c r="H98" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I98" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J98" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K98" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L98" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M98" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N98" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O98" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P98" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="99">
@@ -5567,7 +5863,7 @@
         <v>16454.26</v>
       </c>
       <c r="C99" t="n">
-        <v>16453.56084409076</v>
+        <v>16453.56</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -5578,37 +5874,40 @@
         <v>4</v>
       </c>
       <c r="F99" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G99" t="n">
         <v>15953.56</v>
       </c>
       <c r="H99" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I99" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J99" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K99" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L99" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M99" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N99" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O99" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P99" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="100">
@@ -5619,7 +5918,7 @@
         <v>20149.83</v>
       </c>
       <c r="C100" t="n">
-        <v>20149.1306892807</v>
+        <v>20149.13</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -5630,37 +5929,40 @@
         <v>4</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G100" t="n">
         <v>19649.13</v>
       </c>
       <c r="H100" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I100" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J100" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K100" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L100" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M100" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N100" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O100" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P100" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="101">
@@ -5671,7 +5973,7 @@
         <v>32845.48</v>
       </c>
       <c r="C101" t="n">
-        <v>32844.78042285542</v>
+        <v>32844.78</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -5682,37 +5984,40 @@
         <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>0.04</v>
+        <v>2.56</v>
       </c>
       <c r="G101" t="n">
         <v>32344.78</v>
       </c>
       <c r="H101" t="n">
-        <v>40.36</v>
+        <v>62.87</v>
       </c>
       <c r="I101" t="n">
-        <v>0.32</v>
+        <v>20.35</v>
       </c>
       <c r="J101" t="n">
-        <v>16.45</v>
+        <v>297.33</v>
       </c>
       <c r="K101" t="n">
-        <v>25.05</v>
+        <v>16.45</v>
       </c>
       <c r="L101" t="n">
-        <v>1.67</v>
+        <v>96.22</v>
       </c>
       <c r="M101" t="n">
-        <v>28.87</v>
+        <v>1.78</v>
       </c>
       <c r="N101" t="n">
-        <v>2.3</v>
+        <v>0.75</v>
       </c>
       <c r="O101" t="n">
-        <v>50.71</v>
+        <v>2.3</v>
       </c>
       <c r="P101" t="n">
-        <v>25.66</v>
+        <v>78.72</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>-17.5</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,37 +486,42 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>compression [%]</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>gasdrying {%]</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>electromics [%]</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>pump [%]</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Heat Cell [%]</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>compression [%]</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>gasdrying {%]</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>pump [%]</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>heat system [%]</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>efficiency [%]</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>efficency with compression [%]</t>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>efficency _c [%]</t>
         </is>
       </c>
     </row>
@@ -551,28 +556,31 @@
         <v>20.35</v>
       </c>
       <c r="J2" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K2" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L2" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M2" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O2" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P2" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q2" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R2" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="3">
@@ -606,28 +614,31 @@
         <v>20.35</v>
       </c>
       <c r="J3" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K3" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L3" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M3" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O3" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P3" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R3" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="4">
@@ -661,28 +672,31 @@
         <v>20.35</v>
       </c>
       <c r="J4" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K4" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L4" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M4" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O4" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P4" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R4" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="5">
@@ -716,28 +730,31 @@
         <v>16.93</v>
       </c>
       <c r="J5" t="n">
-        <v>213.6</v>
+        <v>1525.83</v>
       </c>
       <c r="K5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O5" t="n">
         <v>14.44</v>
       </c>
-      <c r="L5" t="n">
-        <v>117.52</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.02</v>
-      </c>
       <c r="P5" t="n">
-        <v>80.87</v>
+        <v>14.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>-36.65</v>
+        <v>64.22</v>
+      </c>
+      <c r="R5" t="n">
+        <v>63.99</v>
       </c>
     </row>
     <row r="6">
@@ -771,28 +788,31 @@
         <v>7.87</v>
       </c>
       <c r="J6" t="n">
-        <v>54.15</v>
+        <v>386.88</v>
       </c>
       <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O6" t="n">
         <v>8.09</v>
       </c>
-      <c r="L6" t="n">
-        <v>259.8</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.13</v>
-      </c>
       <c r="P6" t="n">
-        <v>87.34999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="Q6" t="n">
-        <v>-172.45</v>
+        <v>64.73</v>
+      </c>
+      <c r="R6" t="n">
+        <v>64.23</v>
       </c>
     </row>
     <row r="7">
@@ -826,28 +846,31 @@
         <v>2.86</v>
       </c>
       <c r="J7" t="n">
-        <v>8.539999999999999</v>
+        <v>61.06</v>
       </c>
       <c r="K7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O7" t="n">
         <v>3.23</v>
       </c>
-      <c r="L7" t="n">
-        <v>657.4400000000001</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.45</v>
-      </c>
       <c r="P7" t="n">
-        <v>91.09</v>
+        <v>3.23</v>
       </c>
       <c r="Q7" t="n">
-        <v>-566.35</v>
+        <v>55.74</v>
+      </c>
+      <c r="R7" t="n">
+        <v>54.47</v>
       </c>
     </row>
     <row r="8">
@@ -881,28 +904,31 @@
         <v>10.25</v>
       </c>
       <c r="J8" t="n">
-        <v>86.61</v>
+        <v>618.73</v>
       </c>
       <c r="K8" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O8" t="n">
         <v>9.93</v>
       </c>
-      <c r="L8" t="n">
-        <v>199.43</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.39</v>
-      </c>
       <c r="P8" t="n">
-        <v>85.55</v>
+        <v>9.93</v>
       </c>
       <c r="Q8" t="n">
-        <v>-113.88</v>
+        <v>65.34</v>
+      </c>
+      <c r="R8" t="n">
+        <v>64.95</v>
       </c>
     </row>
     <row r="9">
@@ -936,28 +962,31 @@
         <v>20.35</v>
       </c>
       <c r="J9" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K9" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L9" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M9" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O9" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P9" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q9" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R9" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="10">
@@ -991,28 +1020,31 @@
         <v>16.93</v>
       </c>
       <c r="J10" t="n">
-        <v>213.6</v>
+        <v>1525.83</v>
       </c>
       <c r="K10" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O10" t="n">
         <v>14.44</v>
       </c>
-      <c r="L10" t="n">
-        <v>117.52</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.02</v>
-      </c>
       <c r="P10" t="n">
-        <v>80.87</v>
+        <v>14.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>-36.65</v>
+        <v>64.22</v>
+      </c>
+      <c r="R10" t="n">
+        <v>63.99</v>
       </c>
     </row>
     <row r="11">
@@ -1046,28 +1078,31 @@
         <v>20.35</v>
       </c>
       <c r="J11" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K11" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L11" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M11" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O11" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P11" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q11" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R11" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="12">
@@ -1101,28 +1136,31 @@
         <v>20.35</v>
       </c>
       <c r="J12" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K12" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L12" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M12" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O12" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P12" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q12" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R12" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="13">
@@ -1156,28 +1194,31 @@
         <v>20.35</v>
       </c>
       <c r="J13" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K13" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L13" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M13" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O13" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P13" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q13" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R13" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="14">
@@ -1211,28 +1252,31 @@
         <v>10.25</v>
       </c>
       <c r="J14" t="n">
-        <v>86.61</v>
+        <v>618.73</v>
       </c>
       <c r="K14" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O14" t="n">
         <v>9.93</v>
       </c>
-      <c r="L14" t="n">
-        <v>199.43</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.39</v>
-      </c>
       <c r="P14" t="n">
-        <v>85.55</v>
+        <v>9.93</v>
       </c>
       <c r="Q14" t="n">
-        <v>-113.88</v>
+        <v>65.34</v>
+      </c>
+      <c r="R14" t="n">
+        <v>64.95</v>
       </c>
     </row>
     <row r="15">
@@ -1266,28 +1310,31 @@
         <v>20.35</v>
       </c>
       <c r="J15" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K15" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L15" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M15" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O15" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P15" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q15" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R15" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="16">
@@ -1321,28 +1368,31 @@
         <v>20.35</v>
       </c>
       <c r="J16" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K16" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L16" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M16" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O16" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P16" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R16" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="17">
@@ -1376,28 +1426,31 @@
         <v>20.35</v>
       </c>
       <c r="J17" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K17" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L17" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M17" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O17" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P17" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q17" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R17" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="18">
@@ -1431,28 +1484,31 @@
         <v>7.87</v>
       </c>
       <c r="J18" t="n">
-        <v>54.15</v>
+        <v>386.88</v>
       </c>
       <c r="K18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O18" t="n">
         <v>8.09</v>
       </c>
-      <c r="L18" t="n">
-        <v>259.8</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.13</v>
-      </c>
       <c r="P18" t="n">
-        <v>87.34999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="Q18" t="n">
-        <v>-172.45</v>
+        <v>64.73</v>
+      </c>
+      <c r="R18" t="n">
+        <v>64.23</v>
       </c>
     </row>
     <row r="19">
@@ -1486,28 +1542,31 @@
         <v>20.35</v>
       </c>
       <c r="J19" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K19" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L19" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M19" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O19" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P19" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q19" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R19" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="20">
@@ -1541,28 +1600,31 @@
         <v>20.35</v>
       </c>
       <c r="J20" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K20" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L20" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M20" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O20" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P20" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q20" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R20" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="21">
@@ -1596,28 +1658,31 @@
         <v>2.86</v>
       </c>
       <c r="J21" t="n">
-        <v>8.539999999999999</v>
+        <v>61.06</v>
       </c>
       <c r="K21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O21" t="n">
         <v>3.23</v>
       </c>
-      <c r="L21" t="n">
-        <v>657.4400000000001</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.45</v>
-      </c>
       <c r="P21" t="n">
-        <v>91.09</v>
+        <v>3.23</v>
       </c>
       <c r="Q21" t="n">
-        <v>-566.35</v>
+        <v>55.74</v>
+      </c>
+      <c r="R21" t="n">
+        <v>54.47</v>
       </c>
     </row>
     <row r="22">
@@ -1651,28 +1716,31 @@
         <v>10.25</v>
       </c>
       <c r="J22" t="n">
-        <v>86.61</v>
+        <v>618.73</v>
       </c>
       <c r="K22" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O22" t="n">
         <v>9.93</v>
       </c>
-      <c r="L22" t="n">
-        <v>199.43</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.39</v>
-      </c>
       <c r="P22" t="n">
-        <v>85.55</v>
+        <v>9.93</v>
       </c>
       <c r="Q22" t="n">
-        <v>-113.88</v>
+        <v>65.34</v>
+      </c>
+      <c r="R22" t="n">
+        <v>64.95</v>
       </c>
     </row>
     <row r="23">
@@ -1706,28 +1774,31 @@
         <v>16.93</v>
       </c>
       <c r="J23" t="n">
-        <v>213.6</v>
+        <v>1525.83</v>
       </c>
       <c r="K23" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O23" t="n">
         <v>14.44</v>
       </c>
-      <c r="L23" t="n">
-        <v>117.52</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2.02</v>
-      </c>
       <c r="P23" t="n">
-        <v>80.87</v>
+        <v>14.44</v>
       </c>
       <c r="Q23" t="n">
-        <v>-36.65</v>
+        <v>64.22</v>
+      </c>
+      <c r="R23" t="n">
+        <v>63.99</v>
       </c>
     </row>
     <row r="24">
@@ -1761,28 +1832,31 @@
         <v>20.35</v>
       </c>
       <c r="J24" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K24" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L24" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M24" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O24" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P24" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q24" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R24" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="25">
@@ -1816,28 +1890,31 @@
         <v>20.35</v>
       </c>
       <c r="J25" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K25" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L25" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M25" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O25" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P25" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q25" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R25" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="26">
@@ -1871,28 +1948,31 @@
         <v>20.35</v>
       </c>
       <c r="J26" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K26" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L26" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M26" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O26" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P26" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q26" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R26" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="27">
@@ -1926,28 +2006,31 @@
         <v>20.35</v>
       </c>
       <c r="J27" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K27" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L27" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M27" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O27" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P27" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q27" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R27" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="28">
@@ -1981,28 +2064,31 @@
         <v>12.56</v>
       </c>
       <c r="J28" t="n">
-        <v>124.36</v>
+        <v>888.37</v>
       </c>
       <c r="K28" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O28" t="n">
         <v>11.57</v>
       </c>
-      <c r="L28" t="n">
-        <v>161.83</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.62</v>
-      </c>
       <c r="P28" t="n">
-        <v>83.89</v>
+        <v>11.57</v>
       </c>
       <c r="Q28" t="n">
-        <v>-77.94</v>
+        <v>65.31</v>
+      </c>
+      <c r="R28" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -2059,6 +2145,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2114,6 +2203,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2146,28 +2238,31 @@
         <v>20.35</v>
       </c>
       <c r="J31" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K31" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L31" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M31" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O31" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P31" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q31" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R31" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="32">
@@ -2201,28 +2296,31 @@
         <v>20.35</v>
       </c>
       <c r="J32" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K32" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L32" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M32" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N32" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O32" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P32" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q32" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R32" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="33">
@@ -2256,28 +2354,31 @@
         <v>20.35</v>
       </c>
       <c r="J33" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K33" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L33" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M33" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N33" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O33" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P33" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q33" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R33" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="34">
@@ -2311,28 +2412,31 @@
         <v>20.35</v>
       </c>
       <c r="J34" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K34" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L34" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M34" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N34" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O34" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P34" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q34" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R34" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="35">
@@ -2366,28 +2470,31 @@
         <v>20.35</v>
       </c>
       <c r="J35" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K35" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L35" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M35" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N35" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O35" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P35" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q35" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R35" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="36">
@@ -2421,28 +2528,31 @@
         <v>20.35</v>
       </c>
       <c r="J36" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K36" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L36" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M36" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N36" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O36" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P36" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q36" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R36" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="37">
@@ -2476,28 +2586,31 @@
         <v>20.35</v>
       </c>
       <c r="J37" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K37" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L37" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M37" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N37" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O37" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P37" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q37" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R37" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="38">
@@ -2531,28 +2644,31 @@
         <v>20.35</v>
       </c>
       <c r="J38" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K38" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L38" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M38" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N38" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O38" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P38" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q38" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R38" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="39">
@@ -2609,6 +2725,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2664,6 +2783,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2719,6 +2841,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2774,6 +2899,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2829,6 +2957,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2884,6 +3015,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2916,28 +3050,31 @@
         <v>20.35</v>
       </c>
       <c r="J45" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K45" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L45" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M45" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N45" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O45" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P45" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q45" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R45" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="46">
@@ -2971,28 +3108,31 @@
         <v>20.35</v>
       </c>
       <c r="J46" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K46" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L46" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M46" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N46" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O46" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P46" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q46" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R46" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="47">
@@ -3026,28 +3166,31 @@
         <v>20.35</v>
       </c>
       <c r="J47" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K47" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L47" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M47" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N47" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O47" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P47" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q47" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R47" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="48">
@@ -3081,28 +3224,31 @@
         <v>20.35</v>
       </c>
       <c r="J48" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K48" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L48" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M48" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N48" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O48" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P48" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q48" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R48" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="49">
@@ -3136,28 +3282,31 @@
         <v>20.35</v>
       </c>
       <c r="J49" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K49" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L49" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M49" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N49" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O49" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P49" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q49" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R49" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="50">
@@ -3191,28 +3340,31 @@
         <v>20.35</v>
       </c>
       <c r="J50" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K50" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L50" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M50" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N50" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O50" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P50" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q50" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R50" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="51">
@@ -3246,28 +3398,31 @@
         <v>20.35</v>
       </c>
       <c r="J51" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K51" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L51" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M51" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N51" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O51" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P51" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q51" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R51" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="52">
@@ -3301,28 +3456,31 @@
         <v>20.35</v>
       </c>
       <c r="J52" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K52" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L52" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M52" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N52" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O52" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P52" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q52" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R52" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="53">
@@ -3356,28 +3514,31 @@
         <v>20.35</v>
       </c>
       <c r="J53" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K53" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L53" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M53" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N53" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O53" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P53" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q53" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R53" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="54">
@@ -3411,28 +3572,31 @@
         <v>20.35</v>
       </c>
       <c r="J54" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K54" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L54" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M54" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N54" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O54" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P54" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q54" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R54" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="55">
@@ -3466,28 +3630,31 @@
         <v>20.35</v>
       </c>
       <c r="J55" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K55" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L55" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M55" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N55" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O55" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P55" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q55" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R55" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="56">
@@ -3521,28 +3688,31 @@
         <v>20.35</v>
       </c>
       <c r="J56" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K56" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L56" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M56" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N56" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O56" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P56" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q56" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R56" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="57">
@@ -3576,28 +3746,31 @@
         <v>20.35</v>
       </c>
       <c r="J57" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K57" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L57" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M57" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N57" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O57" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P57" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q57" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R57" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="58">
@@ -3631,28 +3804,31 @@
         <v>20.35</v>
       </c>
       <c r="J58" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K58" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L58" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M58" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N58" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O58" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P58" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q58" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R58" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="59">
@@ -3686,28 +3862,31 @@
         <v>20.35</v>
       </c>
       <c r="J59" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K59" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L59" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M59" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N59" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O59" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P59" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q59" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R59" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="60">
@@ -3741,28 +3920,31 @@
         <v>20.35</v>
       </c>
       <c r="J60" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K60" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L60" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M60" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N60" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O60" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P60" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q60" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R60" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="61">
@@ -3796,28 +3978,31 @@
         <v>20.35</v>
       </c>
       <c r="J61" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K61" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L61" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M61" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N61" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O61" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P61" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q61" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R61" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="62">
@@ -3851,28 +4036,31 @@
         <v>20.35</v>
       </c>
       <c r="J62" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K62" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L62" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M62" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N62" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O62" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P62" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q62" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R62" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="63">
@@ -3906,28 +4094,31 @@
         <v>20.35</v>
       </c>
       <c r="J63" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K63" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L63" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M63" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N63" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O63" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P63" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q63" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R63" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="64">
@@ -3961,28 +4152,31 @@
         <v>20.35</v>
       </c>
       <c r="J64" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K64" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L64" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M64" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N64" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O64" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P64" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q64" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R64" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="65">
@@ -4016,28 +4210,31 @@
         <v>20.35</v>
       </c>
       <c r="J65" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K65" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L65" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M65" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N65" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O65" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P65" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q65" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R65" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="66">
@@ -4071,28 +4268,31 @@
         <v>20.35</v>
       </c>
       <c r="J66" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K66" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L66" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M66" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N66" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O66" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P66" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q66" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R66" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="67">
@@ -4126,28 +4326,31 @@
         <v>20.35</v>
       </c>
       <c r="J67" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K67" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L67" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M67" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N67" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O67" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P67" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q67" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R67" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="68">
@@ -4181,28 +4384,31 @@
         <v>20.35</v>
       </c>
       <c r="J68" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K68" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L68" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M68" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N68" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O68" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P68" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q68" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R68" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="69">
@@ -4259,6 +4465,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4314,6 +4523,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4369,6 +4581,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4424,6 +4639,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4479,6 +4697,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4534,6 +4755,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4589,6 +4813,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4644,6 +4871,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4699,6 +4929,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4754,6 +4987,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4809,6 +5045,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4841,28 +5080,31 @@
         <v>20.35</v>
       </c>
       <c r="J80" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K80" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L80" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M80" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N80" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O80" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P80" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q80" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R80" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="81">
@@ -4896,28 +5138,31 @@
         <v>20.35</v>
       </c>
       <c r="J81" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K81" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L81" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M81" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N81" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O81" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P81" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q81" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R81" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="82">
@@ -4951,28 +5196,31 @@
         <v>20.35</v>
       </c>
       <c r="J82" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K82" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L82" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M82" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N82" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O82" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P82" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q82" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R82" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="83">
@@ -5006,28 +5254,31 @@
         <v>20.35</v>
       </c>
       <c r="J83" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K83" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L83" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M83" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N83" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O83" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P83" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q83" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R83" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="84">
@@ -5061,28 +5312,31 @@
         <v>20.35</v>
       </c>
       <c r="J84" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K84" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L84" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M84" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N84" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O84" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P84" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q84" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R84" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="85">
@@ -5116,28 +5370,31 @@
         <v>20.35</v>
       </c>
       <c r="J85" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K85" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L85" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M85" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N85" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O85" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P85" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q85" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R85" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="86">
@@ -5171,28 +5428,31 @@
         <v>20.35</v>
       </c>
       <c r="J86" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K86" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L86" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M86" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N86" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O86" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P86" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q86" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R86" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="87">
@@ -5226,28 +5486,31 @@
         <v>20.35</v>
       </c>
       <c r="J87" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K87" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L87" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M87" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N87" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O87" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P87" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q87" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R87" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="88">
@@ -5281,28 +5544,31 @@
         <v>20.35</v>
       </c>
       <c r="J88" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K88" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L88" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M88" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N88" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O88" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P88" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q88" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R88" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="89">
@@ -5336,28 +5602,31 @@
         <v>20.35</v>
       </c>
       <c r="J89" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K89" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L89" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M89" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N89" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O89" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P89" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q89" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R89" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="90">
@@ -5391,28 +5660,31 @@
         <v>20.35</v>
       </c>
       <c r="J90" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K90" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L90" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M90" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N90" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O90" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P90" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q90" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R90" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="91">
@@ -5446,28 +5718,31 @@
         <v>20.35</v>
       </c>
       <c r="J91" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K91" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L91" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M91" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N91" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O91" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P91" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q91" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R91" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="92">
@@ -5501,28 +5776,31 @@
         <v>20.35</v>
       </c>
       <c r="J92" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K92" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L92" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M92" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N92" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O92" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P92" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q92" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R92" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="93">
@@ -5556,28 +5834,31 @@
         <v>20.35</v>
       </c>
       <c r="J93" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K93" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L93" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M93" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N93" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O93" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P93" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q93" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R93" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="94">
@@ -5611,28 +5892,31 @@
         <v>20.35</v>
       </c>
       <c r="J94" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K94" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L94" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M94" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N94" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O94" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P94" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q94" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R94" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="95">
@@ -5666,28 +5950,31 @@
         <v>20.35</v>
       </c>
       <c r="J95" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K95" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L95" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M95" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N95" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O95" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P95" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q95" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R95" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="96">
@@ -5721,28 +6008,31 @@
         <v>20.35</v>
       </c>
       <c r="J96" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K96" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L96" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M96" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N96" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O96" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P96" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q96" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R96" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="97">
@@ -5776,28 +6066,31 @@
         <v>20.35</v>
       </c>
       <c r="J97" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K97" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L97" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M97" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N97" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O97" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P97" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q97" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R97" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="98">
@@ -5831,28 +6124,31 @@
         <v>20.35</v>
       </c>
       <c r="J98" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K98" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L98" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M98" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N98" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O98" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P98" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q98" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R98" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="99">
@@ -5886,28 +6182,31 @@
         <v>20.35</v>
       </c>
       <c r="J99" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K99" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L99" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M99" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N99" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O99" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P99" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q99" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R99" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="100">
@@ -5941,28 +6240,31 @@
         <v>20.35</v>
       </c>
       <c r="J100" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K100" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L100" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M100" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N100" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O100" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P100" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q100" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R100" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="101">
@@ -5996,28 +6298,31 @@
         <v>20.35</v>
       </c>
       <c r="J101" t="n">
-        <v>297.33</v>
+        <v>2123.87</v>
       </c>
       <c r="K101" t="n">
-        <v>16.45</v>
+        <v>0.19</v>
       </c>
       <c r="L101" t="n">
-        <v>96.22</v>
+        <v>1.78</v>
       </c>
       <c r="M101" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="N101" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="O101" t="n">
-        <v>2.3</v>
+        <v>16.45</v>
       </c>
       <c r="P101" t="n">
-        <v>78.72</v>
+        <v>16.45</v>
       </c>
       <c r="Q101" t="n">
-        <v>-17.5</v>
+        <v>63.34</v>
+      </c>
+      <c r="R101" t="n">
+        <v>63.15</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,35 +491,40 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>electrolyzer {%]</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>gasdrying {%]</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>electromics [%]</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pump [%]</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Heat Cell [%]</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>heat system [%]</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>efficiency [%]</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>efficency _c [%]</t>
         </is>
@@ -562,24 +567,27 @@
         <v>0.19</v>
       </c>
       <c r="L2" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M2" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N2" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P2" t="n">
         <v>16.45</v>
       </c>
       <c r="Q2" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R2" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S2" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -620,24 +628,27 @@
         <v>0.19</v>
       </c>
       <c r="L3" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M3" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N3" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O3" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P3" t="n">
         <v>16.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R3" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S3" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -678,24 +689,27 @@
         <v>0.19</v>
       </c>
       <c r="L4" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M4" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N4" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O4" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P4" t="n">
         <v>16.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R4" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S4" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -736,24 +750,27 @@
         <v>0.23</v>
       </c>
       <c r="L5" t="n">
+        <v>31</v>
+      </c>
+      <c r="M5" t="n">
         <v>1.81</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>2.54</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.79</v>
-      </c>
-      <c r="O5" t="n">
-        <v>14.44</v>
       </c>
       <c r="P5" t="n">
         <v>14.44</v>
       </c>
       <c r="Q5" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="R5" t="n">
         <v>64.22</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>63.99</v>
       </c>
     </row>
@@ -794,24 +811,27 @@
         <v>0.5</v>
       </c>
       <c r="L6" t="n">
+        <v>29</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.86</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>3.65</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>1.03</v>
-      </c>
-      <c r="O6" t="n">
-        <v>8.09</v>
       </c>
       <c r="P6" t="n">
         <v>8.09</v>
       </c>
       <c r="Q6" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="R6" t="n">
         <v>64.73</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>64.23</v>
       </c>
     </row>
@@ -852,24 +872,27 @@
         <v>1.27</v>
       </c>
       <c r="L7" t="n">
+        <v>34</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.71</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>5.88</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>2.26</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3.23</v>
       </c>
       <c r="P7" t="n">
         <v>3.23</v>
       </c>
       <c r="Q7" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="R7" t="n">
         <v>55.74</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>54.47</v>
       </c>
     </row>
@@ -910,24 +933,27 @@
         <v>0.39</v>
       </c>
       <c r="L8" t="n">
+        <v>29</v>
+      </c>
+      <c r="M8" t="n">
         <v>1.86</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>3.21</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>0.88</v>
-      </c>
-      <c r="O8" t="n">
-        <v>9.93</v>
       </c>
       <c r="P8" t="n">
         <v>9.93</v>
       </c>
       <c r="Q8" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="R8" t="n">
         <v>65.34</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>64.95</v>
       </c>
     </row>
@@ -968,24 +994,27 @@
         <v>0.19</v>
       </c>
       <c r="L9" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M9" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N9" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O9" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P9" t="n">
         <v>16.45</v>
       </c>
       <c r="Q9" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R9" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S9" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -1026,24 +1055,27 @@
         <v>0.23</v>
       </c>
       <c r="L10" t="n">
+        <v>31</v>
+      </c>
+      <c r="M10" t="n">
         <v>1.81</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>2.54</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>0.79</v>
-      </c>
-      <c r="O10" t="n">
-        <v>14.44</v>
       </c>
       <c r="P10" t="n">
         <v>14.44</v>
       </c>
       <c r="Q10" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="R10" t="n">
         <v>64.22</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>63.99</v>
       </c>
     </row>
@@ -1084,24 +1116,27 @@
         <v>0.19</v>
       </c>
       <c r="L11" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M11" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N11" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O11" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P11" t="n">
         <v>16.45</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R11" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S11" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -1142,24 +1177,27 @@
         <v>0.19</v>
       </c>
       <c r="L12" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M12" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N12" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O12" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P12" t="n">
         <v>16.45</v>
       </c>
       <c r="Q12" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R12" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S12" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -1200,24 +1238,27 @@
         <v>0.19</v>
       </c>
       <c r="L13" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M13" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N13" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O13" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P13" t="n">
         <v>16.45</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R13" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S13" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -1258,24 +1299,27 @@
         <v>0.39</v>
       </c>
       <c r="L14" t="n">
+        <v>29</v>
+      </c>
+      <c r="M14" t="n">
         <v>1.86</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>3.21</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>0.88</v>
-      </c>
-      <c r="O14" t="n">
-        <v>9.93</v>
       </c>
       <c r="P14" t="n">
         <v>9.93</v>
       </c>
       <c r="Q14" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="R14" t="n">
         <v>65.34</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>64.95</v>
       </c>
     </row>
@@ -1316,24 +1360,27 @@
         <v>0.19</v>
       </c>
       <c r="L15" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M15" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N15" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O15" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P15" t="n">
         <v>16.45</v>
       </c>
       <c r="Q15" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R15" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S15" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -1374,24 +1421,27 @@
         <v>0.19</v>
       </c>
       <c r="L16" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M16" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N16" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O16" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P16" t="n">
         <v>16.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R16" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S16" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -1432,24 +1482,27 @@
         <v>0.19</v>
       </c>
       <c r="L17" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M17" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N17" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O17" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P17" t="n">
         <v>16.45</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R17" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S17" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -1490,24 +1543,27 @@
         <v>0.5</v>
       </c>
       <c r="L18" t="n">
+        <v>29</v>
+      </c>
+      <c r="M18" t="n">
         <v>1.86</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>3.65</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>1.03</v>
-      </c>
-      <c r="O18" t="n">
-        <v>8.09</v>
       </c>
       <c r="P18" t="n">
         <v>8.09</v>
       </c>
       <c r="Q18" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="R18" t="n">
         <v>64.73</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>64.23</v>
       </c>
     </row>
@@ -1548,24 +1604,27 @@
         <v>0.19</v>
       </c>
       <c r="L19" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M19" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N19" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O19" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P19" t="n">
         <v>16.45</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R19" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S19" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -1606,24 +1665,27 @@
         <v>0.19</v>
       </c>
       <c r="L20" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M20" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N20" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O20" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P20" t="n">
         <v>16.45</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R20" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S20" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -1664,24 +1726,27 @@
         <v>1.27</v>
       </c>
       <c r="L21" t="n">
+        <v>34</v>
+      </c>
+      <c r="M21" t="n">
         <v>1.71</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>5.88</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>2.26</v>
-      </c>
-      <c r="O21" t="n">
-        <v>3.23</v>
       </c>
       <c r="P21" t="n">
         <v>3.23</v>
       </c>
       <c r="Q21" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="R21" t="n">
         <v>55.74</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>54.47</v>
       </c>
     </row>
@@ -1722,24 +1787,27 @@
         <v>0.39</v>
       </c>
       <c r="L22" t="n">
+        <v>29</v>
+      </c>
+      <c r="M22" t="n">
         <v>1.86</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>3.21</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>0.88</v>
-      </c>
-      <c r="O22" t="n">
-        <v>9.93</v>
       </c>
       <c r="P22" t="n">
         <v>9.93</v>
       </c>
       <c r="Q22" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="R22" t="n">
         <v>65.34</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>64.95</v>
       </c>
     </row>
@@ -1780,24 +1848,27 @@
         <v>0.23</v>
       </c>
       <c r="L23" t="n">
+        <v>31</v>
+      </c>
+      <c r="M23" t="n">
         <v>1.81</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>2.54</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>0.79</v>
-      </c>
-      <c r="O23" t="n">
-        <v>14.44</v>
       </c>
       <c r="P23" t="n">
         <v>14.44</v>
       </c>
       <c r="Q23" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="R23" t="n">
         <v>64.22</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>63.99</v>
       </c>
     </row>
@@ -1838,24 +1909,27 @@
         <v>0.19</v>
       </c>
       <c r="L24" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M24" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N24" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O24" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P24" t="n">
         <v>16.45</v>
       </c>
       <c r="Q24" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R24" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S24" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -1896,24 +1970,27 @@
         <v>0.19</v>
       </c>
       <c r="L25" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M25" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N25" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O25" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P25" t="n">
         <v>16.45</v>
       </c>
       <c r="Q25" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R25" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S25" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -1954,24 +2031,27 @@
         <v>0.19</v>
       </c>
       <c r="L26" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M26" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N26" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O26" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P26" t="n">
         <v>16.45</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R26" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S26" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -2012,24 +2092,27 @@
         <v>0.19</v>
       </c>
       <c r="L27" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M27" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N27" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O27" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P27" t="n">
         <v>16.45</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R27" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S27" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -2070,24 +2153,27 @@
         <v>0.31</v>
       </c>
       <c r="L28" t="n">
+        <v>29</v>
+      </c>
+      <c r="M28" t="n">
         <v>1.84</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>2.9</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="O28" t="n">
-        <v>11.57</v>
       </c>
       <c r="P28" t="n">
         <v>11.57</v>
       </c>
       <c r="Q28" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="R28" t="n">
         <v>65.31</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>65</v>
       </c>
     </row>
@@ -2148,6 +2234,9 @@
       <c r="R29" t="n">
         <v>0</v>
       </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2206,6 +2295,9 @@
       <c r="R30" t="n">
         <v>0</v>
       </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2244,24 +2336,27 @@
         <v>0.19</v>
       </c>
       <c r="L31" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M31" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N31" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O31" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P31" t="n">
         <v>16.45</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R31" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S31" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -2302,24 +2397,27 @@
         <v>0.19</v>
       </c>
       <c r="L32" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M32" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N32" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O32" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P32" t="n">
         <v>16.45</v>
       </c>
       <c r="Q32" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R32" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S32" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -2360,24 +2458,27 @@
         <v>0.19</v>
       </c>
       <c r="L33" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M33" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N33" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O33" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P33" t="n">
         <v>16.45</v>
       </c>
       <c r="Q33" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R33" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S33" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -2418,24 +2519,27 @@
         <v>0.19</v>
       </c>
       <c r="L34" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M34" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N34" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O34" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P34" t="n">
         <v>16.45</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R34" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S34" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -2476,24 +2580,27 @@
         <v>0.19</v>
       </c>
       <c r="L35" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M35" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N35" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O35" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P35" t="n">
         <v>16.45</v>
       </c>
       <c r="Q35" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R35" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S35" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -2534,24 +2641,27 @@
         <v>0.19</v>
       </c>
       <c r="L36" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M36" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N36" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O36" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P36" t="n">
         <v>16.45</v>
       </c>
       <c r="Q36" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R36" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S36" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -2592,24 +2702,27 @@
         <v>0.19</v>
       </c>
       <c r="L37" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M37" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N37" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O37" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P37" t="n">
         <v>16.45</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R37" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S37" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -2650,24 +2763,27 @@
         <v>0.19</v>
       </c>
       <c r="L38" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M38" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N38" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O38" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P38" t="n">
         <v>16.45</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R38" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S38" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -2728,6 +2844,9 @@
       <c r="R39" t="n">
         <v>0</v>
       </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2786,6 +2905,9 @@
       <c r="R40" t="n">
         <v>0</v>
       </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2844,6 +2966,9 @@
       <c r="R41" t="n">
         <v>0</v>
       </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2902,6 +3027,9 @@
       <c r="R42" t="n">
         <v>0</v>
       </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2960,6 +3088,9 @@
       <c r="R43" t="n">
         <v>0</v>
       </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3018,6 +3149,9 @@
       <c r="R44" t="n">
         <v>0</v>
       </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3056,24 +3190,27 @@
         <v>0.19</v>
       </c>
       <c r="L45" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M45" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N45" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O45" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P45" t="n">
         <v>16.45</v>
       </c>
       <c r="Q45" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R45" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S45" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -3114,24 +3251,27 @@
         <v>0.19</v>
       </c>
       <c r="L46" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M46" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N46" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O46" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P46" t="n">
         <v>16.45</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R46" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S46" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -3172,24 +3312,27 @@
         <v>0.19</v>
       </c>
       <c r="L47" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M47" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N47" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O47" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P47" t="n">
         <v>16.45</v>
       </c>
       <c r="Q47" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R47" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S47" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -3230,24 +3373,27 @@
         <v>0.19</v>
       </c>
       <c r="L48" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M48" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N48" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O48" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P48" t="n">
         <v>16.45</v>
       </c>
       <c r="Q48" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R48" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S48" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -3288,24 +3434,27 @@
         <v>0.19</v>
       </c>
       <c r="L49" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M49" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N49" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O49" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P49" t="n">
         <v>16.45</v>
       </c>
       <c r="Q49" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R49" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S49" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -3346,24 +3495,27 @@
         <v>0.19</v>
       </c>
       <c r="L50" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M50" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N50" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O50" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P50" t="n">
         <v>16.45</v>
       </c>
       <c r="Q50" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R50" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S50" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -3404,24 +3556,27 @@
         <v>0.19</v>
       </c>
       <c r="L51" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M51" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N51" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O51" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P51" t="n">
         <v>16.45</v>
       </c>
       <c r="Q51" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R51" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S51" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -3462,24 +3617,27 @@
         <v>0.19</v>
       </c>
       <c r="L52" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M52" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N52" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O52" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P52" t="n">
         <v>16.45</v>
       </c>
       <c r="Q52" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R52" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S52" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -3520,24 +3678,27 @@
         <v>0.19</v>
       </c>
       <c r="L53" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M53" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N53" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O53" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P53" t="n">
         <v>16.45</v>
       </c>
       <c r="Q53" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R53" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S53" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -3578,24 +3739,27 @@
         <v>0.19</v>
       </c>
       <c r="L54" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M54" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N54" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O54" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P54" t="n">
         <v>16.45</v>
       </c>
       <c r="Q54" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R54" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S54" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -3636,24 +3800,27 @@
         <v>0.19</v>
       </c>
       <c r="L55" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M55" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N55" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O55" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P55" t="n">
         <v>16.45</v>
       </c>
       <c r="Q55" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R55" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S55" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -3694,24 +3861,27 @@
         <v>0.19</v>
       </c>
       <c r="L56" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M56" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N56" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O56" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P56" t="n">
         <v>16.45</v>
       </c>
       <c r="Q56" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R56" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S56" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -3752,24 +3922,27 @@
         <v>0.19</v>
       </c>
       <c r="L57" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M57" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N57" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O57" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P57" t="n">
         <v>16.45</v>
       </c>
       <c r="Q57" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R57" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S57" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -3810,24 +3983,27 @@
         <v>0.19</v>
       </c>
       <c r="L58" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M58" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N58" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O58" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P58" t="n">
         <v>16.45</v>
       </c>
       <c r="Q58" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R58" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S58" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -3868,24 +4044,27 @@
         <v>0.19</v>
       </c>
       <c r="L59" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M59" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N59" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O59" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P59" t="n">
         <v>16.45</v>
       </c>
       <c r="Q59" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R59" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S59" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -3926,24 +4105,27 @@
         <v>0.19</v>
       </c>
       <c r="L60" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M60" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N60" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O60" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P60" t="n">
         <v>16.45</v>
       </c>
       <c r="Q60" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R60" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S60" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -3984,24 +4166,27 @@
         <v>0.19</v>
       </c>
       <c r="L61" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M61" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N61" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O61" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P61" t="n">
         <v>16.45</v>
       </c>
       <c r="Q61" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R61" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S61" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -4042,24 +4227,27 @@
         <v>0.19</v>
       </c>
       <c r="L62" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M62" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N62" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O62" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P62" t="n">
         <v>16.45</v>
       </c>
       <c r="Q62" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R62" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S62" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -4100,24 +4288,27 @@
         <v>0.19</v>
       </c>
       <c r="L63" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M63" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N63" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O63" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P63" t="n">
         <v>16.45</v>
       </c>
       <c r="Q63" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R63" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S63" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -4158,24 +4349,27 @@
         <v>0.19</v>
       </c>
       <c r="L64" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M64" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N64" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O64" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P64" t="n">
         <v>16.45</v>
       </c>
       <c r="Q64" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R64" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S64" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -4216,24 +4410,27 @@
         <v>0.19</v>
       </c>
       <c r="L65" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M65" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N65" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O65" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P65" t="n">
         <v>16.45</v>
       </c>
       <c r="Q65" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R65" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S65" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -4274,24 +4471,27 @@
         <v>0.19</v>
       </c>
       <c r="L66" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M66" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N66" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O66" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P66" t="n">
         <v>16.45</v>
       </c>
       <c r="Q66" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R66" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S66" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -4332,24 +4532,27 @@
         <v>0.19</v>
       </c>
       <c r="L67" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M67" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N67" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O67" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P67" t="n">
         <v>16.45</v>
       </c>
       <c r="Q67" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R67" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S67" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -4390,24 +4593,27 @@
         <v>0.19</v>
       </c>
       <c r="L68" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M68" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N68" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O68" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P68" t="n">
         <v>16.45</v>
       </c>
       <c r="Q68" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R68" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S68" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -4468,6 +4674,9 @@
       <c r="R69" t="n">
         <v>0</v>
       </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4526,6 +4735,9 @@
       <c r="R70" t="n">
         <v>0</v>
       </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4584,6 +4796,9 @@
       <c r="R71" t="n">
         <v>0</v>
       </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4642,6 +4857,9 @@
       <c r="R72" t="n">
         <v>0</v>
       </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4700,6 +4918,9 @@
       <c r="R73" t="n">
         <v>0</v>
       </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4758,6 +4979,9 @@
       <c r="R74" t="n">
         <v>0</v>
       </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4816,6 +5040,9 @@
       <c r="R75" t="n">
         <v>0</v>
       </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4874,6 +5101,9 @@
       <c r="R76" t="n">
         <v>0</v>
       </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4932,6 +5162,9 @@
       <c r="R77" t="n">
         <v>0</v>
       </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4990,6 +5223,9 @@
       <c r="R78" t="n">
         <v>0</v>
       </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5048,6 +5284,9 @@
       <c r="R79" t="n">
         <v>0</v>
       </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5086,24 +5325,27 @@
         <v>0.19</v>
       </c>
       <c r="L80" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M80" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N80" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O80" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P80" t="n">
         <v>16.45</v>
       </c>
       <c r="Q80" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R80" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S80" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -5144,24 +5386,27 @@
         <v>0.19</v>
       </c>
       <c r="L81" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M81" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N81" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O81" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P81" t="n">
         <v>16.45</v>
       </c>
       <c r="Q81" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R81" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S81" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -5202,24 +5447,27 @@
         <v>0.19</v>
       </c>
       <c r="L82" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M82" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N82" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O82" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P82" t="n">
         <v>16.45</v>
       </c>
       <c r="Q82" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R82" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S82" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -5260,24 +5508,27 @@
         <v>0.19</v>
       </c>
       <c r="L83" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M83" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N83" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O83" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P83" t="n">
         <v>16.45</v>
       </c>
       <c r="Q83" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R83" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S83" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -5318,24 +5569,27 @@
         <v>0.19</v>
       </c>
       <c r="L84" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M84" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N84" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O84" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P84" t="n">
         <v>16.45</v>
       </c>
       <c r="Q84" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R84" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S84" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -5376,24 +5630,27 @@
         <v>0.19</v>
       </c>
       <c r="L85" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M85" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N85" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O85" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P85" t="n">
         <v>16.45</v>
       </c>
       <c r="Q85" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R85" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S85" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -5434,24 +5691,27 @@
         <v>0.19</v>
       </c>
       <c r="L86" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M86" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N86" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O86" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P86" t="n">
         <v>16.45</v>
       </c>
       <c r="Q86" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R86" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S86" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -5492,24 +5752,27 @@
         <v>0.19</v>
       </c>
       <c r="L87" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M87" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N87" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O87" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P87" t="n">
         <v>16.45</v>
       </c>
       <c r="Q87" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R87" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S87" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -5550,24 +5813,27 @@
         <v>0.19</v>
       </c>
       <c r="L88" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M88" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N88" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O88" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P88" t="n">
         <v>16.45</v>
       </c>
       <c r="Q88" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R88" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S88" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -5608,24 +5874,27 @@
         <v>0.19</v>
       </c>
       <c r="L89" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M89" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N89" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O89" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P89" t="n">
         <v>16.45</v>
       </c>
       <c r="Q89" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R89" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S89" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -5666,24 +5935,27 @@
         <v>0.19</v>
       </c>
       <c r="L90" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M90" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N90" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O90" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P90" t="n">
         <v>16.45</v>
       </c>
       <c r="Q90" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R90" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S90" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -5724,24 +5996,27 @@
         <v>0.19</v>
       </c>
       <c r="L91" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M91" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N91" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O91" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P91" t="n">
         <v>16.45</v>
       </c>
       <c r="Q91" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R91" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S91" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -5782,24 +6057,27 @@
         <v>0.19</v>
       </c>
       <c r="L92" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M92" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N92" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O92" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P92" t="n">
         <v>16.45</v>
       </c>
       <c r="Q92" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R92" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S92" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -5840,24 +6118,27 @@
         <v>0.19</v>
       </c>
       <c r="L93" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M93" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N93" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O93" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P93" t="n">
         <v>16.45</v>
       </c>
       <c r="Q93" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R93" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S93" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -5898,24 +6179,27 @@
         <v>0.19</v>
       </c>
       <c r="L94" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M94" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N94" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O94" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P94" t="n">
         <v>16.45</v>
       </c>
       <c r="Q94" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R94" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S94" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -5956,24 +6240,27 @@
         <v>0.19</v>
       </c>
       <c r="L95" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M95" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N95" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O95" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P95" t="n">
         <v>16.45</v>
       </c>
       <c r="Q95" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R95" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S95" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -6014,24 +6301,27 @@
         <v>0.19</v>
       </c>
       <c r="L96" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M96" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N96" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O96" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P96" t="n">
         <v>16.45</v>
       </c>
       <c r="Q96" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R96" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S96" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -6072,24 +6362,27 @@
         <v>0.19</v>
       </c>
       <c r="L97" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M97" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N97" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O97" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P97" t="n">
         <v>16.45</v>
       </c>
       <c r="Q97" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R97" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S97" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -6130,24 +6423,27 @@
         <v>0.19</v>
       </c>
       <c r="L98" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M98" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N98" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O98" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P98" t="n">
         <v>16.45</v>
       </c>
       <c r="Q98" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R98" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S98" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -6188,24 +6484,27 @@
         <v>0.19</v>
       </c>
       <c r="L99" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M99" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N99" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O99" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P99" t="n">
         <v>16.45</v>
       </c>
       <c r="Q99" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R99" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S99" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -6246,24 +6545,27 @@
         <v>0.19</v>
       </c>
       <c r="L100" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M100" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N100" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O100" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P100" t="n">
         <v>16.45</v>
       </c>
       <c r="Q100" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R100" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S100" t="n">
         <v>63.15</v>
       </c>
     </row>
@@ -6304,24 +6606,27 @@
         <v>0.19</v>
       </c>
       <c r="L101" t="n">
-        <v>1.78</v>
+        <v>32</v>
       </c>
       <c r="M101" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="N101" t="n">
-        <v>0.84</v>
+        <v>2.3</v>
       </c>
       <c r="O101" t="n">
-        <v>16.45</v>
+        <v>0.84</v>
       </c>
       <c r="P101" t="n">
         <v>16.45</v>
       </c>
       <c r="Q101" t="n">
-        <v>63.34</v>
+        <v>16.45</v>
       </c>
       <c r="R101" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="S101" t="n">
         <v>63.15</v>
       </c>
     </row>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -549,46 +549,46 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>2.56</v>
+        <v>4.1</v>
       </c>
       <c r="G2" t="n">
-        <v>284.99</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>62.87</v>
+        <v>76.63</v>
       </c>
       <c r="I2" t="n">
-        <v>20.35</v>
+        <v>32.59</v>
       </c>
       <c r="J2" t="n">
-        <v>2123.87</v>
+        <v>1422.04</v>
       </c>
       <c r="K2" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="L2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3</v>
+        <v>2.59</v>
       </c>
       <c r="O2" t="n">
-        <v>0.84</v>
+        <v>0.51</v>
       </c>
       <c r="P2" t="n">
-        <v>16.45</v>
+        <v>7.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>16.45</v>
+        <v>7.02</v>
       </c>
       <c r="R2" t="n">
-        <v>63.34</v>
+        <v>64.72</v>
       </c>
       <c r="S2" t="n">
-        <v>63.15</v>
+        <v>64.59999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -610,22 +610,22 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G3" t="n">
-        <v>998.39</v>
+        <v>498.39</v>
       </c>
       <c r="H3" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J3" t="n">
         <v>2123.87</v>
       </c>
       <c r="K3" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L3" t="n">
         <v>32</v>
@@ -637,19 +637,19 @@
         <v>2.3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P3" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R3" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S3" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="4">
@@ -671,22 +671,22 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G4" t="n">
-        <v>1196.82</v>
+        <v>696.8200000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J4" t="n">
         <v>2123.87</v>
       </c>
       <c r="K4" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L4" t="n">
         <v>32</v>
@@ -698,19 +698,19 @@
         <v>2.3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P4" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R4" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S4" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="5">
@@ -732,46 +732,46 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>59.03</v>
+        <v>59.56</v>
       </c>
       <c r="I5" t="n">
-        <v>16.93</v>
+        <v>17.41</v>
       </c>
       <c r="J5" t="n">
-        <v>1525.83</v>
+        <v>463</v>
       </c>
       <c r="K5" t="n">
         <v>0.23</v>
       </c>
       <c r="L5" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M5" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="N5" t="n">
-        <v>2.54</v>
+        <v>3.47</v>
       </c>
       <c r="O5" t="n">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="P5" t="n">
-        <v>14.44</v>
+        <v>4.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.44</v>
+        <v>4.38</v>
       </c>
       <c r="R5" t="n">
-        <v>64.22</v>
+        <v>65.42</v>
       </c>
       <c r="S5" t="n">
-        <v>63.99</v>
+        <v>65.19</v>
       </c>
     </row>
     <row r="6">
@@ -793,46 +793,46 @@
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>48.84</v>
+        <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>7.87</v>
+        <v>7.47</v>
       </c>
       <c r="J6" t="n">
-        <v>386.88</v>
+        <v>102.11</v>
       </c>
       <c r="K6" t="n">
         <v>0.5</v>
       </c>
       <c r="L6" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M6" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="N6" t="n">
-        <v>3.65</v>
+        <v>5.16</v>
       </c>
       <c r="O6" t="n">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="P6" t="n">
-        <v>8.09</v>
+        <v>2.14</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.09</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
-        <v>64.73</v>
+        <v>59.76</v>
       </c>
       <c r="S6" t="n">
-        <v>64.23</v>
+        <v>59.26</v>
       </c>
     </row>
     <row r="7">
@@ -847,53 +847,53 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>73.18000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>43.22</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>61.06</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>5.88</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>55.74</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>54.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -908,53 +908,53 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>232.74</v>
       </c>
       <c r="H8" t="n">
-        <v>51.52</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>618.73</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>9.93</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.93</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.34</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>64.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -976,46 +976,46 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>2.56</v>
+        <v>4.62</v>
       </c>
       <c r="G9" t="n">
-        <v>393.94</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>62.87</v>
+        <v>81.27</v>
       </c>
       <c r="I9" t="n">
-        <v>20.35</v>
+        <v>36.73</v>
       </c>
       <c r="J9" t="n">
-        <v>2123.87</v>
+        <v>1765.51</v>
       </c>
       <c r="K9" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="L9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="N9" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="O9" t="n">
-        <v>0.84</v>
+        <v>0.54</v>
       </c>
       <c r="P9" t="n">
-        <v>16.45</v>
+        <v>7.65</v>
       </c>
       <c r="Q9" t="n">
-        <v>16.45</v>
+        <v>7.65</v>
       </c>
       <c r="R9" t="n">
-        <v>63.34</v>
+        <v>64.13</v>
       </c>
       <c r="S9" t="n">
-        <v>63.15</v>
+        <v>64.03</v>
       </c>
     </row>
     <row r="10">
@@ -1037,46 +1037,46 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>59.03</v>
+        <v>59.56</v>
       </c>
       <c r="I10" t="n">
-        <v>16.93</v>
+        <v>17.41</v>
       </c>
       <c r="J10" t="n">
-        <v>1525.83</v>
+        <v>463</v>
       </c>
       <c r="K10" t="n">
         <v>0.23</v>
       </c>
       <c r="L10" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M10" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="N10" t="n">
-        <v>2.54</v>
+        <v>3.47</v>
       </c>
       <c r="O10" t="n">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="P10" t="n">
-        <v>14.44</v>
+        <v>4.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.44</v>
+        <v>4.38</v>
       </c>
       <c r="R10" t="n">
-        <v>64.22</v>
+        <v>65.42</v>
       </c>
       <c r="S10" t="n">
-        <v>63.99</v>
+        <v>65.19</v>
       </c>
     </row>
     <row r="11">
@@ -1098,22 +1098,22 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G11" t="n">
-        <v>998.39</v>
+        <v>498.39</v>
       </c>
       <c r="H11" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J11" t="n">
         <v>2123.87</v>
       </c>
       <c r="K11" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L11" t="n">
         <v>32</v>
@@ -1125,19 +1125,19 @@
         <v>2.3</v>
       </c>
       <c r="O11" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P11" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q11" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R11" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S11" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="12">
@@ -1159,22 +1159,22 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G12" t="n">
-        <v>1088.06</v>
+        <v>588.0599999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J12" t="n">
         <v>2123.87</v>
       </c>
       <c r="K12" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L12" t="n">
         <v>32</v>
@@ -1186,19 +1186,19 @@
         <v>2.3</v>
       </c>
       <c r="O12" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P12" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R12" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S12" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="13">
@@ -1220,22 +1220,22 @@
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G13" t="n">
-        <v>597.28</v>
+        <v>97.28</v>
       </c>
       <c r="H13" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J13" t="n">
         <v>2123.87</v>
       </c>
       <c r="K13" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L13" t="n">
         <v>32</v>
@@ -1247,19 +1247,19 @@
         <v>2.3</v>
       </c>
       <c r="O13" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P13" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R13" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S13" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="14">
@@ -1281,46 +1281,46 @@
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>51.52</v>
+        <v>51.26</v>
       </c>
       <c r="I14" t="n">
-        <v>10.25</v>
+        <v>10.02</v>
       </c>
       <c r="J14" t="n">
-        <v>618.73</v>
+        <v>173.75</v>
       </c>
       <c r="K14" t="n">
         <v>0.39</v>
       </c>
       <c r="L14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M14" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="N14" t="n">
-        <v>3.21</v>
+        <v>4.59</v>
       </c>
       <c r="O14" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="P14" t="n">
-        <v>9.93</v>
+        <v>2.79</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.93</v>
+        <v>2.79</v>
       </c>
       <c r="R14" t="n">
-        <v>65.34</v>
+        <v>62.43</v>
       </c>
       <c r="S14" t="n">
-        <v>64.95</v>
+        <v>62.04</v>
       </c>
     </row>
     <row r="15">
@@ -1342,22 +1342,22 @@
         <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G15" t="n">
-        <v>998.39</v>
+        <v>498.39</v>
       </c>
       <c r="H15" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J15" t="n">
         <v>2123.87</v>
       </c>
       <c r="K15" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L15" t="n">
         <v>32</v>
@@ -1369,19 +1369,19 @@
         <v>2.3</v>
       </c>
       <c r="O15" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P15" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q15" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R15" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S15" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="16">
@@ -1403,22 +1403,22 @@
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G16" t="n">
-        <v>597.28</v>
+        <v>97.28</v>
       </c>
       <c r="H16" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J16" t="n">
         <v>2123.87</v>
       </c>
       <c r="K16" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L16" t="n">
         <v>32</v>
@@ -1430,19 +1430,19 @@
         <v>2.3</v>
       </c>
       <c r="O16" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P16" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R16" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S16" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="17">
@@ -1464,46 +1464,46 @@
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>2.56</v>
+        <v>3.57</v>
       </c>
       <c r="G17" t="n">
-        <v>177.59</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>62.87</v>
+        <v>71.89</v>
       </c>
       <c r="I17" t="n">
-        <v>20.35</v>
+        <v>28.38</v>
       </c>
       <c r="J17" t="n">
-        <v>2123.87</v>
+        <v>1109.99</v>
       </c>
       <c r="K17" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="L17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M17" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="N17" t="n">
-        <v>2.3</v>
+        <v>2.74</v>
       </c>
       <c r="O17" t="n">
-        <v>0.84</v>
+        <v>0.51</v>
       </c>
       <c r="P17" t="n">
-        <v>16.45</v>
+        <v>6.35</v>
       </c>
       <c r="Q17" t="n">
-        <v>16.45</v>
+        <v>6.35</v>
       </c>
       <c r="R17" t="n">
-        <v>63.34</v>
+        <v>65.16</v>
       </c>
       <c r="S17" t="n">
-        <v>63.15</v>
+        <v>65.02</v>
       </c>
     </row>
     <row r="18">
@@ -1525,46 +1525,46 @@
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>48.84</v>
+        <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>7.87</v>
+        <v>7.47</v>
       </c>
       <c r="J18" t="n">
-        <v>386.88</v>
+        <v>102.11</v>
       </c>
       <c r="K18" t="n">
         <v>0.5</v>
       </c>
       <c r="L18" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M18" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="N18" t="n">
-        <v>3.65</v>
+        <v>5.16</v>
       </c>
       <c r="O18" t="n">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="P18" t="n">
-        <v>8.09</v>
+        <v>2.14</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.09</v>
+        <v>2.14</v>
       </c>
       <c r="R18" t="n">
-        <v>64.73</v>
+        <v>59.76</v>
       </c>
       <c r="S18" t="n">
-        <v>64.23</v>
+        <v>59.26</v>
       </c>
     </row>
     <row r="19">
@@ -1586,22 +1586,22 @@
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G19" t="n">
-        <v>798.9400000000001</v>
+        <v>298.94</v>
       </c>
       <c r="H19" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J19" t="n">
         <v>2123.87</v>
       </c>
       <c r="K19" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L19" t="n">
         <v>32</v>
@@ -1613,19 +1613,19 @@
         <v>2.3</v>
       </c>
       <c r="O19" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P19" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R19" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S19" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="20">
@@ -1647,22 +1647,22 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G20" t="n">
-        <v>1088.06</v>
+        <v>588.0599999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J20" t="n">
         <v>2123.87</v>
       </c>
       <c r="K20" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L20" t="n">
         <v>32</v>
@@ -1674,19 +1674,19 @@
         <v>2.3</v>
       </c>
       <c r="O20" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P20" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q20" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R20" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S20" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="21">
@@ -1701,53 +1701,53 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>73.18000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>43.22</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>61.06</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>5.88</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>55.74</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>54.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1762,53 +1762,53 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>232.74</v>
       </c>
       <c r="H22" t="n">
-        <v>51.52</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>618.73</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>9.93</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.93</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.34</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>64.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1830,46 +1830,46 @@
         <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>59.03</v>
+        <v>59.56</v>
       </c>
       <c r="I23" t="n">
-        <v>16.93</v>
+        <v>17.41</v>
       </c>
       <c r="J23" t="n">
-        <v>1525.83</v>
+        <v>463</v>
       </c>
       <c r="K23" t="n">
         <v>0.23</v>
       </c>
       <c r="L23" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M23" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="N23" t="n">
-        <v>2.54</v>
+        <v>3.47</v>
       </c>
       <c r="O23" t="n">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="P23" t="n">
-        <v>14.44</v>
+        <v>4.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.44</v>
+        <v>4.38</v>
       </c>
       <c r="R23" t="n">
-        <v>64.22</v>
+        <v>65.42</v>
       </c>
       <c r="S23" t="n">
-        <v>63.99</v>
+        <v>65.19</v>
       </c>
     </row>
     <row r="24">
@@ -1891,22 +1891,22 @@
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G24" t="n">
-        <v>895.95</v>
+        <v>395.95</v>
       </c>
       <c r="H24" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J24" t="n">
         <v>2123.87</v>
       </c>
       <c r="K24" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L24" t="n">
         <v>32</v>
@@ -1918,19 +1918,19 @@
         <v>2.3</v>
       </c>
       <c r="O24" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P24" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q24" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R24" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S24" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="25">
@@ -1952,46 +1952,46 @@
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>2.56</v>
+        <v>4.62</v>
       </c>
       <c r="G25" t="n">
-        <v>393.94</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>62.87</v>
+        <v>81.27</v>
       </c>
       <c r="I25" t="n">
-        <v>20.35</v>
+        <v>36.73</v>
       </c>
       <c r="J25" t="n">
-        <v>2123.87</v>
+        <v>1765.51</v>
       </c>
       <c r="K25" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="L25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M25" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="N25" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="O25" t="n">
-        <v>0.84</v>
+        <v>0.54</v>
       </c>
       <c r="P25" t="n">
-        <v>16.45</v>
+        <v>7.65</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.45</v>
+        <v>7.65</v>
       </c>
       <c r="R25" t="n">
-        <v>63.34</v>
+        <v>64.13</v>
       </c>
       <c r="S25" t="n">
-        <v>63.15</v>
+        <v>64.03</v>
       </c>
     </row>
     <row r="26">
@@ -2013,22 +2013,22 @@
         <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>2.56</v>
+        <v>5.09</v>
       </c>
       <c r="G26" t="n">
-        <v>493.16</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>62.87</v>
+        <v>85.47</v>
       </c>
       <c r="I26" t="n">
-        <v>20.35</v>
+        <v>40.46</v>
       </c>
       <c r="J26" t="n">
-        <v>2123.87</v>
+        <v>2100.08</v>
       </c>
       <c r="K26" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L26" t="n">
         <v>32</v>
@@ -2037,22 +2037,22 @@
         <v>1.78</v>
       </c>
       <c r="N26" t="n">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="O26" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P26" t="n">
-        <v>16.45</v>
+        <v>8.19</v>
       </c>
       <c r="Q26" t="n">
-        <v>16.45</v>
+        <v>8.19</v>
       </c>
       <c r="R26" t="n">
-        <v>63.34</v>
+        <v>63.67</v>
       </c>
       <c r="S26" t="n">
-        <v>63.15</v>
+        <v>63.58</v>
       </c>
     </row>
     <row r="27">
@@ -2074,22 +2074,22 @@
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G27" t="n">
-        <v>798.9400000000001</v>
+        <v>298.94</v>
       </c>
       <c r="H27" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J27" t="n">
         <v>2123.87</v>
       </c>
       <c r="K27" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L27" t="n">
         <v>32</v>
@@ -2101,19 +2101,19 @@
         <v>2.3</v>
       </c>
       <c r="O27" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P27" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q27" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R27" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S27" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="28">
@@ -2147,7 +2147,7 @@
         <v>12.56</v>
       </c>
       <c r="J28" t="n">
-        <v>888.37</v>
+        <v>258.54</v>
       </c>
       <c r="K28" t="n">
         <v>0.31</v>
@@ -2159,22 +2159,22 @@
         <v>1.84</v>
       </c>
       <c r="N28" t="n">
-        <v>2.9</v>
+        <v>4.03</v>
       </c>
       <c r="O28" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="P28" t="n">
-        <v>11.57</v>
+        <v>3.37</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.57</v>
+        <v>3.37</v>
       </c>
       <c r="R28" t="n">
-        <v>65.31</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>65</v>
+        <v>63.98</v>
       </c>
     </row>
     <row r="29">
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1391.7</v>
+        <v>1387.45</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2318,22 +2318,22 @@
         <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G31" t="n">
-        <v>998.39</v>
+        <v>498.39</v>
       </c>
       <c r="H31" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J31" t="n">
         <v>2123.87</v>
       </c>
       <c r="K31" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L31" t="n">
         <v>32</v>
@@ -2345,19 +2345,19 @@
         <v>2.3</v>
       </c>
       <c r="O31" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P31" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R31" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S31" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="32">
@@ -2379,22 +2379,22 @@
         <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G32" t="n">
-        <v>1088.06</v>
+        <v>588.0599999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J32" t="n">
         <v>2123.87</v>
       </c>
       <c r="K32" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L32" t="n">
         <v>32</v>
@@ -2406,19 +2406,19 @@
         <v>2.3</v>
       </c>
       <c r="O32" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P32" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q32" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R32" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S32" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="33">
@@ -2440,22 +2440,22 @@
         <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G33" t="n">
-        <v>1849.27</v>
+        <v>1349.27</v>
       </c>
       <c r="H33" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J33" t="n">
         <v>2123.87</v>
       </c>
       <c r="K33" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L33" t="n">
         <v>32</v>
@@ -2467,19 +2467,19 @@
         <v>2.3</v>
       </c>
       <c r="O33" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P33" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q33" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R33" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S33" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="34">
@@ -2501,22 +2501,22 @@
         <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G34" t="n">
-        <v>4538.32</v>
+        <v>4038.32</v>
       </c>
       <c r="H34" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J34" t="n">
         <v>2123.87</v>
       </c>
       <c r="K34" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L34" t="n">
         <v>32</v>
@@ -2528,19 +2528,19 @@
         <v>2.3</v>
       </c>
       <c r="O34" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P34" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R34" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S34" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="35">
@@ -2562,22 +2562,22 @@
         <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G35" t="n">
-        <v>5798.5</v>
+        <v>5298.5</v>
       </c>
       <c r="H35" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J35" t="n">
         <v>2123.87</v>
       </c>
       <c r="K35" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L35" t="n">
         <v>32</v>
@@ -2589,19 +2589,19 @@
         <v>2.3</v>
       </c>
       <c r="O35" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P35" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q35" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R35" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S35" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="36">
@@ -2623,22 +2623,22 @@
         <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G36" t="n">
-        <v>3183.73</v>
+        <v>2683.73</v>
       </c>
       <c r="H36" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J36" t="n">
         <v>2123.87</v>
       </c>
       <c r="K36" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L36" t="n">
         <v>32</v>
@@ -2650,19 +2650,19 @@
         <v>2.3</v>
       </c>
       <c r="O36" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P36" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q36" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R36" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S36" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="37">
@@ -2684,22 +2684,22 @@
         <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G37" t="n">
-        <v>3374.73</v>
+        <v>2874.73</v>
       </c>
       <c r="H37" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I37" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J37" t="n">
         <v>2123.87</v>
       </c>
       <c r="K37" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L37" t="n">
         <v>32</v>
@@ -2711,19 +2711,19 @@
         <v>2.3</v>
       </c>
       <c r="O37" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P37" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R37" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S37" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="38">
@@ -2745,22 +2745,22 @@
         <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G38" t="n">
-        <v>6759.64</v>
+        <v>6259.64</v>
       </c>
       <c r="H38" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I38" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J38" t="n">
         <v>2123.87</v>
       </c>
       <c r="K38" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L38" t="n">
         <v>32</v>
@@ -2772,19 +2772,19 @@
         <v>2.3</v>
       </c>
       <c r="O38" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P38" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q38" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R38" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S38" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="39">
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>405.15</v>
+        <v>400.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1391.7</v>
+        <v>1387.45</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3172,22 +3172,22 @@
         <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G45" t="n">
-        <v>2607.67</v>
+        <v>2107.67</v>
       </c>
       <c r="H45" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J45" t="n">
         <v>2123.87</v>
       </c>
       <c r="K45" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L45" t="n">
         <v>32</v>
@@ -3199,19 +3199,19 @@
         <v>2.3</v>
       </c>
       <c r="O45" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P45" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q45" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R45" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S45" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="46">
@@ -3233,22 +3233,22 @@
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G46" t="n">
-        <v>3914.84</v>
+        <v>3414.84</v>
       </c>
       <c r="H46" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I46" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J46" t="n">
         <v>2123.87</v>
       </c>
       <c r="K46" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L46" t="n">
         <v>32</v>
@@ -3260,19 +3260,19 @@
         <v>2.3</v>
       </c>
       <c r="O46" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P46" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R46" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S46" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="47">
@@ -3294,22 +3294,22 @@
         <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G47" t="n">
-        <v>2992.33</v>
+        <v>2492.33</v>
       </c>
       <c r="H47" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I47" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J47" t="n">
         <v>2123.87</v>
       </c>
       <c r="K47" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L47" t="n">
         <v>32</v>
@@ -3321,19 +3321,19 @@
         <v>2.3</v>
       </c>
       <c r="O47" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P47" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q47" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R47" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S47" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="48">
@@ -3355,22 +3355,22 @@
         <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G48" t="n">
-        <v>5168.14</v>
+        <v>4668.14</v>
       </c>
       <c r="H48" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J48" t="n">
         <v>2123.87</v>
       </c>
       <c r="K48" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L48" t="n">
         <v>32</v>
@@ -3382,19 +3382,19 @@
         <v>2.3</v>
       </c>
       <c r="O48" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P48" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q48" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R48" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S48" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="49">
@@ -3416,22 +3416,22 @@
         <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G49" t="n">
-        <v>3914.84</v>
+        <v>3414.84</v>
       </c>
       <c r="H49" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J49" t="n">
         <v>2123.87</v>
       </c>
       <c r="K49" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L49" t="n">
         <v>32</v>
@@ -3443,19 +3443,19 @@
         <v>2.3</v>
       </c>
       <c r="O49" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P49" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q49" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R49" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S49" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="50">
@@ -3477,22 +3477,22 @@
         <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G50" t="n">
-        <v>10565.89</v>
+        <v>10065.89</v>
       </c>
       <c r="H50" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I50" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J50" t="n">
         <v>2123.87</v>
       </c>
       <c r="K50" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L50" t="n">
         <v>32</v>
@@ -3504,19 +3504,19 @@
         <v>2.3</v>
       </c>
       <c r="O50" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P50" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q50" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R50" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S50" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="51">
@@ -3538,22 +3538,22 @@
         <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G51" t="n">
-        <v>8834.6</v>
+        <v>8334.6</v>
       </c>
       <c r="H51" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I51" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J51" t="n">
         <v>2123.87</v>
       </c>
       <c r="K51" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L51" t="n">
         <v>32</v>
@@ -3565,19 +3565,19 @@
         <v>2.3</v>
       </c>
       <c r="O51" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P51" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q51" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R51" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S51" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="52">
@@ -3599,22 +3599,22 @@
         <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G52" t="n">
-        <v>2992.33</v>
+        <v>2492.33</v>
       </c>
       <c r="H52" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I52" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J52" t="n">
         <v>2123.87</v>
       </c>
       <c r="K52" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L52" t="n">
         <v>32</v>
@@ -3626,19 +3626,19 @@
         <v>2.3</v>
       </c>
       <c r="O52" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P52" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q52" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R52" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S52" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="53">
@@ -3660,22 +3660,22 @@
         <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G53" t="n">
-        <v>2607.67</v>
+        <v>2107.67</v>
       </c>
       <c r="H53" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I53" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J53" t="n">
         <v>2123.87</v>
       </c>
       <c r="K53" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L53" t="n">
         <v>32</v>
@@ -3687,19 +3687,19 @@
         <v>2.3</v>
       </c>
       <c r="O53" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P53" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q53" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R53" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S53" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="54">
@@ -3721,22 +3721,22 @@
         <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G54" t="n">
-        <v>2417.48</v>
+        <v>1917.48</v>
       </c>
       <c r="H54" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J54" t="n">
         <v>2123.87</v>
       </c>
       <c r="K54" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L54" t="n">
         <v>32</v>
@@ -3748,19 +3748,19 @@
         <v>2.3</v>
       </c>
       <c r="O54" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P54" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q54" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R54" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S54" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="55">
@@ -3782,22 +3782,22 @@
         <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G55" t="n">
-        <v>1468.74</v>
+        <v>968.74</v>
       </c>
       <c r="H55" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I55" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J55" t="n">
         <v>2123.87</v>
       </c>
       <c r="K55" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L55" t="n">
         <v>32</v>
@@ -3809,19 +3809,19 @@
         <v>2.3</v>
       </c>
       <c r="O55" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P55" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q55" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R55" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S55" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="56">
@@ -3843,22 +3843,22 @@
         <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G56" t="n">
-        <v>2039.07</v>
+        <v>1539.07</v>
       </c>
       <c r="H56" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I56" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J56" t="n">
         <v>2123.87</v>
       </c>
       <c r="K56" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L56" t="n">
         <v>32</v>
@@ -3870,19 +3870,19 @@
         <v>2.3</v>
       </c>
       <c r="O56" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P56" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q56" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R56" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S56" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="57">
@@ -3904,22 +3904,22 @@
         <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G57" t="n">
-        <v>7124.94</v>
+        <v>6624.94</v>
       </c>
       <c r="H57" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I57" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J57" t="n">
         <v>2123.87</v>
       </c>
       <c r="K57" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L57" t="n">
         <v>32</v>
@@ -3931,19 +3931,19 @@
         <v>2.3</v>
       </c>
       <c r="O57" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P57" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q57" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R57" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S57" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="58">
@@ -3965,22 +3965,22 @@
         <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G58" t="n">
-        <v>11998.56</v>
+        <v>11498.56</v>
       </c>
       <c r="H58" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I58" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J58" t="n">
         <v>2123.87</v>
       </c>
       <c r="K58" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L58" t="n">
         <v>32</v>
@@ -3992,19 +3992,19 @@
         <v>2.3</v>
       </c>
       <c r="O58" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P58" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q58" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R58" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S58" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="59">
@@ -4026,22 +4026,22 @@
         <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G59" t="n">
-        <v>10565.89</v>
+        <v>10065.89</v>
       </c>
       <c r="H59" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I59" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J59" t="n">
         <v>2123.87</v>
       </c>
       <c r="K59" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L59" t="n">
         <v>32</v>
@@ -4053,19 +4053,19 @@
         <v>2.3</v>
       </c>
       <c r="O59" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P59" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q59" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R59" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S59" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="60">
@@ -4087,22 +4087,22 @@
         <v>4</v>
       </c>
       <c r="F60" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G60" t="n">
-        <v>9698.959999999999</v>
+        <v>9198.959999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I60" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J60" t="n">
         <v>2123.87</v>
       </c>
       <c r="K60" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L60" t="n">
         <v>32</v>
@@ -4114,19 +4114,19 @@
         <v>2.3</v>
       </c>
       <c r="O60" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P60" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q60" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R60" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S60" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="61">
@@ -4148,22 +4148,22 @@
         <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G61" t="n">
-        <v>13686.42</v>
+        <v>13186.42</v>
       </c>
       <c r="H61" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I61" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J61" t="n">
         <v>2123.87</v>
       </c>
       <c r="K61" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L61" t="n">
         <v>32</v>
@@ -4175,19 +4175,19 @@
         <v>2.3</v>
       </c>
       <c r="O61" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P61" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q61" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R61" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S61" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="62">
@@ -4209,22 +4209,22 @@
         <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G62" t="n">
-        <v>12564.65</v>
+        <v>12064.65</v>
       </c>
       <c r="H62" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I62" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J62" t="n">
         <v>2123.87</v>
       </c>
       <c r="K62" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L62" t="n">
         <v>32</v>
@@ -4236,19 +4236,19 @@
         <v>2.3</v>
       </c>
       <c r="O62" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P62" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q62" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R62" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S62" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="63">
@@ -4270,22 +4270,22 @@
         <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G63" t="n">
-        <v>9698.959999999999</v>
+        <v>9198.959999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J63" t="n">
         <v>2123.87</v>
       </c>
       <c r="K63" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L63" t="n">
         <v>32</v>
@@ -4297,19 +4297,19 @@
         <v>2.3</v>
       </c>
       <c r="O63" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P63" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q63" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R63" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S63" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="64">
@@ -4331,22 +4331,22 @@
         <v>4</v>
       </c>
       <c r="F64" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G64" t="n">
-        <v>10565.89</v>
+        <v>10065.89</v>
       </c>
       <c r="H64" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I64" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J64" t="n">
         <v>2123.87</v>
       </c>
       <c r="K64" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L64" t="n">
         <v>32</v>
@@ -4358,19 +4358,19 @@
         <v>2.3</v>
       </c>
       <c r="O64" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P64" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q64" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R64" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S64" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="65">
@@ -4392,22 +4392,22 @@
         <v>4</v>
       </c>
       <c r="F65" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G65" t="n">
-        <v>7124.94</v>
+        <v>6624.94</v>
       </c>
       <c r="H65" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I65" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J65" t="n">
         <v>2123.87</v>
       </c>
       <c r="K65" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L65" t="n">
         <v>32</v>
@@ -4419,19 +4419,19 @@
         <v>2.3</v>
       </c>
       <c r="O65" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P65" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q65" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R65" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S65" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="66">
@@ -4453,22 +4453,22 @@
         <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G66" t="n">
-        <v>5168.14</v>
+        <v>4668.14</v>
       </c>
       <c r="H66" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I66" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J66" t="n">
         <v>2123.87</v>
       </c>
       <c r="K66" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L66" t="n">
         <v>32</v>
@@ -4480,19 +4480,19 @@
         <v>2.3</v>
       </c>
       <c r="O66" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P66" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q66" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R66" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S66" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="67">
@@ -4514,22 +4514,22 @@
         <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G67" t="n">
-        <v>7124.94</v>
+        <v>6624.94</v>
       </c>
       <c r="H67" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I67" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J67" t="n">
         <v>2123.87</v>
       </c>
       <c r="K67" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L67" t="n">
         <v>32</v>
@@ -4541,19 +4541,19 @@
         <v>2.3</v>
       </c>
       <c r="O67" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P67" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q67" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R67" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S67" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="68">
@@ -4575,22 +4575,22 @@
         <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G68" t="n">
-        <v>11006.25</v>
+        <v>10506.25</v>
       </c>
       <c r="H68" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I68" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J68" t="n">
         <v>2123.87</v>
       </c>
       <c r="K68" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L68" t="n">
         <v>32</v>
@@ -4602,19 +4602,19 @@
         <v>2.3</v>
       </c>
       <c r="O68" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P68" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q68" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R68" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S68" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="69">
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>12494.31</v>
+        <v>12490.06</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>5663.89</v>
+        <v>5659.64</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5307,22 +5307,22 @@
         <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G80" t="n">
-        <v>12564.65</v>
+        <v>12064.65</v>
       </c>
       <c r="H80" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I80" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J80" t="n">
         <v>2123.87</v>
       </c>
       <c r="K80" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L80" t="n">
         <v>32</v>
@@ -5334,19 +5334,19 @@
         <v>2.3</v>
       </c>
       <c r="O80" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P80" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q80" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R80" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S80" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="81">
@@ -5368,22 +5368,22 @@
         <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G81" t="n">
-        <v>11447.21</v>
+        <v>10947.21</v>
       </c>
       <c r="H81" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I81" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J81" t="n">
         <v>2123.87</v>
       </c>
       <c r="K81" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L81" t="n">
         <v>32</v>
@@ -5395,19 +5395,19 @@
         <v>2.3</v>
       </c>
       <c r="O81" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P81" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q81" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R81" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S81" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="82">
@@ -5429,22 +5429,22 @@
         <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G82" t="n">
-        <v>10565.89</v>
+        <v>10065.89</v>
       </c>
       <c r="H82" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J82" t="n">
         <v>2123.87</v>
       </c>
       <c r="K82" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L82" t="n">
         <v>32</v>
@@ -5456,19 +5456,19 @@
         <v>2.3</v>
       </c>
       <c r="O82" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P82" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q82" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R82" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S82" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="83">
@@ -5490,22 +5490,22 @@
         <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G83" t="n">
-        <v>3374.73</v>
+        <v>2874.73</v>
       </c>
       <c r="H83" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I83" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J83" t="n">
         <v>2123.87</v>
       </c>
       <c r="K83" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L83" t="n">
         <v>32</v>
@@ -5517,19 +5517,19 @@
         <v>2.3</v>
       </c>
       <c r="O83" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P83" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q83" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R83" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S83" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="84">
@@ -5551,22 +5551,22 @@
         <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G84" t="n">
-        <v>11447.21</v>
+        <v>10947.21</v>
       </c>
       <c r="H84" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I84" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J84" t="n">
         <v>2123.87</v>
       </c>
       <c r="K84" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L84" t="n">
         <v>32</v>
@@ -5578,19 +5578,19 @@
         <v>2.3</v>
       </c>
       <c r="O84" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P84" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q84" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R84" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S84" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="85">
@@ -5612,22 +5612,22 @@
         <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G85" t="n">
-        <v>19649.13</v>
+        <v>19149.13</v>
       </c>
       <c r="H85" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I85" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J85" t="n">
         <v>2123.87</v>
       </c>
       <c r="K85" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L85" t="n">
         <v>32</v>
@@ -5639,19 +5639,19 @@
         <v>2.3</v>
       </c>
       <c r="O85" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P85" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q85" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R85" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S85" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="86">
@@ -5673,22 +5673,22 @@
         <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G86" t="n">
-        <v>18366.97</v>
+        <v>17866.97</v>
       </c>
       <c r="H86" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I86" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J86" t="n">
         <v>2123.87</v>
       </c>
       <c r="K86" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L86" t="n">
         <v>32</v>
@@ -5700,19 +5700,19 @@
         <v>2.3</v>
       </c>
       <c r="O86" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P86" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q86" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R86" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S86" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="87">
@@ -5734,22 +5734,22 @@
         <v>4</v>
       </c>
       <c r="F87" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G87" t="n">
-        <v>17107.89</v>
+        <v>16607.89</v>
       </c>
       <c r="H87" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I87" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J87" t="n">
         <v>2123.87</v>
       </c>
       <c r="K87" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L87" t="n">
         <v>32</v>
@@ -5761,19 +5761,19 @@
         <v>2.3</v>
       </c>
       <c r="O87" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P87" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q87" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R87" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S87" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="88">
@@ -5795,22 +5795,22 @@
         <v>4</v>
       </c>
       <c r="F88" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G88" t="n">
-        <v>15380.95</v>
+        <v>14880.95</v>
       </c>
       <c r="H88" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I88" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J88" t="n">
         <v>2123.87</v>
       </c>
       <c r="K88" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L88" t="n">
         <v>32</v>
@@ -5822,19 +5822,19 @@
         <v>2.3</v>
       </c>
       <c r="O88" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P88" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q88" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R88" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S88" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="89">
@@ -5856,22 +5856,22 @@
         <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G89" t="n">
-        <v>17107.89</v>
+        <v>16607.89</v>
       </c>
       <c r="H89" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I89" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J89" t="n">
         <v>2123.87</v>
       </c>
       <c r="K89" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L89" t="n">
         <v>32</v>
@@ -5883,19 +5883,19 @@
         <v>2.3</v>
       </c>
       <c r="O89" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P89" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q89" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R89" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S89" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="90">
@@ -5917,22 +5917,22 @@
         <v>4</v>
       </c>
       <c r="F90" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G90" t="n">
-        <v>14814.4</v>
+        <v>14314.4</v>
       </c>
       <c r="H90" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I90" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J90" t="n">
         <v>2123.87</v>
       </c>
       <c r="K90" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L90" t="n">
         <v>32</v>
@@ -5944,19 +5944,19 @@
         <v>2.3</v>
       </c>
       <c r="O90" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P90" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q90" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R90" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S90" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="91">
@@ -5978,22 +5978,22 @@
         <v>4</v>
       </c>
       <c r="F91" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G91" t="n">
-        <v>17107.89</v>
+        <v>16607.89</v>
       </c>
       <c r="H91" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I91" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J91" t="n">
         <v>2123.87</v>
       </c>
       <c r="K91" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L91" t="n">
         <v>32</v>
@@ -6005,19 +6005,19 @@
         <v>2.3</v>
       </c>
       <c r="O91" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P91" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q91" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R91" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S91" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="92">
@@ -6039,22 +6039,22 @@
         <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G92" t="n">
-        <v>17727.22</v>
+        <v>17227.22</v>
       </c>
       <c r="H92" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I92" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J92" t="n">
         <v>2123.87</v>
       </c>
       <c r="K92" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L92" t="n">
         <v>32</v>
@@ -6066,19 +6066,19 @@
         <v>2.3</v>
       </c>
       <c r="O92" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P92" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q92" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R92" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S92" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="93">
@@ -6100,22 +6100,22 @@
         <v>4</v>
       </c>
       <c r="F93" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G93" t="n">
-        <v>31285.96</v>
+        <v>30785.96</v>
       </c>
       <c r="H93" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I93" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J93" t="n">
         <v>2123.87</v>
       </c>
       <c r="K93" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L93" t="n">
         <v>32</v>
@@ -6127,19 +6127,19 @@
         <v>2.3</v>
       </c>
       <c r="O93" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P93" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q93" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R93" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S93" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="94">
@@ -6161,22 +6161,22 @@
         <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G94" t="n">
-        <v>24815.11</v>
+        <v>24315.11</v>
       </c>
       <c r="H94" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I94" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J94" t="n">
         <v>2123.87</v>
       </c>
       <c r="K94" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L94" t="n">
         <v>32</v>
@@ -6188,19 +6188,19 @@
         <v>2.3</v>
       </c>
       <c r="O94" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P94" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q94" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R94" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S94" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="95">
@@ -6222,22 +6222,22 @@
         <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G95" t="n">
-        <v>19649.13</v>
+        <v>19149.13</v>
       </c>
       <c r="H95" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I95" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J95" t="n">
         <v>2123.87</v>
       </c>
       <c r="K95" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L95" t="n">
         <v>32</v>
@@ -6249,19 +6249,19 @@
         <v>2.3</v>
       </c>
       <c r="O95" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P95" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q95" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R95" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S95" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="96">
@@ -6283,22 +6283,22 @@
         <v>4</v>
       </c>
       <c r="F96" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G96" t="n">
-        <v>14814.4</v>
+        <v>14314.4</v>
       </c>
       <c r="H96" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I96" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J96" t="n">
         <v>2123.87</v>
       </c>
       <c r="K96" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L96" t="n">
         <v>32</v>
@@ -6310,19 +6310,19 @@
         <v>2.3</v>
       </c>
       <c r="O96" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P96" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q96" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R96" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S96" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="97">
@@ -6344,22 +6344,22 @@
         <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G97" t="n">
-        <v>13686.42</v>
+        <v>13186.42</v>
       </c>
       <c r="H97" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I97" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J97" t="n">
         <v>2123.87</v>
       </c>
       <c r="K97" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L97" t="n">
         <v>32</v>
@@ -6371,19 +6371,19 @@
         <v>2.3</v>
       </c>
       <c r="O97" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P97" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q97" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R97" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S97" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="98">
@@ -6405,22 +6405,22 @@
         <v>4</v>
       </c>
       <c r="F98" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G98" t="n">
-        <v>10565.89</v>
+        <v>10065.89</v>
       </c>
       <c r="H98" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I98" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J98" t="n">
         <v>2123.87</v>
       </c>
       <c r="K98" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L98" t="n">
         <v>32</v>
@@ -6432,19 +6432,19 @@
         <v>2.3</v>
       </c>
       <c r="O98" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P98" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q98" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R98" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S98" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="99">
@@ -6466,22 +6466,22 @@
         <v>4</v>
       </c>
       <c r="F99" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G99" t="n">
-        <v>15953.56</v>
+        <v>15453.56</v>
       </c>
       <c r="H99" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I99" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J99" t="n">
         <v>2123.87</v>
       </c>
       <c r="K99" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L99" t="n">
         <v>32</v>
@@ -6493,19 +6493,19 @@
         <v>2.3</v>
       </c>
       <c r="O99" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P99" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q99" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R99" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S99" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="100">
@@ -6527,22 +6527,22 @@
         <v>4</v>
       </c>
       <c r="F100" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G100" t="n">
-        <v>19649.13</v>
+        <v>19149.13</v>
       </c>
       <c r="H100" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I100" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J100" t="n">
         <v>2123.87</v>
       </c>
       <c r="K100" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L100" t="n">
         <v>32</v>
@@ -6554,19 +6554,19 @@
         <v>2.3</v>
       </c>
       <c r="O100" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P100" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q100" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R100" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S100" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="101">
@@ -6588,22 +6588,22 @@
         <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="G101" t="n">
-        <v>32344.78</v>
+        <v>31844.78</v>
       </c>
       <c r="H101" t="n">
-        <v>62.87</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="I101" t="n">
-        <v>20.35</v>
+        <v>40.7</v>
       </c>
       <c r="J101" t="n">
         <v>2123.87</v>
       </c>
       <c r="K101" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="L101" t="n">
         <v>32</v>
@@ -6615,19 +6615,19 @@
         <v>2.3</v>
       </c>
       <c r="O101" t="n">
-        <v>0.84</v>
+        <v>0.57</v>
       </c>
       <c r="P101" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="Q101" t="n">
-        <v>16.45</v>
+        <v>8.23</v>
       </c>
       <c r="R101" t="n">
-        <v>63.34</v>
+        <v>63.61</v>
       </c>
       <c r="S101" t="n">
-        <v>63.15</v>
+        <v>63.52</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -549,19 +549,19 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>4.1</v>
+        <v>5905.12</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>76.63</v>
+        <v>52793.58</v>
       </c>
       <c r="I2" t="n">
-        <v>32.59</v>
+        <v>46942.68</v>
       </c>
       <c r="J2" t="n">
-        <v>1422.04</v>
+        <v>2047739.34</v>
       </c>
       <c r="K2" t="n">
         <v>0.12</v>
@@ -576,7 +576,7 @@
         <v>2.59</v>
       </c>
       <c r="O2" t="n">
-        <v>0.51</v>
+        <v>0.25</v>
       </c>
       <c r="P2" t="n">
         <v>7.02</v>
@@ -585,10 +585,10 @@
         <v>7.02</v>
       </c>
       <c r="R2" t="n">
-        <v>64.72</v>
+        <v>65</v>
       </c>
       <c r="S2" t="n">
-        <v>64.59999999999999</v>
+        <v>64.88</v>
       </c>
     </row>
     <row r="3">
@@ -610,19 +610,19 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G3" t="n">
         <v>498.39</v>
       </c>
       <c r="H3" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I3" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J3" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K3" t="n">
         <v>0.09</v>
@@ -637,7 +637,7 @@
         <v>2.3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P3" t="n">
         <v>8.23</v>
@@ -646,10 +646,10 @@
         <v>8.23</v>
       </c>
       <c r="R3" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S3" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="4">
@@ -671,19 +671,19 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G4" t="n">
         <v>696.8200000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I4" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J4" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K4" t="n">
         <v>0.09</v>
@@ -698,7 +698,7 @@
         <v>2.3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P4" t="n">
         <v>8.23</v>
@@ -707,10 +707,10 @@
         <v>8.23</v>
       </c>
       <c r="R4" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S4" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="5">
@@ -732,19 +732,19 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>2.19</v>
+        <v>3150.62</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>59.56</v>
+        <v>28186.16</v>
       </c>
       <c r="I5" t="n">
-        <v>17.41</v>
+        <v>25045.82</v>
       </c>
       <c r="J5" t="n">
-        <v>463</v>
+        <v>666716.65</v>
       </c>
       <c r="K5" t="n">
         <v>0.23</v>
@@ -753,13 +753,13 @@
         <v>29</v>
       </c>
       <c r="M5" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="N5" t="n">
         <v>3.47</v>
       </c>
       <c r="O5" t="n">
-        <v>0.57</v>
+        <v>0.19</v>
       </c>
       <c r="P5" t="n">
         <v>4.38</v>
@@ -768,10 +768,10 @@
         <v>4.38</v>
       </c>
       <c r="R5" t="n">
-        <v>65.42</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>65.19</v>
+        <v>65.51000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -793,19 +793,19 @@
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9399999999999999</v>
+        <v>1356.44</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>48.4</v>
+        <v>12157.8</v>
       </c>
       <c r="I6" t="n">
-        <v>7.47</v>
+        <v>10783</v>
       </c>
       <c r="J6" t="n">
-        <v>102.11</v>
+        <v>147038.65</v>
       </c>
       <c r="K6" t="n">
         <v>0.5</v>
@@ -814,13 +814,13 @@
         <v>32</v>
       </c>
       <c r="M6" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="N6" t="n">
         <v>5.16</v>
       </c>
       <c r="O6" t="n">
-        <v>0.99</v>
+        <v>0.17</v>
       </c>
       <c r="P6" t="n">
         <v>2.14</v>
@@ -829,10 +829,10 @@
         <v>2.14</v>
       </c>
       <c r="R6" t="n">
-        <v>59.76</v>
+        <v>60.71</v>
       </c>
       <c r="S6" t="n">
-        <v>59.26</v>
+        <v>60.21</v>
       </c>
     </row>
     <row r="7">
@@ -847,11 +847,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -976,19 +976,19 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>4.62</v>
+        <v>6657.91</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>81.27</v>
+        <v>59518.65</v>
       </c>
       <c r="I9" t="n">
-        <v>36.73</v>
+        <v>52926.98</v>
       </c>
       <c r="J9" t="n">
-        <v>1765.51</v>
+        <v>2542331.9</v>
       </c>
       <c r="K9" t="n">
         <v>0.1</v>
@@ -1003,7 +1003,7 @@
         <v>2.44</v>
       </c>
       <c r="O9" t="n">
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="P9" t="n">
         <v>7.65</v>
@@ -1012,10 +1012,10 @@
         <v>7.65</v>
       </c>
       <c r="R9" t="n">
-        <v>64.13</v>
+        <v>64.45</v>
       </c>
       <c r="S9" t="n">
-        <v>64.03</v>
+        <v>64.34999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1037,19 +1037,19 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>2.19</v>
+        <v>3150.62</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>59.56</v>
+        <v>28186.16</v>
       </c>
       <c r="I10" t="n">
-        <v>17.41</v>
+        <v>25045.82</v>
       </c>
       <c r="J10" t="n">
-        <v>463</v>
+        <v>666716.65</v>
       </c>
       <c r="K10" t="n">
         <v>0.23</v>
@@ -1058,13 +1058,13 @@
         <v>29</v>
       </c>
       <c r="M10" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="N10" t="n">
         <v>3.47</v>
       </c>
       <c r="O10" t="n">
-        <v>0.57</v>
+        <v>0.19</v>
       </c>
       <c r="P10" t="n">
         <v>4.38</v>
@@ -1073,10 +1073,10 @@
         <v>4.38</v>
       </c>
       <c r="R10" t="n">
-        <v>65.42</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>65.19</v>
+        <v>65.51000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1098,19 +1098,19 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G11" t="n">
         <v>498.39</v>
       </c>
       <c r="H11" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I11" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J11" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K11" t="n">
         <v>0.09</v>
@@ -1125,7 +1125,7 @@
         <v>2.3</v>
       </c>
       <c r="O11" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P11" t="n">
         <v>8.23</v>
@@ -1134,10 +1134,10 @@
         <v>8.23</v>
       </c>
       <c r="R11" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S11" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="12">
@@ -1159,19 +1159,19 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G12" t="n">
         <v>588.0599999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I12" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J12" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K12" t="n">
         <v>0.09</v>
@@ -1186,7 +1186,7 @@
         <v>2.3</v>
       </c>
       <c r="O12" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P12" t="n">
         <v>8.23</v>
@@ -1195,10 +1195,10 @@
         <v>8.23</v>
       </c>
       <c r="R12" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S12" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="13">
@@ -1220,19 +1220,19 @@
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G13" t="n">
         <v>97.28</v>
       </c>
       <c r="H13" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I13" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J13" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K13" t="n">
         <v>0.09</v>
@@ -1247,7 +1247,7 @@
         <v>2.3</v>
       </c>
       <c r="O13" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P13" t="n">
         <v>8.23</v>
@@ -1256,10 +1256,10 @@
         <v>8.23</v>
       </c>
       <c r="R13" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S13" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="14">
@@ -1281,19 +1281,19 @@
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>1.26</v>
+        <v>1818.12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>51.26</v>
+        <v>16282.23</v>
       </c>
       <c r="I14" t="n">
-        <v>10.02</v>
+        <v>14453.12</v>
       </c>
       <c r="J14" t="n">
-        <v>173.75</v>
+        <v>250200.45</v>
       </c>
       <c r="K14" t="n">
         <v>0.39</v>
@@ -1302,13 +1302,13 @@
         <v>30</v>
       </c>
       <c r="M14" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="N14" t="n">
         <v>4.59</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8</v>
+        <v>0.18</v>
       </c>
       <c r="P14" t="n">
         <v>2.79</v>
@@ -1317,10 +1317,10 @@
         <v>2.79</v>
       </c>
       <c r="R14" t="n">
-        <v>62.43</v>
+        <v>63.19</v>
       </c>
       <c r="S14" t="n">
-        <v>62.04</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="15">
@@ -1342,19 +1342,19 @@
         <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G15" t="n">
         <v>498.39</v>
       </c>
       <c r="H15" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I15" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J15" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K15" t="n">
         <v>0.09</v>
@@ -1369,7 +1369,7 @@
         <v>2.3</v>
       </c>
       <c r="O15" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P15" t="n">
         <v>8.23</v>
@@ -1378,10 +1378,10 @@
         <v>8.23</v>
       </c>
       <c r="R15" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S15" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="16">
@@ -1403,19 +1403,19 @@
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G16" t="n">
         <v>97.28</v>
       </c>
       <c r="H16" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I16" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J16" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K16" t="n">
         <v>0.09</v>
@@ -1430,7 +1430,7 @@
         <v>2.3</v>
       </c>
       <c r="O16" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P16" t="n">
         <v>8.23</v>
@@ -1439,10 +1439,10 @@
         <v>8.23</v>
       </c>
       <c r="R16" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S16" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="17">
@@ -1464,19 +1464,19 @@
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>3.57</v>
+        <v>5144.25</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>71.89</v>
+        <v>45996.32</v>
       </c>
       <c r="I17" t="n">
-        <v>28.38</v>
+        <v>40894.15</v>
       </c>
       <c r="J17" t="n">
-        <v>1109.99</v>
+        <v>1598379.48</v>
       </c>
       <c r="K17" t="n">
         <v>0.14</v>
@@ -1491,7 +1491,7 @@
         <v>2.74</v>
       </c>
       <c r="O17" t="n">
-        <v>0.51</v>
+        <v>0.23</v>
       </c>
       <c r="P17" t="n">
         <v>6.35</v>
@@ -1500,10 +1500,10 @@
         <v>6.35</v>
       </c>
       <c r="R17" t="n">
-        <v>65.16</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>65.02</v>
+        <v>65.34999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1525,19 +1525,19 @@
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9399999999999999</v>
+        <v>1356.44</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>48.4</v>
+        <v>12157.8</v>
       </c>
       <c r="I18" t="n">
-        <v>7.47</v>
+        <v>10783</v>
       </c>
       <c r="J18" t="n">
-        <v>102.11</v>
+        <v>147038.65</v>
       </c>
       <c r="K18" t="n">
         <v>0.5</v>
@@ -1546,13 +1546,13 @@
         <v>32</v>
       </c>
       <c r="M18" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="N18" t="n">
         <v>5.16</v>
       </c>
       <c r="O18" t="n">
-        <v>0.99</v>
+        <v>0.17</v>
       </c>
       <c r="P18" t="n">
         <v>2.14</v>
@@ -1561,10 +1561,10 @@
         <v>2.14</v>
       </c>
       <c r="R18" t="n">
-        <v>59.76</v>
+        <v>60.71</v>
       </c>
       <c r="S18" t="n">
-        <v>59.26</v>
+        <v>60.21</v>
       </c>
     </row>
     <row r="19">
@@ -1586,19 +1586,19 @@
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G19" t="n">
         <v>298.94</v>
       </c>
       <c r="H19" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I19" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J19" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K19" t="n">
         <v>0.09</v>
@@ -1613,7 +1613,7 @@
         <v>2.3</v>
       </c>
       <c r="O19" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P19" t="n">
         <v>8.23</v>
@@ -1622,10 +1622,10 @@
         <v>8.23</v>
       </c>
       <c r="R19" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S19" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="20">
@@ -1647,19 +1647,19 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G20" t="n">
         <v>588.0599999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I20" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J20" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K20" t="n">
         <v>0.09</v>
@@ -1674,7 +1674,7 @@
         <v>2.3</v>
       </c>
       <c r="O20" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P20" t="n">
         <v>8.23</v>
@@ -1683,10 +1683,10 @@
         <v>8.23</v>
       </c>
       <c r="R20" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S20" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="21">
@@ -1701,11 +1701,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1830,19 +1830,19 @@
         <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>2.19</v>
+        <v>3150.62</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>59.56</v>
+        <v>28186.16</v>
       </c>
       <c r="I23" t="n">
-        <v>17.41</v>
+        <v>25045.82</v>
       </c>
       <c r="J23" t="n">
-        <v>463</v>
+        <v>666716.65</v>
       </c>
       <c r="K23" t="n">
         <v>0.23</v>
@@ -1851,13 +1851,13 @@
         <v>29</v>
       </c>
       <c r="M23" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="N23" t="n">
         <v>3.47</v>
       </c>
       <c r="O23" t="n">
-        <v>0.57</v>
+        <v>0.19</v>
       </c>
       <c r="P23" t="n">
         <v>4.38</v>
@@ -1866,10 +1866,10 @@
         <v>4.38</v>
       </c>
       <c r="R23" t="n">
-        <v>65.42</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>65.19</v>
+        <v>65.51000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1891,19 +1891,19 @@
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G24" t="n">
         <v>395.95</v>
       </c>
       <c r="H24" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I24" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J24" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K24" t="n">
         <v>0.09</v>
@@ -1918,7 +1918,7 @@
         <v>2.3</v>
       </c>
       <c r="O24" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P24" t="n">
         <v>8.23</v>
@@ -1927,10 +1927,10 @@
         <v>8.23</v>
       </c>
       <c r="R24" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S24" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="25">
@@ -1952,19 +1952,19 @@
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>4.62</v>
+        <v>6657.91</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>81.27</v>
+        <v>59518.65</v>
       </c>
       <c r="I25" t="n">
-        <v>36.73</v>
+        <v>52926.98</v>
       </c>
       <c r="J25" t="n">
-        <v>1765.51</v>
+        <v>2542331.9</v>
       </c>
       <c r="K25" t="n">
         <v>0.1</v>
@@ -1979,7 +1979,7 @@
         <v>2.44</v>
       </c>
       <c r="O25" t="n">
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="P25" t="n">
         <v>7.65</v>
@@ -1988,10 +1988,10 @@
         <v>7.65</v>
       </c>
       <c r="R25" t="n">
-        <v>64.13</v>
+        <v>64.45</v>
       </c>
       <c r="S25" t="n">
-        <v>64.03</v>
+        <v>64.34999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -2013,19 +2013,19 @@
         <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>5.09</v>
+        <v>7328.05</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>85.47</v>
+        <v>65505.37</v>
       </c>
       <c r="I26" t="n">
-        <v>40.46</v>
+        <v>58254.25</v>
       </c>
       <c r="J26" t="n">
-        <v>2100.08</v>
+        <v>3024111.65</v>
       </c>
       <c r="K26" t="n">
         <v>0.09</v>
@@ -2040,7 +2040,7 @@
         <v>2.31</v>
       </c>
       <c r="O26" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P26" t="n">
         <v>8.19</v>
@@ -2049,10 +2049,10 @@
         <v>8.19</v>
       </c>
       <c r="R26" t="n">
-        <v>63.67</v>
+        <v>63.92</v>
       </c>
       <c r="S26" t="n">
-        <v>63.58</v>
+        <v>63.83</v>
       </c>
     </row>
     <row r="27">
@@ -2074,19 +2074,19 @@
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G27" t="n">
         <v>298.94</v>
       </c>
       <c r="H27" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I27" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J27" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K27" t="n">
         <v>0.09</v>
@@ -2101,7 +2101,7 @@
         <v>2.3</v>
       </c>
       <c r="O27" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P27" t="n">
         <v>8.23</v>
@@ -2110,10 +2110,10 @@
         <v>8.23</v>
       </c>
       <c r="R27" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S27" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="28">
@@ -2135,19 +2135,19 @@
         <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>1.58</v>
+        <v>2270.5</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>54.11</v>
+        <v>20323.58</v>
       </c>
       <c r="I28" t="n">
-        <v>12.56</v>
+        <v>18049.31</v>
       </c>
       <c r="J28" t="n">
-        <v>258.54</v>
+        <v>372292.92</v>
       </c>
       <c r="K28" t="n">
         <v>0.31</v>
@@ -2162,7 +2162,7 @@
         <v>4.03</v>
       </c>
       <c r="O28" t="n">
-        <v>0.7</v>
+        <v>0.18</v>
       </c>
       <c r="P28" t="n">
         <v>3.37</v>
@@ -2171,10 +2171,10 @@
         <v>3.37</v>
       </c>
       <c r="R28" t="n">
-        <v>64.29000000000001</v>
+        <v>64.66</v>
       </c>
       <c r="S28" t="n">
-        <v>63.98</v>
+        <v>64.34999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -2189,11 +2189,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2318,19 +2318,19 @@
         <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G31" t="n">
         <v>498.39</v>
       </c>
       <c r="H31" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I31" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J31" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K31" t="n">
         <v>0.09</v>
@@ -2345,7 +2345,7 @@
         <v>2.3</v>
       </c>
       <c r="O31" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P31" t="n">
         <v>8.23</v>
@@ -2354,10 +2354,10 @@
         <v>8.23</v>
       </c>
       <c r="R31" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S31" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="32">
@@ -2379,19 +2379,19 @@
         <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G32" t="n">
         <v>588.0599999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I32" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J32" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K32" t="n">
         <v>0.09</v>
@@ -2406,7 +2406,7 @@
         <v>2.3</v>
       </c>
       <c r="O32" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P32" t="n">
         <v>8.23</v>
@@ -2415,10 +2415,10 @@
         <v>8.23</v>
       </c>
       <c r="R32" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S32" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="33">
@@ -2440,19 +2440,19 @@
         <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G33" t="n">
         <v>1349.27</v>
       </c>
       <c r="H33" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I33" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J33" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K33" t="n">
         <v>0.09</v>
@@ -2467,7 +2467,7 @@
         <v>2.3</v>
       </c>
       <c r="O33" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P33" t="n">
         <v>8.23</v>
@@ -2476,10 +2476,10 @@
         <v>8.23</v>
       </c>
       <c r="R33" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S33" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="34">
@@ -2501,19 +2501,19 @@
         <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G34" t="n">
         <v>4038.32</v>
       </c>
       <c r="H34" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I34" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J34" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K34" t="n">
         <v>0.09</v>
@@ -2528,7 +2528,7 @@
         <v>2.3</v>
       </c>
       <c r="O34" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P34" t="n">
         <v>8.23</v>
@@ -2537,10 +2537,10 @@
         <v>8.23</v>
       </c>
       <c r="R34" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S34" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="35">
@@ -2562,19 +2562,19 @@
         <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G35" t="n">
         <v>5298.5</v>
       </c>
       <c r="H35" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I35" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J35" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K35" t="n">
         <v>0.09</v>
@@ -2589,7 +2589,7 @@
         <v>2.3</v>
       </c>
       <c r="O35" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P35" t="n">
         <v>8.23</v>
@@ -2598,10 +2598,10 @@
         <v>8.23</v>
       </c>
       <c r="R35" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S35" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="36">
@@ -2623,19 +2623,19 @@
         <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G36" t="n">
         <v>2683.73</v>
       </c>
       <c r="H36" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I36" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J36" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K36" t="n">
         <v>0.09</v>
@@ -2650,7 +2650,7 @@
         <v>2.3</v>
       </c>
       <c r="O36" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P36" t="n">
         <v>8.23</v>
@@ -2659,10 +2659,10 @@
         <v>8.23</v>
       </c>
       <c r="R36" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S36" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="37">
@@ -2684,19 +2684,19 @@
         <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G37" t="n">
         <v>2874.73</v>
       </c>
       <c r="H37" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I37" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J37" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K37" t="n">
         <v>0.09</v>
@@ -2711,7 +2711,7 @@
         <v>2.3</v>
       </c>
       <c r="O37" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P37" t="n">
         <v>8.23</v>
@@ -2720,10 +2720,10 @@
         <v>8.23</v>
       </c>
       <c r="R37" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S37" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="38">
@@ -2745,19 +2745,19 @@
         <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G38" t="n">
         <v>6259.64</v>
       </c>
       <c r="H38" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I38" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J38" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K38" t="n">
         <v>0.09</v>
@@ -2772,7 +2772,7 @@
         <v>2.3</v>
       </c>
       <c r="O38" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P38" t="n">
         <v>8.23</v>
@@ -2781,10 +2781,10 @@
         <v>8.23</v>
       </c>
       <c r="R38" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S38" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="39">
@@ -2799,11 +2799,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -2860,11 +2860,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2921,11 +2921,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3104,53 +3104,53 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>7373.73</v>
       </c>
       <c r="G44" t="n">
-        <v>1387.45</v>
+        <v>395.95</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>65913.45</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>58617.38</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3058370.54</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>8.23</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>8.23</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.89</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="45">
@@ -3172,19 +3172,19 @@
         <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G45" t="n">
         <v>2107.67</v>
       </c>
       <c r="H45" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I45" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J45" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K45" t="n">
         <v>0.09</v>
@@ -3199,7 +3199,7 @@
         <v>2.3</v>
       </c>
       <c r="O45" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P45" t="n">
         <v>8.23</v>
@@ -3208,10 +3208,10 @@
         <v>8.23</v>
       </c>
       <c r="R45" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S45" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="46">
@@ -3233,19 +3233,19 @@
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G46" t="n">
         <v>3414.84</v>
       </c>
       <c r="H46" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I46" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J46" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K46" t="n">
         <v>0.09</v>
@@ -3260,7 +3260,7 @@
         <v>2.3</v>
       </c>
       <c r="O46" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P46" t="n">
         <v>8.23</v>
@@ -3269,10 +3269,10 @@
         <v>8.23</v>
       </c>
       <c r="R46" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S46" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="47">
@@ -3294,19 +3294,19 @@
         <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G47" t="n">
         <v>2492.33</v>
       </c>
       <c r="H47" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I47" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J47" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K47" t="n">
         <v>0.09</v>
@@ -3321,7 +3321,7 @@
         <v>2.3</v>
       </c>
       <c r="O47" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P47" t="n">
         <v>8.23</v>
@@ -3330,10 +3330,10 @@
         <v>8.23</v>
       </c>
       <c r="R47" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S47" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="48">
@@ -3355,19 +3355,19 @@
         <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G48" t="n">
         <v>4668.14</v>
       </c>
       <c r="H48" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I48" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J48" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K48" t="n">
         <v>0.09</v>
@@ -3382,7 +3382,7 @@
         <v>2.3</v>
       </c>
       <c r="O48" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P48" t="n">
         <v>8.23</v>
@@ -3391,10 +3391,10 @@
         <v>8.23</v>
       </c>
       <c r="R48" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S48" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="49">
@@ -3416,19 +3416,19 @@
         <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G49" t="n">
         <v>3414.84</v>
       </c>
       <c r="H49" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I49" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J49" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K49" t="n">
         <v>0.09</v>
@@ -3443,7 +3443,7 @@
         <v>2.3</v>
       </c>
       <c r="O49" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P49" t="n">
         <v>8.23</v>
@@ -3452,10 +3452,10 @@
         <v>8.23</v>
       </c>
       <c r="R49" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S49" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="50">
@@ -3477,19 +3477,19 @@
         <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G50" t="n">
         <v>10065.89</v>
       </c>
       <c r="H50" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I50" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J50" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K50" t="n">
         <v>0.09</v>
@@ -3504,7 +3504,7 @@
         <v>2.3</v>
       </c>
       <c r="O50" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P50" t="n">
         <v>8.23</v>
@@ -3513,10 +3513,10 @@
         <v>8.23</v>
       </c>
       <c r="R50" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S50" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="51">
@@ -3538,19 +3538,19 @@
         <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G51" t="n">
         <v>8334.6</v>
       </c>
       <c r="H51" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I51" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J51" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K51" t="n">
         <v>0.09</v>
@@ -3565,7 +3565,7 @@
         <v>2.3</v>
       </c>
       <c r="O51" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P51" t="n">
         <v>8.23</v>
@@ -3574,10 +3574,10 @@
         <v>8.23</v>
       </c>
       <c r="R51" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S51" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="52">
@@ -3599,19 +3599,19 @@
         <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G52" t="n">
         <v>2492.33</v>
       </c>
       <c r="H52" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I52" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J52" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K52" t="n">
         <v>0.09</v>
@@ -3626,7 +3626,7 @@
         <v>2.3</v>
       </c>
       <c r="O52" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P52" t="n">
         <v>8.23</v>
@@ -3635,10 +3635,10 @@
         <v>8.23</v>
       </c>
       <c r="R52" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S52" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="53">
@@ -3660,19 +3660,19 @@
         <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G53" t="n">
         <v>2107.67</v>
       </c>
       <c r="H53" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I53" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J53" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K53" t="n">
         <v>0.09</v>
@@ -3687,7 +3687,7 @@
         <v>2.3</v>
       </c>
       <c r="O53" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P53" t="n">
         <v>8.23</v>
@@ -3696,10 +3696,10 @@
         <v>8.23</v>
       </c>
       <c r="R53" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S53" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="54">
@@ -3721,19 +3721,19 @@
         <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G54" t="n">
         <v>1917.48</v>
       </c>
       <c r="H54" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I54" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J54" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K54" t="n">
         <v>0.09</v>
@@ -3748,7 +3748,7 @@
         <v>2.3</v>
       </c>
       <c r="O54" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P54" t="n">
         <v>8.23</v>
@@ -3757,10 +3757,10 @@
         <v>8.23</v>
       </c>
       <c r="R54" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S54" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="55">
@@ -3782,19 +3782,19 @@
         <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G55" t="n">
         <v>968.74</v>
       </c>
       <c r="H55" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I55" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J55" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K55" t="n">
         <v>0.09</v>
@@ -3809,7 +3809,7 @@
         <v>2.3</v>
       </c>
       <c r="O55" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P55" t="n">
         <v>8.23</v>
@@ -3818,10 +3818,10 @@
         <v>8.23</v>
       </c>
       <c r="R55" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S55" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="56">
@@ -3843,19 +3843,19 @@
         <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G56" t="n">
         <v>1539.07</v>
       </c>
       <c r="H56" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I56" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J56" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K56" t="n">
         <v>0.09</v>
@@ -3870,7 +3870,7 @@
         <v>2.3</v>
       </c>
       <c r="O56" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P56" t="n">
         <v>8.23</v>
@@ -3879,10 +3879,10 @@
         <v>8.23</v>
       </c>
       <c r="R56" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S56" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="57">
@@ -3904,19 +3904,19 @@
         <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G57" t="n">
         <v>6624.94</v>
       </c>
       <c r="H57" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I57" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J57" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K57" t="n">
         <v>0.09</v>
@@ -3931,7 +3931,7 @@
         <v>2.3</v>
       </c>
       <c r="O57" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P57" t="n">
         <v>8.23</v>
@@ -3940,10 +3940,10 @@
         <v>8.23</v>
       </c>
       <c r="R57" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S57" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="58">
@@ -3965,19 +3965,19 @@
         <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G58" t="n">
         <v>11498.56</v>
       </c>
       <c r="H58" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I58" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J58" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K58" t="n">
         <v>0.09</v>
@@ -3992,7 +3992,7 @@
         <v>2.3</v>
       </c>
       <c r="O58" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P58" t="n">
         <v>8.23</v>
@@ -4001,10 +4001,10 @@
         <v>8.23</v>
       </c>
       <c r="R58" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S58" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="59">
@@ -4026,19 +4026,19 @@
         <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G59" t="n">
         <v>10065.89</v>
       </c>
       <c r="H59" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I59" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J59" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K59" t="n">
         <v>0.09</v>
@@ -4053,7 +4053,7 @@
         <v>2.3</v>
       </c>
       <c r="O59" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P59" t="n">
         <v>8.23</v>
@@ -4062,10 +4062,10 @@
         <v>8.23</v>
       </c>
       <c r="R59" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S59" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="60">
@@ -4087,19 +4087,19 @@
         <v>4</v>
       </c>
       <c r="F60" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G60" t="n">
         <v>9198.959999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I60" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J60" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K60" t="n">
         <v>0.09</v>
@@ -4114,7 +4114,7 @@
         <v>2.3</v>
       </c>
       <c r="O60" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P60" t="n">
         <v>8.23</v>
@@ -4123,10 +4123,10 @@
         <v>8.23</v>
       </c>
       <c r="R60" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S60" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="61">
@@ -4148,19 +4148,19 @@
         <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G61" t="n">
         <v>13186.42</v>
       </c>
       <c r="H61" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I61" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J61" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K61" t="n">
         <v>0.09</v>
@@ -4175,7 +4175,7 @@
         <v>2.3</v>
       </c>
       <c r="O61" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P61" t="n">
         <v>8.23</v>
@@ -4184,10 +4184,10 @@
         <v>8.23</v>
       </c>
       <c r="R61" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S61" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="62">
@@ -4209,19 +4209,19 @@
         <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G62" t="n">
         <v>12064.65</v>
       </c>
       <c r="H62" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I62" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J62" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K62" t="n">
         <v>0.09</v>
@@ -4236,7 +4236,7 @@
         <v>2.3</v>
       </c>
       <c r="O62" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P62" t="n">
         <v>8.23</v>
@@ -4245,10 +4245,10 @@
         <v>8.23</v>
       </c>
       <c r="R62" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S62" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="63">
@@ -4270,19 +4270,19 @@
         <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G63" t="n">
         <v>9198.959999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I63" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J63" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K63" t="n">
         <v>0.09</v>
@@ -4297,7 +4297,7 @@
         <v>2.3</v>
       </c>
       <c r="O63" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P63" t="n">
         <v>8.23</v>
@@ -4306,10 +4306,10 @@
         <v>8.23</v>
       </c>
       <c r="R63" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S63" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="64">
@@ -4331,19 +4331,19 @@
         <v>4</v>
       </c>
       <c r="F64" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G64" t="n">
         <v>10065.89</v>
       </c>
       <c r="H64" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I64" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J64" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K64" t="n">
         <v>0.09</v>
@@ -4358,7 +4358,7 @@
         <v>2.3</v>
       </c>
       <c r="O64" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P64" t="n">
         <v>8.23</v>
@@ -4367,10 +4367,10 @@
         <v>8.23</v>
       </c>
       <c r="R64" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S64" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="65">
@@ -4392,19 +4392,19 @@
         <v>4</v>
       </c>
       <c r="F65" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G65" t="n">
         <v>6624.94</v>
       </c>
       <c r="H65" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I65" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J65" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K65" t="n">
         <v>0.09</v>
@@ -4419,7 +4419,7 @@
         <v>2.3</v>
       </c>
       <c r="O65" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P65" t="n">
         <v>8.23</v>
@@ -4428,10 +4428,10 @@
         <v>8.23</v>
       </c>
       <c r="R65" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S65" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="66">
@@ -4453,19 +4453,19 @@
         <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G66" t="n">
         <v>4668.14</v>
       </c>
       <c r="H66" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I66" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J66" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K66" t="n">
         <v>0.09</v>
@@ -4480,7 +4480,7 @@
         <v>2.3</v>
       </c>
       <c r="O66" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P66" t="n">
         <v>8.23</v>
@@ -4489,10 +4489,10 @@
         <v>8.23</v>
       </c>
       <c r="R66" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S66" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="67">
@@ -4514,19 +4514,19 @@
         <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G67" t="n">
         <v>6624.94</v>
       </c>
       <c r="H67" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I67" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J67" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K67" t="n">
         <v>0.09</v>
@@ -4541,7 +4541,7 @@
         <v>2.3</v>
       </c>
       <c r="O67" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P67" t="n">
         <v>8.23</v>
@@ -4550,10 +4550,10 @@
         <v>8.23</v>
       </c>
       <c r="R67" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S67" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="68">
@@ -4575,19 +4575,19 @@
         <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G68" t="n">
         <v>10506.25</v>
       </c>
       <c r="H68" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I68" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J68" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K68" t="n">
         <v>0.09</v>
@@ -4602,7 +4602,7 @@
         <v>2.3</v>
       </c>
       <c r="O68" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P68" t="n">
         <v>8.23</v>
@@ -4611,10 +4611,10 @@
         <v>8.23</v>
       </c>
       <c r="R68" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S68" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="69">
@@ -4629,11 +4629,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -4690,11 +4690,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -4751,11 +4751,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -5239,53 +5239,53 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>7373.73</v>
       </c>
       <c r="G79" t="n">
-        <v>5659.64</v>
+        <v>4668.14</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>65913.45</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>58617.38</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>3058370.54</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>8.23</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>8.23</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>63.89</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="80">
@@ -5307,19 +5307,19 @@
         <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G80" t="n">
         <v>12064.65</v>
       </c>
       <c r="H80" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I80" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J80" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K80" t="n">
         <v>0.09</v>
@@ -5334,7 +5334,7 @@
         <v>2.3</v>
       </c>
       <c r="O80" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P80" t="n">
         <v>8.23</v>
@@ -5343,10 +5343,10 @@
         <v>8.23</v>
       </c>
       <c r="R80" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S80" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="81">
@@ -5368,19 +5368,19 @@
         <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G81" t="n">
         <v>10947.21</v>
       </c>
       <c r="H81" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I81" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J81" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K81" t="n">
         <v>0.09</v>
@@ -5395,7 +5395,7 @@
         <v>2.3</v>
       </c>
       <c r="O81" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P81" t="n">
         <v>8.23</v>
@@ -5404,10 +5404,10 @@
         <v>8.23</v>
       </c>
       <c r="R81" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S81" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="82">
@@ -5429,19 +5429,19 @@
         <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G82" t="n">
         <v>10065.89</v>
       </c>
       <c r="H82" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I82" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J82" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K82" t="n">
         <v>0.09</v>
@@ -5456,7 +5456,7 @@
         <v>2.3</v>
       </c>
       <c r="O82" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P82" t="n">
         <v>8.23</v>
@@ -5465,10 +5465,10 @@
         <v>8.23</v>
       </c>
       <c r="R82" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S82" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="83">
@@ -5490,19 +5490,19 @@
         <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G83" t="n">
         <v>2874.73</v>
       </c>
       <c r="H83" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I83" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J83" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K83" t="n">
         <v>0.09</v>
@@ -5517,7 +5517,7 @@
         <v>2.3</v>
       </c>
       <c r="O83" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P83" t="n">
         <v>8.23</v>
@@ -5526,10 +5526,10 @@
         <v>8.23</v>
       </c>
       <c r="R83" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S83" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="84">
@@ -5551,19 +5551,19 @@
         <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G84" t="n">
         <v>10947.21</v>
       </c>
       <c r="H84" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I84" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J84" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K84" t="n">
         <v>0.09</v>
@@ -5578,7 +5578,7 @@
         <v>2.3</v>
       </c>
       <c r="O84" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P84" t="n">
         <v>8.23</v>
@@ -5587,10 +5587,10 @@
         <v>8.23</v>
       </c>
       <c r="R84" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S84" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="85">
@@ -5612,19 +5612,19 @@
         <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G85" t="n">
         <v>19149.13</v>
       </c>
       <c r="H85" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I85" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J85" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K85" t="n">
         <v>0.09</v>
@@ -5639,7 +5639,7 @@
         <v>2.3</v>
       </c>
       <c r="O85" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P85" t="n">
         <v>8.23</v>
@@ -5648,10 +5648,10 @@
         <v>8.23</v>
       </c>
       <c r="R85" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S85" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="86">
@@ -5673,19 +5673,19 @@
         <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G86" t="n">
         <v>17866.97</v>
       </c>
       <c r="H86" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I86" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J86" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K86" t="n">
         <v>0.09</v>
@@ -5700,7 +5700,7 @@
         <v>2.3</v>
       </c>
       <c r="O86" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P86" t="n">
         <v>8.23</v>
@@ -5709,10 +5709,10 @@
         <v>8.23</v>
       </c>
       <c r="R86" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S86" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="87">
@@ -5734,19 +5734,19 @@
         <v>4</v>
       </c>
       <c r="F87" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G87" t="n">
         <v>16607.89</v>
       </c>
       <c r="H87" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I87" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J87" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K87" t="n">
         <v>0.09</v>
@@ -5761,7 +5761,7 @@
         <v>2.3</v>
       </c>
       <c r="O87" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P87" t="n">
         <v>8.23</v>
@@ -5770,10 +5770,10 @@
         <v>8.23</v>
       </c>
       <c r="R87" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S87" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="88">
@@ -5795,19 +5795,19 @@
         <v>4</v>
       </c>
       <c r="F88" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G88" t="n">
         <v>14880.95</v>
       </c>
       <c r="H88" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I88" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J88" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K88" t="n">
         <v>0.09</v>
@@ -5822,7 +5822,7 @@
         <v>2.3</v>
       </c>
       <c r="O88" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P88" t="n">
         <v>8.23</v>
@@ -5831,10 +5831,10 @@
         <v>8.23</v>
       </c>
       <c r="R88" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S88" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="89">
@@ -5856,19 +5856,19 @@
         <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G89" t="n">
         <v>16607.89</v>
       </c>
       <c r="H89" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I89" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J89" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K89" t="n">
         <v>0.09</v>
@@ -5883,7 +5883,7 @@
         <v>2.3</v>
       </c>
       <c r="O89" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P89" t="n">
         <v>8.23</v>
@@ -5892,10 +5892,10 @@
         <v>8.23</v>
       </c>
       <c r="R89" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S89" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="90">
@@ -5917,19 +5917,19 @@
         <v>4</v>
       </c>
       <c r="F90" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G90" t="n">
         <v>14314.4</v>
       </c>
       <c r="H90" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I90" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J90" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K90" t="n">
         <v>0.09</v>
@@ -5944,7 +5944,7 @@
         <v>2.3</v>
       </c>
       <c r="O90" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P90" t="n">
         <v>8.23</v>
@@ -5953,10 +5953,10 @@
         <v>8.23</v>
       </c>
       <c r="R90" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S90" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="91">
@@ -5978,19 +5978,19 @@
         <v>4</v>
       </c>
       <c r="F91" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G91" t="n">
         <v>16607.89</v>
       </c>
       <c r="H91" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I91" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J91" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K91" t="n">
         <v>0.09</v>
@@ -6005,7 +6005,7 @@
         <v>2.3</v>
       </c>
       <c r="O91" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P91" t="n">
         <v>8.23</v>
@@ -6014,10 +6014,10 @@
         <v>8.23</v>
       </c>
       <c r="R91" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S91" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="92">
@@ -6039,19 +6039,19 @@
         <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G92" t="n">
         <v>17227.22</v>
       </c>
       <c r="H92" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I92" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J92" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K92" t="n">
         <v>0.09</v>
@@ -6066,7 +6066,7 @@
         <v>2.3</v>
       </c>
       <c r="O92" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P92" t="n">
         <v>8.23</v>
@@ -6075,10 +6075,10 @@
         <v>8.23</v>
       </c>
       <c r="R92" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S92" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="93">
@@ -6100,19 +6100,19 @@
         <v>4</v>
       </c>
       <c r="F93" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G93" t="n">
         <v>30785.96</v>
       </c>
       <c r="H93" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I93" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J93" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K93" t="n">
         <v>0.09</v>
@@ -6127,7 +6127,7 @@
         <v>2.3</v>
       </c>
       <c r="O93" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P93" t="n">
         <v>8.23</v>
@@ -6136,10 +6136,10 @@
         <v>8.23</v>
       </c>
       <c r="R93" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S93" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="94">
@@ -6161,19 +6161,19 @@
         <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G94" t="n">
         <v>24315.11</v>
       </c>
       <c r="H94" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I94" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J94" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K94" t="n">
         <v>0.09</v>
@@ -6188,7 +6188,7 @@
         <v>2.3</v>
       </c>
       <c r="O94" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P94" t="n">
         <v>8.23</v>
@@ -6197,10 +6197,10 @@
         <v>8.23</v>
       </c>
       <c r="R94" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S94" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="95">
@@ -6222,19 +6222,19 @@
         <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G95" t="n">
         <v>19149.13</v>
       </c>
       <c r="H95" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I95" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J95" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K95" t="n">
         <v>0.09</v>
@@ -6249,7 +6249,7 @@
         <v>2.3</v>
       </c>
       <c r="O95" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P95" t="n">
         <v>8.23</v>
@@ -6258,10 +6258,10 @@
         <v>8.23</v>
       </c>
       <c r="R95" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S95" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="96">
@@ -6283,19 +6283,19 @@
         <v>4</v>
       </c>
       <c r="F96" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G96" t="n">
         <v>14314.4</v>
       </c>
       <c r="H96" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I96" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J96" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K96" t="n">
         <v>0.09</v>
@@ -6310,7 +6310,7 @@
         <v>2.3</v>
       </c>
       <c r="O96" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P96" t="n">
         <v>8.23</v>
@@ -6319,10 +6319,10 @@
         <v>8.23</v>
       </c>
       <c r="R96" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S96" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="97">
@@ -6344,19 +6344,19 @@
         <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G97" t="n">
         <v>13186.42</v>
       </c>
       <c r="H97" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I97" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J97" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K97" t="n">
         <v>0.09</v>
@@ -6371,7 +6371,7 @@
         <v>2.3</v>
       </c>
       <c r="O97" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P97" t="n">
         <v>8.23</v>
@@ -6380,10 +6380,10 @@
         <v>8.23</v>
       </c>
       <c r="R97" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S97" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="98">
@@ -6405,19 +6405,19 @@
         <v>4</v>
       </c>
       <c r="F98" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G98" t="n">
         <v>10065.89</v>
       </c>
       <c r="H98" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I98" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J98" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K98" t="n">
         <v>0.09</v>
@@ -6432,7 +6432,7 @@
         <v>2.3</v>
       </c>
       <c r="O98" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P98" t="n">
         <v>8.23</v>
@@ -6441,10 +6441,10 @@
         <v>8.23</v>
       </c>
       <c r="R98" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S98" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="99">
@@ -6466,19 +6466,19 @@
         <v>4</v>
       </c>
       <c r="F99" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G99" t="n">
         <v>15453.56</v>
       </c>
       <c r="H99" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I99" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J99" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K99" t="n">
         <v>0.09</v>
@@ -6493,7 +6493,7 @@
         <v>2.3</v>
       </c>
       <c r="O99" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P99" t="n">
         <v>8.23</v>
@@ -6502,10 +6502,10 @@
         <v>8.23</v>
       </c>
       <c r="R99" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S99" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="100">
@@ -6527,19 +6527,19 @@
         <v>4</v>
       </c>
       <c r="F100" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G100" t="n">
         <v>19149.13</v>
       </c>
       <c r="H100" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I100" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J100" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K100" t="n">
         <v>0.09</v>
@@ -6554,7 +6554,7 @@
         <v>2.3</v>
       </c>
       <c r="O100" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P100" t="n">
         <v>8.23</v>
@@ -6563,10 +6563,10 @@
         <v>8.23</v>
       </c>
       <c r="R100" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S100" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="101">
@@ -6588,19 +6588,19 @@
         <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>5.12</v>
+        <v>7373.73</v>
       </c>
       <c r="G101" t="n">
         <v>31844.78</v>
       </c>
       <c r="H101" t="n">
-        <v>85.73999999999999</v>
+        <v>65913.45</v>
       </c>
       <c r="I101" t="n">
-        <v>40.7</v>
+        <v>58617.38</v>
       </c>
       <c r="J101" t="n">
-        <v>2123.87</v>
+        <v>3058370.54</v>
       </c>
       <c r="K101" t="n">
         <v>0.09</v>
@@ -6615,7 +6615,7 @@
         <v>2.3</v>
       </c>
       <c r="O101" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P101" t="n">
         <v>8.23</v>
@@ -6624,10 +6624,10 @@
         <v>8.23</v>
       </c>
       <c r="R101" t="n">
-        <v>63.61</v>
+        <v>63.89</v>
       </c>
       <c r="S101" t="n">
-        <v>63.52</v>
+        <v>63.8</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -531,8 +531,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2015-01-01 00:00:00+00:00</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>785.67</v>
@@ -549,51 +551,53 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.56</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>284.99</v>
       </c>
       <c r="H2" t="n">
-        <v>9600.629999999999</v>
+        <v>182.87</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5600000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.3</v>
+        <v>-297.3</v>
       </c>
       <c r="K2" t="n">
-        <v>24.34</v>
+        <v>23.29</v>
       </c>
       <c r="L2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M2" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="N2" t="n">
-        <v>2.59</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
-        <v>3867.57</v>
+        <v>2.43</v>
       </c>
       <c r="P2" t="n">
-        <v>7.02</v>
+        <v>16.45</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.39</v>
+        <v>-2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>-3800.69</v>
+        <v>61.75</v>
       </c>
       <c r="S2" t="n">
-        <v>-3825.03</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2015-01-01 00:15:00+00:00</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>1499.08</v>
@@ -610,51 +614,53 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
-        <v>498.39</v>
+        <v>998.39</v>
       </c>
       <c r="H3" t="n">
-        <v>9600.799999999999</v>
+        <v>182.87</v>
       </c>
       <c r="I3" t="n">
-        <v>0.72</v>
+        <v>20.35</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.94</v>
+        <v>-297.3</v>
       </c>
       <c r="K3" t="n">
-        <v>24.56</v>
+        <v>23.29</v>
       </c>
       <c r="L3" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M3" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="N3" t="n">
         <v>2.3</v>
       </c>
       <c r="O3" t="n">
-        <v>3834.75</v>
+        <v>2.43</v>
       </c>
       <c r="P3" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.68</v>
+        <v>-2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>-3766.93</v>
+        <v>61.75</v>
       </c>
       <c r="S3" t="n">
-        <v>-3791.49</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2015-01-01 00:30:00+00:00</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>1697.51</v>
@@ -671,51 +677,53 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09</v>
+        <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>696.8200000000001</v>
+        <v>1196.82</v>
       </c>
       <c r="H4" t="n">
-        <v>9600.799999999999</v>
+        <v>182.87</v>
       </c>
       <c r="I4" t="n">
-        <v>0.72</v>
+        <v>20.35</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.94</v>
+        <v>-297.3</v>
       </c>
       <c r="K4" t="n">
-        <v>24.56</v>
+        <v>23.29</v>
       </c>
       <c r="L4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="N4" t="n">
         <v>2.3</v>
       </c>
       <c r="O4" t="n">
-        <v>3834.75</v>
+        <v>2.43</v>
       </c>
       <c r="P4" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.68</v>
+        <v>-2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>-3766.93</v>
+        <v>61.75</v>
       </c>
       <c r="S4" t="n">
-        <v>-3791.49</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2015-01-01 00:45:00+00:00</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>410.07</v>
@@ -732,51 +740,53 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>2.13</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>9600.360000000001</v>
+        <v>179.03</v>
       </c>
       <c r="I5" t="n">
-        <v>0.32</v>
+        <v>16.93</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9399999999999999</v>
+        <v>-213.58</v>
       </c>
       <c r="K5" t="n">
-        <v>26.66</v>
+        <v>23.66</v>
       </c>
       <c r="L5" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M5" t="n">
-        <v>2.03</v>
+        <v>1.81</v>
       </c>
       <c r="N5" t="n">
-        <v>3.47</v>
+        <v>2.54</v>
       </c>
       <c r="O5" t="n">
-        <v>5544.56</v>
+        <v>2.38</v>
       </c>
       <c r="P5" t="n">
-        <v>4.38</v>
+        <v>14.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.53</v>
+        <v>-2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>-5471.9</v>
+        <v>62.63</v>
       </c>
       <c r="S5" t="n">
-        <v>-5498.56</v>
+        <v>38.97</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2015-01-01 01:00:00+00:00</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>185.82</v>
@@ -793,51 +803,53 @@
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.99</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>9600.18</v>
+        <v>168.84</v>
       </c>
       <c r="I6" t="n">
-        <v>0.16</v>
+        <v>7.87</v>
       </c>
       <c r="J6" t="n">
-        <v>1.78</v>
+        <v>-54.13</v>
       </c>
       <c r="K6" t="n">
-        <v>29.47</v>
+        <v>24.31</v>
       </c>
       <c r="L6" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M6" t="n">
-        <v>2.25</v>
+        <v>1.86</v>
       </c>
       <c r="N6" t="n">
-        <v>5.16</v>
+        <v>3.65</v>
       </c>
       <c r="O6" t="n">
-        <v>11791.84</v>
+        <v>3.55</v>
       </c>
       <c r="P6" t="n">
-        <v>2.14</v>
+        <v>8.09</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.23</v>
+        <v>-1.13</v>
       </c>
       <c r="R6" t="n">
-        <v>-11712.86</v>
+        <v>62.21</v>
       </c>
       <c r="S6" t="n">
-        <v>-11742.33</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2015-01-01 01:15:00+00:00</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>73.69</v>
@@ -845,54 +857,62 @@
       <c r="C7" t="n">
         <v>73.18000000000001</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
       <c r="F7" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="G7" t="n">
-        <v>73.18000000000001</v>
-      </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>163.22</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>-8.51</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.37</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>-0.45</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>49.47</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2015-01-01 01:30:00+00:00</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>241.88</v>
@@ -909,51 +929,53 @@
         <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>1.29</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>9600.18</v>
+        <v>171.52</v>
       </c>
       <c r="I8" t="n">
-        <v>0.16</v>
+        <v>10.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.61</v>
+        <v>-86.59</v>
       </c>
       <c r="K8" t="n">
-        <v>22.62</v>
+        <v>24.32</v>
       </c>
       <c r="L8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="N8" t="n">
-        <v>4.59</v>
+        <v>3.21</v>
       </c>
       <c r="O8" t="n">
-        <v>9010.809999999999</v>
+        <v>2.92</v>
       </c>
       <c r="P8" t="n">
-        <v>2.79</v>
+        <v>9.93</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.55</v>
+        <v>-1.39</v>
       </c>
       <c r="R8" t="n">
-        <v>-8950.809999999999</v>
+        <v>63.3</v>
       </c>
       <c r="S8" t="n">
-        <v>-8973.43</v>
+        <v>38.98</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2015-01-01 01:45:00+00:00</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>894.62</v>
@@ -970,51 +992,53 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08</v>
+        <v>2.56</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>393.94</v>
       </c>
       <c r="H9" t="n">
-        <v>9600.709999999999</v>
+        <v>182.87</v>
       </c>
       <c r="I9" t="n">
-        <v>0.64</v>
+        <v>20.35</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.1</v>
+        <v>-297.3</v>
       </c>
       <c r="K9" t="n">
-        <v>24.42</v>
+        <v>23.29</v>
       </c>
       <c r="L9" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M9" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="N9" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="O9" t="n">
-        <v>3812.88</v>
+        <v>2.43</v>
       </c>
       <c r="P9" t="n">
-        <v>7.65</v>
+        <v>16.45</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.55</v>
+        <v>-2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>-3745.59</v>
+        <v>61.75</v>
       </c>
       <c r="S9" t="n">
-        <v>-3770.01</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2015-01-01 02:00:00+00:00</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>410.07</v>
@@ -1031,51 +1055,53 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>2.13</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>9600.360000000001</v>
+        <v>179.03</v>
       </c>
       <c r="I10" t="n">
-        <v>0.32</v>
+        <v>16.93</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9399999999999999</v>
+        <v>-213.58</v>
       </c>
       <c r="K10" t="n">
-        <v>26.66</v>
+        <v>23.66</v>
       </c>
       <c r="L10" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M10" t="n">
-        <v>2.03</v>
+        <v>1.81</v>
       </c>
       <c r="N10" t="n">
-        <v>3.47</v>
+        <v>2.54</v>
       </c>
       <c r="O10" t="n">
-        <v>5544.56</v>
+        <v>2.38</v>
       </c>
       <c r="P10" t="n">
-        <v>4.38</v>
+        <v>14.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.53</v>
+        <v>-2.02</v>
       </c>
       <c r="R10" t="n">
-        <v>-5471.9</v>
+        <v>62.63</v>
       </c>
       <c r="S10" t="n">
-        <v>-5498.56</v>
+        <v>38.97</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2015-01-01 02:15:00+00:00</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>1499.08</v>
@@ -1092,51 +1118,53 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09</v>
+        <v>2.56</v>
       </c>
       <c r="G11" t="n">
-        <v>498.39</v>
+        <v>998.39</v>
       </c>
       <c r="H11" t="n">
-        <v>9600.799999999999</v>
+        <v>182.87</v>
       </c>
       <c r="I11" t="n">
-        <v>0.72</v>
+        <v>20.35</v>
       </c>
       <c r="J11" t="n">
-        <v>-2.94</v>
+        <v>-297.3</v>
       </c>
       <c r="K11" t="n">
-        <v>24.56</v>
+        <v>23.29</v>
       </c>
       <c r="L11" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M11" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="N11" t="n">
         <v>2.3</v>
       </c>
       <c r="O11" t="n">
-        <v>3834.75</v>
+        <v>2.43</v>
       </c>
       <c r="P11" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.68</v>
+        <v>-2.3</v>
       </c>
       <c r="R11" t="n">
-        <v>-3766.93</v>
+        <v>61.75</v>
       </c>
       <c r="S11" t="n">
-        <v>-3791.49</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2015-01-01 02:30:00+00:00</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>1588.75</v>
@@ -1153,51 +1181,53 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09</v>
+        <v>2.56</v>
       </c>
       <c r="G12" t="n">
-        <v>588.0599999999999</v>
+        <v>1088.06</v>
       </c>
       <c r="H12" t="n">
-        <v>9600.799999999999</v>
+        <v>182.87</v>
       </c>
       <c r="I12" t="n">
-        <v>0.72</v>
+        <v>20.35</v>
       </c>
       <c r="J12" t="n">
-        <v>-2.94</v>
+        <v>-297.3</v>
       </c>
       <c r="K12" t="n">
-        <v>24.56</v>
+        <v>23.29</v>
       </c>
       <c r="L12" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M12" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="N12" t="n">
         <v>2.3</v>
       </c>
       <c r="O12" t="n">
-        <v>3834.75</v>
+        <v>2.43</v>
       </c>
       <c r="P12" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.68</v>
+        <v>-2.3</v>
       </c>
       <c r="R12" t="n">
-        <v>-3766.93</v>
+        <v>61.75</v>
       </c>
       <c r="S12" t="n">
-        <v>-3791.49</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2015-01-01 02:45:00+00:00</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>1097.97</v>
@@ -1214,51 +1244,53 @@
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09</v>
+        <v>2.56</v>
       </c>
       <c r="G13" t="n">
-        <v>97.28</v>
+        <v>597.28</v>
       </c>
       <c r="H13" t="n">
-        <v>9600.799999999999</v>
+        <v>182.87</v>
       </c>
       <c r="I13" t="n">
-        <v>0.72</v>
+        <v>20.35</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.94</v>
+        <v>-297.3</v>
       </c>
       <c r="K13" t="n">
-        <v>24.56</v>
+        <v>23.29</v>
       </c>
       <c r="L13" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M13" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="N13" t="n">
         <v>2.3</v>
       </c>
       <c r="O13" t="n">
-        <v>3834.75</v>
+        <v>2.43</v>
       </c>
       <c r="P13" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.68</v>
+        <v>-2.3</v>
       </c>
       <c r="R13" t="n">
-        <v>-3766.93</v>
+        <v>61.75</v>
       </c>
       <c r="S13" t="n">
-        <v>-3791.49</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2015-01-01 03:00:00+00:00</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>241.88</v>
@@ -1275,51 +1307,53 @@
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02</v>
+        <v>1.29</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9600.18</v>
+        <v>171.52</v>
       </c>
       <c r="I14" t="n">
-        <v>0.16</v>
+        <v>10.25</v>
       </c>
       <c r="J14" t="n">
-        <v>1.61</v>
+        <v>-86.59</v>
       </c>
       <c r="K14" t="n">
-        <v>22.62</v>
+        <v>24.32</v>
       </c>
       <c r="L14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M14" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="N14" t="n">
-        <v>4.59</v>
+        <v>3.21</v>
       </c>
       <c r="O14" t="n">
-        <v>9010.809999999999</v>
+        <v>2.92</v>
       </c>
       <c r="P14" t="n">
-        <v>2.79</v>
+        <v>9.93</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>-1.39</v>
       </c>
       <c r="R14" t="n">
-        <v>-8950.809999999999</v>
+        <v>63.3</v>
       </c>
       <c r="S14" t="n">
-        <v>-8973.43</v>
+        <v>38.98</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2015-01-01 03:15:00+00:00</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>1499.08</v>
@@ -1336,51 +1370,53 @@
         <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09</v>
+        <v>2.56</v>
       </c>
       <c r="G15" t="n">
-        <v>498.39</v>
+        <v>998.39</v>
       </c>
       <c r="H15" t="n">
-        <v>9600.799999999999</v>
+        <v>182.87</v>
       </c>
       <c r="I15" t="n">
-        <v>0.72</v>
+        <v>20.35</v>
       </c>
       <c r="J15" t="n">
-        <v>-2.94</v>
+        <v>-297.3</v>
       </c>
       <c r="K15" t="n">
-        <v>24.56</v>
+        <v>23.29</v>
       </c>
       <c r="L15" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M15" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="N15" t="n">
         <v>2.3</v>
       </c>
       <c r="O15" t="n">
-        <v>3834.75</v>
+        <v>2.43</v>
       </c>
       <c r="P15" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.68</v>
+        <v>-2.3</v>
       </c>
       <c r="R15" t="n">
-        <v>-3766.93</v>
+        <v>61.75</v>
       </c>
       <c r="S15" t="n">
-        <v>-3791.49</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2015-01-01 03:30:00+00:00</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>1097.97</v>
@@ -1397,51 +1433,53 @@
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09</v>
+        <v>2.56</v>
       </c>
       <c r="G16" t="n">
-        <v>97.28</v>
+        <v>597.28</v>
       </c>
       <c r="H16" t="n">
-        <v>9600.799999999999</v>
+        <v>182.87</v>
       </c>
       <c r="I16" t="n">
-        <v>0.72</v>
+        <v>20.35</v>
       </c>
       <c r="J16" t="n">
-        <v>-2.94</v>
+        <v>-297.3</v>
       </c>
       <c r="K16" t="n">
-        <v>24.56</v>
+        <v>23.29</v>
       </c>
       <c r="L16" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M16" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="N16" t="n">
         <v>2.3</v>
       </c>
       <c r="O16" t="n">
-        <v>3834.75</v>
+        <v>2.43</v>
       </c>
       <c r="P16" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.68</v>
+        <v>-2.3</v>
       </c>
       <c r="R16" t="n">
-        <v>-3766.93</v>
+        <v>61.75</v>
       </c>
       <c r="S16" t="n">
-        <v>-3791.49</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2015-01-01 03:45:00+00:00</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>678.27</v>
@@ -1458,51 +1496,53 @@
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06</v>
+        <v>2.56</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>177.59</v>
       </c>
       <c r="H17" t="n">
-        <v>9600.540000000001</v>
+        <v>182.87</v>
       </c>
       <c r="I17" t="n">
-        <v>0.48</v>
+        <v>20.35</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.57</v>
+        <v>-297.3</v>
       </c>
       <c r="K17" t="n">
-        <v>24.16</v>
+        <v>23.29</v>
       </c>
       <c r="L17" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M17" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="N17" t="n">
-        <v>2.74</v>
+        <v>2.3</v>
       </c>
       <c r="O17" t="n">
-        <v>4061.73</v>
+        <v>2.43</v>
       </c>
       <c r="P17" t="n">
-        <v>6.35</v>
+        <v>16.45</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.2</v>
+        <v>-2.3</v>
       </c>
       <c r="R17" t="n">
-        <v>-3995.48</v>
+        <v>61.75</v>
       </c>
       <c r="S17" t="n">
-        <v>-4019.64</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2015-01-01 04:00:00+00:00</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>185.82</v>
@@ -1519,51 +1559,53 @@
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02</v>
+        <v>0.99</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>9600.18</v>
+        <v>168.84</v>
       </c>
       <c r="I18" t="n">
-        <v>0.16</v>
+        <v>7.87</v>
       </c>
       <c r="J18" t="n">
-        <v>1.78</v>
+        <v>-54.13</v>
       </c>
       <c r="K18" t="n">
-        <v>29.47</v>
+        <v>24.31</v>
       </c>
       <c r="L18" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M18" t="n">
-        <v>2.25</v>
+        <v>1.86</v>
       </c>
       <c r="N18" t="n">
-        <v>5.16</v>
+        <v>3.65</v>
       </c>
       <c r="O18" t="n">
-        <v>11791.84</v>
+        <v>3.55</v>
       </c>
       <c r="P18" t="n">
-        <v>2.14</v>
+        <v>8.09</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.23</v>
+        <v>-1.13</v>
       </c>
       <c r="R18" t="n">
-        <v>-11712.86</v>
+        <v>62.21</v>
       </c>
       <c r="S18" t="n">
-        <v>-11742.33</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2015-01-01 04:15:00+00:00</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>1299.63</v>
@@ -1580,51 +1622,53 @@
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09</v>
+        <v>2.56</v>
       </c>
       <c r="G19" t="n">
-        <v>298.94</v>
+        <v>798.9400000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>9600.799999999999</v>
+        <v>182.87</v>
       </c>
       <c r="I19" t="n">
-        <v>0.72</v>
+        <v>20.35</v>
       </c>
       <c r="J19" t="n">
-        <v>-2.94</v>
+        <v>-297.3</v>
       </c>
       <c r="K19" t="n">
-        <v>24.56</v>
+        <v>23.29</v>
       </c>
       <c r="L19" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M19" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="N19" t="n">
         <v>2.3</v>
       </c>
       <c r="O19" t="n">
-        <v>3834.75</v>
+        <v>2.43</v>
       </c>
       <c r="P19" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.68</v>
+        <v>-2.3</v>
       </c>
       <c r="R19" t="n">
-        <v>-3766.93</v>
+        <v>61.75</v>
       </c>
       <c r="S19" t="n">
-        <v>-3791.49</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>0</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2015-01-01 04:30:00+00:00</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>1588.75</v>
@@ -1641,51 +1685,53 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09</v>
+        <v>2.56</v>
       </c>
       <c r="G20" t="n">
-        <v>588.0599999999999</v>
+        <v>1088.06</v>
       </c>
       <c r="H20" t="n">
-        <v>9600.799999999999</v>
+        <v>182.87</v>
       </c>
       <c r="I20" t="n">
-        <v>0.72</v>
+        <v>20.35</v>
       </c>
       <c r="J20" t="n">
-        <v>-2.94</v>
+        <v>-297.3</v>
       </c>
       <c r="K20" t="n">
-        <v>24.56</v>
+        <v>23.29</v>
       </c>
       <c r="L20" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M20" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="N20" t="n">
         <v>2.3</v>
       </c>
       <c r="O20" t="n">
-        <v>3834.75</v>
+        <v>2.43</v>
       </c>
       <c r="P20" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.68</v>
+        <v>-2.3</v>
       </c>
       <c r="R20" t="n">
-        <v>-3766.93</v>
+        <v>61.75</v>
       </c>
       <c r="S20" t="n">
-        <v>-3791.49</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>0</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2015-01-01 04:45:00+00:00</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>73.69</v>
@@ -1695,53 +1741,53 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>production</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="G21" t="n">
-        <v>73.18000000000001</v>
-      </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>163.22</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>-8.51</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>22.37</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>-0.45</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>49.47</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>27.1</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Heat Cell [%]</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>heat system [%]</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>electrolyzer {%]</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>gasdrying {%]</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>electronics [%]</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>pump [%]</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>compression [%]</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>electrolyzer {%]</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>gasdrying {%]</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>electromics [%]</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>pump [%]</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Heat Cell [%]</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>heat system [%]</t>
-        </is>
-      </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
           <t>efficiency [%]</t>
@@ -531,10 +531,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2015-01-01 00:00:00+00:00</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>785.67</v>
@@ -566,25 +564,25 @@
         <v>-297.3</v>
       </c>
       <c r="K2" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Q2" t="n">
         <v>23.29</v>
-      </c>
-      <c r="L2" t="n">
-        <v>32</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="P2" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-2.3</v>
       </c>
       <c r="R2" t="n">
         <v>61.75</v>
@@ -594,10 +592,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2015-01-01 00:15:00+00:00</t>
-        </is>
+      <c r="A3" t="n">
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>1499.08</v>
@@ -629,25 +625,25 @@
         <v>-297.3</v>
       </c>
       <c r="K3" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>32</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Q3" t="n">
         <v>23.29</v>
-      </c>
-      <c r="L3" t="n">
-        <v>32</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="P3" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-2.3</v>
       </c>
       <c r="R3" t="n">
         <v>61.75</v>
@@ -657,10 +653,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2015-01-01 00:30:00+00:00</t>
-        </is>
+      <c r="A4" t="n">
+        <v>0</v>
       </c>
       <c r="B4" t="n">
         <v>1697.51</v>
@@ -692,25 +686,25 @@
         <v>-297.3</v>
       </c>
       <c r="K4" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>32</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Q4" t="n">
         <v>23.29</v>
-      </c>
-      <c r="L4" t="n">
-        <v>32</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>-2.3</v>
       </c>
       <c r="R4" t="n">
         <v>61.75</v>
@@ -720,10 +714,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2015-01-01 00:45:00+00:00</t>
-        </is>
+      <c r="A5" t="n">
+        <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>410.07</v>
@@ -755,25 +747,25 @@
         <v>-213.58</v>
       </c>
       <c r="K5" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="M5" t="n">
+        <v>31</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q5" t="n">
         <v>23.66</v>
-      </c>
-      <c r="L5" t="n">
-        <v>31</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="P5" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-2.02</v>
       </c>
       <c r="R5" t="n">
         <v>62.63</v>
@@ -783,10 +775,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2015-01-01 01:00:00+00:00</t>
-        </is>
+      <c r="A6" t="n">
+        <v>0</v>
       </c>
       <c r="B6" t="n">
         <v>185.82</v>
@@ -818,25 +808,25 @@
         <v>-54.13</v>
       </c>
       <c r="K6" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="M6" t="n">
+        <v>29</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q6" t="n">
         <v>24.31</v>
-      </c>
-      <c r="L6" t="n">
-        <v>29</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="P6" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-1.13</v>
       </c>
       <c r="R6" t="n">
         <v>62.21</v>
@@ -846,10 +836,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2015-01-01 01:15:00+00:00</t>
-        </is>
+      <c r="A7" t="n">
+        <v>0</v>
       </c>
       <c r="B7" t="n">
         <v>73.69</v>
@@ -881,25 +869,25 @@
         <v>-8.51</v>
       </c>
       <c r="K7" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="M7" t="n">
+        <v>34</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="Q7" t="n">
         <v>22.37</v>
-      </c>
-      <c r="L7" t="n">
-        <v>34</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="O7" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>-0.45</v>
       </c>
       <c r="R7" t="n">
         <v>49.47</v>
@@ -909,10 +897,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2015-01-01 01:30:00+00:00</t>
-        </is>
+      <c r="A8" t="n">
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>241.88</v>
@@ -944,25 +930,25 @@
         <v>-86.59</v>
       </c>
       <c r="K8" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="M8" t="n">
+        <v>29</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q8" t="n">
         <v>24.32</v>
-      </c>
-      <c r="L8" t="n">
-        <v>29</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="P8" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>-1.39</v>
       </c>
       <c r="R8" t="n">
         <v>63.3</v>
@@ -972,10 +958,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2015-01-01 01:45:00+00:00</t>
-        </is>
+      <c r="A9" t="n">
+        <v>0</v>
       </c>
       <c r="B9" t="n">
         <v>894.62</v>
@@ -1007,25 +991,25 @@
         <v>-297.3</v>
       </c>
       <c r="K9" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>32</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Q9" t="n">
         <v>23.29</v>
-      </c>
-      <c r="L9" t="n">
-        <v>32</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="P9" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-2.3</v>
       </c>
       <c r="R9" t="n">
         <v>61.75</v>
@@ -1035,10 +1019,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2015-01-01 02:00:00+00:00</t>
-        </is>
+      <c r="A10" t="n">
+        <v>0</v>
       </c>
       <c r="B10" t="n">
         <v>410.07</v>
@@ -1070,25 +1052,25 @@
         <v>-213.58</v>
       </c>
       <c r="K10" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="M10" t="n">
+        <v>31</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q10" t="n">
         <v>23.66</v>
-      </c>
-      <c r="L10" t="n">
-        <v>31</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="P10" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>-2.02</v>
       </c>
       <c r="R10" t="n">
         <v>62.63</v>
@@ -1098,10 +1080,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2015-01-01 02:15:00+00:00</t>
-        </is>
+      <c r="A11" t="n">
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>1499.08</v>
@@ -1133,25 +1113,25 @@
         <v>-297.3</v>
       </c>
       <c r="K11" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>32</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Q11" t="n">
         <v>23.29</v>
-      </c>
-      <c r="L11" t="n">
-        <v>32</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="P11" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>-2.3</v>
       </c>
       <c r="R11" t="n">
         <v>61.75</v>
@@ -1161,10 +1141,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2015-01-01 02:30:00+00:00</t>
-        </is>
+      <c r="A12" t="n">
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>1588.75</v>
@@ -1196,25 +1174,25 @@
         <v>-297.3</v>
       </c>
       <c r="K12" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>32</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Q12" t="n">
         <v>23.29</v>
-      </c>
-      <c r="L12" t="n">
-        <v>32</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="P12" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-2.3</v>
       </c>
       <c r="R12" t="n">
         <v>61.75</v>
@@ -1224,10 +1202,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2015-01-01 02:45:00+00:00</t>
-        </is>
+      <c r="A13" t="n">
+        <v>0</v>
       </c>
       <c r="B13" t="n">
         <v>1097.97</v>
@@ -1259,25 +1235,25 @@
         <v>-297.3</v>
       </c>
       <c r="K13" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>32</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Q13" t="n">
         <v>23.29</v>
-      </c>
-      <c r="L13" t="n">
-        <v>32</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="P13" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>-2.3</v>
       </c>
       <c r="R13" t="n">
         <v>61.75</v>
@@ -1287,10 +1263,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2015-01-01 03:00:00+00:00</t>
-        </is>
+      <c r="A14" t="n">
+        <v>0</v>
       </c>
       <c r="B14" t="n">
         <v>241.88</v>
@@ -1322,25 +1296,25 @@
         <v>-86.59</v>
       </c>
       <c r="K14" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="M14" t="n">
+        <v>29</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q14" t="n">
         <v>24.32</v>
-      </c>
-      <c r="L14" t="n">
-        <v>29</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="P14" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>-1.39</v>
       </c>
       <c r="R14" t="n">
         <v>63.3</v>
@@ -1350,10 +1324,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2015-01-01 03:15:00+00:00</t>
-        </is>
+      <c r="A15" t="n">
+        <v>0</v>
       </c>
       <c r="B15" t="n">
         <v>1499.08</v>
@@ -1385,25 +1357,25 @@
         <v>-297.3</v>
       </c>
       <c r="K15" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>32</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Q15" t="n">
         <v>23.29</v>
-      </c>
-      <c r="L15" t="n">
-        <v>32</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="P15" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>-2.3</v>
       </c>
       <c r="R15" t="n">
         <v>61.75</v>
@@ -1413,10 +1385,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2015-01-01 03:30:00+00:00</t>
-        </is>
+      <c r="A16" t="n">
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>1097.97</v>
@@ -1448,25 +1418,25 @@
         <v>-297.3</v>
       </c>
       <c r="K16" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>32</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Q16" t="n">
         <v>23.29</v>
-      </c>
-      <c r="L16" t="n">
-        <v>32</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="P16" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-2.3</v>
       </c>
       <c r="R16" t="n">
         <v>61.75</v>
@@ -1476,10 +1446,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2015-01-01 03:45:00+00:00</t>
-        </is>
+      <c r="A17" t="n">
+        <v>0</v>
       </c>
       <c r="B17" t="n">
         <v>678.27</v>
@@ -1511,25 +1479,25 @@
         <v>-297.3</v>
       </c>
       <c r="K17" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>32</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Q17" t="n">
         <v>23.29</v>
-      </c>
-      <c r="L17" t="n">
-        <v>32</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="P17" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>-2.3</v>
       </c>
       <c r="R17" t="n">
         <v>61.75</v>
@@ -1539,10 +1507,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2015-01-01 04:00:00+00:00</t>
-        </is>
+      <c r="A18" t="n">
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>185.82</v>
@@ -1574,25 +1540,25 @@
         <v>-54.13</v>
       </c>
       <c r="K18" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="M18" t="n">
+        <v>29</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q18" t="n">
         <v>24.31</v>
-      </c>
-      <c r="L18" t="n">
-        <v>29</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="P18" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>-1.13</v>
       </c>
       <c r="R18" t="n">
         <v>62.21</v>
@@ -1602,10 +1568,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2015-01-01 04:15:00+00:00</t>
-        </is>
+      <c r="A19" t="n">
+        <v>0</v>
       </c>
       <c r="B19" t="n">
         <v>1299.63</v>
@@ -1637,25 +1601,25 @@
         <v>-297.3</v>
       </c>
       <c r="K19" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>32</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Q19" t="n">
         <v>23.29</v>
-      </c>
-      <c r="L19" t="n">
-        <v>32</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="P19" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>-2.3</v>
       </c>
       <c r="R19" t="n">
         <v>61.75</v>
@@ -1665,10 +1629,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2015-01-01 04:30:00+00:00</t>
-        </is>
+      <c r="A20" t="n">
+        <v>0</v>
       </c>
       <c r="B20" t="n">
         <v>1588.75</v>
@@ -1700,25 +1662,25 @@
         <v>-297.3</v>
       </c>
       <c r="K20" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>32</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Q20" t="n">
         <v>23.29</v>
-      </c>
-      <c r="L20" t="n">
-        <v>32</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="P20" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>-2.3</v>
       </c>
       <c r="R20" t="n">
         <v>61.75</v>
@@ -1728,10 +1690,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2015-01-01 04:45:00+00:00</t>
-        </is>
+      <c r="A21" t="n">
+        <v>0</v>
       </c>
       <c r="B21" t="n">
         <v>73.69</v>
@@ -1763,25 +1723,25 @@
         <v>-8.51</v>
       </c>
       <c r="K21" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="M21" t="n">
+        <v>34</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="P21" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="Q21" t="n">
         <v>22.37</v>
-      </c>
-      <c r="L21" t="n">
-        <v>34</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="N21" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="O21" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>-0.45</v>
       </c>
       <c r="R21" t="n">
         <v>49.47</v>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,19 +549,19 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>2.56</v>
+        <v>0.17</v>
       </c>
       <c r="G2" t="n">
         <v>284.99</v>
       </c>
       <c r="H2" t="n">
-        <v>182.87</v>
+        <v>1.52</v>
       </c>
       <c r="I2" t="n">
-        <v>20.35</v>
+        <v>1.35</v>
       </c>
       <c r="J2" t="n">
-        <v>-297.3</v>
+        <v>-19.82</v>
       </c>
       <c r="K2" t="n">
         <v>16.45</v>
@@ -573,22 +573,22 @@
         <v>32</v>
       </c>
       <c r="N2" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O2" t="n">
         <v>2.3</v>
       </c>
       <c r="P2" t="n">
-        <v>2.43</v>
+        <v>0.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.29</v>
+        <v>23.2</v>
       </c>
       <c r="R2" t="n">
-        <v>61.75</v>
+        <v>63.62</v>
       </c>
       <c r="S2" t="n">
-        <v>38.46</v>
+        <v>40.42</v>
       </c>
     </row>
     <row r="3">
@@ -610,19 +610,19 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>2.56</v>
+        <v>0.17</v>
       </c>
       <c r="G3" t="n">
         <v>998.39</v>
       </c>
       <c r="H3" t="n">
-        <v>182.87</v>
+        <v>1.52</v>
       </c>
       <c r="I3" t="n">
-        <v>20.35</v>
+        <v>1.35</v>
       </c>
       <c r="J3" t="n">
-        <v>-297.3</v>
+        <v>-19.82</v>
       </c>
       <c r="K3" t="n">
         <v>16.45</v>
@@ -634,22 +634,22 @@
         <v>32</v>
       </c>
       <c r="N3" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O3" t="n">
         <v>2.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2.43</v>
+        <v>0.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>23.29</v>
+        <v>23.2</v>
       </c>
       <c r="R3" t="n">
-        <v>61.75</v>
+        <v>63.62</v>
       </c>
       <c r="S3" t="n">
-        <v>38.46</v>
+        <v>40.42</v>
       </c>
     </row>
     <row r="4">
@@ -671,19 +671,19 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>0.17</v>
       </c>
       <c r="G4" t="n">
         <v>1196.82</v>
       </c>
       <c r="H4" t="n">
-        <v>182.87</v>
+        <v>1.52</v>
       </c>
       <c r="I4" t="n">
-        <v>20.35</v>
+        <v>1.35</v>
       </c>
       <c r="J4" t="n">
-        <v>-297.3</v>
+        <v>-19.82</v>
       </c>
       <c r="K4" t="n">
         <v>16.45</v>
@@ -695,22 +695,22 @@
         <v>32</v>
       </c>
       <c r="N4" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O4" t="n">
         <v>2.3</v>
       </c>
       <c r="P4" t="n">
-        <v>2.43</v>
+        <v>0.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.29</v>
+        <v>23.2</v>
       </c>
       <c r="R4" t="n">
-        <v>61.75</v>
+        <v>63.62</v>
       </c>
       <c r="S4" t="n">
-        <v>38.46</v>
+        <v>40.42</v>
       </c>
     </row>
     <row r="5">
@@ -732,19 +732,19 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>2.13</v>
+        <v>0.14</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>179.03</v>
+        <v>1.25</v>
       </c>
       <c r="I5" t="n">
-        <v>16.93</v>
+        <v>1.11</v>
       </c>
       <c r="J5" t="n">
-        <v>-213.58</v>
+        <v>-14.24</v>
       </c>
       <c r="K5" t="n">
         <v>14.44</v>
@@ -753,25 +753,25 @@
         <v>-2.02</v>
       </c>
       <c r="M5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="O5" t="n">
         <v>2.54</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>0.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>23.66</v>
+        <v>23.33</v>
       </c>
       <c r="R5" t="n">
-        <v>62.63</v>
+        <v>63.82</v>
       </c>
       <c r="S5" t="n">
-        <v>38.97</v>
+        <v>40.49</v>
       </c>
     </row>
     <row r="6">
@@ -793,19 +793,19 @@
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.99</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>168.84</v>
+        <v>0.63</v>
       </c>
       <c r="I6" t="n">
-        <v>7.87</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>-54.13</v>
+        <v>-3.61</v>
       </c>
       <c r="K6" t="n">
         <v>8.09</v>
@@ -814,25 +814,25 @@
         <v>-1.13</v>
       </c>
       <c r="M6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N6" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="O6" t="n">
         <v>3.65</v>
       </c>
       <c r="P6" t="n">
-        <v>3.55</v>
+        <v>0.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>24.31</v>
+        <v>25.79</v>
       </c>
       <c r="R6" t="n">
-        <v>62.21</v>
+        <v>69.77</v>
       </c>
       <c r="S6" t="n">
-        <v>37.9</v>
+        <v>43.98</v>
       </c>
     </row>
     <row r="7">
@@ -854,19 +854,19 @@
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>163.22</v>
+        <v>0.18</v>
       </c>
       <c r="I7" t="n">
-        <v>2.86</v>
+        <v>0.16</v>
       </c>
       <c r="J7" t="n">
-        <v>-8.51</v>
+        <v>-0.57</v>
       </c>
       <c r="K7" t="n">
         <v>3.23</v>
@@ -875,25 +875,25 @@
         <v>-0.45</v>
       </c>
       <c r="M7" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="O7" t="n">
         <v>5.88</v>
       </c>
       <c r="P7" t="n">
-        <v>8.529999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.37</v>
+        <v>18.65</v>
       </c>
       <c r="R7" t="n">
-        <v>49.47</v>
+        <v>47.21</v>
       </c>
       <c r="S7" t="n">
-        <v>27.1</v>
+        <v>28.56</v>
       </c>
     </row>
     <row r="8">
@@ -915,19 +915,19 @@
         <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>1.29</v>
+        <v>0.09</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>171.52</v>
+        <v>0.8</v>
       </c>
       <c r="I8" t="n">
-        <v>10.25</v>
+        <v>0.72</v>
       </c>
       <c r="J8" t="n">
-        <v>-86.59</v>
+        <v>-5.77</v>
       </c>
       <c r="K8" t="n">
         <v>9.93</v>
@@ -936,25 +936,25 @@
         <v>-1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="O8" t="n">
         <v>3.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.92</v>
+        <v>0.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>24.32</v>
+        <v>25.45</v>
       </c>
       <c r="R8" t="n">
-        <v>63.3</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>38.98</v>
+        <v>43.81</v>
       </c>
     </row>
     <row r="9">
@@ -976,19 +976,19 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>2.56</v>
+        <v>0.17</v>
       </c>
       <c r="G9" t="n">
         <v>393.94</v>
       </c>
       <c r="H9" t="n">
-        <v>182.87</v>
+        <v>1.52</v>
       </c>
       <c r="I9" t="n">
-        <v>20.35</v>
+        <v>1.35</v>
       </c>
       <c r="J9" t="n">
-        <v>-297.3</v>
+        <v>-19.82</v>
       </c>
       <c r="K9" t="n">
         <v>16.45</v>
@@ -1000,22 +1000,22 @@
         <v>32</v>
       </c>
       <c r="N9" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O9" t="n">
         <v>2.3</v>
       </c>
       <c r="P9" t="n">
-        <v>2.43</v>
+        <v>0.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>23.29</v>
+        <v>23.2</v>
       </c>
       <c r="R9" t="n">
-        <v>61.75</v>
+        <v>63.62</v>
       </c>
       <c r="S9" t="n">
-        <v>38.46</v>
+        <v>40.42</v>
       </c>
     </row>
     <row r="10">
@@ -1037,19 +1037,19 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>2.13</v>
+        <v>0.14</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>179.03</v>
+        <v>1.25</v>
       </c>
       <c r="I10" t="n">
-        <v>16.93</v>
+        <v>1.11</v>
       </c>
       <c r="J10" t="n">
-        <v>-213.58</v>
+        <v>-14.24</v>
       </c>
       <c r="K10" t="n">
         <v>14.44</v>
@@ -1058,25 +1058,25 @@
         <v>-2.02</v>
       </c>
       <c r="M10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="O10" t="n">
         <v>2.54</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>0.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.66</v>
+        <v>23.33</v>
       </c>
       <c r="R10" t="n">
-        <v>62.63</v>
+        <v>63.82</v>
       </c>
       <c r="S10" t="n">
-        <v>38.97</v>
+        <v>40.49</v>
       </c>
     </row>
     <row r="11">
@@ -1098,19 +1098,19 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>2.56</v>
+        <v>0.17</v>
       </c>
       <c r="G11" t="n">
         <v>998.39</v>
       </c>
       <c r="H11" t="n">
-        <v>182.87</v>
+        <v>1.52</v>
       </c>
       <c r="I11" t="n">
-        <v>20.35</v>
+        <v>1.35</v>
       </c>
       <c r="J11" t="n">
-        <v>-297.3</v>
+        <v>-19.82</v>
       </c>
       <c r="K11" t="n">
         <v>16.45</v>
@@ -1122,632 +1122,22 @@
         <v>32</v>
       </c>
       <c r="N11" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O11" t="n">
         <v>2.3</v>
       </c>
       <c r="P11" t="n">
-        <v>2.43</v>
+        <v>0.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.29</v>
+        <v>23.2</v>
       </c>
       <c r="R11" t="n">
-        <v>61.75</v>
+        <v>63.62</v>
       </c>
       <c r="S11" t="n">
-        <v>38.46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1588.75</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1588.06</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1088.06</v>
-      </c>
-      <c r="H12" t="n">
-        <v>182.87</v>
-      </c>
-      <c r="I12" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-297.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>32</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="R12" t="n">
-        <v>61.75</v>
-      </c>
-      <c r="S12" t="n">
-        <v>38.46</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1097.97</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1097.28</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="G13" t="n">
-        <v>597.28</v>
-      </c>
-      <c r="H13" t="n">
-        <v>182.87</v>
-      </c>
-      <c r="I13" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-297.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>32</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="R13" t="n">
-        <v>61.75</v>
-      </c>
-      <c r="S13" t="n">
-        <v>38.46</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>241.88</v>
-      </c>
-      <c r="C14" t="n">
-        <v>241.24</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>171.52</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-86.59</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-1.39</v>
-      </c>
-      <c r="M14" t="n">
-        <v>29</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>24.32</v>
-      </c>
-      <c r="R14" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>38.98</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1499.08</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1498.39</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="G15" t="n">
-        <v>998.39</v>
-      </c>
-      <c r="H15" t="n">
-        <v>182.87</v>
-      </c>
-      <c r="I15" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-297.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="M15" t="n">
-        <v>32</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="R15" t="n">
-        <v>61.75</v>
-      </c>
-      <c r="S15" t="n">
-        <v>38.46</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1097.97</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1097.28</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="G16" t="n">
-        <v>597.28</v>
-      </c>
-      <c r="H16" t="n">
-        <v>182.87</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-297.3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>32</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="R16" t="n">
-        <v>61.75</v>
-      </c>
-      <c r="S16" t="n">
-        <v>38.46</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>678.27</v>
-      </c>
-      <c r="C17" t="n">
-        <v>677.59</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="G17" t="n">
-        <v>177.59</v>
-      </c>
-      <c r="H17" t="n">
-        <v>182.87</v>
-      </c>
-      <c r="I17" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-297.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>32</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="R17" t="n">
-        <v>61.75</v>
-      </c>
-      <c r="S17" t="n">
-        <v>38.46</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>185.82</v>
-      </c>
-      <c r="C18" t="n">
-        <v>185.19</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>168.84</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-54.13</v>
-      </c>
-      <c r="K18" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-1.13</v>
-      </c>
-      <c r="M18" t="n">
-        <v>29</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="R18" t="n">
-        <v>62.21</v>
-      </c>
-      <c r="S18" t="n">
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1299.63</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1298.94</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="G19" t="n">
-        <v>798.9400000000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>182.87</v>
-      </c>
-      <c r="I19" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="J19" t="n">
-        <v>-297.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="M19" t="n">
-        <v>32</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="R19" t="n">
-        <v>61.75</v>
-      </c>
-      <c r="S19" t="n">
-        <v>38.46</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1588.75</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1588.06</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1088.06</v>
-      </c>
-      <c r="H20" t="n">
-        <v>182.87</v>
-      </c>
-      <c r="I20" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="J20" t="n">
-        <v>-297.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="M20" t="n">
-        <v>32</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="R20" t="n">
-        <v>61.75</v>
-      </c>
-      <c r="S20" t="n">
-        <v>38.46</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>0</v>
-      </c>
-      <c r="B21" t="n">
-        <v>73.69</v>
-      </c>
-      <c r="C21" t="n">
-        <v>73.18000000000001</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>163.22</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-8.51</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-0.45</v>
-      </c>
-      <c r="M21" t="n">
-        <v>34</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="O21" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="P21" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>22.37</v>
-      </c>
-      <c r="R21" t="n">
-        <v>49.47</v>
-      </c>
-      <c r="S21" t="n">
-        <v>27.1</v>
+        <v>40.42</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,19 +549,19 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.17</v>
+        <v>2.68</v>
       </c>
       <c r="G2" t="n">
         <v>284.99</v>
       </c>
       <c r="H2" t="n">
-        <v>1.52</v>
+        <v>23.94</v>
       </c>
       <c r="I2" t="n">
-        <v>1.35</v>
+        <v>21.3</v>
       </c>
       <c r="J2" t="n">
-        <v>-19.82</v>
+        <v>-311.21</v>
       </c>
       <c r="K2" t="n">
         <v>16.45</v>
@@ -573,7 +573,7 @@
         <v>32</v>
       </c>
       <c r="N2" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O2" t="n">
         <v>2.3</v>
@@ -582,13 +582,13 @@
         <v>0.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.2</v>
+        <v>33.41</v>
       </c>
       <c r="R2" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S2" t="n">
-        <v>40.42</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="3">
@@ -610,19 +610,19 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.17</v>
+        <v>2.68</v>
       </c>
       <c r="G3" t="n">
         <v>998.39</v>
       </c>
       <c r="H3" t="n">
-        <v>1.52</v>
+        <v>23.94</v>
       </c>
       <c r="I3" t="n">
-        <v>1.35</v>
+        <v>21.3</v>
       </c>
       <c r="J3" t="n">
-        <v>-19.82</v>
+        <v>-311.21</v>
       </c>
       <c r="K3" t="n">
         <v>16.45</v>
@@ -634,7 +634,7 @@
         <v>32</v>
       </c>
       <c r="N3" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O3" t="n">
         <v>2.3</v>
@@ -643,13 +643,13 @@
         <v>0.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>23.2</v>
+        <v>33.41</v>
       </c>
       <c r="R3" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S3" t="n">
-        <v>40.42</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="4">
@@ -671,19 +671,19 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.17</v>
+        <v>2.68</v>
       </c>
       <c r="G4" t="n">
         <v>1196.82</v>
       </c>
       <c r="H4" t="n">
-        <v>1.52</v>
+        <v>23.94</v>
       </c>
       <c r="I4" t="n">
-        <v>1.35</v>
+        <v>21.3</v>
       </c>
       <c r="J4" t="n">
-        <v>-19.82</v>
+        <v>-311.21</v>
       </c>
       <c r="K4" t="n">
         <v>16.45</v>
@@ -695,7 +695,7 @@
         <v>32</v>
       </c>
       <c r="N4" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O4" t="n">
         <v>2.3</v>
@@ -704,13 +704,13 @@
         <v>0.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.2</v>
+        <v>33.41</v>
       </c>
       <c r="R4" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S4" t="n">
-        <v>40.42</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="5">
@@ -732,19 +732,19 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.14</v>
+        <v>2.23</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.25</v>
+        <v>19.92</v>
       </c>
       <c r="I5" t="n">
-        <v>1.11</v>
+        <v>17.73</v>
       </c>
       <c r="J5" t="n">
-        <v>-14.24</v>
+        <v>-223.58</v>
       </c>
       <c r="K5" t="n">
         <v>14.44</v>
@@ -753,10 +753,10 @@
         <v>-2.02</v>
       </c>
       <c r="M5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="O5" t="n">
         <v>2.54</v>
@@ -765,13 +765,13 @@
         <v>0.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>23.33</v>
+        <v>33.95</v>
       </c>
       <c r="R5" t="n">
-        <v>63.82</v>
+        <v>64.78</v>
       </c>
       <c r="S5" t="n">
-        <v>40.49</v>
+        <v>30.83</v>
       </c>
     </row>
     <row r="6">
@@ -793,19 +793,19 @@
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.63</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5600000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.61</v>
+        <v>-56.69</v>
       </c>
       <c r="K6" t="n">
         <v>8.09</v>
@@ -814,25 +814,25 @@
         <v>-1.13</v>
       </c>
       <c r="M6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N6" t="n">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="O6" t="n">
         <v>3.65</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.79</v>
+        <v>34.66</v>
       </c>
       <c r="R6" t="n">
-        <v>69.77</v>
+        <v>65.17</v>
       </c>
       <c r="S6" t="n">
-        <v>43.98</v>
+        <v>30.51</v>
       </c>
     </row>
     <row r="7">
@@ -854,19 +854,19 @@
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.37</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.18</v>
+        <v>3.31</v>
       </c>
       <c r="I7" t="n">
-        <v>0.16</v>
+        <v>2.94</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.57</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="K7" t="n">
         <v>3.23</v>
@@ -875,25 +875,25 @@
         <v>-0.45</v>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N7" t="n">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="O7" t="n">
         <v>5.88</v>
       </c>
       <c r="P7" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.65</v>
+        <v>31.51</v>
       </c>
       <c r="R7" t="n">
-        <v>47.21</v>
+        <v>56.67</v>
       </c>
       <c r="S7" t="n">
-        <v>28.56</v>
+        <v>25.16</v>
       </c>
     </row>
     <row r="8">
@@ -915,19 +915,19 @@
         <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09</v>
+        <v>1.35</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8</v>
+        <v>12.06</v>
       </c>
       <c r="I8" t="n">
-        <v>0.72</v>
+        <v>10.73</v>
       </c>
       <c r="J8" t="n">
-        <v>-5.77</v>
+        <v>-90.66</v>
       </c>
       <c r="K8" t="n">
         <v>9.93</v>
@@ -936,10 +936,10 @@
         <v>-1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N8" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="O8" t="n">
         <v>3.21</v>
@@ -948,13 +948,13 @@
         <v>0.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.45</v>
+        <v>34.88</v>
       </c>
       <c r="R8" t="n">
-        <v>69.26000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>43.81</v>
+        <v>31.13</v>
       </c>
     </row>
     <row r="9">
@@ -976,19 +976,19 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.17</v>
+        <v>2.68</v>
       </c>
       <c r="G9" t="n">
         <v>393.94</v>
       </c>
       <c r="H9" t="n">
-        <v>1.52</v>
+        <v>23.94</v>
       </c>
       <c r="I9" t="n">
-        <v>1.35</v>
+        <v>21.3</v>
       </c>
       <c r="J9" t="n">
-        <v>-19.82</v>
+        <v>-311.21</v>
       </c>
       <c r="K9" t="n">
         <v>16.45</v>
@@ -1000,7 +1000,7 @@
         <v>32</v>
       </c>
       <c r="N9" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O9" t="n">
         <v>2.3</v>
@@ -1009,13 +1009,13 @@
         <v>0.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>23.2</v>
+        <v>33.41</v>
       </c>
       <c r="R9" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S9" t="n">
-        <v>40.42</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="10">
@@ -1037,19 +1037,19 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.14</v>
+        <v>2.23</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.25</v>
+        <v>19.92</v>
       </c>
       <c r="I10" t="n">
-        <v>1.11</v>
+        <v>17.73</v>
       </c>
       <c r="J10" t="n">
-        <v>-14.24</v>
+        <v>-223.58</v>
       </c>
       <c r="K10" t="n">
         <v>14.44</v>
@@ -1058,10 +1058,10 @@
         <v>-2.02</v>
       </c>
       <c r="M10" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="O10" t="n">
         <v>2.54</v>
@@ -1070,13 +1070,13 @@
         <v>0.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.33</v>
+        <v>33.95</v>
       </c>
       <c r="R10" t="n">
-        <v>63.82</v>
+        <v>64.78</v>
       </c>
       <c r="S10" t="n">
-        <v>40.49</v>
+        <v>30.83</v>
       </c>
     </row>
     <row r="11">
@@ -1098,19 +1098,19 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.17</v>
+        <v>2.68</v>
       </c>
       <c r="G11" t="n">
         <v>998.39</v>
       </c>
       <c r="H11" t="n">
-        <v>1.52</v>
+        <v>23.94</v>
       </c>
       <c r="I11" t="n">
-        <v>1.35</v>
+        <v>21.3</v>
       </c>
       <c r="J11" t="n">
-        <v>-19.82</v>
+        <v>-311.21</v>
       </c>
       <c r="K11" t="n">
         <v>16.45</v>
@@ -1122,7 +1122,7 @@
         <v>32</v>
       </c>
       <c r="N11" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O11" t="n">
         <v>2.3</v>
@@ -1131,13 +1131,2453 @@
         <v>0.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.2</v>
+        <v>33.41</v>
       </c>
       <c r="R11" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S11" t="n">
-        <v>40.42</v>
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1588.75</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1588.06</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1088.06</v>
+      </c>
+      <c r="H12" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I12" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K12" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>32</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R12" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S12" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1097.97</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1097.28</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G13" t="n">
+        <v>597.28</v>
+      </c>
+      <c r="H13" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I13" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K13" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>32</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R13" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S13" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>241.88</v>
+      </c>
+      <c r="C14" t="n">
+        <v>241.24</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-90.66</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="M14" t="n">
+        <v>29</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>34.88</v>
+      </c>
+      <c r="R14" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="S14" t="n">
+        <v>31.13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1499.08</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1498.39</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G15" t="n">
+        <v>998.39</v>
+      </c>
+      <c r="H15" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I15" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K15" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>32</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R15" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S15" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1097.97</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1097.28</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G16" t="n">
+        <v>597.28</v>
+      </c>
+      <c r="H16" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I16" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K16" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>32</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R16" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S16" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>678.27</v>
+      </c>
+      <c r="C17" t="n">
+        <v>677.59</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G17" t="n">
+        <v>177.59</v>
+      </c>
+      <c r="H17" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K17" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>32</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R17" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S17" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>185.82</v>
+      </c>
+      <c r="C18" t="n">
+        <v>185.19</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-56.69</v>
+      </c>
+      <c r="K18" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="M18" t="n">
+        <v>29</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>34.66</v>
+      </c>
+      <c r="R18" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="S18" t="n">
+        <v>30.51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1299.63</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1298.94</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G19" t="n">
+        <v>798.9400000000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I19" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K19" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>32</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R19" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S19" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1588.75</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1588.06</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1088.06</v>
+      </c>
+      <c r="H20" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I20" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K20" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>32</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R20" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S20" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>73.69</v>
+      </c>
+      <c r="C21" t="n">
+        <v>73.18000000000001</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-8.949999999999999</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="M21" t="n">
+        <v>36</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="R21" t="n">
+        <v>56.67</v>
+      </c>
+      <c r="S21" t="n">
+        <v>25.16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>241.88</v>
+      </c>
+      <c r="C22" t="n">
+        <v>241.24</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-90.66</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="M22" t="n">
+        <v>29</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>34.88</v>
+      </c>
+      <c r="R22" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="S22" t="n">
+        <v>31.13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>410.07</v>
+      </c>
+      <c r="C23" t="n">
+        <v>409.4</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="I23" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-223.58</v>
+      </c>
+      <c r="K23" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="M23" t="n">
+        <v>31</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>33.95</v>
+      </c>
+      <c r="R23" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="S23" t="n">
+        <v>30.83</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1396.64</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1395.95</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G24" t="n">
+        <v>895.95</v>
+      </c>
+      <c r="H24" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I24" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K24" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>32</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R24" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S24" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>894.62</v>
+      </c>
+      <c r="C25" t="n">
+        <v>893.9400000000001</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G25" t="n">
+        <v>393.94</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I25" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K25" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>32</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R25" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S25" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>993.85</v>
+      </c>
+      <c r="C26" t="n">
+        <v>993.16</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G26" t="n">
+        <v>493.16</v>
+      </c>
+      <c r="H26" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I26" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K26" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>32</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R26" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S26" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1299.63</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1298.94</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G27" t="n">
+        <v>798.9400000000001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I27" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K27" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>32</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R27" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S27" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>297.94</v>
+      </c>
+      <c r="C28" t="n">
+        <v>297.29</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="I28" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-130.17</v>
+      </c>
+      <c r="K28" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="M28" t="n">
+        <v>29</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>34.59</v>
+      </c>
+      <c r="R28" t="n">
+        <v>65.75</v>
+      </c>
+      <c r="S28" t="n">
+        <v>31.16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>hot standby</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1396.64</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1395.95</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1391.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1499.08</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1498.39</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G31" t="n">
+        <v>998.39</v>
+      </c>
+      <c r="H31" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I31" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K31" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>32</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R31" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S31" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1588.75</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1588.06</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1088.06</v>
+      </c>
+      <c r="H32" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I32" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K32" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M32" t="n">
+        <v>32</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R32" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S32" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2349.96</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2349.27</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1849.27</v>
+      </c>
+      <c r="H33" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I33" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K33" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>32</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R33" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S33" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5039.02</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5038.32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4538.32</v>
+      </c>
+      <c r="H34" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I34" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K34" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M34" t="n">
+        <v>32</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R34" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S34" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6299.2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6298.5</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5798.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I35" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K35" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>32</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R35" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S35" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3684.43</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3683.73</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3183.73</v>
+      </c>
+      <c r="H36" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I36" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K36" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>32</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R36" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S36" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3875.43</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3874.73</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3374.73</v>
+      </c>
+      <c r="H37" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I37" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K37" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>32</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R37" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S37" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7260.34</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7259.64</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6759.64</v>
+      </c>
+      <c r="H38" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I38" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K38" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M38" t="n">
+        <v>32</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R38" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S38" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>hot standby</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>hot standby</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>hot standby</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>cold standby</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>410.07</v>
+      </c>
+      <c r="C43" t="n">
+        <v>409.4</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>405.15</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1396.64</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1395.95</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1391.7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3108.37</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3107.67</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2607.67</v>
+      </c>
+      <c r="H45" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I45" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K45" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M45" t="n">
+        <v>32</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R45" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S45" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4415.54</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4414.84</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3914.84</v>
+      </c>
+      <c r="H46" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I46" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K46" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>32</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R46" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S46" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3493.03</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3492.33</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2992.33</v>
+      </c>
+      <c r="H47" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I47" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K47" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M47" t="n">
+        <v>32</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R47" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S47" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5668.84</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5668.14</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>4</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5168.14</v>
+      </c>
+      <c r="H48" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I48" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K48" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M48" t="n">
+        <v>32</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R48" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S48" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4415.54</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4414.84</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3914.84</v>
+      </c>
+      <c r="H49" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I49" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K49" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M49" t="n">
+        <v>32</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R49" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S49" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>11066.59</v>
+      </c>
+      <c r="C50" t="n">
+        <v>11065.89</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G50" t="n">
+        <v>10565.89</v>
+      </c>
+      <c r="H50" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I50" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K50" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M50" t="n">
+        <v>32</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R50" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S50" t="n">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>9335.299999999999</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9334.6</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G51" t="n">
+        <v>8834.6</v>
+      </c>
+      <c r="H51" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I51" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-311.21</v>
+      </c>
+      <c r="K51" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M51" t="n">
+        <v>32</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="R51" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="S51" t="n">
+        <v>30.48</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -535,10 +535,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>785.67</v>
+        <v>7856658.97</v>
       </c>
       <c r="C2" t="n">
-        <v>784.99</v>
+        <v>7856658.27</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -549,25 +549,25 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G2" t="n">
-        <v>284.99</v>
+        <v>7756658.27</v>
       </c>
       <c r="H2" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I2" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J2" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K2" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M2" t="n">
         <v>32</v>
@@ -582,13 +582,13 @@
         <v>0.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R2" t="n">
         <v>63.89</v>
       </c>
       <c r="S2" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="3">
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1499.08</v>
+        <v>14990844.69</v>
       </c>
       <c r="C3" t="n">
-        <v>1498.39</v>
+        <v>14990843.99</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -610,25 +610,25 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G3" t="n">
-        <v>998.39</v>
+        <v>14890843.99</v>
       </c>
       <c r="H3" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I3" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J3" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K3" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M3" t="n">
         <v>32</v>
@@ -643,13 +643,13 @@
         <v>0.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R3" t="n">
         <v>63.89</v>
       </c>
       <c r="S3" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="4">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1697.51</v>
+        <v>16975143.57</v>
       </c>
       <c r="C4" t="n">
-        <v>1696.82</v>
+        <v>16975142.87</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -671,25 +671,25 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G4" t="n">
-        <v>1196.82</v>
+        <v>16875142.87</v>
       </c>
       <c r="H4" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I4" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J4" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K4" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M4" t="n">
         <v>32</v>
@@ -704,13 +704,13 @@
         <v>0.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R4" t="n">
         <v>63.89</v>
       </c>
       <c r="S4" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="5">
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>410.07</v>
+        <v>4100650.32</v>
       </c>
       <c r="C5" t="n">
-        <v>409.4</v>
+        <v>4100649.62</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -732,46 +732,46 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>2.23</v>
+        <v>49158.23</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4000649.62</v>
       </c>
       <c r="H5" t="n">
-        <v>19.92</v>
+        <v>439156.61</v>
       </c>
       <c r="I5" t="n">
-        <v>17.73</v>
+        <v>390782.77</v>
       </c>
       <c r="J5" t="n">
-        <v>-223.58</v>
+        <v>-28452.57</v>
       </c>
       <c r="K5" t="n">
-        <v>14.44</v>
+        <v>0.08</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.02</v>
+        <v>-0.01</v>
       </c>
       <c r="M5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="O5" t="n">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="P5" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>33.95</v>
+        <v>33.4</v>
       </c>
       <c r="R5" t="n">
-        <v>64.78</v>
+        <v>63.89</v>
       </c>
       <c r="S5" t="n">
-        <v>30.83</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="6">
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>185.82</v>
+        <v>1858162.17</v>
       </c>
       <c r="C6" t="n">
-        <v>185.19</v>
+        <v>1858161.47</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -793,46 +793,46 @@
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>1.03</v>
+        <v>49158.23</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1758161.47</v>
       </c>
       <c r="H6" t="n">
-        <v>9.199999999999999</v>
+        <v>439156.61</v>
       </c>
       <c r="I6" t="n">
-        <v>8.19</v>
+        <v>390782.77</v>
       </c>
       <c r="J6" t="n">
-        <v>-56.69</v>
+        <v>-28452.57</v>
       </c>
       <c r="K6" t="n">
-        <v>8.09</v>
+        <v>0.08</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.13</v>
+        <v>-0.01</v>
       </c>
       <c r="M6" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N6" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="O6" t="n">
-        <v>3.65</v>
+        <v>2.3</v>
       </c>
       <c r="P6" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.66</v>
+        <v>33.4</v>
       </c>
       <c r="R6" t="n">
-        <v>65.17</v>
+        <v>63.89</v>
       </c>
       <c r="S6" t="n">
-        <v>30.51</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>73.69</v>
+        <v>736856.74</v>
       </c>
       <c r="C7" t="n">
-        <v>73.18000000000001</v>
+        <v>736856.04</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -854,46 +854,46 @@
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.37</v>
+        <v>49158.23</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>636856.04</v>
       </c>
       <c r="H7" t="n">
-        <v>3.31</v>
+        <v>439156.61</v>
       </c>
       <c r="I7" t="n">
-        <v>2.94</v>
+        <v>390782.77</v>
       </c>
       <c r="J7" t="n">
-        <v>-8.949999999999999</v>
+        <v>-28452.57</v>
       </c>
       <c r="K7" t="n">
-        <v>3.23</v>
+        <v>0.08</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.45</v>
+        <v>-0.01</v>
       </c>
       <c r="M7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N7" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="O7" t="n">
-        <v>5.88</v>
+        <v>2.3</v>
       </c>
       <c r="P7" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.51</v>
+        <v>33.4</v>
       </c>
       <c r="R7" t="n">
-        <v>56.67</v>
+        <v>63.89</v>
       </c>
       <c r="S7" t="n">
-        <v>25.16</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="8">
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>241.88</v>
+        <v>2418800.7</v>
       </c>
       <c r="C8" t="n">
-        <v>241.24</v>
+        <v>2418800</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -915,46 +915,46 @@
         <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>1.35</v>
+        <v>49158.23</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2318800</v>
       </c>
       <c r="H8" t="n">
-        <v>12.06</v>
+        <v>439156.61</v>
       </c>
       <c r="I8" t="n">
-        <v>10.73</v>
+        <v>390782.77</v>
       </c>
       <c r="J8" t="n">
-        <v>-90.66</v>
+        <v>-28452.57</v>
       </c>
       <c r="K8" t="n">
-        <v>9.93</v>
+        <v>0.08</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.39</v>
+        <v>-0.01</v>
       </c>
       <c r="M8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N8" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="O8" t="n">
-        <v>3.21</v>
+        <v>2.3</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>34.88</v>
+        <v>33.4</v>
       </c>
       <c r="R8" t="n">
-        <v>66.01000000000001</v>
+        <v>63.89</v>
       </c>
       <c r="S8" t="n">
-        <v>31.13</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="9">
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>894.62</v>
+        <v>8946219.539999999</v>
       </c>
       <c r="C9" t="n">
-        <v>893.9400000000001</v>
+        <v>8946218.84</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -976,25 +976,25 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G9" t="n">
-        <v>393.94</v>
+        <v>8846218.84</v>
       </c>
       <c r="H9" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I9" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J9" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K9" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L9" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M9" t="n">
         <v>32</v>
@@ -1009,13 +1009,13 @@
         <v>0.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R9" t="n">
         <v>63.89</v>
       </c>
       <c r="S9" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="10">
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>410.07</v>
+        <v>4100650.32</v>
       </c>
       <c r="C10" t="n">
-        <v>409.4</v>
+        <v>4100649.62</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1037,46 +1037,46 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>2.23</v>
+        <v>49158.23</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4000649.62</v>
       </c>
       <c r="H10" t="n">
-        <v>19.92</v>
+        <v>439156.61</v>
       </c>
       <c r="I10" t="n">
-        <v>17.73</v>
+        <v>390782.77</v>
       </c>
       <c r="J10" t="n">
-        <v>-223.58</v>
+        <v>-28452.57</v>
       </c>
       <c r="K10" t="n">
-        <v>14.44</v>
+        <v>0.08</v>
       </c>
       <c r="L10" t="n">
-        <v>-2.02</v>
+        <v>-0.01</v>
       </c>
       <c r="M10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="O10" t="n">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="P10" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>33.95</v>
+        <v>33.4</v>
       </c>
       <c r="R10" t="n">
-        <v>64.78</v>
+        <v>63.89</v>
       </c>
       <c r="S10" t="n">
-        <v>30.83</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="11">
@@ -1084,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1499.08</v>
+        <v>14990844.69</v>
       </c>
       <c r="C11" t="n">
-        <v>1498.39</v>
+        <v>14990843.99</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1098,25 +1098,25 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G11" t="n">
-        <v>998.39</v>
+        <v>14890843.99</v>
       </c>
       <c r="H11" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I11" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J11" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K11" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M11" t="n">
         <v>32</v>
@@ -1131,13 +1131,13 @@
         <v>0.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R11" t="n">
         <v>63.89</v>
       </c>
       <c r="S11" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="12">
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1588.75</v>
+        <v>15887487.48</v>
       </c>
       <c r="C12" t="n">
-        <v>1588.06</v>
+        <v>15887486.78</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1159,25 +1159,25 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G12" t="n">
-        <v>1088.06</v>
+        <v>15787486.78</v>
       </c>
       <c r="H12" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I12" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J12" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K12" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M12" t="n">
         <v>32</v>
@@ -1192,13 +1192,13 @@
         <v>0.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R12" t="n">
         <v>63.89</v>
       </c>
       <c r="S12" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="13">
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1097.97</v>
+        <v>10979741.01</v>
       </c>
       <c r="C13" t="n">
-        <v>1097.28</v>
+        <v>10979740.31</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1220,25 +1220,25 @@
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G13" t="n">
-        <v>597.28</v>
+        <v>10879740.31</v>
       </c>
       <c r="H13" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I13" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J13" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K13" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L13" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M13" t="n">
         <v>32</v>
@@ -1253,13 +1253,13 @@
         <v>0.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R13" t="n">
         <v>63.89</v>
       </c>
       <c r="S13" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="14">
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>241.88</v>
+        <v>2418800.7</v>
       </c>
       <c r="C14" t="n">
-        <v>241.24</v>
+        <v>2418800</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1281,46 +1281,46 @@
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>1.35</v>
+        <v>49158.23</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2318800</v>
       </c>
       <c r="H14" t="n">
-        <v>12.06</v>
+        <v>439156.61</v>
       </c>
       <c r="I14" t="n">
-        <v>10.73</v>
+        <v>390782.77</v>
       </c>
       <c r="J14" t="n">
-        <v>-90.66</v>
+        <v>-28452.57</v>
       </c>
       <c r="K14" t="n">
-        <v>9.93</v>
+        <v>0.08</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.39</v>
+        <v>-0.01</v>
       </c>
       <c r="M14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N14" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="O14" t="n">
-        <v>3.21</v>
+        <v>2.3</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>34.88</v>
+        <v>33.4</v>
       </c>
       <c r="R14" t="n">
-        <v>66.01000000000001</v>
+        <v>63.89</v>
       </c>
       <c r="S14" t="n">
-        <v>31.13</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="15">
@@ -1328,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1499.08</v>
+        <v>14990844.69</v>
       </c>
       <c r="C15" t="n">
-        <v>1498.39</v>
+        <v>14990843.99</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1342,25 +1342,25 @@
         <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G15" t="n">
-        <v>998.39</v>
+        <v>14890843.99</v>
       </c>
       <c r="H15" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I15" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J15" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K15" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L15" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M15" t="n">
         <v>32</v>
@@ -1375,13 +1375,13 @@
         <v>0.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R15" t="n">
         <v>63.89</v>
       </c>
       <c r="S15" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="16">
@@ -1389,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1097.97</v>
+        <v>10979741.01</v>
       </c>
       <c r="C16" t="n">
-        <v>1097.28</v>
+        <v>10979740.31</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1403,25 +1403,25 @@
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G16" t="n">
-        <v>597.28</v>
+        <v>10879740.31</v>
       </c>
       <c r="H16" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I16" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J16" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K16" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L16" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M16" t="n">
         <v>32</v>
@@ -1436,13 +1436,13 @@
         <v>0.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R16" t="n">
         <v>63.89</v>
       </c>
       <c r="S16" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="17">
@@ -1450,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>678.27</v>
+        <v>6782671.84</v>
       </c>
       <c r="C17" t="n">
-        <v>677.59</v>
+        <v>6782671.14</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1464,25 +1464,25 @@
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G17" t="n">
-        <v>177.59</v>
+        <v>6682671.14</v>
       </c>
       <c r="H17" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I17" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J17" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K17" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L17" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M17" t="n">
         <v>32</v>
@@ -1497,13 +1497,13 @@
         <v>0.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R17" t="n">
         <v>63.89</v>
       </c>
       <c r="S17" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="18">
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>185.82</v>
+        <v>1858162.17</v>
       </c>
       <c r="C18" t="n">
-        <v>185.19</v>
+        <v>1858161.47</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1525,46 +1525,46 @@
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>1.03</v>
+        <v>49158.23</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1758161.47</v>
       </c>
       <c r="H18" t="n">
-        <v>9.199999999999999</v>
+        <v>439156.61</v>
       </c>
       <c r="I18" t="n">
-        <v>8.19</v>
+        <v>390782.77</v>
       </c>
       <c r="J18" t="n">
-        <v>-56.69</v>
+        <v>-28452.57</v>
       </c>
       <c r="K18" t="n">
-        <v>8.09</v>
+        <v>0.08</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.13</v>
+        <v>-0.01</v>
       </c>
       <c r="M18" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N18" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="O18" t="n">
-        <v>3.65</v>
+        <v>2.3</v>
       </c>
       <c r="P18" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.66</v>
+        <v>33.4</v>
       </c>
       <c r="R18" t="n">
-        <v>65.17</v>
+        <v>63.89</v>
       </c>
       <c r="S18" t="n">
-        <v>30.51</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="19">
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1299.63</v>
+        <v>12996331.29</v>
       </c>
       <c r="C19" t="n">
-        <v>1298.94</v>
+        <v>12996330.59</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1586,25 +1586,25 @@
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G19" t="n">
-        <v>798.9400000000001</v>
+        <v>12896330.59</v>
       </c>
       <c r="H19" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I19" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J19" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K19" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L19" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M19" t="n">
         <v>32</v>
@@ -1619,13 +1619,13 @@
         <v>0.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R19" t="n">
         <v>63.89</v>
       </c>
       <c r="S19" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="20">
@@ -1633,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1588.75</v>
+        <v>15887487.48</v>
       </c>
       <c r="C20" t="n">
-        <v>1588.06</v>
+        <v>15887486.78</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1647,25 +1647,25 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G20" t="n">
-        <v>1088.06</v>
+        <v>15787486.78</v>
       </c>
       <c r="H20" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I20" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J20" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K20" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L20" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M20" t="n">
         <v>32</v>
@@ -1680,13 +1680,13 @@
         <v>0.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R20" t="n">
         <v>63.89</v>
       </c>
       <c r="S20" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="21">
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>73.69</v>
+        <v>736856.74</v>
       </c>
       <c r="C21" t="n">
-        <v>73.18000000000001</v>
+        <v>736856.04</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1708,46 +1708,46 @@
         <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>0.37</v>
+        <v>49158.23</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>636856.04</v>
       </c>
       <c r="H21" t="n">
-        <v>3.31</v>
+        <v>439156.61</v>
       </c>
       <c r="I21" t="n">
-        <v>2.94</v>
+        <v>390782.77</v>
       </c>
       <c r="J21" t="n">
-        <v>-8.949999999999999</v>
+        <v>-28452.57</v>
       </c>
       <c r="K21" t="n">
-        <v>3.23</v>
+        <v>0.08</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.45</v>
+        <v>-0.01</v>
       </c>
       <c r="M21" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N21" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="O21" t="n">
-        <v>5.88</v>
+        <v>2.3</v>
       </c>
       <c r="P21" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>31.51</v>
+        <v>33.4</v>
       </c>
       <c r="R21" t="n">
-        <v>56.67</v>
+        <v>63.89</v>
       </c>
       <c r="S21" t="n">
-        <v>25.16</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="22">
@@ -1755,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>241.88</v>
+        <v>2418800.7</v>
       </c>
       <c r="C22" t="n">
-        <v>241.24</v>
+        <v>2418800</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,46 +1769,46 @@
         <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>1.35</v>
+        <v>49158.23</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2318800</v>
       </c>
       <c r="H22" t="n">
-        <v>12.06</v>
+        <v>439156.61</v>
       </c>
       <c r="I22" t="n">
-        <v>10.73</v>
+        <v>390782.77</v>
       </c>
       <c r="J22" t="n">
-        <v>-90.66</v>
+        <v>-28452.57</v>
       </c>
       <c r="K22" t="n">
-        <v>9.93</v>
+        <v>0.08</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.39</v>
+        <v>-0.01</v>
       </c>
       <c r="M22" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N22" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="O22" t="n">
-        <v>3.21</v>
+        <v>2.3</v>
       </c>
       <c r="P22" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.88</v>
+        <v>33.4</v>
       </c>
       <c r="R22" t="n">
-        <v>66.01000000000001</v>
+        <v>63.89</v>
       </c>
       <c r="S22" t="n">
-        <v>31.13</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="23">
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>410.07</v>
+        <v>4100650.32</v>
       </c>
       <c r="C23" t="n">
-        <v>409.4</v>
+        <v>4100649.62</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1830,46 +1830,46 @@
         <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>2.23</v>
+        <v>49158.23</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>4000649.62</v>
       </c>
       <c r="H23" t="n">
-        <v>19.92</v>
+        <v>439156.61</v>
       </c>
       <c r="I23" t="n">
-        <v>17.73</v>
+        <v>390782.77</v>
       </c>
       <c r="J23" t="n">
-        <v>-223.58</v>
+        <v>-28452.57</v>
       </c>
       <c r="K23" t="n">
-        <v>14.44</v>
+        <v>0.08</v>
       </c>
       <c r="L23" t="n">
-        <v>-2.02</v>
+        <v>-0.01</v>
       </c>
       <c r="M23" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N23" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="O23" t="n">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="P23" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.95</v>
+        <v>33.4</v>
       </c>
       <c r="R23" t="n">
-        <v>64.78</v>
+        <v>63.89</v>
       </c>
       <c r="S23" t="n">
-        <v>30.83</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="24">
@@ -1877,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1396.64</v>
+        <v>13966357.87</v>
       </c>
       <c r="C24" t="n">
-        <v>1395.95</v>
+        <v>13966357.17</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1891,25 +1891,25 @@
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G24" t="n">
-        <v>895.95</v>
+        <v>13866357.17</v>
       </c>
       <c r="H24" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I24" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J24" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K24" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M24" t="n">
         <v>32</v>
@@ -1924,13 +1924,13 @@
         <v>0.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R24" t="n">
         <v>63.89</v>
       </c>
       <c r="S24" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="25">
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>894.62</v>
+        <v>8946219.539999999</v>
       </c>
       <c r="C25" t="n">
-        <v>893.9400000000001</v>
+        <v>8946218.84</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1952,25 +1952,25 @@
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G25" t="n">
-        <v>393.94</v>
+        <v>8846218.84</v>
       </c>
       <c r="H25" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I25" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J25" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K25" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L25" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M25" t="n">
         <v>32</v>
@@ -1985,13 +1985,13 @@
         <v>0.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R25" t="n">
         <v>63.89</v>
       </c>
       <c r="S25" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="26">
@@ -1999,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>993.85</v>
+        <v>9938457.76</v>
       </c>
       <c r="C26" t="n">
-        <v>993.16</v>
+        <v>9938457.060000001</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2013,25 +2013,25 @@
         <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G26" t="n">
-        <v>493.16</v>
+        <v>9838457.060000001</v>
       </c>
       <c r="H26" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I26" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J26" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K26" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L26" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M26" t="n">
         <v>32</v>
@@ -2046,13 +2046,13 @@
         <v>0.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R26" t="n">
         <v>63.89</v>
       </c>
       <c r="S26" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="27">
@@ -2060,10 +2060,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1299.63</v>
+        <v>12996331.29</v>
       </c>
       <c r="C27" t="n">
-        <v>1298.94</v>
+        <v>12996330.59</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2074,25 +2074,25 @@
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G27" t="n">
-        <v>798.9400000000001</v>
+        <v>12896330.59</v>
       </c>
       <c r="H27" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I27" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J27" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K27" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L27" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M27" t="n">
         <v>32</v>
@@ -2107,13 +2107,13 @@
         <v>0.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R27" t="n">
         <v>63.89</v>
       </c>
       <c r="S27" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="28">
@@ -2121,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>297.94</v>
+        <v>2979426.3</v>
       </c>
       <c r="C28" t="n">
-        <v>297.29</v>
+        <v>2979425.6</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2135,46 +2135,46 @@
         <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>1.65</v>
+        <v>49158.23</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2879425.6</v>
       </c>
       <c r="H28" t="n">
-        <v>14.74</v>
+        <v>439156.61</v>
       </c>
       <c r="I28" t="n">
-        <v>13.12</v>
+        <v>390782.77</v>
       </c>
       <c r="J28" t="n">
-        <v>-130.17</v>
+        <v>-28452.57</v>
       </c>
       <c r="K28" t="n">
-        <v>11.57</v>
+        <v>0.08</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.62</v>
+        <v>-0.01</v>
       </c>
       <c r="M28" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N28" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="O28" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="P28" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>34.59</v>
+        <v>33.4</v>
       </c>
       <c r="R28" t="n">
-        <v>65.75</v>
+        <v>63.89</v>
       </c>
       <c r="S28" t="n">
-        <v>31.16</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="29">
@@ -2189,11 +2189,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>1396.64</v>
+        <v>13966357.87</v>
       </c>
       <c r="C30" t="n">
-        <v>1395.95</v>
+        <v>13966357.17</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1391.7</v>
+        <v>13965507.17</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>1499.08</v>
+        <v>14990844.69</v>
       </c>
       <c r="C31" t="n">
-        <v>1498.39</v>
+        <v>14990843.99</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2318,25 +2318,25 @@
         <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G31" t="n">
-        <v>998.39</v>
+        <v>14890843.99</v>
       </c>
       <c r="H31" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I31" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J31" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K31" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M31" t="n">
         <v>32</v>
@@ -2351,13 +2351,13 @@
         <v>0.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R31" t="n">
         <v>63.89</v>
       </c>
       <c r="S31" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="32">
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>1588.75</v>
+        <v>15887487.48</v>
       </c>
       <c r="C32" t="n">
-        <v>1588.06</v>
+        <v>15887486.78</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,25 +2379,25 @@
         <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G32" t="n">
-        <v>1088.06</v>
+        <v>15787486.78</v>
       </c>
       <c r="H32" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I32" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J32" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K32" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L32" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M32" t="n">
         <v>32</v>
@@ -2412,13 +2412,13 @@
         <v>0.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R32" t="n">
         <v>63.89</v>
       </c>
       <c r="S32" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="33">
@@ -2426,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>2349.96</v>
+        <v>23499559.11</v>
       </c>
       <c r="C33" t="n">
-        <v>2349.27</v>
+        <v>23499558.41</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2440,25 +2440,25 @@
         <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G33" t="n">
-        <v>1849.27</v>
+        <v>23399558.41</v>
       </c>
       <c r="H33" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I33" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J33" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K33" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L33" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M33" t="n">
         <v>32</v>
@@ -2473,13 +2473,13 @@
         <v>0.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R33" t="n">
         <v>63.89</v>
       </c>
       <c r="S33" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="34">
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>5039.02</v>
+        <v>50390221.73</v>
       </c>
       <c r="C34" t="n">
-        <v>5038.32</v>
+        <v>50390221.03</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2501,25 +2501,25 @@
         <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G34" t="n">
-        <v>4538.32</v>
+        <v>50290221.03</v>
       </c>
       <c r="H34" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I34" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J34" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K34" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M34" t="n">
         <v>32</v>
@@ -2534,13 +2534,13 @@
         <v>0.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R34" t="n">
         <v>63.89</v>
       </c>
       <c r="S34" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="35">
@@ -2548,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>6299.2</v>
+        <v>62992022.28</v>
       </c>
       <c r="C35" t="n">
-        <v>6298.5</v>
+        <v>62992021.58</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2562,25 +2562,25 @@
         <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G35" t="n">
-        <v>5798.5</v>
+        <v>62892021.58</v>
       </c>
       <c r="H35" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I35" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J35" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K35" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L35" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M35" t="n">
         <v>32</v>
@@ -2595,13 +2595,13 @@
         <v>0.3</v>
       </c>
       <c r="Q35" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R35" t="n">
         <v>63.89</v>
       </c>
       <c r="S35" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="36">
@@ -2609,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>3684.43</v>
+        <v>36844291.46</v>
       </c>
       <c r="C36" t="n">
-        <v>3683.73</v>
+        <v>36844290.76</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,25 +2623,25 @@
         <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G36" t="n">
-        <v>3183.73</v>
+        <v>36744290.76</v>
       </c>
       <c r="H36" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I36" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J36" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K36" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L36" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M36" t="n">
         <v>32</v>
@@ -2656,13 +2656,13 @@
         <v>0.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R36" t="n">
         <v>63.89</v>
       </c>
       <c r="S36" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="37">
@@ -2670,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>3875.43</v>
+        <v>38754330.64</v>
       </c>
       <c r="C37" t="n">
-        <v>3874.73</v>
+        <v>38754329.94</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2684,25 +2684,25 @@
         <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G37" t="n">
-        <v>3374.73</v>
+        <v>38654329.94</v>
       </c>
       <c r="H37" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I37" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J37" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K37" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L37" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M37" t="n">
         <v>32</v>
@@ -2717,13 +2717,13 @@
         <v>0.3</v>
       </c>
       <c r="Q37" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R37" t="n">
         <v>63.89</v>
       </c>
       <c r="S37" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="38">
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>7260.34</v>
+        <v>72603449.84999999</v>
       </c>
       <c r="C38" t="n">
-        <v>7259.64</v>
+        <v>72603449.15000001</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2745,25 +2745,25 @@
         <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G38" t="n">
-        <v>6759.64</v>
+        <v>72503449.15000001</v>
       </c>
       <c r="H38" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I38" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J38" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K38" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L38" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M38" t="n">
         <v>32</v>
@@ -2778,13 +2778,13 @@
         <v>0.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R38" t="n">
         <v>63.89</v>
       </c>
       <c r="S38" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="39">
@@ -2799,11 +2799,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -2860,11 +2860,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2921,11 +2921,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3036,10 +3036,10 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>410.07</v>
+        <v>4100650.32</v>
       </c>
       <c r="C43" t="n">
-        <v>409.4</v>
+        <v>4100649.62</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>405.15</v>
+        <v>4099799.62</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3097,60 +3097,60 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>1396.64</v>
+        <v>13966357.87</v>
       </c>
       <c r="C44" t="n">
-        <v>1395.95</v>
+        <v>13966357.17</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>49158.23</v>
       </c>
       <c r="G44" t="n">
-        <v>1391.7</v>
+        <v>13866357.17</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>439156.61</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>390782.77</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>-28452.57</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>33.4</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.89</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="45">
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>3108.37</v>
+        <v>31083729.95</v>
       </c>
       <c r="C45" t="n">
-        <v>3107.67</v>
+        <v>31083729.25</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3172,25 +3172,25 @@
         <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G45" t="n">
-        <v>2607.67</v>
+        <v>30983729.25</v>
       </c>
       <c r="H45" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I45" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J45" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K45" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L45" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M45" t="n">
         <v>32</v>
@@ -3205,13 +3205,13 @@
         <v>0.3</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R45" t="n">
         <v>63.89</v>
       </c>
       <c r="S45" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="46">
@@ -3219,10 +3219,10 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>4415.54</v>
+        <v>44155449.27</v>
       </c>
       <c r="C46" t="n">
-        <v>4414.84</v>
+        <v>44155448.57</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3233,25 +3233,25 @@
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G46" t="n">
-        <v>3914.84</v>
+        <v>44055448.57</v>
       </c>
       <c r="H46" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I46" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J46" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K46" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L46" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M46" t="n">
         <v>32</v>
@@ -3266,13 +3266,13 @@
         <v>0.3</v>
       </c>
       <c r="Q46" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R46" t="n">
         <v>63.89</v>
       </c>
       <c r="S46" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="47">
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>3493.03</v>
+        <v>34930286.97</v>
       </c>
       <c r="C47" t="n">
-        <v>3492.33</v>
+        <v>34930286.27</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3294,25 +3294,25 @@
         <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G47" t="n">
-        <v>2992.33</v>
+        <v>34830286.27</v>
       </c>
       <c r="H47" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I47" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J47" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K47" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L47" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M47" t="n">
         <v>32</v>
@@ -3327,13 +3327,13 @@
         <v>0.3</v>
       </c>
       <c r="Q47" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R47" t="n">
         <v>63.89</v>
       </c>
       <c r="S47" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="48">
@@ -3341,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>5668.84</v>
+        <v>56688435.74</v>
       </c>
       <c r="C48" t="n">
-        <v>5668.14</v>
+        <v>56688435.04</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,25 +3355,25 @@
         <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G48" t="n">
-        <v>5168.14</v>
+        <v>56588435.04</v>
       </c>
       <c r="H48" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I48" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J48" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K48" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L48" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M48" t="n">
         <v>32</v>
@@ -3388,13 +3388,13 @@
         <v>0.3</v>
       </c>
       <c r="Q48" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R48" t="n">
         <v>63.89</v>
       </c>
       <c r="S48" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="49">
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>4415.54</v>
+        <v>44155449.27</v>
       </c>
       <c r="C49" t="n">
-        <v>4414.84</v>
+        <v>44155448.57</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3416,25 +3416,25 @@
         <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G49" t="n">
-        <v>3914.84</v>
+        <v>44055448.57</v>
       </c>
       <c r="H49" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I49" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J49" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K49" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L49" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M49" t="n">
         <v>32</v>
@@ -3449,13 +3449,13 @@
         <v>0.3</v>
       </c>
       <c r="Q49" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R49" t="n">
         <v>63.89</v>
       </c>
       <c r="S49" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="50">
@@ -3463,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>11066.59</v>
+        <v>110665891.91</v>
       </c>
       <c r="C50" t="n">
-        <v>11065.89</v>
+        <v>110665891.21</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3477,25 +3477,25 @@
         <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G50" t="n">
-        <v>10565.89</v>
+        <v>110565891.21</v>
       </c>
       <c r="H50" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I50" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J50" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K50" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L50" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M50" t="n">
         <v>32</v>
@@ -3510,13 +3510,13 @@
         <v>0.3</v>
       </c>
       <c r="Q50" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R50" t="n">
         <v>63.89</v>
       </c>
       <c r="S50" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="51">
@@ -3524,10 +3524,10 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>9335.299999999999</v>
+        <v>93353046.48</v>
       </c>
       <c r="C51" t="n">
-        <v>9334.6</v>
+        <v>93353045.78</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3538,25 +3538,25 @@
         <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>2.68</v>
+        <v>49158.23</v>
       </c>
       <c r="G51" t="n">
-        <v>8834.6</v>
+        <v>93253045.78</v>
       </c>
       <c r="H51" t="n">
-        <v>23.94</v>
+        <v>439156.61</v>
       </c>
       <c r="I51" t="n">
-        <v>21.3</v>
+        <v>390782.77</v>
       </c>
       <c r="J51" t="n">
-        <v>-311.21</v>
+        <v>-28452.57</v>
       </c>
       <c r="K51" t="n">
-        <v>16.45</v>
+        <v>0.08</v>
       </c>
       <c r="L51" t="n">
-        <v>-2.3</v>
+        <v>-0.01</v>
       </c>
       <c r="M51" t="n">
         <v>32</v>
@@ -3571,13 +3571,13 @@
         <v>0.3</v>
       </c>
       <c r="Q51" t="n">
-        <v>33.41</v>
+        <v>33.4</v>
       </c>
       <c r="R51" t="n">
         <v>63.89</v>
       </c>
       <c r="S51" t="n">
-        <v>30.48</v>
+        <v>30.49</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -535,10 +535,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7856658.97</v>
+        <v>78566.59</v>
       </c>
       <c r="C2" t="n">
-        <v>7856658.27</v>
+        <v>78565.89</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -549,46 +549,46 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>49158.23</v>
+        <v>1679.15</v>
       </c>
       <c r="G2" t="n">
-        <v>7756658.27</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>439156.61</v>
+        <v>15000.74</v>
       </c>
       <c r="I2" t="n">
-        <v>390782.77</v>
+        <v>13348.38</v>
       </c>
       <c r="J2" t="n">
-        <v>-28452.57</v>
+        <v>-237.68</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N2" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O2" t="n">
-        <v>2.3</v>
+        <v>3.54</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.4</v>
+        <v>34.85</v>
       </c>
       <c r="R2" t="n">
-        <v>63.89</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>30.49</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="3">
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>14990844.69</v>
+        <v>149908.45</v>
       </c>
       <c r="C3" t="n">
-        <v>14990843.99</v>
+        <v>149907.75</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -610,46 +610,46 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>49158.23</v>
+        <v>3142.28</v>
       </c>
       <c r="G3" t="n">
-        <v>14890843.99</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>439156.61</v>
+        <v>28071.66</v>
       </c>
       <c r="I3" t="n">
-        <v>390782.77</v>
+        <v>24979.52</v>
       </c>
       <c r="J3" t="n">
-        <v>-28452.57</v>
+        <v>-731.0700000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="O3" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.4</v>
+        <v>34.18</v>
       </c>
       <c r="R3" t="n">
-        <v>63.89</v>
+        <v>65.17</v>
       </c>
       <c r="S3" t="n">
-        <v>30.49</v>
+        <v>30.99</v>
       </c>
     </row>
     <row r="4">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>16975143.57</v>
+        <v>169751.44</v>
       </c>
       <c r="C4" t="n">
-        <v>16975142.87</v>
+        <v>169750.74</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -671,46 +671,46 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>49158.23</v>
+        <v>3526.62</v>
       </c>
       <c r="G4" t="n">
-        <v>16875142.87</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>439156.61</v>
+        <v>31505.17</v>
       </c>
       <c r="I4" t="n">
-        <v>390782.77</v>
+        <v>28034.82</v>
       </c>
       <c r="J4" t="n">
-        <v>-28452.57</v>
+        <v>-900.53</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L4" t="n">
         <v>-0.01</v>
       </c>
       <c r="M4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.4</v>
+        <v>33.88</v>
       </c>
       <c r="R4" t="n">
-        <v>63.89</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>30.49</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="5">
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>4100650.32</v>
+        <v>41006.5</v>
       </c>
       <c r="C5" t="n">
-        <v>4100649.62</v>
+        <v>41005.8</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -732,46 +732,46 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.23</v>
+        <v>844.99</v>
       </c>
       <c r="G5" t="n">
-        <v>4000649.62</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>439156.61</v>
+        <v>7548.74</v>
       </c>
       <c r="I5" t="n">
-        <v>390782.77</v>
+        <v>6717.24</v>
       </c>
       <c r="J5" t="n">
-        <v>-28452.57</v>
+        <v>-68.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="O5" t="n">
-        <v>2.3</v>
+        <v>5.02</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="Q5" t="n">
-        <v>33.4</v>
+        <v>33.61</v>
       </c>
       <c r="R5" t="n">
-        <v>63.89</v>
+        <v>61.7</v>
       </c>
       <c r="S5" t="n">
-        <v>30.49</v>
+        <v>28.09</v>
       </c>
     </row>
     <row r="6">
@@ -779,60 +779,60 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1858162.17</v>
+        <v>18581.62</v>
       </c>
       <c r="C6" t="n">
-        <v>1858161.47</v>
+        <v>18580.92</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>49158.23</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1758161.47</v>
+        <v>18580.92</v>
       </c>
       <c r="H6" t="n">
-        <v>439156.61</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>390782.77</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-28452.57</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>33.4</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>63.89</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>30.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -840,60 +840,60 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>736856.74</v>
+        <v>7368.57</v>
       </c>
       <c r="C7" t="n">
-        <v>736856.04</v>
+        <v>7367.87</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>49158.23</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>636856.04</v>
+        <v>7367.87</v>
       </c>
       <c r="H7" t="n">
-        <v>439156.61</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>390782.77</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-28452.57</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.4</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>63.89</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>30.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -901,60 +901,60 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>2418800.7</v>
+        <v>24188.01</v>
       </c>
       <c r="C8" t="n">
-        <v>2418800</v>
+        <v>24187.31</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>49158.23</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2318800</v>
+        <v>22487.31</v>
       </c>
       <c r="H8" t="n">
-        <v>439156.61</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>390782.77</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-28452.57</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>33.4</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>63.89</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>30.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>8946219.539999999</v>
+        <v>89462.2</v>
       </c>
       <c r="C9" t="n">
-        <v>8946218.84</v>
+        <v>89461.5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -976,46 +976,46 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>49158.23</v>
+        <v>1911.91</v>
       </c>
       <c r="G9" t="n">
-        <v>8846218.84</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>439156.61</v>
+        <v>17080.11</v>
       </c>
       <c r="I9" t="n">
-        <v>390782.77</v>
+        <v>15198.71</v>
       </c>
       <c r="J9" t="n">
-        <v>-28452.57</v>
+        <v>-299.76</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N9" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O9" t="n">
-        <v>2.3</v>
+        <v>3.33</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="Q9" t="n">
-        <v>33.4</v>
+        <v>34.85</v>
       </c>
       <c r="R9" t="n">
-        <v>63.89</v>
+        <v>65.86</v>
       </c>
       <c r="S9" t="n">
-        <v>30.49</v>
+        <v>31.01</v>
       </c>
     </row>
     <row r="10">
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>4100650.32</v>
+        <v>41006.5</v>
       </c>
       <c r="C10" t="n">
-        <v>4100649.62</v>
+        <v>41005.8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1037,46 +1037,46 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>49158.23</v>
+        <v>844.99</v>
       </c>
       <c r="G10" t="n">
-        <v>4000649.62</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>439156.61</v>
+        <v>7548.74</v>
       </c>
       <c r="I10" t="n">
-        <v>390782.77</v>
+        <v>6717.24</v>
       </c>
       <c r="J10" t="n">
-        <v>-28452.57</v>
+        <v>-68.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="O10" t="n">
-        <v>2.3</v>
+        <v>5.02</v>
       </c>
       <c r="P10" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="Q10" t="n">
-        <v>33.4</v>
+        <v>33.61</v>
       </c>
       <c r="R10" t="n">
-        <v>63.89</v>
+        <v>61.7</v>
       </c>
       <c r="S10" t="n">
-        <v>30.49</v>
+        <v>28.09</v>
       </c>
     </row>
     <row r="11">
@@ -1084,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>14990844.69</v>
+        <v>149908.45</v>
       </c>
       <c r="C11" t="n">
-        <v>14990843.99</v>
+        <v>149907.75</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1098,46 +1098,46 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>49158.23</v>
+        <v>3142.28</v>
       </c>
       <c r="G11" t="n">
-        <v>14890843.99</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>439156.61</v>
+        <v>28071.66</v>
       </c>
       <c r="I11" t="n">
-        <v>390782.77</v>
+        <v>24979.52</v>
       </c>
       <c r="J11" t="n">
-        <v>-28452.57</v>
+        <v>-731.0700000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="O11" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.4</v>
+        <v>34.18</v>
       </c>
       <c r="R11" t="n">
-        <v>63.89</v>
+        <v>65.17</v>
       </c>
       <c r="S11" t="n">
-        <v>30.49</v>
+        <v>30.99</v>
       </c>
     </row>
     <row r="12">
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>15887487.48</v>
+        <v>158874.87</v>
       </c>
       <c r="C12" t="n">
-        <v>15887486.78</v>
+        <v>158874.17</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1159,46 +1159,46 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>49158.23</v>
+        <v>3317.04</v>
       </c>
       <c r="G12" t="n">
-        <v>15787486.78</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>439156.61</v>
+        <v>29632.88</v>
       </c>
       <c r="I12" t="n">
-        <v>390782.77</v>
+        <v>26368.77</v>
       </c>
       <c r="J12" t="n">
-        <v>-28452.57</v>
+        <v>-806.1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="O12" t="n">
-        <v>2.3</v>
+        <v>2.57</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.4</v>
+        <v>34.05</v>
       </c>
       <c r="R12" t="n">
-        <v>63.89</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="S12" t="n">
-        <v>30.49</v>
+        <v>30.91</v>
       </c>
     </row>
     <row r="13">
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>10979741.01</v>
+        <v>109797.41</v>
       </c>
       <c r="C13" t="n">
-        <v>10979740.31</v>
+        <v>109796.71</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1220,46 +1220,46 @@
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>49158.23</v>
+        <v>2336.76</v>
       </c>
       <c r="G13" t="n">
-        <v>10879740.31</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>439156.61</v>
+        <v>20875.52</v>
       </c>
       <c r="I13" t="n">
-        <v>390782.77</v>
+        <v>18576.05</v>
       </c>
       <c r="J13" t="n">
-        <v>-28452.57</v>
+        <v>-429.29</v>
       </c>
       <c r="K13" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N13" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O13" t="n">
-        <v>2.3</v>
+        <v>2.98</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.4</v>
+        <v>34.71</v>
       </c>
       <c r="R13" t="n">
-        <v>63.89</v>
+        <v>65.89</v>
       </c>
       <c r="S13" t="n">
-        <v>30.49</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="14">
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>2418800.7</v>
+        <v>24188.01</v>
       </c>
       <c r="C14" t="n">
-        <v>2418800</v>
+        <v>24187.31</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1281,46 +1281,46 @@
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>49158.23</v>
+        <v>452.3</v>
       </c>
       <c r="G14" t="n">
-        <v>2318800</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>439156.61</v>
+        <v>4040.64</v>
       </c>
       <c r="I14" t="n">
-        <v>390782.77</v>
+        <v>3595.55</v>
       </c>
       <c r="J14" t="n">
-        <v>-28452.57</v>
+        <v>-20.67</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M14" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N14" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="O14" t="n">
-        <v>2.3</v>
+        <v>7.15</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.4</v>
+        <v>30.5</v>
       </c>
       <c r="R14" t="n">
-        <v>63.89</v>
+        <v>53.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30.49</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="15">
@@ -1328,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>14990844.69</v>
+        <v>149908.45</v>
       </c>
       <c r="C15" t="n">
-        <v>14990843.99</v>
+        <v>149907.75</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1342,46 +1342,46 @@
         <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>49158.23</v>
+        <v>3142.28</v>
       </c>
       <c r="G15" t="n">
-        <v>14890843.99</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>439156.61</v>
+        <v>28071.66</v>
       </c>
       <c r="I15" t="n">
-        <v>390782.77</v>
+        <v>24979.52</v>
       </c>
       <c r="J15" t="n">
-        <v>-28452.57</v>
+        <v>-731.0700000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="O15" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.4</v>
+        <v>34.18</v>
       </c>
       <c r="R15" t="n">
-        <v>63.89</v>
+        <v>65.17</v>
       </c>
       <c r="S15" t="n">
-        <v>30.49</v>
+        <v>30.99</v>
       </c>
     </row>
     <row r="16">
@@ -1389,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>10979741.01</v>
+        <v>109797.41</v>
       </c>
       <c r="C16" t="n">
-        <v>10979740.31</v>
+        <v>109796.71</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1403,46 +1403,46 @@
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>49158.23</v>
+        <v>2336.76</v>
       </c>
       <c r="G16" t="n">
-        <v>10879740.31</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>439156.61</v>
+        <v>20875.52</v>
       </c>
       <c r="I16" t="n">
-        <v>390782.77</v>
+        <v>18576.05</v>
       </c>
       <c r="J16" t="n">
-        <v>-28452.57</v>
+        <v>-429.29</v>
       </c>
       <c r="K16" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M16" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N16" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O16" t="n">
-        <v>2.3</v>
+        <v>2.98</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.4</v>
+        <v>34.71</v>
       </c>
       <c r="R16" t="n">
-        <v>63.89</v>
+        <v>65.89</v>
       </c>
       <c r="S16" t="n">
-        <v>30.49</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="17">
@@ -1450,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>6782671.84</v>
+        <v>67826.72</v>
       </c>
       <c r="C17" t="n">
-        <v>6782671.14</v>
+        <v>67826.02</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1464,46 +1464,46 @@
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>49158.23</v>
+        <v>1445.91</v>
       </c>
       <c r="G17" t="n">
-        <v>6682671.14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>439156.61</v>
+        <v>12917.08</v>
       </c>
       <c r="I17" t="n">
-        <v>390782.77</v>
+        <v>11494.24</v>
       </c>
       <c r="J17" t="n">
-        <v>-28452.57</v>
+        <v>-181.9</v>
       </c>
       <c r="K17" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N17" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O17" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="P17" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>33.4</v>
+        <v>34.77</v>
       </c>
       <c r="R17" t="n">
-        <v>63.89</v>
+        <v>65.22</v>
       </c>
       <c r="S17" t="n">
-        <v>30.49</v>
+        <v>30.45</v>
       </c>
     </row>
     <row r="18">
@@ -1511,60 +1511,60 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1858162.17</v>
+        <v>18581.62</v>
       </c>
       <c r="C18" t="n">
-        <v>1858161.47</v>
+        <v>18580.92</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>49158.23</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1758161.47</v>
+        <v>18580.92</v>
       </c>
       <c r="H18" t="n">
-        <v>439156.61</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>390782.77</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-28452.57</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.4</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>63.89</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>30.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1572,60 +1572,60 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>12996331.29</v>
+        <v>129963.31</v>
       </c>
       <c r="C19" t="n">
-        <v>12996330.59</v>
+        <v>129962.61</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>49158.23</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>12896330.59</v>
+        <v>128262.61</v>
       </c>
       <c r="H19" t="n">
-        <v>439156.61</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>390782.77</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-28452.57</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.4</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>63.89</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>30.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1633,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>15887487.48</v>
+        <v>158874.87</v>
       </c>
       <c r="C20" t="n">
-        <v>15887486.78</v>
+        <v>158874.17</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1647,46 +1647,46 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>49158.23</v>
+        <v>3317.04</v>
       </c>
       <c r="G20" t="n">
-        <v>15787486.78</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>439156.61</v>
+        <v>29632.88</v>
       </c>
       <c r="I20" t="n">
-        <v>390782.77</v>
+        <v>26368.77</v>
       </c>
       <c r="J20" t="n">
-        <v>-28452.57</v>
+        <v>-806.1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="O20" t="n">
-        <v>2.3</v>
+        <v>2.57</v>
       </c>
       <c r="P20" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>33.4</v>
+        <v>34.05</v>
       </c>
       <c r="R20" t="n">
-        <v>63.89</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="S20" t="n">
-        <v>30.49</v>
+        <v>30.91</v>
       </c>
     </row>
     <row r="21">
@@ -1694,60 +1694,60 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>736856.74</v>
+        <v>7368.57</v>
       </c>
       <c r="C21" t="n">
-        <v>736856.04</v>
+        <v>7367.87</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>49158.23</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>636856.04</v>
+        <v>7367.87</v>
       </c>
       <c r="H21" t="n">
-        <v>439156.61</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>390782.77</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-28452.57</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.4</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>63.89</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>30.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1755,60 +1755,60 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>2418800.7</v>
+        <v>24188.01</v>
       </c>
       <c r="C22" t="n">
-        <v>2418800</v>
+        <v>24187.31</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>49158.23</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2318800</v>
+        <v>22487.31</v>
       </c>
       <c r="H22" t="n">
-        <v>439156.61</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>390782.77</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-28452.57</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.4</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>63.89</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>30.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>4100650.32</v>
+        <v>41006.5</v>
       </c>
       <c r="C23" t="n">
-        <v>4100649.62</v>
+        <v>41005.8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1830,46 +1830,46 @@
         <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>49158.23</v>
+        <v>844.99</v>
       </c>
       <c r="G23" t="n">
-        <v>4000649.62</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>439156.61</v>
+        <v>7548.74</v>
       </c>
       <c r="I23" t="n">
-        <v>390782.77</v>
+        <v>6717.24</v>
       </c>
       <c r="J23" t="n">
-        <v>-28452.57</v>
+        <v>-68.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M23" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N23" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="O23" t="n">
-        <v>2.3</v>
+        <v>5.02</v>
       </c>
       <c r="P23" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.4</v>
+        <v>33.61</v>
       </c>
       <c r="R23" t="n">
-        <v>63.89</v>
+        <v>61.7</v>
       </c>
       <c r="S23" t="n">
-        <v>30.49</v>
+        <v>28.09</v>
       </c>
     </row>
     <row r="24">
@@ -1877,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>13966357.87</v>
+        <v>139663.58</v>
       </c>
       <c r="C24" t="n">
-        <v>13966357.17</v>
+        <v>139662.88</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1891,46 +1891,46 @@
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>49158.23</v>
+        <v>2940.34</v>
       </c>
       <c r="G24" t="n">
-        <v>13866357.17</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>439156.61</v>
+        <v>26267.62</v>
       </c>
       <c r="I24" t="n">
-        <v>390782.77</v>
+        <v>23374.2</v>
       </c>
       <c r="J24" t="n">
-        <v>-28452.57</v>
+        <v>-648.59</v>
       </c>
       <c r="K24" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="O24" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="P24" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.4</v>
+        <v>34.33</v>
       </c>
       <c r="R24" t="n">
-        <v>63.89</v>
+        <v>65.41</v>
       </c>
       <c r="S24" t="n">
-        <v>30.49</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="25">
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>8946219.539999999</v>
+        <v>89462.2</v>
       </c>
       <c r="C25" t="n">
-        <v>8946218.84</v>
+        <v>89461.5</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1952,46 +1952,46 @@
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>49158.23</v>
+        <v>1911.91</v>
       </c>
       <c r="G25" t="n">
-        <v>8846218.84</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>439156.61</v>
+        <v>17080.11</v>
       </c>
       <c r="I25" t="n">
-        <v>390782.77</v>
+        <v>15198.71</v>
       </c>
       <c r="J25" t="n">
-        <v>-28452.57</v>
+        <v>-299.76</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N25" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O25" t="n">
-        <v>2.3</v>
+        <v>3.33</v>
       </c>
       <c r="P25" t="n">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="Q25" t="n">
-        <v>33.4</v>
+        <v>34.85</v>
       </c>
       <c r="R25" t="n">
-        <v>63.89</v>
+        <v>65.86</v>
       </c>
       <c r="S25" t="n">
-        <v>30.49</v>
+        <v>31.01</v>
       </c>
     </row>
     <row r="26">
@@ -1999,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>9938457.76</v>
+        <v>99384.58</v>
       </c>
       <c r="C26" t="n">
-        <v>9938457.060000001</v>
+        <v>99383.88</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2013,46 +2013,46 @@
         <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>49158.23</v>
+        <v>2120.71</v>
       </c>
       <c r="G26" t="n">
-        <v>9838457.060000001</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>439156.61</v>
+        <v>18945.43</v>
       </c>
       <c r="I26" t="n">
-        <v>390782.77</v>
+        <v>16858.56</v>
       </c>
       <c r="J26" t="n">
-        <v>-28452.57</v>
+        <v>-360.83</v>
       </c>
       <c r="K26" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M26" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N26" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O26" t="n">
-        <v>2.3</v>
+        <v>3.15</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>33.4</v>
+        <v>34.8</v>
       </c>
       <c r="R26" t="n">
-        <v>63.89</v>
+        <v>65.92</v>
       </c>
       <c r="S26" t="n">
-        <v>30.49</v>
+        <v>31.12</v>
       </c>
     </row>
     <row r="27">
@@ -2060,10 +2060,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>12996331.29</v>
+        <v>129963.31</v>
       </c>
       <c r="C27" t="n">
-        <v>12996330.59</v>
+        <v>129962.61</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2074,46 +2074,46 @@
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>49158.23</v>
+        <v>2746.79</v>
       </c>
       <c r="G27" t="n">
-        <v>12896330.59</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>439156.61</v>
+        <v>24538.54</v>
       </c>
       <c r="I27" t="n">
-        <v>390782.77</v>
+        <v>21835.57</v>
       </c>
       <c r="J27" t="n">
-        <v>-28452.57</v>
+        <v>-573.8099999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="O27" t="n">
-        <v>2.3</v>
+        <v>2.79</v>
       </c>
       <c r="P27" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.4</v>
+        <v>34.47</v>
       </c>
       <c r="R27" t="n">
-        <v>63.89</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="S27" t="n">
-        <v>30.49</v>
+        <v>31.13</v>
       </c>
     </row>
     <row r="28">
@@ -2121,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>2979426.3</v>
+        <v>29794.26</v>
       </c>
       <c r="C28" t="n">
-        <v>2979425.6</v>
+        <v>29793.56</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2135,46 +2135,46 @@
         <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>49158.23</v>
+        <v>584.77</v>
       </c>
       <c r="G28" t="n">
-        <v>2879425.6</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>439156.61</v>
+        <v>5224.06</v>
       </c>
       <c r="I28" t="n">
-        <v>390782.77</v>
+        <v>4648.62</v>
       </c>
       <c r="J28" t="n">
-        <v>-28452.57</v>
+        <v>-34.51</v>
       </c>
       <c r="K28" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M28" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N28" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="O28" t="n">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="P28" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="Q28" t="n">
-        <v>33.4</v>
+        <v>32.01</v>
       </c>
       <c r="R28" t="n">
-        <v>63.89</v>
+        <v>57.8</v>
       </c>
       <c r="S28" t="n">
-        <v>30.49</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="29">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>13966357.87</v>
+        <v>139663.58</v>
       </c>
       <c r="C30" t="n">
-        <v>13966357.17</v>
+        <v>139662.88</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>13965507.17</v>
+        <v>137962.88</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>14990844.69</v>
+        <v>149908.45</v>
       </c>
       <c r="C31" t="n">
-        <v>14990843.99</v>
+        <v>149907.75</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2318,46 +2318,46 @@
         <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>49158.23</v>
+        <v>3142.28</v>
       </c>
       <c r="G31" t="n">
-        <v>14890843.99</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>439156.61</v>
+        <v>28071.66</v>
       </c>
       <c r="I31" t="n">
-        <v>390782.77</v>
+        <v>24979.52</v>
       </c>
       <c r="J31" t="n">
-        <v>-28452.57</v>
+        <v>-731.0700000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="O31" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="P31" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="Q31" t="n">
-        <v>33.4</v>
+        <v>34.18</v>
       </c>
       <c r="R31" t="n">
-        <v>63.89</v>
+        <v>65.17</v>
       </c>
       <c r="S31" t="n">
-        <v>30.49</v>
+        <v>30.99</v>
       </c>
     </row>
     <row r="32">
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>15887487.48</v>
+        <v>158874.87</v>
       </c>
       <c r="C32" t="n">
-        <v>15887486.78</v>
+        <v>158874.17</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,46 +2379,46 @@
         <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>49158.23</v>
+        <v>3317.04</v>
       </c>
       <c r="G32" t="n">
-        <v>15787486.78</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>439156.61</v>
+        <v>29632.88</v>
       </c>
       <c r="I32" t="n">
-        <v>390782.77</v>
+        <v>26368.77</v>
       </c>
       <c r="J32" t="n">
-        <v>-28452.57</v>
+        <v>-806.1</v>
       </c>
       <c r="K32" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M32" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="O32" t="n">
-        <v>2.3</v>
+        <v>2.57</v>
       </c>
       <c r="P32" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>33.4</v>
+        <v>34.05</v>
       </c>
       <c r="R32" t="n">
-        <v>63.89</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="S32" t="n">
-        <v>30.49</v>
+        <v>30.91</v>
       </c>
     </row>
     <row r="33">
@@ -2426,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>23499559.11</v>
+        <v>234995.59</v>
       </c>
       <c r="C33" t="n">
-        <v>23499558.41</v>
+        <v>234994.89</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2440,22 +2440,22 @@
         <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>49158.23</v>
+        <v>4096.52</v>
       </c>
       <c r="G33" t="n">
-        <v>23399558.41</v>
+        <v>34994.89</v>
       </c>
       <c r="H33" t="n">
-        <v>439156.61</v>
+        <v>36596.39</v>
       </c>
       <c r="I33" t="n">
-        <v>390782.77</v>
+        <v>32565.24</v>
       </c>
       <c r="J33" t="n">
-        <v>-28452.57</v>
+        <v>-1181.68</v>
       </c>
       <c r="K33" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L33" t="n">
         <v>-0.01</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>50390221.73</v>
+        <v>503902.22</v>
       </c>
       <c r="C34" t="n">
-        <v>50390221.03</v>
+        <v>503901.52</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2501,22 +2501,22 @@
         <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>49158.23</v>
+        <v>4096.52</v>
       </c>
       <c r="G34" t="n">
-        <v>50290221.03</v>
+        <v>303901.52</v>
       </c>
       <c r="H34" t="n">
-        <v>439156.61</v>
+        <v>36596.39</v>
       </c>
       <c r="I34" t="n">
-        <v>390782.77</v>
+        <v>32565.24</v>
       </c>
       <c r="J34" t="n">
-        <v>-28452.57</v>
+        <v>-1181.68</v>
       </c>
       <c r="K34" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L34" t="n">
         <v>-0.01</v>
@@ -2548,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>62992022.28</v>
+        <v>629920.22</v>
       </c>
       <c r="C35" t="n">
-        <v>62992021.58</v>
+        <v>629919.52</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2562,22 +2562,22 @@
         <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>49158.23</v>
+        <v>4096.52</v>
       </c>
       <c r="G35" t="n">
-        <v>62892021.58</v>
+        <v>429919.52</v>
       </c>
       <c r="H35" t="n">
-        <v>439156.61</v>
+        <v>36596.39</v>
       </c>
       <c r="I35" t="n">
-        <v>390782.77</v>
+        <v>32565.24</v>
       </c>
       <c r="J35" t="n">
-        <v>-28452.57</v>
+        <v>-1181.68</v>
       </c>
       <c r="K35" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L35" t="n">
         <v>-0.01</v>
@@ -2609,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>36844291.46</v>
+        <v>368442.91</v>
       </c>
       <c r="C36" t="n">
-        <v>36844290.76</v>
+        <v>368442.21</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,22 +2623,22 @@
         <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>49158.23</v>
+        <v>4096.52</v>
       </c>
       <c r="G36" t="n">
-        <v>36744290.76</v>
+        <v>168442.21</v>
       </c>
       <c r="H36" t="n">
-        <v>439156.61</v>
+        <v>36596.39</v>
       </c>
       <c r="I36" t="n">
-        <v>390782.77</v>
+        <v>32565.24</v>
       </c>
       <c r="J36" t="n">
-        <v>-28452.57</v>
+        <v>-1181.68</v>
       </c>
       <c r="K36" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L36" t="n">
         <v>-0.01</v>
@@ -2670,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>38754330.64</v>
+        <v>387543.31</v>
       </c>
       <c r="C37" t="n">
-        <v>38754329.94</v>
+        <v>387542.61</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2684,22 +2684,22 @@
         <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>49158.23</v>
+        <v>4096.52</v>
       </c>
       <c r="G37" t="n">
-        <v>38654329.94</v>
+        <v>187542.61</v>
       </c>
       <c r="H37" t="n">
-        <v>439156.61</v>
+        <v>36596.39</v>
       </c>
       <c r="I37" t="n">
-        <v>390782.77</v>
+        <v>32565.24</v>
       </c>
       <c r="J37" t="n">
-        <v>-28452.57</v>
+        <v>-1181.68</v>
       </c>
       <c r="K37" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L37" t="n">
         <v>-0.01</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>72603449.84999999</v>
+        <v>726034.5</v>
       </c>
       <c r="C38" t="n">
-        <v>72603449.15000001</v>
+        <v>726033.8</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2745,22 +2745,22 @@
         <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>49158.23</v>
+        <v>4096.52</v>
       </c>
       <c r="G38" t="n">
-        <v>72503449.15000001</v>
+        <v>526033.8</v>
       </c>
       <c r="H38" t="n">
-        <v>439156.61</v>
+        <v>36596.39</v>
       </c>
       <c r="I38" t="n">
-        <v>390782.77</v>
+        <v>32565.24</v>
       </c>
       <c r="J38" t="n">
-        <v>-28452.57</v>
+        <v>-1181.68</v>
       </c>
       <c r="K38" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L38" t="n">
         <v>-0.01</v>
@@ -3036,10 +3036,10 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>4100650.32</v>
+        <v>41006.5</v>
       </c>
       <c r="C43" t="n">
-        <v>4100649.62</v>
+        <v>41005.8</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>4099799.62</v>
+        <v>39305.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3097,10 +3097,10 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>13966357.87</v>
+        <v>139663.58</v>
       </c>
       <c r="C44" t="n">
-        <v>13966357.17</v>
+        <v>139662.88</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3111,46 +3111,46 @@
         <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>49158.23</v>
+        <v>2940.34</v>
       </c>
       <c r="G44" t="n">
-        <v>13866357.17</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>439156.61</v>
+        <v>26267.62</v>
       </c>
       <c r="I44" t="n">
-        <v>390782.77</v>
+        <v>23374.2</v>
       </c>
       <c r="J44" t="n">
-        <v>-28452.57</v>
+        <v>-648.59</v>
       </c>
       <c r="K44" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="O44" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="P44" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="Q44" t="n">
-        <v>33.4</v>
+        <v>34.33</v>
       </c>
       <c r="R44" t="n">
-        <v>63.89</v>
+        <v>65.41</v>
       </c>
       <c r="S44" t="n">
-        <v>30.49</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="45">
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>31083729.95</v>
+        <v>310837.3</v>
       </c>
       <c r="C45" t="n">
-        <v>31083729.25</v>
+        <v>310836.6</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3172,22 +3172,22 @@
         <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>49158.23</v>
+        <v>4096.52</v>
       </c>
       <c r="G45" t="n">
-        <v>30983729.25</v>
+        <v>110836.6</v>
       </c>
       <c r="H45" t="n">
-        <v>439156.61</v>
+        <v>36596.39</v>
       </c>
       <c r="I45" t="n">
-        <v>390782.77</v>
+        <v>32565.24</v>
       </c>
       <c r="J45" t="n">
-        <v>-28452.57</v>
+        <v>-1181.68</v>
       </c>
       <c r="K45" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L45" t="n">
         <v>-0.01</v>
@@ -3219,10 +3219,10 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>44155449.27</v>
+        <v>441554.49</v>
       </c>
       <c r="C46" t="n">
-        <v>44155448.57</v>
+        <v>441553.79</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3233,22 +3233,22 @@
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>49158.23</v>
+        <v>4096.52</v>
       </c>
       <c r="G46" t="n">
-        <v>44055448.57</v>
+        <v>241553.79</v>
       </c>
       <c r="H46" t="n">
-        <v>439156.61</v>
+        <v>36596.39</v>
       </c>
       <c r="I46" t="n">
-        <v>390782.77</v>
+        <v>32565.24</v>
       </c>
       <c r="J46" t="n">
-        <v>-28452.57</v>
+        <v>-1181.68</v>
       </c>
       <c r="K46" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L46" t="n">
         <v>-0.01</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>34930286.97</v>
+        <v>349302.87</v>
       </c>
       <c r="C47" t="n">
-        <v>34930286.27</v>
+        <v>349302.17</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3294,22 +3294,22 @@
         <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>49158.23</v>
+        <v>4096.52</v>
       </c>
       <c r="G47" t="n">
-        <v>34830286.27</v>
+        <v>149302.17</v>
       </c>
       <c r="H47" t="n">
-        <v>439156.61</v>
+        <v>36596.39</v>
       </c>
       <c r="I47" t="n">
-        <v>390782.77</v>
+        <v>32565.24</v>
       </c>
       <c r="J47" t="n">
-        <v>-28452.57</v>
+        <v>-1181.68</v>
       </c>
       <c r="K47" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L47" t="n">
         <v>-0.01</v>
@@ -3341,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>56688435.74</v>
+        <v>566884.36</v>
       </c>
       <c r="C48" t="n">
-        <v>56688435.04</v>
+        <v>566883.66</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,22 +3355,22 @@
         <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>49158.23</v>
+        <v>4096.52</v>
       </c>
       <c r="G48" t="n">
-        <v>56588435.04</v>
+        <v>366883.66</v>
       </c>
       <c r="H48" t="n">
-        <v>439156.61</v>
+        <v>36596.39</v>
       </c>
       <c r="I48" t="n">
-        <v>390782.77</v>
+        <v>32565.24</v>
       </c>
       <c r="J48" t="n">
-        <v>-28452.57</v>
+        <v>-1181.68</v>
       </c>
       <c r="K48" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L48" t="n">
         <v>-0.01</v>
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>44155449.27</v>
+        <v>441554.49</v>
       </c>
       <c r="C49" t="n">
-        <v>44155448.57</v>
+        <v>441553.79</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3416,22 +3416,22 @@
         <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>49158.23</v>
+        <v>4096.52</v>
       </c>
       <c r="G49" t="n">
-        <v>44055448.57</v>
+        <v>241553.79</v>
       </c>
       <c r="H49" t="n">
-        <v>439156.61</v>
+        <v>36596.39</v>
       </c>
       <c r="I49" t="n">
-        <v>390782.77</v>
+        <v>32565.24</v>
       </c>
       <c r="J49" t="n">
-        <v>-28452.57</v>
+        <v>-1181.68</v>
       </c>
       <c r="K49" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L49" t="n">
         <v>-0.01</v>
@@ -3463,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>110665891.91</v>
+        <v>1106658.92</v>
       </c>
       <c r="C50" t="n">
-        <v>110665891.21</v>
+        <v>1106658.22</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3477,22 +3477,22 @@
         <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>49158.23</v>
+        <v>4096.52</v>
       </c>
       <c r="G50" t="n">
-        <v>110565891.21</v>
+        <v>906658.22</v>
       </c>
       <c r="H50" t="n">
-        <v>439156.61</v>
+        <v>36596.39</v>
       </c>
       <c r="I50" t="n">
-        <v>390782.77</v>
+        <v>32565.24</v>
       </c>
       <c r="J50" t="n">
-        <v>-28452.57</v>
+        <v>-1181.68</v>
       </c>
       <c r="K50" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L50" t="n">
         <v>-0.01</v>
@@ -3524,10 +3524,10 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>93353046.48</v>
+        <v>933530.46</v>
       </c>
       <c r="C51" t="n">
-        <v>93353045.78</v>
+        <v>933529.76</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3538,22 +3538,22 @@
         <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>49158.23</v>
+        <v>4096.52</v>
       </c>
       <c r="G51" t="n">
-        <v>93253045.78</v>
+        <v>733529.76</v>
       </c>
       <c r="H51" t="n">
-        <v>439156.61</v>
+        <v>36596.39</v>
       </c>
       <c r="I51" t="n">
-        <v>390782.77</v>
+        <v>32565.24</v>
       </c>
       <c r="J51" t="n">
-        <v>-28452.57</v>
+        <v>-1181.68</v>
       </c>
       <c r="K51" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L51" t="n">
         <v>-0.01</v>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,24 +451,24 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>hydrogen production [Kg/dt]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>surplus electricity [kW]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>status codes</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>hydrogen production [Kg/dt]</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>surplus electricity [kW]</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>H20 [kg/dt]</t>
@@ -527,6 +527,11 @@
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>efficency _c [%]</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>P_ac2</t>
         </is>
       </c>
     </row>
@@ -535,60 +540,63 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>78566.59</v>
+        <v>785.67</v>
       </c>
       <c r="C2" t="n">
-        <v>78565.89</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>784.99</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1679.15</v>
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>15000.74</v>
+        <v>2.41</v>
       </c>
       <c r="I2" t="n">
-        <v>13348.38</v>
+        <v>2.15</v>
       </c>
       <c r="J2" t="n">
-        <v>-237.68</v>
+        <v>-13.27</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02</v>
+        <v>7.02</v>
       </c>
       <c r="L2" t="n">
-        <v>-0</v>
+        <v>-0.98</v>
       </c>
       <c r="M2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N2" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="O2" t="n">
-        <v>3.54</v>
+        <v>2.59</v>
       </c>
       <c r="P2" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.85</v>
+        <v>33.66</v>
       </c>
       <c r="R2" t="n">
-        <v>65.65000000000001</v>
+        <v>64.16</v>
       </c>
       <c r="S2" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -596,60 +604,63 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>149908.45</v>
+        <v>1456.699723940105</v>
       </c>
       <c r="C3" t="n">
-        <v>149907.75</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>1456.01</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3142.28</v>
+        <v>456.01</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>28071.66</v>
+        <v>3.04</v>
       </c>
       <c r="I3" t="n">
-        <v>24979.52</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>-731.0700000000001</v>
+        <v>-19.82</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03</v>
+        <v>8.23</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>-1.15</v>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N3" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="O3" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="P3" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>34.18</v>
+        <v>33.27</v>
       </c>
       <c r="R3" t="n">
-        <v>65.17</v>
+        <v>63.62</v>
       </c>
       <c r="S3" t="n">
-        <v>30.99</v>
+        <v>30.35</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -657,60 +668,63 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>169751.44</v>
+        <v>1643.505901634465</v>
       </c>
       <c r="C4" t="n">
-        <v>169750.74</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>1642.81</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.34</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3526.62</v>
+        <v>642.8099999999999</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>31505.17</v>
+        <v>3.04</v>
       </c>
       <c r="I4" t="n">
-        <v>28034.82</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
-        <v>-900.53</v>
+        <v>-19.82</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.01</v>
+        <v>-1.15</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O4" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="P4" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.88</v>
+        <v>33.27</v>
       </c>
       <c r="R4" t="n">
-        <v>64.68000000000001</v>
+        <v>63.62</v>
       </c>
       <c r="S4" t="n">
-        <v>30.8</v>
+        <v>30.35</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -718,60 +732,63 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>41006.5</v>
+        <v>356.0659016344647</v>
       </c>
       <c r="C5" t="n">
-        <v>41005.8</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>355.4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>844.99</v>
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>7548.74</v>
+        <v>1.16</v>
       </c>
       <c r="I5" t="n">
-        <v>6717.24</v>
+        <v>1.03</v>
       </c>
       <c r="J5" t="n">
-        <v>-68.90000000000001</v>
+        <v>-3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01</v>
+        <v>3.91</v>
       </c>
       <c r="L5" t="n">
-        <v>-0</v>
+        <v>-0.55</v>
       </c>
       <c r="M5" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N5" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="O5" t="n">
-        <v>5.02</v>
+        <v>3.72</v>
       </c>
       <c r="P5" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="Q5" t="n">
-        <v>33.61</v>
+        <v>35.79</v>
       </c>
       <c r="R5" t="n">
-        <v>61.7</v>
+        <v>67.34</v>
       </c>
       <c r="S5" t="n">
-        <v>28.09</v>
+        <v>31.55</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -779,59 +796,62 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>18581.62</v>
+        <v>165.6575829371053</v>
       </c>
       <c r="C6" t="n">
-        <v>18580.92</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>cold standby</t>
-        </is>
+        <v>165.04</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>18580.92</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-0.26</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>5.47</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>29.64</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>53.38</v>
       </c>
       <c r="S6" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="T6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -840,24 +860,24 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>7368.57</v>
+        <v>65.93814210225196</v>
       </c>
       <c r="C7" t="n">
-        <v>7367.87</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>cold standby</t>
-        </is>
+        <v>65.45</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
+        <v>65.45</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>7367.87</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -893,6 +913,9 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,59 +924,62 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>24188.01</v>
+        <v>241.88</v>
       </c>
       <c r="C8" t="n">
-        <v>24187.31</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>booting</t>
-        </is>
+        <v>241.24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.08</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>22487.31</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>-1.62</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.39</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>4.59</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>32.45</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>59.83</v>
       </c>
       <c r="S8" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="T8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -962,60 +988,63 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>89462.2</v>
+        <v>882.2254964691953</v>
       </c>
       <c r="C9" t="n">
-        <v>89461.5</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>881.54</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1911.91</v>
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>17080.11</v>
+        <v>2.68</v>
       </c>
       <c r="I9" t="n">
-        <v>15198.71</v>
+        <v>2.38</v>
       </c>
       <c r="J9" t="n">
-        <v>-299.76</v>
+        <v>-16.1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02</v>
+        <v>7.58</v>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>-1.06</v>
       </c>
       <c r="M9" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N9" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="O9" t="n">
-        <v>3.33</v>
+        <v>2.46</v>
       </c>
       <c r="P9" t="n">
-        <v>0.19</v>
+        <v>0.27</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.85</v>
+        <v>33.3</v>
       </c>
       <c r="R9" t="n">
-        <v>65.86</v>
+        <v>63.56</v>
       </c>
       <c r="S9" t="n">
-        <v>31.01</v>
+        <v>30.26</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1023,60 +1052,63 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>41006.5</v>
+        <v>362.7521738544976</v>
       </c>
       <c r="C10" t="n">
-        <v>41005.8</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>362.09</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.13</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>844.99</v>
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>7548.74</v>
+        <v>1.16</v>
       </c>
       <c r="I10" t="n">
-        <v>6717.24</v>
+        <v>1.03</v>
       </c>
       <c r="J10" t="n">
-        <v>-68.90000000000001</v>
+        <v>-3.47</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01</v>
+        <v>3.97</v>
       </c>
       <c r="L10" t="n">
-        <v>-0</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N10" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="O10" t="n">
-        <v>5.02</v>
+        <v>3.69</v>
       </c>
       <c r="P10" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="Q10" t="n">
-        <v>33.61</v>
+        <v>35.13</v>
       </c>
       <c r="R10" t="n">
-        <v>61.7</v>
+        <v>66.05</v>
       </c>
       <c r="S10" t="n">
-        <v>28.09</v>
+        <v>30.92</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1084,60 +1116,63 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>149908.45</v>
+        <v>1478.916652455275</v>
       </c>
       <c r="C11" t="n">
-        <v>149907.75</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>1478.23</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.34</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3142.28</v>
+        <v>478.23</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>28071.66</v>
+        <v>3.04</v>
       </c>
       <c r="I11" t="n">
-        <v>24979.52</v>
+        <v>2.7</v>
       </c>
       <c r="J11" t="n">
-        <v>-731.0700000000001</v>
+        <v>-19.82</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03</v>
+        <v>8.23</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>-1.15</v>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N11" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="O11" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="P11" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>34.18</v>
+        <v>33.27</v>
       </c>
       <c r="R11" t="n">
-        <v>65.17</v>
+        <v>63.62</v>
       </c>
       <c r="S11" t="n">
-        <v>30.99</v>
+        <v>30.35</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1145,60 +1180,63 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>158874.87</v>
+        <v>1534.745901634465</v>
       </c>
       <c r="C12" t="n">
-        <v>158874.17</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>1534.05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.34</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3317.04</v>
+        <v>534.05</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>29632.88</v>
+        <v>3.04</v>
       </c>
       <c r="I12" t="n">
-        <v>26368.77</v>
+        <v>2.7</v>
       </c>
       <c r="J12" t="n">
-        <v>-806.1</v>
+        <v>-19.82</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>-1.15</v>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N12" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="O12" t="n">
-        <v>2.57</v>
+        <v>2.3</v>
       </c>
       <c r="P12" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.05</v>
+        <v>33.27</v>
       </c>
       <c r="R12" t="n">
-        <v>64.95999999999999</v>
+        <v>63.62</v>
       </c>
       <c r="S12" t="n">
-        <v>30.91</v>
+        <v>30.35</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1206,60 +1244,63 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>109797.41</v>
+        <v>1043.965901634465</v>
       </c>
       <c r="C13" t="n">
-        <v>109796.71</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>1043.28</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.34</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2336.76</v>
+        <v>43.28</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>20875.52</v>
+        <v>3.04</v>
       </c>
       <c r="I13" t="n">
-        <v>18576.05</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>-429.29</v>
+        <v>-19.82</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03</v>
+        <v>8.23</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>-1.15</v>
       </c>
       <c r="M13" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N13" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="O13" t="n">
-        <v>2.98</v>
+        <v>2.3</v>
       </c>
       <c r="P13" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.71</v>
+        <v>33.27</v>
       </c>
       <c r="R13" t="n">
-        <v>65.89</v>
+        <v>63.62</v>
       </c>
       <c r="S13" t="n">
-        <v>31.18</v>
+        <v>30.35</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1267,60 +1308,63 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>24188.01</v>
+        <v>187.8759016344647</v>
       </c>
       <c r="C14" t="n">
-        <v>24187.31</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>187.25</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.06</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>452.3</v>
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>4040.64</v>
+        <v>0.54</v>
       </c>
       <c r="I14" t="n">
-        <v>3595.55</v>
+        <v>0.48</v>
       </c>
       <c r="J14" t="n">
-        <v>-20.67</v>
+        <v>-0.98</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01</v>
+        <v>2.16</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>-0.3</v>
       </c>
       <c r="M14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O14" t="n">
-        <v>7.15</v>
+        <v>5.13</v>
       </c>
       <c r="P14" t="n">
         <v>0.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>30.5</v>
+        <v>31.35</v>
       </c>
       <c r="R14" t="n">
-        <v>53.4</v>
+        <v>57.12</v>
       </c>
       <c r="S14" t="n">
-        <v>22.9</v>
+        <v>25.77</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1328,60 +1372,63 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>149908.45</v>
+        <v>1489.778557618127</v>
       </c>
       <c r="C15" t="n">
-        <v>149907.75</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>1489.09</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.34</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3142.28</v>
+        <v>489.09</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>28071.66</v>
+        <v>3.04</v>
       </c>
       <c r="I15" t="n">
-        <v>24979.52</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
-        <v>-731.0700000000001</v>
+        <v>-19.82</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03</v>
+        <v>8.23</v>
       </c>
       <c r="L15" t="n">
-        <v>-0</v>
+        <v>-1.15</v>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N15" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="O15" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="P15" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.18</v>
+        <v>33.27</v>
       </c>
       <c r="R15" t="n">
-        <v>65.17</v>
+        <v>63.62</v>
       </c>
       <c r="S15" t="n">
-        <v>30.99</v>
+        <v>30.35</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1389,60 +1436,63 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>109797.41</v>
+        <v>1043.965901634465</v>
       </c>
       <c r="C16" t="n">
-        <v>109796.71</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>1043.28</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.34</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2336.76</v>
+        <v>43.28</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>20875.52</v>
+        <v>3.04</v>
       </c>
       <c r="I16" t="n">
-        <v>18576.05</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>-429.29</v>
+        <v>-19.82</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03</v>
+        <v>8.23</v>
       </c>
       <c r="L16" t="n">
-        <v>-0</v>
+        <v>-1.15</v>
       </c>
       <c r="M16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N16" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="O16" t="n">
-        <v>2.98</v>
+        <v>2.3</v>
       </c>
       <c r="P16" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.71</v>
+        <v>33.27</v>
       </c>
       <c r="R16" t="n">
-        <v>65.89</v>
+        <v>63.62</v>
       </c>
       <c r="S16" t="n">
-        <v>31.18</v>
+        <v>30.35</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1450,60 +1500,63 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>67826.72</v>
+        <v>624.2659016344646</v>
       </c>
       <c r="C17" t="n">
-        <v>67826.02</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>623.59</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.22</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1445.91</v>
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>12917.08</v>
+        <v>1.97</v>
       </c>
       <c r="I17" t="n">
-        <v>11494.24</v>
+        <v>1.75</v>
       </c>
       <c r="J17" t="n">
-        <v>-181.9</v>
+        <v>-8.99</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02</v>
+        <v>5.99</v>
       </c>
       <c r="L17" t="n">
-        <v>-0</v>
+        <v>-0.84</v>
       </c>
       <c r="M17" t="n">
         <v>29</v>
       </c>
       <c r="N17" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="O17" t="n">
-        <v>3.8</v>
+        <v>2.84</v>
       </c>
       <c r="P17" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>34.77</v>
+        <v>34.52</v>
       </c>
       <c r="R17" t="n">
-        <v>65.22</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>30.45</v>
+        <v>31.13</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1511,59 +1564,62 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>18581.62</v>
+        <v>151.4878137841848</v>
       </c>
       <c r="C18" t="n">
-        <v>18580.92</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>cold standby</t>
-        </is>
+        <v>150.88</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.05</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>18580.92</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>-0.61</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>-0.24</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>5.69</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>32.43</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>58.68</v>
       </c>
       <c r="S18" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="T18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1572,59 +1628,62 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>129963.31</v>
+        <v>1291.876994947577</v>
       </c>
       <c r="C19" t="n">
-        <v>129962.61</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>booting</t>
-        </is>
+        <v>1291.19</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.34</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
+        <v>291.19</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>128262.61</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-19.82</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>8.23</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.15</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>33.27</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>63.62</v>
       </c>
       <c r="S19" t="n">
+        <v>30.35</v>
+      </c>
+      <c r="T19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1633,60 +1692,63 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>158874.87</v>
+        <v>1534.745901634465</v>
       </c>
       <c r="C20" t="n">
-        <v>158874.17</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>1534.05</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.34</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3317.04</v>
+        <v>534.05</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>29632.88</v>
+        <v>3.04</v>
       </c>
       <c r="I20" t="n">
-        <v>26368.77</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
-        <v>-806.1</v>
+        <v>-19.82</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L20" t="n">
-        <v>-0</v>
+        <v>-1.15</v>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N20" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="O20" t="n">
-        <v>2.57</v>
+        <v>2.3</v>
       </c>
       <c r="P20" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>34.05</v>
+        <v>33.27</v>
       </c>
       <c r="R20" t="n">
-        <v>64.95999999999999</v>
+        <v>63.62</v>
       </c>
       <c r="S20" t="n">
-        <v>30.91</v>
+        <v>30.35</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1694,24 +1756,24 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>7368.57</v>
+        <v>19.6859016344647</v>
       </c>
       <c r="C21" t="n">
-        <v>7367.87</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>cold standby</t>
-        </is>
+        <v>19.46</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
+        <v>19.46</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>7367.87</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1747,6 +1809,9 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1755,59 +1820,62 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>24188.01</v>
+        <v>241.88</v>
       </c>
       <c r="C22" t="n">
-        <v>24187.31</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>booting</t>
-        </is>
+        <v>241.24</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.08</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>22487.31</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.62</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-0.39</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>4.59</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>32.45</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>59.83</v>
       </c>
       <c r="S22" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="T22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1816,60 +1884,63 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>41006.5</v>
+        <v>397.6754964691953</v>
       </c>
       <c r="C23" t="n">
-        <v>41005.8</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>397.01</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.14</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>844.99</v>
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>7548.74</v>
+        <v>1.25</v>
       </c>
       <c r="I23" t="n">
-        <v>6717.24</v>
+        <v>1.11</v>
       </c>
       <c r="J23" t="n">
-        <v>-68.90000000000001</v>
+        <v>-4.09</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01</v>
+        <v>4.28</v>
       </c>
       <c r="L23" t="n">
-        <v>-0</v>
+        <v>-0.6</v>
       </c>
       <c r="M23" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N23" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="O23" t="n">
-        <v>5.02</v>
+        <v>3.51</v>
       </c>
       <c r="P23" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.61</v>
+        <v>34.51</v>
       </c>
       <c r="R23" t="n">
-        <v>61.7</v>
+        <v>64.98</v>
       </c>
       <c r="S23" t="n">
-        <v>28.09</v>
+        <v>30.47</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1877,60 +1948,63 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>139663.58</v>
+        <v>1374.918448852305</v>
       </c>
       <c r="C24" t="n">
-        <v>139662.88</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>1374.23</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.34</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2940.34</v>
+        <v>374.23</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>26267.62</v>
+        <v>3.04</v>
       </c>
       <c r="I24" t="n">
-        <v>23374.2</v>
+        <v>2.7</v>
       </c>
       <c r="J24" t="n">
-        <v>-648.59</v>
+        <v>-19.82</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03</v>
+        <v>8.23</v>
       </c>
       <c r="L24" t="n">
-        <v>-0</v>
+        <v>-1.15</v>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N24" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="O24" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="P24" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.33</v>
+        <v>33.27</v>
       </c>
       <c r="R24" t="n">
-        <v>65.41</v>
+        <v>63.62</v>
       </c>
       <c r="S24" t="n">
-        <v>31.08</v>
+        <v>30.35</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1938,60 +2012,63 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>89462.2</v>
+        <v>840.6159016344648</v>
       </c>
       <c r="C25" t="n">
-        <v>89461.5</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>839.9299999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.29</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1911.91</v>
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>17080.11</v>
+        <v>2.59</v>
       </c>
       <c r="I25" t="n">
-        <v>15198.71</v>
+        <v>2.31</v>
       </c>
       <c r="J25" t="n">
-        <v>-299.76</v>
+        <v>-14.86</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02</v>
+        <v>7.34</v>
       </c>
       <c r="L25" t="n">
-        <v>-0</v>
+        <v>-1.03</v>
       </c>
       <c r="M25" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N25" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O25" t="n">
-        <v>3.33</v>
+        <v>2.51</v>
       </c>
       <c r="P25" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.85</v>
+        <v>33.78</v>
       </c>
       <c r="R25" t="n">
-        <v>65.86</v>
+        <v>64.48</v>
       </c>
       <c r="S25" t="n">
-        <v>31.01</v>
+        <v>30.7</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1999,60 +2076,63 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>99384.58</v>
+        <v>948.2102037471435</v>
       </c>
       <c r="C26" t="n">
-        <v>99383.88</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>947.52</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.33</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2120.71</v>
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>18945.43</v>
+        <v>2.95</v>
       </c>
       <c r="I26" t="n">
-        <v>16858.56</v>
+        <v>2.62</v>
       </c>
       <c r="J26" t="n">
-        <v>-360.83</v>
+        <v>-18.14</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03</v>
+        <v>7.95</v>
       </c>
       <c r="L26" t="n">
-        <v>-0</v>
+        <v>-1.11</v>
       </c>
       <c r="M26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="O26" t="n">
-        <v>3.15</v>
+        <v>2.37</v>
       </c>
       <c r="P26" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>34.8</v>
+        <v>34.08</v>
       </c>
       <c r="R26" t="n">
-        <v>65.92</v>
+        <v>65.17</v>
       </c>
       <c r="S26" t="n">
-        <v>31.12</v>
+        <v>31.09</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2060,60 +2140,63 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>129963.31</v>
+        <v>1247.361402989131</v>
       </c>
       <c r="C27" t="n">
-        <v>129962.61</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>1246.67</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.34</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2746.79</v>
+        <v>246.67</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>24538.54</v>
+        <v>3.04</v>
       </c>
       <c r="I27" t="n">
-        <v>21835.57</v>
+        <v>2.7</v>
       </c>
       <c r="J27" t="n">
-        <v>-573.8099999999999</v>
+        <v>-19.82</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03</v>
+        <v>8.23</v>
       </c>
       <c r="L27" t="n">
-        <v>-0</v>
+        <v>-1.15</v>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N27" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="O27" t="n">
-        <v>2.79</v>
+        <v>2.3</v>
       </c>
       <c r="P27" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.47</v>
+        <v>33.27</v>
       </c>
       <c r="R27" t="n">
-        <v>65.59999999999999</v>
+        <v>63.62</v>
       </c>
       <c r="S27" t="n">
-        <v>31.13</v>
+        <v>30.35</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2121,60 +2204,63 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>29794.26</v>
+        <v>243.9359016344647</v>
       </c>
       <c r="C28" t="n">
-        <v>29793.56</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>243.29</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.08</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
-      </c>
-      <c r="F28" t="n">
-        <v>584.77</v>
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>5224.06</v>
+        <v>0.71</v>
       </c>
       <c r="I28" t="n">
-        <v>4648.62</v>
+        <v>0.64</v>
       </c>
       <c r="J28" t="n">
-        <v>-34.51</v>
+        <v>-1.65</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01</v>
+        <v>2.81</v>
       </c>
       <c r="L28" t="n">
-        <v>-0</v>
+        <v>-0.39</v>
       </c>
       <c r="M28" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N28" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="O28" t="n">
-        <v>5.75</v>
+        <v>4.57</v>
       </c>
       <c r="P28" t="n">
         <v>0.17</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.01</v>
+        <v>32.18</v>
       </c>
       <c r="R28" t="n">
-        <v>57.8</v>
+        <v>59.31</v>
       </c>
       <c r="S28" t="n">
-        <v>25.79</v>
+        <v>27.13</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2187,19 +2273,19 @@
       <c r="C29" t="n">
         <v>0</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>cold standby</t>
-        </is>
+      <c r="D29" t="n">
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2235,6 +2321,9 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2243,59 +2332,62 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>139663.58</v>
+        <v>1396.64</v>
       </c>
       <c r="C30" t="n">
-        <v>139662.88</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>booting</t>
-        </is>
+        <v>1395.95</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.34</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
+        <v>395.95</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G30" t="n">
-        <v>137962.88</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>-19.82</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>8.23</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>-1.15</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>33.27</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>63.62</v>
       </c>
       <c r="S30" t="n">
+        <v>30.35</v>
+      </c>
+      <c r="T30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2304,60 +2396,63 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>149908.45</v>
+        <v>1445.075901634465</v>
       </c>
       <c r="C31" t="n">
-        <v>149907.75</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>1444.39</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.34</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3142.28</v>
+        <v>444.39</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>28071.66</v>
+        <v>3.04</v>
       </c>
       <c r="I31" t="n">
-        <v>24979.52</v>
+        <v>2.7</v>
       </c>
       <c r="J31" t="n">
-        <v>-731.0700000000001</v>
+        <v>-19.82</v>
       </c>
       <c r="K31" t="n">
-        <v>0.03</v>
+        <v>8.23</v>
       </c>
       <c r="L31" t="n">
-        <v>-0</v>
+        <v>-1.15</v>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N31" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="O31" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="P31" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>34.18</v>
+        <v>33.27</v>
       </c>
       <c r="R31" t="n">
-        <v>65.17</v>
+        <v>63.62</v>
       </c>
       <c r="S31" t="n">
-        <v>30.99</v>
+        <v>30.35</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2365,60 +2460,63 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>158874.87</v>
+        <v>1534.745901634465</v>
       </c>
       <c r="C32" t="n">
-        <v>158874.17</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>1534.05</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.34</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3317.04</v>
+        <v>534.05</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>29632.88</v>
+        <v>3.04</v>
       </c>
       <c r="I32" t="n">
-        <v>26368.77</v>
+        <v>2.7</v>
       </c>
       <c r="J32" t="n">
-        <v>-806.1</v>
+        <v>-19.82</v>
       </c>
       <c r="K32" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L32" t="n">
-        <v>-0</v>
+        <v>-1.15</v>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N32" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="O32" t="n">
-        <v>2.57</v>
+        <v>2.3</v>
       </c>
       <c r="P32" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>34.05</v>
+        <v>33.27</v>
       </c>
       <c r="R32" t="n">
-        <v>64.95999999999999</v>
+        <v>63.62</v>
       </c>
       <c r="S32" t="n">
-        <v>30.91</v>
+        <v>30.35</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2426,45 +2524,45 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>234995.59</v>
+        <v>2295.955901634465</v>
       </c>
       <c r="C33" t="n">
-        <v>234994.89</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>2295.26</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.34</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
-      </c>
-      <c r="F33" t="n">
-        <v>4096.52</v>
+        <v>1295.26</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G33" t="n">
-        <v>34994.89</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>36596.39</v>
+        <v>3.04</v>
       </c>
       <c r="I33" t="n">
-        <v>32565.24</v>
+        <v>2.7</v>
       </c>
       <c r="J33" t="n">
-        <v>-1181.68</v>
+        <v>-19.82</v>
       </c>
       <c r="K33" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.01</v>
+        <v>-1.15</v>
       </c>
       <c r="M33" t="n">
         <v>32</v>
       </c>
       <c r="N33" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O33" t="n">
         <v>2.3</v>
@@ -2473,13 +2571,16 @@
         <v>0.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.4</v>
+        <v>33.27</v>
       </c>
       <c r="R33" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S33" t="n">
-        <v>30.49</v>
+        <v>30.35</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2487,45 +2588,45 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>503902.22</v>
+        <v>4985.015901634465</v>
       </c>
       <c r="C34" t="n">
-        <v>503901.52</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>4984.32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.34</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
-      </c>
-      <c r="F34" t="n">
-        <v>4096.52</v>
+        <v>3984.32</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G34" t="n">
-        <v>303901.52</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>36596.39</v>
+        <v>3.04</v>
       </c>
       <c r="I34" t="n">
-        <v>32565.24</v>
+        <v>2.7</v>
       </c>
       <c r="J34" t="n">
-        <v>-1181.68</v>
+        <v>-19.82</v>
       </c>
       <c r="K34" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.01</v>
+        <v>-1.15</v>
       </c>
       <c r="M34" t="n">
         <v>32</v>
       </c>
       <c r="N34" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O34" t="n">
         <v>2.3</v>
@@ -2534,13 +2635,16 @@
         <v>0.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>33.4</v>
+        <v>33.27</v>
       </c>
       <c r="R34" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S34" t="n">
-        <v>30.49</v>
+        <v>30.35</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2548,45 +2652,45 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>629920.22</v>
+        <v>6245.195901634464</v>
       </c>
       <c r="C35" t="n">
-        <v>629919.52</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>6244.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.34</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4096.52</v>
+        <v>5244.5</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G35" t="n">
-        <v>429919.52</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
-        <v>36596.39</v>
+        <v>3.04</v>
       </c>
       <c r="I35" t="n">
-        <v>32565.24</v>
+        <v>2.7</v>
       </c>
       <c r="J35" t="n">
-        <v>-1181.68</v>
+        <v>-19.82</v>
       </c>
       <c r="K35" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.01</v>
+        <v>-1.15</v>
       </c>
       <c r="M35" t="n">
         <v>32</v>
       </c>
       <c r="N35" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O35" t="n">
         <v>2.3</v>
@@ -2595,13 +2699,16 @@
         <v>0.3</v>
       </c>
       <c r="Q35" t="n">
-        <v>33.4</v>
+        <v>33.27</v>
       </c>
       <c r="R35" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S35" t="n">
-        <v>30.49</v>
+        <v>30.35</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2609,45 +2716,45 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>368442.91</v>
+        <v>3630.425901634464</v>
       </c>
       <c r="C36" t="n">
-        <v>368442.21</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>3629.73</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.34</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>4096.52</v>
+        <v>2629.73</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G36" t="n">
-        <v>168442.21</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>36596.39</v>
+        <v>3.04</v>
       </c>
       <c r="I36" t="n">
-        <v>32565.24</v>
+        <v>2.7</v>
       </c>
       <c r="J36" t="n">
-        <v>-1181.68</v>
+        <v>-19.82</v>
       </c>
       <c r="K36" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.01</v>
+        <v>-1.15</v>
       </c>
       <c r="M36" t="n">
         <v>32</v>
       </c>
       <c r="N36" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O36" t="n">
         <v>2.3</v>
@@ -2656,13 +2763,16 @@
         <v>0.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.4</v>
+        <v>33.27</v>
       </c>
       <c r="R36" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S36" t="n">
-        <v>30.49</v>
+        <v>30.35</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2670,45 +2780,45 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>387543.31</v>
+        <v>3821.425901634464</v>
       </c>
       <c r="C37" t="n">
-        <v>387542.61</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>3820.73</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.34</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>4096.52</v>
+        <v>2820.73</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G37" t="n">
-        <v>187542.61</v>
+        <v>4</v>
       </c>
       <c r="H37" t="n">
-        <v>36596.39</v>
+        <v>3.04</v>
       </c>
       <c r="I37" t="n">
-        <v>32565.24</v>
+        <v>2.7</v>
       </c>
       <c r="J37" t="n">
-        <v>-1181.68</v>
+        <v>-19.82</v>
       </c>
       <c r="K37" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.01</v>
+        <v>-1.15</v>
       </c>
       <c r="M37" t="n">
         <v>32</v>
       </c>
       <c r="N37" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O37" t="n">
         <v>2.3</v>
@@ -2717,13 +2827,16 @@
         <v>0.3</v>
       </c>
       <c r="Q37" t="n">
-        <v>33.4</v>
+        <v>33.27</v>
       </c>
       <c r="R37" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S37" t="n">
-        <v>30.49</v>
+        <v>30.35</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2731,45 +2844,45 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>726034.5</v>
+        <v>7206.335901634465</v>
       </c>
       <c r="C38" t="n">
-        <v>726033.8</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>7205.64</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.34</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
-      </c>
-      <c r="F38" t="n">
-        <v>4096.52</v>
+        <v>6205.64</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G38" t="n">
-        <v>526033.8</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
-        <v>36596.39</v>
+        <v>3.04</v>
       </c>
       <c r="I38" t="n">
-        <v>32565.24</v>
+        <v>2.7</v>
       </c>
       <c r="J38" t="n">
-        <v>-1181.68</v>
+        <v>-19.82</v>
       </c>
       <c r="K38" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.01</v>
+        <v>-1.15</v>
       </c>
       <c r="M38" t="n">
         <v>32</v>
       </c>
       <c r="N38" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O38" t="n">
         <v>2.3</v>
@@ -2778,13 +2891,16 @@
         <v>0.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>33.4</v>
+        <v>33.27</v>
       </c>
       <c r="R38" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S38" t="n">
-        <v>30.49</v>
+        <v>30.35</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2797,19 +2913,19 @@
       <c r="C39" t="n">
         <v>0</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>cold standby</t>
-        </is>
+      <c r="D39" t="n">
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2845,6 +2961,9 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2858,19 +2977,19 @@
       <c r="C40" t="n">
         <v>0</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>cold standby</t>
-        </is>
+      <c r="D40" t="n">
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2906,6 +3025,9 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2919,19 +3041,19 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>cold standby</t>
-        </is>
+      <c r="D41" t="n">
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2967,6 +3089,9 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2980,19 +3105,19 @@
       <c r="C42" t="n">
         <v>0</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>cold standby</t>
-        </is>
+      <c r="D42" t="n">
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3028,6 +3153,9 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3036,59 +3164,62 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>41006.5</v>
+        <v>410.07</v>
       </c>
       <c r="C43" t="n">
-        <v>41005.8</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>booting</t>
-        </is>
+        <v>409.4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.15</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G43" t="n">
-        <v>39305.8</v>
+        <v>4</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-4.32</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-0.61</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>35.85</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.7</v>
       </c>
       <c r="S43" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="T43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3097,60 +3228,63 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>139663.58</v>
+        <v>1373.361807152571</v>
       </c>
       <c r="C44" t="n">
-        <v>139662.88</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>1372.67</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.34</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2940.34</v>
+        <v>372.67</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
-        <v>26267.62</v>
+        <v>3.04</v>
       </c>
       <c r="I44" t="n">
-        <v>23374.2</v>
+        <v>2.7</v>
       </c>
       <c r="J44" t="n">
-        <v>-648.59</v>
+        <v>-19.82</v>
       </c>
       <c r="K44" t="n">
-        <v>0.03</v>
+        <v>8.23</v>
       </c>
       <c r="L44" t="n">
-        <v>-0</v>
+        <v>-1.15</v>
       </c>
       <c r="M44" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N44" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="O44" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="P44" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="Q44" t="n">
-        <v>34.33</v>
+        <v>33.27</v>
       </c>
       <c r="R44" t="n">
-        <v>65.41</v>
+        <v>63.62</v>
       </c>
       <c r="S44" t="n">
-        <v>31.08</v>
+        <v>30.35</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -3158,45 +3292,45 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>310837.3</v>
+        <v>3054.365901634465</v>
       </c>
       <c r="C45" t="n">
-        <v>310836.6</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>3053.67</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.34</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
-      </c>
-      <c r="F45" t="n">
-        <v>4096.52</v>
+        <v>2053.67</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G45" t="n">
-        <v>110836.6</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
-        <v>36596.39</v>
+        <v>3.04</v>
       </c>
       <c r="I45" t="n">
-        <v>32565.24</v>
+        <v>2.7</v>
       </c>
       <c r="J45" t="n">
-        <v>-1181.68</v>
+        <v>-19.82</v>
       </c>
       <c r="K45" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.01</v>
+        <v>-1.15</v>
       </c>
       <c r="M45" t="n">
         <v>32</v>
       </c>
       <c r="N45" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O45" t="n">
         <v>2.3</v>
@@ -3205,13 +3339,16 @@
         <v>0.3</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.4</v>
+        <v>33.27</v>
       </c>
       <c r="R45" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S45" t="n">
-        <v>30.49</v>
+        <v>30.35</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3219,45 +3356,45 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>441554.49</v>
+        <v>4361.535901634465</v>
       </c>
       <c r="C46" t="n">
-        <v>441553.79</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>4360.84</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.34</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
-      </c>
-      <c r="F46" t="n">
-        <v>4096.52</v>
+        <v>3360.84</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G46" t="n">
-        <v>241553.79</v>
+        <v>4</v>
       </c>
       <c r="H46" t="n">
-        <v>36596.39</v>
+        <v>3.04</v>
       </c>
       <c r="I46" t="n">
-        <v>32565.24</v>
+        <v>2.7</v>
       </c>
       <c r="J46" t="n">
-        <v>-1181.68</v>
+        <v>-19.82</v>
       </c>
       <c r="K46" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.01</v>
+        <v>-1.15</v>
       </c>
       <c r="M46" t="n">
         <v>32</v>
       </c>
       <c r="N46" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O46" t="n">
         <v>2.3</v>
@@ -3266,13 +3403,16 @@
         <v>0.3</v>
       </c>
       <c r="Q46" t="n">
-        <v>33.4</v>
+        <v>33.27</v>
       </c>
       <c r="R46" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S46" t="n">
-        <v>30.49</v>
+        <v>30.35</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -3280,45 +3420,45 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>349302.87</v>
+        <v>3439.025901634465</v>
       </c>
       <c r="C47" t="n">
-        <v>349302.17</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>3438.33</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.34</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
-      </c>
-      <c r="F47" t="n">
-        <v>4096.52</v>
+        <v>2438.33</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G47" t="n">
-        <v>149302.17</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
-        <v>36596.39</v>
+        <v>3.04</v>
       </c>
       <c r="I47" t="n">
-        <v>32565.24</v>
+        <v>2.7</v>
       </c>
       <c r="J47" t="n">
-        <v>-1181.68</v>
+        <v>-19.82</v>
       </c>
       <c r="K47" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.01</v>
+        <v>-1.15</v>
       </c>
       <c r="M47" t="n">
         <v>32</v>
       </c>
       <c r="N47" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O47" t="n">
         <v>2.3</v>
@@ -3327,13 +3467,16 @@
         <v>0.3</v>
       </c>
       <c r="Q47" t="n">
-        <v>33.4</v>
+        <v>33.27</v>
       </c>
       <c r="R47" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S47" t="n">
-        <v>30.49</v>
+        <v>30.35</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3341,45 +3484,45 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>566884.36</v>
+        <v>5614.835901634465</v>
       </c>
       <c r="C48" t="n">
-        <v>566883.66</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>5614.14</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.34</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4096.52</v>
+        <v>4614.14</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G48" t="n">
-        <v>366883.66</v>
+        <v>4</v>
       </c>
       <c r="H48" t="n">
-        <v>36596.39</v>
+        <v>3.04</v>
       </c>
       <c r="I48" t="n">
-        <v>32565.24</v>
+        <v>2.7</v>
       </c>
       <c r="J48" t="n">
-        <v>-1181.68</v>
+        <v>-19.82</v>
       </c>
       <c r="K48" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.01</v>
+        <v>-1.15</v>
       </c>
       <c r="M48" t="n">
         <v>32</v>
       </c>
       <c r="N48" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O48" t="n">
         <v>2.3</v>
@@ -3388,13 +3531,16 @@
         <v>0.3</v>
       </c>
       <c r="Q48" t="n">
-        <v>33.4</v>
+        <v>33.27</v>
       </c>
       <c r="R48" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S48" t="n">
-        <v>30.49</v>
+        <v>30.35</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3402,45 +3548,45 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>441554.49</v>
+        <v>4361.535901634465</v>
       </c>
       <c r="C49" t="n">
-        <v>441553.79</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>4360.84</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.34</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
-      </c>
-      <c r="F49" t="n">
-        <v>4096.52</v>
+        <v>3360.84</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G49" t="n">
-        <v>241553.79</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>36596.39</v>
+        <v>3.04</v>
       </c>
       <c r="I49" t="n">
-        <v>32565.24</v>
+        <v>2.7</v>
       </c>
       <c r="J49" t="n">
-        <v>-1181.68</v>
+        <v>-19.82</v>
       </c>
       <c r="K49" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.01</v>
+        <v>-1.15</v>
       </c>
       <c r="M49" t="n">
         <v>32</v>
       </c>
       <c r="N49" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O49" t="n">
         <v>2.3</v>
@@ -3449,13 +3595,16 @@
         <v>0.3</v>
       </c>
       <c r="Q49" t="n">
-        <v>33.4</v>
+        <v>33.27</v>
       </c>
       <c r="R49" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S49" t="n">
-        <v>30.49</v>
+        <v>30.35</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -3463,45 +3612,45 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>1106658.92</v>
+        <v>11012.58590163447</v>
       </c>
       <c r="C50" t="n">
-        <v>1106658.22</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>11011.89</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.34</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
-      </c>
-      <c r="F50" t="n">
-        <v>4096.52</v>
+        <v>10011.89</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G50" t="n">
-        <v>906658.22</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>36596.39</v>
+        <v>3.04</v>
       </c>
       <c r="I50" t="n">
-        <v>32565.24</v>
+        <v>2.7</v>
       </c>
       <c r="J50" t="n">
-        <v>-1181.68</v>
+        <v>-19.82</v>
       </c>
       <c r="K50" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.01</v>
+        <v>-1.15</v>
       </c>
       <c r="M50" t="n">
         <v>32</v>
       </c>
       <c r="N50" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O50" t="n">
         <v>2.3</v>
@@ -3510,13 +3659,16 @@
         <v>0.3</v>
       </c>
       <c r="Q50" t="n">
-        <v>33.4</v>
+        <v>33.27</v>
       </c>
       <c r="R50" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S50" t="n">
-        <v>30.49</v>
+        <v>30.35</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3524,45 +3676,45 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>933530.46</v>
+        <v>9281.295901634465</v>
       </c>
       <c r="C51" t="n">
-        <v>933529.76</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
+        <v>9280.6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.34</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F51" t="n">
-        <v>4096.52</v>
+        <v>8280.6</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
       </c>
       <c r="G51" t="n">
-        <v>733529.76</v>
+        <v>4</v>
       </c>
       <c r="H51" t="n">
-        <v>36596.39</v>
+        <v>3.04</v>
       </c>
       <c r="I51" t="n">
-        <v>32565.24</v>
+        <v>2.7</v>
       </c>
       <c r="J51" t="n">
-        <v>-1181.68</v>
+        <v>-19.82</v>
       </c>
       <c r="K51" t="n">
-        <v>0.04</v>
+        <v>8.23</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.01</v>
+        <v>-1.15</v>
       </c>
       <c r="M51" t="n">
         <v>32</v>
       </c>
       <c r="N51" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O51" t="n">
         <v>2.3</v>
@@ -3571,13 +3723,16 @@
         <v>0.3</v>
       </c>
       <c r="Q51" t="n">
-        <v>33.4</v>
+        <v>33.27</v>
       </c>
       <c r="R51" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S51" t="n">
-        <v>30.49</v>
+        <v>30.35</v>
+      </c>
+      <c r="T51" t="n">
+        <v>9335.299999999999</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,11 +529,6 @@
           <t>efficency _c [%]</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>P_ac2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -546,7 +541,7 @@
         <v>784.99</v>
       </c>
       <c r="D2" t="n">
-        <v>0.27</v>
+        <v>393.67</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -560,43 +555,40 @@
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.41</v>
+        <v>3516.86</v>
       </c>
       <c r="I2" t="n">
-        <v>2.15</v>
+        <v>3129.48</v>
       </c>
       <c r="J2" t="n">
-        <v>-13.27</v>
+        <v>-38223.73</v>
       </c>
       <c r="K2" t="n">
-        <v>7.02</v>
+        <v>14.03</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.98</v>
+        <v>-1.96</v>
       </c>
       <c r="M2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="O2" t="n">
         <v>2.59</v>
       </c>
       <c r="P2" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.66</v>
+        <v>5.25</v>
       </c>
       <c r="R2" t="n">
-        <v>64.16</v>
+        <v>65</v>
       </c>
       <c r="S2" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="3">
@@ -604,16 +596,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1456.699723940105</v>
+        <v>1478.798584425997</v>
       </c>
       <c r="C3" t="n">
-        <v>1456.01</v>
+        <v>1478.11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E3" t="n">
-        <v>456.01</v>
+        <v>478.11</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -624,25 +616,25 @@
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J3" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K3" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M3" t="n">
         <v>32</v>
       </c>
       <c r="N3" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O3" t="n">
         <v>2.3</v>
@@ -651,16 +643,13 @@
         <v>0.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R3" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S3" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="4">
@@ -668,16 +657,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1643.505901634465</v>
+        <v>1671.550112712461</v>
       </c>
       <c r="C4" t="n">
-        <v>1642.81</v>
+        <v>1670.86</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E4" t="n">
-        <v>642.8099999999999</v>
+        <v>670.86</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -688,25 +677,25 @@
         <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J4" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K4" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M4" t="n">
         <v>32</v>
       </c>
       <c r="N4" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O4" t="n">
         <v>2.3</v>
@@ -715,16 +704,13 @@
         <v>0.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R4" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S4" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="5">
@@ -732,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>356.0659016344647</v>
+        <v>384.1101127124613</v>
       </c>
       <c r="C5" t="n">
-        <v>355.4</v>
+        <v>383.45</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13</v>
+        <v>196.64</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -752,43 +738,40 @@
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.16</v>
+        <v>1756.69</v>
       </c>
       <c r="I5" t="n">
-        <v>1.03</v>
+        <v>1563.19</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.35</v>
+        <v>-11069.04</v>
       </c>
       <c r="K5" t="n">
-        <v>3.91</v>
+        <v>8.32</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.55</v>
+        <v>-1.16</v>
       </c>
       <c r="M5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N5" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O5" t="n">
-        <v>3.72</v>
+        <v>3.58</v>
       </c>
       <c r="P5" t="n">
         <v>0.19</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.79</v>
+        <v>5.37</v>
       </c>
       <c r="R5" t="n">
-        <v>67.34</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>31.55</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
+        <v>60.23</v>
       </c>
     </row>
     <row r="6">
@@ -796,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>165.6575829371053</v>
+        <v>175.939281967498</v>
       </c>
       <c r="C6" t="n">
-        <v>165.04</v>
+        <v>175.32</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05</v>
+        <v>84.94</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -816,43 +799,40 @@
         <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.45</v>
+        <v>758.8099999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4</v>
+        <v>675.23</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.75</v>
+        <v>-2445.21</v>
       </c>
       <c r="K6" t="n">
-        <v>1.87</v>
+        <v>4.02</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.26</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N6" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="O6" t="n">
-        <v>5.47</v>
+        <v>5.31</v>
       </c>
       <c r="P6" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q6" t="n">
-        <v>29.64</v>
+        <v>5.07</v>
       </c>
       <c r="R6" t="n">
-        <v>53.38</v>
+        <v>60.05</v>
       </c>
       <c r="S6" t="n">
-        <v>23.74</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
+        <v>54.98</v>
       </c>
     </row>
     <row r="7">
@@ -860,24 +840,24 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>65.93814210225196</v>
+        <v>69.43056807946672</v>
       </c>
       <c r="C7" t="n">
-        <v>65.45</v>
+        <v>68.93000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>65.45</v>
+        <v>68.93000000000001</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -913,9 +893,6 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -930,56 +907,53 @@
         <v>241.24</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>232.74</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.62</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.39</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4.59</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>32.45</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>59.83</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>27.38</v>
-      </c>
-      <c r="T8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -988,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>882.2254964691953</v>
+        <v>894.62</v>
       </c>
       <c r="C9" t="n">
-        <v>881.54</v>
+        <v>893.9400000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3</v>
+        <v>443.86</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1008,43 +982,40 @@
         <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.68</v>
+        <v>3965.24</v>
       </c>
       <c r="I9" t="n">
-        <v>2.38</v>
+        <v>3528.46</v>
       </c>
       <c r="J9" t="n">
-        <v>-16.1</v>
+        <v>-47456.03</v>
       </c>
       <c r="K9" t="n">
-        <v>7.58</v>
+        <v>15.3</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.06</v>
+        <v>-2.14</v>
       </c>
       <c r="M9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="O9" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="P9" t="n">
         <v>0.27</v>
       </c>
       <c r="Q9" t="n">
-        <v>33.3</v>
+        <v>5.2</v>
       </c>
       <c r="R9" t="n">
-        <v>63.56</v>
+        <v>64.45</v>
       </c>
       <c r="S9" t="n">
-        <v>30.26</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
+        <v>59.25</v>
       </c>
     </row>
     <row r="10">
@@ -1052,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>362.7521738544976</v>
+        <v>386.9357872752159</v>
       </c>
       <c r="C10" t="n">
-        <v>362.09</v>
+        <v>386.27</v>
       </c>
       <c r="D10" t="n">
-        <v>0.13</v>
+        <v>198.1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1072,43 +1043,40 @@
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.16</v>
+        <v>1769.73</v>
       </c>
       <c r="I10" t="n">
-        <v>1.03</v>
+        <v>1574.79</v>
       </c>
       <c r="J10" t="n">
-        <v>-3.47</v>
+        <v>-11215.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.97</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-1.17</v>
       </c>
       <c r="M10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N10" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="O10" t="n">
-        <v>3.69</v>
+        <v>3.57</v>
       </c>
       <c r="P10" t="n">
         <v>0.19</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.13</v>
+        <v>5.37</v>
       </c>
       <c r="R10" t="n">
-        <v>66.05</v>
+        <v>65.61</v>
       </c>
       <c r="S10" t="n">
-        <v>30.92</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
+        <v>60.24</v>
       </c>
     </row>
     <row r="11">
@@ -1116,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1478.916652455275</v>
+        <v>1489.125408092268</v>
       </c>
       <c r="C11" t="n">
-        <v>1478.23</v>
+        <v>1488.43</v>
       </c>
       <c r="D11" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E11" t="n">
-        <v>478.23</v>
+        <v>488.43</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1136,25 +1104,25 @@
         <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I11" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J11" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K11" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M11" t="n">
         <v>32</v>
       </c>
       <c r="N11" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O11" t="n">
         <v>2.3</v>
@@ -1163,16 +1131,13 @@
         <v>0.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R11" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S11" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="12">
@@ -1180,16 +1145,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1534.745901634465</v>
+        <v>1562.790112712461</v>
       </c>
       <c r="C12" t="n">
-        <v>1534.05</v>
+        <v>1562.1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E12" t="n">
-        <v>534.05</v>
+        <v>562.1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1200,25 +1165,25 @@
         <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J12" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K12" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M12" t="n">
         <v>32</v>
       </c>
       <c r="N12" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O12" t="n">
         <v>2.3</v>
@@ -1227,16 +1192,13 @@
         <v>0.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R12" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S12" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="13">
@@ -1244,16 +1206,16 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1043.965901634465</v>
+        <v>1072.010112712461</v>
       </c>
       <c r="C13" t="n">
-        <v>1043.28</v>
+        <v>1071.32</v>
       </c>
       <c r="D13" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E13" t="n">
-        <v>43.28</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1264,25 +1226,25 @@
         <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J13" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K13" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M13" t="n">
         <v>32</v>
       </c>
       <c r="N13" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O13" t="n">
         <v>2.3</v>
@@ -1291,16 +1253,13 @@
         <v>0.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R13" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S13" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="14">
@@ -1308,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>187.8759016344647</v>
+        <v>215.9201127124613</v>
       </c>
       <c r="C14" t="n">
-        <v>187.25</v>
+        <v>215.28</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06</v>
+        <v>107.03</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1328,43 +1287,40 @@
         <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>0.54</v>
+        <v>956.16</v>
       </c>
       <c r="I14" t="n">
-        <v>0.48</v>
+        <v>850.83</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.98</v>
+        <v>-3732.01</v>
       </c>
       <c r="K14" t="n">
-        <v>2.16</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="M14" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N14" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="O14" t="n">
-        <v>5.13</v>
+        <v>4.92</v>
       </c>
       <c r="P14" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q14" t="n">
-        <v>31.35</v>
+        <v>5.2</v>
       </c>
       <c r="R14" t="n">
-        <v>57.12</v>
+        <v>62.15</v>
       </c>
       <c r="S14" t="n">
-        <v>25.77</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
+        <v>56.95</v>
       </c>
     </row>
     <row r="15">
@@ -1372,16 +1328,16 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1489.778557618127</v>
+        <v>1493.714304549747</v>
       </c>
       <c r="C15" t="n">
-        <v>1489.09</v>
+        <v>1493.02</v>
       </c>
       <c r="D15" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E15" t="n">
-        <v>489.09</v>
+        <v>493.02</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1392,25 +1348,25 @@
         <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J15" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K15" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M15" t="n">
         <v>32</v>
       </c>
       <c r="N15" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O15" t="n">
         <v>2.3</v>
@@ -1419,16 +1375,13 @@
         <v>0.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R15" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S15" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="16">
@@ -1436,16 +1389,16 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1043.965901634465</v>
+        <v>1072.010112712461</v>
       </c>
       <c r="C16" t="n">
-        <v>1043.28</v>
+        <v>1071.32</v>
       </c>
       <c r="D16" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E16" t="n">
-        <v>43.28</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1456,25 +1409,25 @@
         <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J16" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K16" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M16" t="n">
         <v>32</v>
       </c>
       <c r="N16" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O16" t="n">
         <v>2.3</v>
@@ -1483,16 +1436,13 @@
         <v>0.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R16" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S16" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="17">
@@ -1500,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>624.2659016344646</v>
+        <v>652.3101127124612</v>
       </c>
       <c r="C17" t="n">
-        <v>623.59</v>
+        <v>651.63</v>
       </c>
       <c r="D17" t="n">
-        <v>0.22</v>
+        <v>330.49</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1520,43 +1470,40 @@
         <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.97</v>
+        <v>2952.44</v>
       </c>
       <c r="I17" t="n">
-        <v>1.75</v>
+        <v>2627.23</v>
       </c>
       <c r="J17" t="n">
-        <v>-8.99</v>
+        <v>-27921.63</v>
       </c>
       <c r="K17" t="n">
-        <v>5.99</v>
+        <v>12.35</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.84</v>
+        <v>-1.73</v>
       </c>
       <c r="M17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="O17" t="n">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="P17" t="n">
         <v>0.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>34.52</v>
+        <v>5.31</v>
       </c>
       <c r="R17" t="n">
-        <v>65.65000000000001</v>
+        <v>65.59</v>
       </c>
       <c r="S17" t="n">
-        <v>31.13</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
+        <v>60.28</v>
       </c>
     </row>
     <row r="18">
@@ -1564,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>151.4878137841848</v>
+        <v>168.9736089324286</v>
       </c>
       <c r="C18" t="n">
-        <v>150.88</v>
+        <v>168.36</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05</v>
+        <v>81.06</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1584,43 +1531,40 @@
         <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>0.45</v>
+        <v>724.15</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4</v>
+        <v>644.39</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.61</v>
+        <v>-2241.7</v>
       </c>
       <c r="K18" t="n">
-        <v>1.68</v>
+        <v>3.84</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.24</v>
+        <v>-0.54</v>
       </c>
       <c r="M18" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N18" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O18" t="n">
-        <v>5.69</v>
+        <v>5.42</v>
       </c>
       <c r="P18" t="n">
         <v>0.17</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.43</v>
+        <v>5.04</v>
       </c>
       <c r="R18" t="n">
-        <v>58.68</v>
+        <v>59.53</v>
       </c>
       <c r="S18" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
+        <v>54.49</v>
       </c>
     </row>
     <row r="19">
@@ -1628,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1291.876994947577</v>
+        <v>1295.5649172482</v>
       </c>
       <c r="C19" t="n">
-        <v>1291.19</v>
+        <v>1294.88</v>
       </c>
       <c r="D19" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E19" t="n">
-        <v>291.19</v>
+        <v>294.88</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1648,25 +1592,25 @@
         <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J19" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K19" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M19" t="n">
         <v>32</v>
       </c>
       <c r="N19" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O19" t="n">
         <v>2.3</v>
@@ -1675,16 +1619,13 @@
         <v>0.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R19" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S19" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="20">
@@ -1692,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1534.745901634465</v>
+        <v>1562.790112712461</v>
       </c>
       <c r="C20" t="n">
-        <v>1534.05</v>
+        <v>1562.1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E20" t="n">
-        <v>534.05</v>
+        <v>562.1</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1712,25 +1653,25 @@
         <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I20" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J20" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K20" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M20" t="n">
         <v>32</v>
       </c>
       <c r="N20" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O20" t="n">
         <v>2.3</v>
@@ -1739,16 +1680,13 @@
         <v>0.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R20" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S20" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="21">
@@ -1756,24 +1694,24 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>19.6859016344647</v>
+        <v>47.73011271246128</v>
       </c>
       <c r="C21" t="n">
-        <v>19.46</v>
+        <v>47.32</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>19.46</v>
+        <v>47.32</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1809,9 +1747,6 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1826,56 +1761,53 @@
         <v>241.24</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>232.74</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.62</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.39</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>4.59</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.45</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>59.83</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>27.38</v>
-      </c>
-      <c r="T22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1884,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>397.6754964691953</v>
+        <v>410.07</v>
       </c>
       <c r="C23" t="n">
-        <v>397.01</v>
+        <v>409.4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.14</v>
+        <v>210.04</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1904,43 +1836,40 @@
         <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>1.25</v>
+        <v>1876.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.11</v>
+        <v>1669.71</v>
       </c>
       <c r="J23" t="n">
-        <v>-4.09</v>
+        <v>-12444.98</v>
       </c>
       <c r="K23" t="n">
-        <v>4.28</v>
+        <v>8.76</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.6</v>
+        <v>-1.23</v>
       </c>
       <c r="M23" t="n">
         <v>29</v>
       </c>
       <c r="N23" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O23" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="P23" t="n">
         <v>0.19</v>
       </c>
       <c r="Q23" t="n">
-        <v>34.51</v>
+        <v>5.37</v>
       </c>
       <c r="R23" t="n">
-        <v>64.98</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>30.47</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
+        <v>60.37</v>
       </c>
     </row>
     <row r="24">
@@ -1948,16 +1877,16 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1374.918448852305</v>
+        <v>1386.078898832591</v>
       </c>
       <c r="C24" t="n">
-        <v>1374.23</v>
+        <v>1385.39</v>
       </c>
       <c r="D24" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E24" t="n">
-        <v>374.23</v>
+        <v>385.39</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1968,25 +1897,25 @@
         <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I24" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J24" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K24" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M24" t="n">
         <v>32</v>
       </c>
       <c r="N24" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O24" t="n">
         <v>2.3</v>
@@ -1995,16 +1924,13 @@
         <v>0.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R24" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S24" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="25">
@@ -2012,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>840.6159016344648</v>
+        <v>868.6601127124613</v>
       </c>
       <c r="C25" t="n">
-        <v>839.9299999999999</v>
+        <v>867.98</v>
       </c>
       <c r="D25" t="n">
-        <v>0.29</v>
+        <v>432.01</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2032,19 +1958,19 @@
         <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.59</v>
+        <v>3859.38</v>
       </c>
       <c r="I25" t="n">
-        <v>2.31</v>
+        <v>3434.26</v>
       </c>
       <c r="J25" t="n">
-        <v>-14.86</v>
+        <v>-45193.29</v>
       </c>
       <c r="K25" t="n">
-        <v>7.34</v>
+        <v>15.01</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.03</v>
+        <v>-2.1</v>
       </c>
       <c r="M25" t="n">
         <v>31</v>
@@ -2053,22 +1979,19 @@
         <v>1.8</v>
       </c>
       <c r="O25" t="n">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="P25" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="Q25" t="n">
-        <v>33.78</v>
+        <v>5.21</v>
       </c>
       <c r="R25" t="n">
-        <v>64.48</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
+        <v>59.36</v>
       </c>
     </row>
     <row r="26">
@@ -2076,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>948.2102037471435</v>
+        <v>971.4014243050611</v>
       </c>
       <c r="C26" t="n">
-        <v>947.52</v>
+        <v>970.72</v>
       </c>
       <c r="D26" t="n">
-        <v>0.33</v>
+        <v>478.51</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2096,43 +2019,40 @@
         <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>2.95</v>
+        <v>4274.78</v>
       </c>
       <c r="I26" t="n">
-        <v>2.62</v>
+        <v>3803.91</v>
       </c>
       <c r="J26" t="n">
-        <v>-18.14</v>
+        <v>-54368.55</v>
       </c>
       <c r="K26" t="n">
-        <v>7.95</v>
+        <v>16.14</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.11</v>
+        <v>-2.26</v>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N26" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="O26" t="n">
-        <v>2.37</v>
+        <v>2.34</v>
       </c>
       <c r="P26" t="n">
         <v>0.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>34.08</v>
+        <v>5.16</v>
       </c>
       <c r="R26" t="n">
-        <v>65.17</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="S26" t="n">
-        <v>31.09</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
+        <v>58.88</v>
       </c>
     </row>
     <row r="27">
@@ -2140,16 +2060,16 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1247.361402989131</v>
+        <v>1274.434346523669</v>
       </c>
       <c r="C27" t="n">
-        <v>1246.67</v>
+        <v>1273.75</v>
       </c>
       <c r="D27" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E27" t="n">
-        <v>246.67</v>
+        <v>273.75</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2160,25 +2080,25 @@
         <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I27" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J27" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K27" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M27" t="n">
         <v>32</v>
       </c>
       <c r="N27" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O27" t="n">
         <v>2.3</v>
@@ -2187,16 +2107,13 @@
         <v>0.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R27" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S27" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="28">
@@ -2204,13 +2121,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>243.9359016344647</v>
+        <v>271.9801127124613</v>
       </c>
       <c r="C28" t="n">
-        <v>243.29</v>
+        <v>271.33</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08</v>
+        <v>137.47</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2224,43 +2141,40 @@
         <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>0.71</v>
+        <v>1228.09</v>
       </c>
       <c r="I28" t="n">
-        <v>0.64</v>
+        <v>1092.82</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.65</v>
+        <v>-5852.01</v>
       </c>
       <c r="K28" t="n">
-        <v>2.81</v>
+        <v>6.22</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.39</v>
+        <v>-0.87</v>
       </c>
       <c r="M28" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="O28" t="n">
-        <v>4.57</v>
+        <v>4.29</v>
       </c>
       <c r="P28" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.18</v>
+        <v>5.3</v>
       </c>
       <c r="R28" t="n">
-        <v>59.31</v>
+        <v>64.06</v>
       </c>
       <c r="S28" t="n">
-        <v>27.13</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
+        <v>58.76</v>
       </c>
     </row>
     <row r="29">
@@ -2281,11 +2195,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2321,9 +2235,6 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2338,56 +2249,53 @@
         <v>1395.95</v>
       </c>
       <c r="D30" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>395.95</v>
+        <v>1387.45</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-19.82</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>8.23</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.15</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.27</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>63.62</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,16 +2304,16 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>1445.075901634465</v>
+        <v>1499.08</v>
       </c>
       <c r="C31" t="n">
-        <v>1444.39</v>
+        <v>1498.39</v>
       </c>
       <c r="D31" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E31" t="n">
-        <v>444.39</v>
+        <v>498.39</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2416,25 +2324,25 @@
         <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I31" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J31" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K31" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M31" t="n">
         <v>32</v>
       </c>
       <c r="N31" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O31" t="n">
         <v>2.3</v>
@@ -2443,16 +2351,13 @@
         <v>0.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R31" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S31" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="32">
@@ -2460,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>1534.745901634465</v>
+        <v>1562.790112712461</v>
       </c>
       <c r="C32" t="n">
-        <v>1534.05</v>
+        <v>1562.1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E32" t="n">
-        <v>534.05</v>
+        <v>562.1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2480,25 +2385,25 @@
         <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I32" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J32" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K32" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M32" t="n">
         <v>32</v>
       </c>
       <c r="N32" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O32" t="n">
         <v>2.3</v>
@@ -2507,16 +2412,13 @@
         <v>0.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R32" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S32" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="33">
@@ -2524,16 +2426,16 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>2295.955901634465</v>
+        <v>2324.000112712461</v>
       </c>
       <c r="C33" t="n">
-        <v>2295.26</v>
+        <v>2323.31</v>
       </c>
       <c r="D33" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E33" t="n">
-        <v>1295.26</v>
+        <v>1323.31</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2544,25 +2446,25 @@
         <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I33" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J33" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K33" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L33" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M33" t="n">
         <v>32</v>
       </c>
       <c r="N33" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O33" t="n">
         <v>2.3</v>
@@ -2571,16 +2473,13 @@
         <v>0.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R33" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S33" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="34">
@@ -2588,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>4985.015901634465</v>
+        <v>5013.060112712462</v>
       </c>
       <c r="C34" t="n">
-        <v>4984.32</v>
+        <v>5012.36</v>
       </c>
       <c r="D34" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E34" t="n">
-        <v>3984.32</v>
+        <v>4012.36</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2608,25 +2507,25 @@
         <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I34" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J34" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K34" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M34" t="n">
         <v>32</v>
       </c>
       <c r="N34" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O34" t="n">
         <v>2.3</v>
@@ -2635,16 +2534,13 @@
         <v>0.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R34" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S34" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="35">
@@ -2652,16 +2548,16 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>6245.195901634464</v>
+        <v>6273.240112712461</v>
       </c>
       <c r="C35" t="n">
-        <v>6244.5</v>
+        <v>6272.54</v>
       </c>
       <c r="D35" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E35" t="n">
-        <v>5244.5</v>
+        <v>5272.54</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2672,25 +2568,25 @@
         <v>4</v>
       </c>
       <c r="H35" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I35" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J35" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K35" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L35" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M35" t="n">
         <v>32</v>
       </c>
       <c r="N35" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O35" t="n">
         <v>2.3</v>
@@ -2699,16 +2595,13 @@
         <v>0.3</v>
       </c>
       <c r="Q35" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R35" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S35" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="36">
@@ -2716,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>3630.425901634464</v>
+        <v>3658.470112712461</v>
       </c>
       <c r="C36" t="n">
-        <v>3629.73</v>
+        <v>3657.77</v>
       </c>
       <c r="D36" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E36" t="n">
-        <v>2629.73</v>
+        <v>2657.77</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2736,25 +2629,25 @@
         <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I36" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J36" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K36" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L36" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M36" t="n">
         <v>32</v>
       </c>
       <c r="N36" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O36" t="n">
         <v>2.3</v>
@@ -2763,16 +2656,13 @@
         <v>0.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R36" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S36" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="37">
@@ -2780,16 +2670,16 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>3821.425901634464</v>
+        <v>3849.470112712461</v>
       </c>
       <c r="C37" t="n">
-        <v>3820.73</v>
+        <v>3848.77</v>
       </c>
       <c r="D37" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E37" t="n">
-        <v>2820.73</v>
+        <v>2848.77</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2800,25 +2690,25 @@
         <v>4</v>
       </c>
       <c r="H37" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I37" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J37" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K37" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M37" t="n">
         <v>32</v>
       </c>
       <c r="N37" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O37" t="n">
         <v>2.3</v>
@@ -2827,16 +2717,13 @@
         <v>0.3</v>
       </c>
       <c r="Q37" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R37" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S37" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="38">
@@ -2844,16 +2731,16 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>7206.335901634465</v>
+        <v>7234.380112712462</v>
       </c>
       <c r="C38" t="n">
-        <v>7205.64</v>
+        <v>7233.68</v>
       </c>
       <c r="D38" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E38" t="n">
-        <v>6205.64</v>
+        <v>6233.68</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2864,25 +2751,25 @@
         <v>4</v>
       </c>
       <c r="H38" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I38" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J38" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K38" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L38" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M38" t="n">
         <v>32</v>
       </c>
       <c r="N38" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O38" t="n">
         <v>2.3</v>
@@ -2891,16 +2778,13 @@
         <v>0.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R38" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S38" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="39">
@@ -2921,11 +2805,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2961,9 +2845,6 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,11 +2866,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3025,9 +2906,6 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3049,11 +2927,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3089,9 +2967,6 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3113,11 +2988,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3153,9 +3028,6 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3170,56 +3042,53 @@
         <v>409.4</v>
       </c>
       <c r="D43" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>400.9</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-4.32</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4.38</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.61</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.85</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.7</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>31.85</v>
-      </c>
-      <c r="T43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,16 +3097,16 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>1373.361807152571</v>
+        <v>1396.64</v>
       </c>
       <c r="C44" t="n">
-        <v>1372.67</v>
+        <v>1395.95</v>
       </c>
       <c r="D44" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E44" t="n">
-        <v>372.67</v>
+        <v>395.95</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3248,25 +3117,25 @@
         <v>4</v>
       </c>
       <c r="H44" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I44" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J44" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K44" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M44" t="n">
         <v>32</v>
       </c>
       <c r="N44" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O44" t="n">
         <v>2.3</v>
@@ -3275,16 +3144,13 @@
         <v>0.3</v>
       </c>
       <c r="Q44" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R44" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S44" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="45">
@@ -3292,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>3054.365901634465</v>
+        <v>3082.410112712461</v>
       </c>
       <c r="C45" t="n">
-        <v>3053.67</v>
+        <v>3081.71</v>
       </c>
       <c r="D45" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E45" t="n">
-        <v>2053.67</v>
+        <v>2081.71</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3312,25 +3178,25 @@
         <v>4</v>
       </c>
       <c r="H45" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I45" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J45" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K45" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M45" t="n">
         <v>32</v>
       </c>
       <c r="N45" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O45" t="n">
         <v>2.3</v>
@@ -3339,16 +3205,13 @@
         <v>0.3</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R45" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S45" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="46">
@@ -3356,16 +3219,16 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>4361.535901634465</v>
+        <v>4389.580112712461</v>
       </c>
       <c r="C46" t="n">
-        <v>4360.84</v>
+        <v>4388.88</v>
       </c>
       <c r="D46" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E46" t="n">
-        <v>3360.84</v>
+        <v>3388.88</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3376,25 +3239,25 @@
         <v>4</v>
       </c>
       <c r="H46" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I46" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J46" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K46" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M46" t="n">
         <v>32</v>
       </c>
       <c r="N46" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O46" t="n">
         <v>2.3</v>
@@ -3403,16 +3266,13 @@
         <v>0.3</v>
       </c>
       <c r="Q46" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R46" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S46" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="47">
@@ -3420,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>3439.025901634465</v>
+        <v>3467.070112712462</v>
       </c>
       <c r="C47" t="n">
-        <v>3438.33</v>
+        <v>3466.37</v>
       </c>
       <c r="D47" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E47" t="n">
-        <v>2438.33</v>
+        <v>2466.37</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3440,25 +3300,25 @@
         <v>4</v>
       </c>
       <c r="H47" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I47" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J47" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K47" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M47" t="n">
         <v>32</v>
       </c>
       <c r="N47" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O47" t="n">
         <v>2.3</v>
@@ -3467,16 +3327,13 @@
         <v>0.3</v>
       </c>
       <c r="Q47" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R47" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S47" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="48">
@@ -3484,16 +3341,16 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>5614.835901634465</v>
+        <v>5642.880112712462</v>
       </c>
       <c r="C48" t="n">
-        <v>5614.14</v>
+        <v>5642.18</v>
       </c>
       <c r="D48" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E48" t="n">
-        <v>4614.14</v>
+        <v>4642.18</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3504,25 +3361,25 @@
         <v>4</v>
       </c>
       <c r="H48" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I48" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J48" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K48" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L48" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M48" t="n">
         <v>32</v>
       </c>
       <c r="N48" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O48" t="n">
         <v>2.3</v>
@@ -3531,16 +3388,13 @@
         <v>0.3</v>
       </c>
       <c r="Q48" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R48" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S48" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="49">
@@ -3548,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>4361.535901634465</v>
+        <v>4389.580112712461</v>
       </c>
       <c r="C49" t="n">
-        <v>4360.84</v>
+        <v>4388.88</v>
       </c>
       <c r="D49" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E49" t="n">
-        <v>3360.84</v>
+        <v>3388.88</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3568,25 +3422,25 @@
         <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I49" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J49" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K49" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L49" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M49" t="n">
         <v>32</v>
       </c>
       <c r="N49" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O49" t="n">
         <v>2.3</v>
@@ -3595,16 +3449,13 @@
         <v>0.3</v>
       </c>
       <c r="Q49" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R49" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S49" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="50">
@@ -3612,16 +3463,16 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>11012.58590163447</v>
+        <v>11040.63011271246</v>
       </c>
       <c r="C50" t="n">
-        <v>11011.89</v>
+        <v>11039.93</v>
       </c>
       <c r="D50" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E50" t="n">
-        <v>10011.89</v>
+        <v>10039.93</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3632,25 +3483,25 @@
         <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I50" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J50" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K50" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M50" t="n">
         <v>32</v>
       </c>
       <c r="N50" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O50" t="n">
         <v>2.3</v>
@@ -3659,16 +3510,13 @@
         <v>0.3</v>
       </c>
       <c r="Q50" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R50" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S50" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="51">
@@ -3676,16 +3524,16 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>9281.295901634465</v>
+        <v>9309.34011271246</v>
       </c>
       <c r="C51" t="n">
-        <v>9280.6</v>
+        <v>9308.639999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.34</v>
+        <v>491.58</v>
       </c>
       <c r="E51" t="n">
-        <v>8280.6</v>
+        <v>8308.639999999999</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3696,25 +3544,25 @@
         <v>4</v>
       </c>
       <c r="H51" t="n">
-        <v>3.04</v>
+        <v>4391.55</v>
       </c>
       <c r="I51" t="n">
-        <v>2.7</v>
+        <v>3907.81</v>
       </c>
       <c r="J51" t="n">
-        <v>-19.82</v>
+        <v>-57088.66</v>
       </c>
       <c r="K51" t="n">
-        <v>8.23</v>
+        <v>16.45</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.15</v>
+        <v>-2.3</v>
       </c>
       <c r="M51" t="n">
         <v>32</v>
       </c>
       <c r="N51" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O51" t="n">
         <v>2.3</v>
@@ -3723,16 +3571,13 @@
         <v>0.3</v>
       </c>
       <c r="Q51" t="n">
-        <v>33.27</v>
+        <v>5.14</v>
       </c>
       <c r="R51" t="n">
-        <v>63.62</v>
+        <v>63.89</v>
       </c>
       <c r="S51" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="T51" t="n">
-        <v>9335.299999999999</v>
+        <v>58.75</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -541,7 +541,7 @@
         <v>784.99</v>
       </c>
       <c r="D2" t="n">
-        <v>393.67</v>
+        <v>0.27</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>3516.86</v>
+        <v>2.41</v>
       </c>
       <c r="I2" t="n">
-        <v>3129.48</v>
+        <v>2.15</v>
       </c>
       <c r="J2" t="n">
-        <v>-38223.73</v>
+        <v>-26.54</v>
       </c>
       <c r="K2" t="n">
         <v>14.03</v>
@@ -570,25 +570,25 @@
         <v>-1.96</v>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="O2" t="n">
         <v>2.59</v>
       </c>
       <c r="P2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.25</v>
+        <v>2.81</v>
       </c>
       <c r="R2" t="n">
-        <v>65</v>
+        <v>64.16</v>
       </c>
       <c r="S2" t="n">
-        <v>59.75</v>
+        <v>61.35</v>
       </c>
     </row>
     <row r="3">
@@ -596,16 +596,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1478.798584425997</v>
+        <v>1480.911576795813</v>
       </c>
       <c r="C3" t="n">
-        <v>1478.11</v>
+        <v>1480.22</v>
       </c>
       <c r="D3" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E3" t="n">
-        <v>478.11</v>
+        <v>480.22</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I3" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K3" t="n">
         <v>16.45</v>
@@ -634,7 +634,7 @@
         <v>32</v>
       </c>
       <c r="N3" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O3" t="n">
         <v>2.3</v>
@@ -643,13 +643,13 @@
         <v>0.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R3" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S3" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="4">
@@ -657,16 +657,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1671.550112712461</v>
+        <v>1673.994901526838</v>
       </c>
       <c r="C4" t="n">
-        <v>1670.86</v>
+        <v>1673.3</v>
       </c>
       <c r="D4" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E4" t="n">
-        <v>670.86</v>
+        <v>673.3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -677,13 +677,13 @@
         <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I4" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K4" t="n">
         <v>16.45</v>
@@ -695,7 +695,7 @@
         <v>32</v>
       </c>
       <c r="N4" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O4" t="n">
         <v>2.3</v>
@@ -704,13 +704,13 @@
         <v>0.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R4" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S4" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="5">
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>384.1101127124613</v>
+        <v>386.5549015268377</v>
       </c>
       <c r="C5" t="n">
-        <v>383.45</v>
+        <v>385.89</v>
       </c>
       <c r="D5" t="n">
-        <v>196.64</v>
+        <v>0.14</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -738,40 +738,40 @@
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>1756.69</v>
+        <v>1.25</v>
       </c>
       <c r="I5" t="n">
-        <v>1563.19</v>
+        <v>1.11</v>
       </c>
       <c r="J5" t="n">
-        <v>-11069.04</v>
+        <v>-7.77</v>
       </c>
       <c r="K5" t="n">
-        <v>8.32</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.16</v>
+        <v>-1.17</v>
       </c>
       <c r="M5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N5" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="O5" t="n">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="P5" t="n">
         <v>0.19</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.37</v>
+        <v>2.97</v>
       </c>
       <c r="R5" t="n">
-        <v>65.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="S5" t="n">
-        <v>60.23</v>
+        <v>63.93</v>
       </c>
     </row>
     <row r="6">
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>175.939281967498</v>
+        <v>176.6546977904863</v>
       </c>
       <c r="C6" t="n">
-        <v>175.32</v>
+        <v>176.03</v>
       </c>
       <c r="D6" t="n">
-        <v>84.94</v>
+        <v>0.06</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -799,40 +799,40 @@
         <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>758.8099999999999</v>
+        <v>0.54</v>
       </c>
       <c r="I6" t="n">
-        <v>675.23</v>
+        <v>0.48</v>
       </c>
       <c r="J6" t="n">
-        <v>-2445.21</v>
+        <v>-1.71</v>
       </c>
       <c r="K6" t="n">
-        <v>4.02</v>
+        <v>4.04</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.57</v>
       </c>
       <c r="M6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="O6" t="n">
-        <v>5.31</v>
+        <v>5.3</v>
       </c>
       <c r="P6" t="n">
         <v>0.17</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.07</v>
+        <v>2.79</v>
       </c>
       <c r="R6" t="n">
-        <v>60.05</v>
+        <v>60.92</v>
       </c>
       <c r="S6" t="n">
-        <v>54.98</v>
+        <v>58.13</v>
       </c>
     </row>
     <row r="7">
@@ -840,24 +840,24 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>69.43056807946672</v>
+        <v>69.76854579408429</v>
       </c>
       <c r="C7" t="n">
-        <v>68.93000000000001</v>
+        <v>69.27</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>68.93000000000001</v>
+        <v>69.27</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -907,54 +907,54 @@
         <v>241.24</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E8" t="n">
-        <v>232.74</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>-3.24</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>5.58</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.78</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>4.59</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>59.83</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>57.12</v>
       </c>
     </row>
     <row r="9">
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>894.62</v>
+        <v>889.3993787968125</v>
       </c>
       <c r="C9" t="n">
-        <v>893.9400000000001</v>
+        <v>888.71</v>
       </c>
       <c r="D9" t="n">
-        <v>443.86</v>
+        <v>0.31</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -982,40 +982,40 @@
         <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>3965.24</v>
+        <v>2.77</v>
       </c>
       <c r="I9" t="n">
-        <v>3528.46</v>
+        <v>2.46</v>
       </c>
       <c r="J9" t="n">
-        <v>-47456.03</v>
+        <v>-32.64</v>
       </c>
       <c r="K9" t="n">
-        <v>15.3</v>
+        <v>15.24</v>
       </c>
       <c r="L9" t="n">
-        <v>-2.14</v>
+        <v>-2.13</v>
       </c>
       <c r="M9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="O9" t="n">
-        <v>2.44</v>
+        <v>2.45</v>
       </c>
       <c r="P9" t="n">
         <v>0.27</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.2</v>
+        <v>2.85</v>
       </c>
       <c r="R9" t="n">
-        <v>64.45</v>
+        <v>65.22</v>
       </c>
       <c r="S9" t="n">
-        <v>59.25</v>
+        <v>62.37</v>
       </c>
     </row>
     <row r="10">
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>386.9357872752159</v>
+        <v>388.9541361545394</v>
       </c>
       <c r="C10" t="n">
-        <v>386.27</v>
+        <v>388.29</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1</v>
+        <v>0.14</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1043,40 +1043,40 @@
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>1769.73</v>
+        <v>1.25</v>
       </c>
       <c r="I10" t="n">
-        <v>1574.79</v>
+        <v>1.11</v>
       </c>
       <c r="J10" t="n">
-        <v>-11215.65</v>
+        <v>-7.86</v>
       </c>
       <c r="K10" t="n">
-        <v>8.369999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.17</v>
+        <v>-1.18</v>
       </c>
       <c r="M10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N10" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O10" t="n">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="P10" t="n">
         <v>0.19</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.37</v>
+        <v>2.95</v>
       </c>
       <c r="R10" t="n">
-        <v>65.61</v>
+        <v>66.47</v>
       </c>
       <c r="S10" t="n">
-        <v>60.24</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="11">
@@ -1084,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1489.125408092268</v>
+        <v>1489.914261016256</v>
       </c>
       <c r="C11" t="n">
-        <v>1488.43</v>
+        <v>1489.22</v>
       </c>
       <c r="D11" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E11" t="n">
-        <v>488.43</v>
+        <v>489.22</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1104,13 +1104,13 @@
         <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I11" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J11" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K11" t="n">
         <v>16.45</v>
@@ -1122,7 +1122,7 @@
         <v>32</v>
       </c>
       <c r="N11" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O11" t="n">
         <v>2.3</v>
@@ -1131,13 +1131,13 @@
         <v>0.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R11" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S11" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="12">
@@ -1145,16 +1145,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1562.790112712461</v>
+        <v>1565.234901526838</v>
       </c>
       <c r="C12" t="n">
-        <v>1562.1</v>
+        <v>1564.54</v>
       </c>
       <c r="D12" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E12" t="n">
-        <v>562.1</v>
+        <v>564.54</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1165,13 +1165,13 @@
         <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I12" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J12" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K12" t="n">
         <v>16.45</v>
@@ -1183,7 +1183,7 @@
         <v>32</v>
       </c>
       <c r="N12" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O12" t="n">
         <v>2.3</v>
@@ -1192,13 +1192,13 @@
         <v>0.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R12" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S12" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="13">
@@ -1206,16 +1206,16 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1072.010112712461</v>
+        <v>1074.454901526838</v>
       </c>
       <c r="C13" t="n">
-        <v>1071.32</v>
+        <v>1073.77</v>
       </c>
       <c r="D13" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E13" t="n">
-        <v>71.31999999999999</v>
+        <v>73.77</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1226,13 +1226,13 @@
         <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I13" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K13" t="n">
         <v>16.45</v>
@@ -1244,7 +1244,7 @@
         <v>32</v>
       </c>
       <c r="N13" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O13" t="n">
         <v>2.3</v>
@@ -1253,13 +1253,13 @@
         <v>0.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R13" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S13" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="14">
@@ -1267,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>215.9201127124613</v>
+        <v>218.3649015268377</v>
       </c>
       <c r="C14" t="n">
-        <v>215.28</v>
+        <v>217.73</v>
       </c>
       <c r="D14" t="n">
-        <v>107.03</v>
+        <v>0.08</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1287,40 +1287,40 @@
         <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>956.16</v>
+        <v>0.71</v>
       </c>
       <c r="I14" t="n">
-        <v>850.83</v>
+        <v>0.64</v>
       </c>
       <c r="J14" t="n">
-        <v>-3732.01</v>
+        <v>-2.65</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.7</v>
+        <v>-0.71</v>
       </c>
       <c r="M14" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="O14" t="n">
-        <v>4.92</v>
+        <v>4.89</v>
       </c>
       <c r="P14" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>62.15</v>
+        <v>66.5</v>
       </c>
       <c r="S14" t="n">
-        <v>56.95</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="15">
@@ -1328,16 +1328,16 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1493.714304549747</v>
+        <v>1493.85868477173</v>
       </c>
       <c r="C15" t="n">
-        <v>1493.02</v>
+        <v>1493.17</v>
       </c>
       <c r="D15" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E15" t="n">
-        <v>493.02</v>
+        <v>493.17</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1348,13 +1348,13 @@
         <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I15" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K15" t="n">
         <v>16.45</v>
@@ -1366,7 +1366,7 @@
         <v>32</v>
       </c>
       <c r="N15" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O15" t="n">
         <v>2.3</v>
@@ -1375,13 +1375,13 @@
         <v>0.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R15" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S15" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="16">
@@ -1389,16 +1389,16 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1072.010112712461</v>
+        <v>1074.454901526838</v>
       </c>
       <c r="C16" t="n">
-        <v>1071.32</v>
+        <v>1073.77</v>
       </c>
       <c r="D16" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E16" t="n">
-        <v>71.31999999999999</v>
+        <v>73.77</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I16" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K16" t="n">
         <v>16.45</v>
@@ -1427,7 +1427,7 @@
         <v>32</v>
       </c>
       <c r="N16" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O16" t="n">
         <v>2.3</v>
@@ -1436,13 +1436,13 @@
         <v>0.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R16" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S16" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="17">
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>652.3101127124612</v>
+        <v>654.7549015268377</v>
       </c>
       <c r="C17" t="n">
-        <v>651.63</v>
+        <v>654.08</v>
       </c>
       <c r="D17" t="n">
-        <v>330.49</v>
+        <v>0.23</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1470,16 +1470,16 @@
         <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>2952.44</v>
+        <v>2.05</v>
       </c>
       <c r="I17" t="n">
-        <v>2627.23</v>
+        <v>1.83</v>
       </c>
       <c r="J17" t="n">
-        <v>-27921.63</v>
+        <v>-19.51</v>
       </c>
       <c r="K17" t="n">
-        <v>12.35</v>
+        <v>12.38</v>
       </c>
       <c r="L17" t="n">
         <v>-1.73</v>
@@ -1497,13 +1497,13 @@
         <v>0.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.31</v>
+        <v>2.88</v>
       </c>
       <c r="R17" t="n">
-        <v>65.59</v>
+        <v>65.48</v>
       </c>
       <c r="S17" t="n">
-        <v>60.28</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="18">
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>168.9736089324286</v>
+        <v>170.5227653361064</v>
       </c>
       <c r="C18" t="n">
-        <v>168.36</v>
+        <v>169.9</v>
       </c>
       <c r="D18" t="n">
-        <v>81.06</v>
+        <v>0.06</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1531,40 +1531,40 @@
         <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>724.15</v>
+        <v>0.54</v>
       </c>
       <c r="I18" t="n">
-        <v>644.39</v>
+        <v>0.48</v>
       </c>
       <c r="J18" t="n">
-        <v>-2241.7</v>
+        <v>-1.59</v>
       </c>
       <c r="K18" t="n">
-        <v>3.84</v>
+        <v>3.88</v>
       </c>
       <c r="L18" t="n">
         <v>-0.54</v>
       </c>
       <c r="M18" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N18" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="O18" t="n">
-        <v>5.42</v>
+        <v>5.39</v>
       </c>
       <c r="P18" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.04</v>
+        <v>2.89</v>
       </c>
       <c r="R18" t="n">
-        <v>59.53</v>
+        <v>63.21</v>
       </c>
       <c r="S18" t="n">
-        <v>54.49</v>
+        <v>60.32</v>
       </c>
     </row>
     <row r="19">
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1295.5649172482</v>
+        <v>1295.708336757981</v>
       </c>
       <c r="C19" t="n">
-        <v>1294.88</v>
+        <v>1295.02</v>
       </c>
       <c r="D19" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E19" t="n">
-        <v>294.88</v>
+        <v>295.02</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1592,13 +1592,13 @@
         <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I19" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K19" t="n">
         <v>16.45</v>
@@ -1610,7 +1610,7 @@
         <v>32</v>
       </c>
       <c r="N19" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O19" t="n">
         <v>2.3</v>
@@ -1619,13 +1619,13 @@
         <v>0.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R19" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S19" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="20">
@@ -1633,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1562.790112712461</v>
+        <v>1565.234901526838</v>
       </c>
       <c r="C20" t="n">
-        <v>1562.1</v>
+        <v>1564.54</v>
       </c>
       <c r="D20" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E20" t="n">
-        <v>562.1</v>
+        <v>564.54</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1653,13 +1653,13 @@
         <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I20" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K20" t="n">
         <v>16.45</v>
@@ -1671,7 +1671,7 @@
         <v>32</v>
       </c>
       <c r="N20" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O20" t="n">
         <v>2.3</v>
@@ -1680,13 +1680,13 @@
         <v>0.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R20" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S20" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="21">
@@ -1694,24 +1694,24 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>47.73011271246128</v>
+        <v>50.17490152683773</v>
       </c>
       <c r="C21" t="n">
-        <v>47.32</v>
+        <v>49.75</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>47.32</v>
+        <v>49.75</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1761,54 +1761,54 @@
         <v>241.24</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E22" t="n">
-        <v>232.74</v>
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-3.24</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.58</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-0.78</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>4.59</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>59.83</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.12</v>
       </c>
     </row>
     <row r="23">
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>410.07</v>
+        <v>404.8493787968124</v>
       </c>
       <c r="C23" t="n">
-        <v>409.4</v>
+        <v>404.18</v>
       </c>
       <c r="D23" t="n">
-        <v>210.04</v>
+        <v>0.14</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1836,40 +1836,40 @@
         <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>1876.4</v>
+        <v>1.25</v>
       </c>
       <c r="I23" t="n">
-        <v>1669.71</v>
+        <v>1.11</v>
       </c>
       <c r="J23" t="n">
-        <v>-12444.98</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>8.76</v>
+        <v>8.67</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.23</v>
+        <v>-1.21</v>
       </c>
       <c r="M23" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N23" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O23" t="n">
-        <v>3.47</v>
+        <v>3.49</v>
       </c>
       <c r="P23" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.37</v>
+        <v>2.83</v>
       </c>
       <c r="R23" t="n">
-        <v>65.73999999999999</v>
+        <v>63.8</v>
       </c>
       <c r="S23" t="n">
-        <v>60.37</v>
+        <v>60.97</v>
       </c>
     </row>
     <row r="24">
@@ -1877,16 +1877,16 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1386.078898832591</v>
+        <v>1387.470513718759</v>
       </c>
       <c r="C24" t="n">
-        <v>1385.39</v>
+        <v>1386.78</v>
       </c>
       <c r="D24" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E24" t="n">
-        <v>385.39</v>
+        <v>386.78</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1897,13 +1897,13 @@
         <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I24" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J24" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K24" t="n">
         <v>16.45</v>
@@ -1915,7 +1915,7 @@
         <v>32</v>
       </c>
       <c r="N24" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O24" t="n">
         <v>2.3</v>
@@ -1924,13 +1924,13 @@
         <v>0.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R24" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S24" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="25">
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>868.6601127124613</v>
+        <v>871.1049015268377</v>
       </c>
       <c r="C25" t="n">
-        <v>867.98</v>
+        <v>870.42</v>
       </c>
       <c r="D25" t="n">
-        <v>432.01</v>
+        <v>0.3</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1958,16 +1958,16 @@
         <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>3859.38</v>
+        <v>2.68</v>
       </c>
       <c r="I25" t="n">
-        <v>3434.26</v>
+        <v>2.38</v>
       </c>
       <c r="J25" t="n">
-        <v>-45193.29</v>
+        <v>-31.53</v>
       </c>
       <c r="K25" t="n">
-        <v>15.01</v>
+        <v>15.03</v>
       </c>
       <c r="L25" t="n">
         <v>-2.1</v>
@@ -1976,22 +1976,22 @@
         <v>31</v>
       </c>
       <c r="N25" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="O25" t="n">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="P25" t="n">
         <v>0.27</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.21</v>
+        <v>2.82</v>
       </c>
       <c r="R25" t="n">
-        <v>64.56999999999999</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="S25" t="n">
-        <v>59.36</v>
+        <v>61.58</v>
       </c>
     </row>
     <row r="26">
@@ -1999,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>971.4014243050611</v>
+        <v>973.4628801497297</v>
       </c>
       <c r="C26" t="n">
-        <v>970.72</v>
+        <v>972.78</v>
       </c>
       <c r="D26" t="n">
-        <v>478.51</v>
+        <v>0.33</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2019,16 +2019,16 @@
         <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>4274.78</v>
+        <v>2.95</v>
       </c>
       <c r="I26" t="n">
-        <v>3803.91</v>
+        <v>2.62</v>
       </c>
       <c r="J26" t="n">
-        <v>-54368.55</v>
+        <v>-37.89</v>
       </c>
       <c r="K26" t="n">
-        <v>16.14</v>
+        <v>16.16</v>
       </c>
       <c r="L26" t="n">
         <v>-2.26</v>
@@ -2037,7 +2037,7 @@
         <v>32</v>
       </c>
       <c r="N26" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O26" t="n">
         <v>2.34</v>
@@ -2046,13 +2046,13 @@
         <v>0.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.16</v>
+        <v>2.77</v>
       </c>
       <c r="R26" t="n">
-        <v>64.04000000000001</v>
+        <v>63.43</v>
       </c>
       <c r="S26" t="n">
-        <v>58.88</v>
+        <v>60.66</v>
       </c>
     </row>
     <row r="27">
@@ -2060,16 +2060,16 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1274.434346523669</v>
+        <v>1276.874256740181</v>
       </c>
       <c r="C27" t="n">
-        <v>1273.75</v>
+        <v>1276.19</v>
       </c>
       <c r="D27" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E27" t="n">
-        <v>273.75</v>
+        <v>276.19</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2080,13 +2080,13 @@
         <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I27" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J27" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K27" t="n">
         <v>16.45</v>
@@ -2098,7 +2098,7 @@
         <v>32</v>
       </c>
       <c r="N27" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O27" t="n">
         <v>2.3</v>
@@ -2107,13 +2107,13 @@
         <v>0.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R27" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S27" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="28">
@@ -2121,13 +2121,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>271.9801127124613</v>
+        <v>274.4249015268377</v>
       </c>
       <c r="C28" t="n">
-        <v>271.33</v>
+        <v>273.78</v>
       </c>
       <c r="D28" t="n">
-        <v>137.47</v>
+        <v>0.1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2141,40 +2141,40 @@
         <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>1228.09</v>
+        <v>0.89</v>
       </c>
       <c r="I28" t="n">
-        <v>1092.82</v>
+        <v>0.79</v>
       </c>
       <c r="J28" t="n">
-        <v>-5852.01</v>
+        <v>-4.13</v>
       </c>
       <c r="K28" t="n">
-        <v>6.22</v>
+        <v>6.27</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.87</v>
+        <v>-0.88</v>
       </c>
       <c r="M28" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N28" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="O28" t="n">
-        <v>4.29</v>
+        <v>4.26</v>
       </c>
       <c r="P28" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.3</v>
+        <v>2.99</v>
       </c>
       <c r="R28" t="n">
-        <v>64.06</v>
+        <v>66.69</v>
       </c>
       <c r="S28" t="n">
-        <v>58.76</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="29">
@@ -2195,11 +2195,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2249,54 +2249,54 @@
         <v>1395.95</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E30" t="n">
-        <v>1387.45</v>
+        <v>395.95</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>-39.64</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>16.45</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>-2.3</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>63.62</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="31">
@@ -2304,16 +2304,16 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>1499.08</v>
+        <v>1475.564901526838</v>
       </c>
       <c r="C31" t="n">
-        <v>1498.39</v>
+        <v>1474.87</v>
       </c>
       <c r="D31" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E31" t="n">
-        <v>498.39</v>
+        <v>474.87</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2324,13 +2324,13 @@
         <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I31" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J31" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K31" t="n">
         <v>16.45</v>
@@ -2342,7 +2342,7 @@
         <v>32</v>
       </c>
       <c r="N31" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O31" t="n">
         <v>2.3</v>
@@ -2351,13 +2351,13 @@
         <v>0.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R31" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S31" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="32">
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>1562.790112712461</v>
+        <v>1565.234901526838</v>
       </c>
       <c r="C32" t="n">
-        <v>1562.1</v>
+        <v>1564.54</v>
       </c>
       <c r="D32" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E32" t="n">
-        <v>562.1</v>
+        <v>564.54</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2385,13 +2385,13 @@
         <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I32" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J32" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K32" t="n">
         <v>16.45</v>
@@ -2403,7 +2403,7 @@
         <v>32</v>
       </c>
       <c r="N32" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O32" t="n">
         <v>2.3</v>
@@ -2412,13 +2412,13 @@
         <v>0.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R32" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S32" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="33">
@@ -2426,16 +2426,16 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>2324.000112712461</v>
+        <v>2326.444901526838</v>
       </c>
       <c r="C33" t="n">
-        <v>2323.31</v>
+        <v>2325.75</v>
       </c>
       <c r="D33" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E33" t="n">
-        <v>1323.31</v>
+        <v>1325.75</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2446,13 +2446,13 @@
         <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I33" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J33" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K33" t="n">
         <v>16.45</v>
@@ -2464,7 +2464,7 @@
         <v>32</v>
       </c>
       <c r="N33" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O33" t="n">
         <v>2.3</v>
@@ -2473,13 +2473,13 @@
         <v>0.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R33" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S33" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="34">
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>5013.060112712462</v>
+        <v>5015.504901526838</v>
       </c>
       <c r="C34" t="n">
-        <v>5012.36</v>
+        <v>5014.81</v>
       </c>
       <c r="D34" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E34" t="n">
-        <v>4012.36</v>
+        <v>4014.81</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2507,13 +2507,13 @@
         <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I34" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J34" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K34" t="n">
         <v>16.45</v>
@@ -2525,7 +2525,7 @@
         <v>32</v>
       </c>
       <c r="N34" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O34" t="n">
         <v>2.3</v>
@@ -2534,13 +2534,13 @@
         <v>0.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R34" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S34" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="35">
@@ -2548,16 +2548,16 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>6273.240112712461</v>
+        <v>6275.684901526837</v>
       </c>
       <c r="C35" t="n">
-        <v>6272.54</v>
+        <v>6274.99</v>
       </c>
       <c r="D35" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E35" t="n">
-        <v>5272.54</v>
+        <v>5274.99</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2568,13 +2568,13 @@
         <v>4</v>
       </c>
       <c r="H35" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I35" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J35" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K35" t="n">
         <v>16.45</v>
@@ -2586,7 +2586,7 @@
         <v>32</v>
       </c>
       <c r="N35" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O35" t="n">
         <v>2.3</v>
@@ -2595,13 +2595,13 @@
         <v>0.3</v>
       </c>
       <c r="Q35" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R35" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S35" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="36">
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>3658.470112712461</v>
+        <v>3660.914901526838</v>
       </c>
       <c r="C36" t="n">
-        <v>3657.77</v>
+        <v>3660.22</v>
       </c>
       <c r="D36" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E36" t="n">
-        <v>2657.77</v>
+        <v>2660.22</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2629,13 +2629,13 @@
         <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I36" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J36" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K36" t="n">
         <v>16.45</v>
@@ -2647,7 +2647,7 @@
         <v>32</v>
       </c>
       <c r="N36" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O36" t="n">
         <v>2.3</v>
@@ -2656,13 +2656,13 @@
         <v>0.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R36" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S36" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="37">
@@ -2670,16 +2670,16 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>3849.470112712461</v>
+        <v>3851.914901526838</v>
       </c>
       <c r="C37" t="n">
-        <v>3848.77</v>
+        <v>3851.22</v>
       </c>
       <c r="D37" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E37" t="n">
-        <v>2848.77</v>
+        <v>2851.22</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2690,13 +2690,13 @@
         <v>4</v>
       </c>
       <c r="H37" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I37" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J37" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K37" t="n">
         <v>16.45</v>
@@ -2708,7 +2708,7 @@
         <v>32</v>
       </c>
       <c r="N37" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O37" t="n">
         <v>2.3</v>
@@ -2717,13 +2717,13 @@
         <v>0.3</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R37" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S37" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="38">
@@ -2731,16 +2731,16 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>7234.380112712462</v>
+        <v>7236.824901526837</v>
       </c>
       <c r="C38" t="n">
-        <v>7233.68</v>
+        <v>7236.13</v>
       </c>
       <c r="D38" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E38" t="n">
-        <v>6233.68</v>
+        <v>6236.13</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2751,13 +2751,13 @@
         <v>4</v>
       </c>
       <c r="H38" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I38" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J38" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K38" t="n">
         <v>16.45</v>
@@ -2769,7 +2769,7 @@
         <v>32</v>
       </c>
       <c r="N38" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O38" t="n">
         <v>2.3</v>
@@ -2778,13 +2778,13 @@
         <v>0.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R38" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S38" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="39">
@@ -2805,11 +2805,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2866,11 +2866,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2927,11 +2927,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2988,11 +2988,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3042,54 +3042,54 @@
         <v>409.4</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E43" t="n">
-        <v>400.9</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>4</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-8.640000000000001</v>
+      </c>
+      <c r="K43" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="M43" t="n">
+        <v>27</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Q43" t="n">
         <v>3</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.7</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="44">
@@ -3097,16 +3097,16 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>1396.64</v>
+        <v>1386.812836516854</v>
       </c>
       <c r="C44" t="n">
-        <v>1395.95</v>
+        <v>1386.12</v>
       </c>
       <c r="D44" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E44" t="n">
-        <v>395.95</v>
+        <v>386.12</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3117,13 +3117,13 @@
         <v>4</v>
       </c>
       <c r="H44" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I44" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J44" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K44" t="n">
         <v>16.45</v>
@@ -3135,7 +3135,7 @@
         <v>32</v>
       </c>
       <c r="N44" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O44" t="n">
         <v>2.3</v>
@@ -3144,13 +3144,13 @@
         <v>0.3</v>
       </c>
       <c r="Q44" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R44" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S44" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="45">
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>3082.410112712461</v>
+        <v>3084.854901526838</v>
       </c>
       <c r="C45" t="n">
-        <v>3081.71</v>
+        <v>3084.16</v>
       </c>
       <c r="D45" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E45" t="n">
-        <v>2081.71</v>
+        <v>2084.16</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3178,13 +3178,13 @@
         <v>4</v>
       </c>
       <c r="H45" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I45" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J45" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K45" t="n">
         <v>16.45</v>
@@ -3196,7 +3196,7 @@
         <v>32</v>
       </c>
       <c r="N45" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O45" t="n">
         <v>2.3</v>
@@ -3205,13 +3205,13 @@
         <v>0.3</v>
       </c>
       <c r="Q45" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R45" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S45" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="46">
@@ -3219,16 +3219,16 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>4389.580112712461</v>
+        <v>4392.024901526837</v>
       </c>
       <c r="C46" t="n">
-        <v>4388.88</v>
+        <v>4391.33</v>
       </c>
       <c r="D46" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E46" t="n">
-        <v>3388.88</v>
+        <v>3391.33</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3239,13 +3239,13 @@
         <v>4</v>
       </c>
       <c r="H46" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I46" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J46" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K46" t="n">
         <v>16.45</v>
@@ -3257,7 +3257,7 @@
         <v>32</v>
       </c>
       <c r="N46" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O46" t="n">
         <v>2.3</v>
@@ -3266,13 +3266,13 @@
         <v>0.3</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R46" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S46" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="47">
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>3467.070112712462</v>
+        <v>3469.514901526838</v>
       </c>
       <c r="C47" t="n">
-        <v>3466.37</v>
+        <v>3468.82</v>
       </c>
       <c r="D47" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E47" t="n">
-        <v>2466.37</v>
+        <v>2468.82</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3300,13 +3300,13 @@
         <v>4</v>
       </c>
       <c r="H47" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I47" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J47" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K47" t="n">
         <v>16.45</v>
@@ -3318,7 +3318,7 @@
         <v>32</v>
       </c>
       <c r="N47" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O47" t="n">
         <v>2.3</v>
@@ -3327,13 +3327,13 @@
         <v>0.3</v>
       </c>
       <c r="Q47" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R47" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S47" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="48">
@@ -3341,16 +3341,16 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>5642.880112712462</v>
+        <v>5645.324901526837</v>
       </c>
       <c r="C48" t="n">
-        <v>5642.18</v>
+        <v>5644.63</v>
       </c>
       <c r="D48" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E48" t="n">
-        <v>4642.18</v>
+        <v>4644.63</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3361,13 +3361,13 @@
         <v>4</v>
       </c>
       <c r="H48" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I48" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J48" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K48" t="n">
         <v>16.45</v>
@@ -3379,7 +3379,7 @@
         <v>32</v>
       </c>
       <c r="N48" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O48" t="n">
         <v>2.3</v>
@@ -3388,13 +3388,13 @@
         <v>0.3</v>
       </c>
       <c r="Q48" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R48" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S48" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="49">
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>4389.580112712461</v>
+        <v>4392.024901526837</v>
       </c>
       <c r="C49" t="n">
-        <v>4388.88</v>
+        <v>4391.33</v>
       </c>
       <c r="D49" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E49" t="n">
-        <v>3388.88</v>
+        <v>3391.33</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3422,13 +3422,13 @@
         <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I49" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J49" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K49" t="n">
         <v>16.45</v>
@@ -3440,7 +3440,7 @@
         <v>32</v>
       </c>
       <c r="N49" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O49" t="n">
         <v>2.3</v>
@@ -3449,13 +3449,13 @@
         <v>0.3</v>
       </c>
       <c r="Q49" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R49" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S49" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="50">
@@ -3463,16 +3463,16 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>11040.63011271246</v>
+        <v>11043.07490152684</v>
       </c>
       <c r="C50" t="n">
-        <v>11039.93</v>
+        <v>11042.38</v>
       </c>
       <c r="D50" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E50" t="n">
-        <v>10039.93</v>
+        <v>10042.38</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3483,13 +3483,13 @@
         <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I50" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J50" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K50" t="n">
         <v>16.45</v>
@@ -3501,7 +3501,7 @@
         <v>32</v>
       </c>
       <c r="N50" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O50" t="n">
         <v>2.3</v>
@@ -3510,13 +3510,13 @@
         <v>0.3</v>
       </c>
       <c r="Q50" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R50" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S50" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="51">
@@ -3524,16 +3524,16 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>9309.34011271246</v>
+        <v>9311.784901526837</v>
       </c>
       <c r="C51" t="n">
-        <v>9308.639999999999</v>
+        <v>9311.09</v>
       </c>
       <c r="D51" t="n">
-        <v>491.58</v>
+        <v>0.34</v>
       </c>
       <c r="E51" t="n">
-        <v>8308.639999999999</v>
+        <v>8311.09</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3544,13 +3544,13 @@
         <v>4</v>
       </c>
       <c r="H51" t="n">
-        <v>4391.55</v>
+        <v>3.04</v>
       </c>
       <c r="I51" t="n">
-        <v>3907.81</v>
+        <v>2.7</v>
       </c>
       <c r="J51" t="n">
-        <v>-57088.66</v>
+        <v>-39.64</v>
       </c>
       <c r="K51" t="n">
         <v>16.45</v>
@@ -3562,7 +3562,7 @@
         <v>32</v>
       </c>
       <c r="N51" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O51" t="n">
         <v>2.3</v>
@@ -3571,13 +3571,13 @@
         <v>0.3</v>
       </c>
       <c r="Q51" t="n">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
       <c r="R51" t="n">
-        <v>63.89</v>
+        <v>63.62</v>
       </c>
       <c r="S51" t="n">
-        <v>58.75</v>
+        <v>60.84</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,13 +582,13 @@
         <v>0.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.81</v>
+        <v>0.82</v>
       </c>
       <c r="R2" t="n">
         <v>64.16</v>
       </c>
       <c r="S2" t="n">
-        <v>61.35</v>
+        <v>63.34</v>
       </c>
     </row>
     <row r="3">
@@ -596,16 +596,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1480.911576795813</v>
+        <v>1482.473925728154</v>
       </c>
       <c r="C3" t="n">
-        <v>1480.22</v>
+        <v>1481.78</v>
       </c>
       <c r="D3" t="n">
         <v>0.34</v>
       </c>
       <c r="E3" t="n">
-        <v>480.22</v>
+        <v>481.78</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -643,13 +643,13 @@
         <v>0.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R3" t="n">
         <v>63.62</v>
       </c>
       <c r="S3" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="4">
@@ -657,16 +657,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1673.994901526838</v>
+        <v>1675.962303886082</v>
       </c>
       <c r="C4" t="n">
-        <v>1673.3</v>
+        <v>1675.27</v>
       </c>
       <c r="D4" t="n">
         <v>0.34</v>
       </c>
       <c r="E4" t="n">
-        <v>673.3</v>
+        <v>675.27</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -704,13 +704,13 @@
         <v>0.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R4" t="n">
         <v>63.62</v>
       </c>
       <c r="S4" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="5">
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>386.5549015268377</v>
+        <v>388.5223038860822</v>
       </c>
       <c r="C5" t="n">
-        <v>385.89</v>
+        <v>387.86</v>
       </c>
       <c r="D5" t="n">
         <v>0.14</v>
@@ -744,34 +744,34 @@
         <v>1.11</v>
       </c>
       <c r="J5" t="n">
-        <v>-7.77</v>
+        <v>-7.85</v>
       </c>
       <c r="K5" t="n">
-        <v>8.359999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.17</v>
+        <v>-1.18</v>
       </c>
       <c r="M5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N5" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="O5" t="n">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="P5" t="n">
         <v>0.19</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.97</v>
+        <v>0.86</v>
       </c>
       <c r="R5" t="n">
-        <v>66.90000000000001</v>
+        <v>66.55</v>
       </c>
       <c r="S5" t="n">
-        <v>63.93</v>
+        <v>65.69</v>
       </c>
     </row>
     <row r="6">
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>176.6546977904863</v>
+        <v>177.4644455239207</v>
       </c>
       <c r="C6" t="n">
-        <v>176.03</v>
+        <v>176.84</v>
       </c>
       <c r="D6" t="n">
         <v>0.06</v>
@@ -805,10 +805,10 @@
         <v>0.48</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.71</v>
+        <v>-1.73</v>
       </c>
       <c r="K6" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
       <c r="L6" t="n">
         <v>-0.57</v>
@@ -820,19 +820,19 @@
         <v>1.77</v>
       </c>
       <c r="O6" t="n">
-        <v>5.3</v>
+        <v>5.29</v>
       </c>
       <c r="P6" t="n">
         <v>0.17</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>60.92</v>
+        <v>60.62</v>
       </c>
       <c r="S6" t="n">
-        <v>58.13</v>
+        <v>59.81</v>
       </c>
     </row>
     <row r="7">
@@ -840,16 +840,16 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>69.76854579408429</v>
+        <v>70.11576324998779</v>
       </c>
       <c r="C7" t="n">
-        <v>69.27</v>
+        <v>69.61</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>69.27</v>
+        <v>69.61</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -948,13 +948,13 @@
         <v>0.17</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.71</v>
+        <v>0.79</v>
       </c>
       <c r="R8" t="n">
         <v>59.83</v>
       </c>
       <c r="S8" t="n">
-        <v>57.12</v>
+        <v>59.04</v>
       </c>
     </row>
     <row r="9">
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>889.3993787968125</v>
+        <v>889.8622969989876</v>
       </c>
       <c r="C9" t="n">
-        <v>888.71</v>
+        <v>889.1799999999999</v>
       </c>
       <c r="D9" t="n">
         <v>0.31</v>
@@ -988,10 +988,10 @@
         <v>2.46</v>
       </c>
       <c r="J9" t="n">
-        <v>-32.64</v>
+        <v>-32.67</v>
       </c>
       <c r="K9" t="n">
-        <v>15.24</v>
+        <v>15.25</v>
       </c>
       <c r="L9" t="n">
         <v>-2.13</v>
@@ -1000,7 +1000,7 @@
         <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="O9" t="n">
         <v>2.45</v>
@@ -1009,13 +1009,13 @@
         <v>0.27</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.85</v>
+        <v>0.83</v>
       </c>
       <c r="R9" t="n">
-        <v>65.22</v>
+        <v>65.19</v>
       </c>
       <c r="S9" t="n">
-        <v>62.37</v>
+        <v>64.36</v>
       </c>
     </row>
     <row r="10">
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>388.9541361545394</v>
+        <v>390.746702409066</v>
       </c>
       <c r="C10" t="n">
-        <v>388.29</v>
+        <v>390.08</v>
       </c>
       <c r="D10" t="n">
         <v>0.14</v>
@@ -1049,10 +1049,10 @@
         <v>1.11</v>
       </c>
       <c r="J10" t="n">
-        <v>-7.86</v>
+        <v>-7.93</v>
       </c>
       <c r="K10" t="n">
-        <v>8.4</v>
+        <v>8.43</v>
       </c>
       <c r="L10" t="n">
         <v>-1.18</v>
@@ -1061,22 +1061,22 @@
         <v>28</v>
       </c>
       <c r="N10" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O10" t="n">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="P10" t="n">
         <v>0.19</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.95</v>
+        <v>0.86</v>
       </c>
       <c r="R10" t="n">
-        <v>66.47</v>
+        <v>66.16</v>
       </c>
       <c r="S10" t="n">
-        <v>63.52</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="11">
@@ -1084,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1489.914261016256</v>
+        <v>1490.724047435097</v>
       </c>
       <c r="C11" t="n">
-        <v>1489.22</v>
+        <v>1490.03</v>
       </c>
       <c r="D11" t="n">
         <v>0.34</v>
       </c>
       <c r="E11" t="n">
-        <v>489.22</v>
+        <v>490.03</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1131,13 +1131,13 @@
         <v>0.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R11" t="n">
         <v>63.62</v>
       </c>
       <c r="S11" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="12">
@@ -1145,16 +1145,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1565.234901526838</v>
+        <v>1567.202303886082</v>
       </c>
       <c r="C12" t="n">
-        <v>1564.54</v>
+        <v>1566.51</v>
       </c>
       <c r="D12" t="n">
         <v>0.34</v>
       </c>
       <c r="E12" t="n">
-        <v>564.54</v>
+        <v>566.51</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1192,13 +1192,13 @@
         <v>0.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R12" t="n">
         <v>63.62</v>
       </c>
       <c r="S12" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="13">
@@ -1206,16 +1206,16 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1074.454901526838</v>
+        <v>1076.422303886082</v>
       </c>
       <c r="C13" t="n">
-        <v>1073.77</v>
+        <v>1075.74</v>
       </c>
       <c r="D13" t="n">
         <v>0.34</v>
       </c>
       <c r="E13" t="n">
-        <v>73.77</v>
+        <v>75.73999999999999</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1253,13 +1253,13 @@
         <v>0.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R13" t="n">
         <v>63.62</v>
       </c>
       <c r="S13" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="14">
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>218.3649015268377</v>
+        <v>220.3323038860822</v>
       </c>
       <c r="C14" t="n">
-        <v>217.73</v>
+        <v>219.7</v>
       </c>
       <c r="D14" t="n">
         <v>0.08</v>
@@ -1293,10 +1293,10 @@
         <v>0.64</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.65</v>
+        <v>-2.7</v>
       </c>
       <c r="K14" t="n">
-        <v>5.05</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
         <v>-0.71</v>
@@ -1305,22 +1305,22 @@
         <v>27</v>
       </c>
       <c r="N14" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O14" t="n">
-        <v>4.89</v>
+        <v>4.86</v>
       </c>
       <c r="P14" t="n">
         <v>0.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>0.87</v>
       </c>
       <c r="R14" t="n">
-        <v>66.5</v>
+        <v>65.88</v>
       </c>
       <c r="S14" t="n">
-        <v>63.5</v>
+        <v>65.01000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1328,16 +1328,16 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1493.85868477173</v>
+        <v>1494.321649500995</v>
       </c>
       <c r="C15" t="n">
-        <v>1493.17</v>
+        <v>1493.63</v>
       </c>
       <c r="D15" t="n">
         <v>0.34</v>
       </c>
       <c r="E15" t="n">
-        <v>493.17</v>
+        <v>493.63</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1375,13 +1375,13 @@
         <v>0.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R15" t="n">
         <v>63.62</v>
       </c>
       <c r="S15" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="16">
@@ -1389,16 +1389,16 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1074.454901526838</v>
+        <v>1076.422303886082</v>
       </c>
       <c r="C16" t="n">
-        <v>1073.77</v>
+        <v>1075.74</v>
       </c>
       <c r="D16" t="n">
         <v>0.34</v>
       </c>
       <c r="E16" t="n">
-        <v>73.77</v>
+        <v>75.73999999999999</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1436,13 +1436,13 @@
         <v>0.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R16" t="n">
         <v>63.62</v>
       </c>
       <c r="S16" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="17">
@@ -1450,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>654.7549015268377</v>
+        <v>656.7223038860822</v>
       </c>
       <c r="C17" t="n">
-        <v>654.08</v>
+        <v>656.04</v>
       </c>
       <c r="D17" t="n">
         <v>0.23</v>
@@ -1476,13 +1476,13 @@
         <v>1.83</v>
       </c>
       <c r="J17" t="n">
-        <v>-19.51</v>
+        <v>-19.61</v>
       </c>
       <c r="K17" t="n">
-        <v>12.38</v>
+        <v>12.41</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.73</v>
+        <v>-1.74</v>
       </c>
       <c r="M17" t="n">
         <v>30</v>
@@ -1491,19 +1491,19 @@
         <v>1.83</v>
       </c>
       <c r="O17" t="n">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="P17" t="n">
         <v>0.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.88</v>
+        <v>0.84</v>
       </c>
       <c r="R17" t="n">
-        <v>65.48</v>
+        <v>65.28</v>
       </c>
       <c r="S17" t="n">
-        <v>62.6</v>
+        <v>64.44</v>
       </c>
     </row>
     <row r="18">
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>170.5227653361064</v>
+        <v>171.8514167160982</v>
       </c>
       <c r="C18" t="n">
-        <v>169.9</v>
+        <v>171.23</v>
       </c>
       <c r="D18" t="n">
         <v>0.06</v>
@@ -1537,34 +1537,34 @@
         <v>0.48</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.59</v>
+        <v>-1.61</v>
       </c>
       <c r="K18" t="n">
-        <v>3.88</v>
+        <v>3.91</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.54</v>
+        <v>-0.55</v>
       </c>
       <c r="M18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="O18" t="n">
-        <v>5.39</v>
+        <v>5.37</v>
       </c>
       <c r="P18" t="n">
         <v>0.18</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.89</v>
+        <v>0.84</v>
       </c>
       <c r="R18" t="n">
-        <v>63.21</v>
+        <v>62.7</v>
       </c>
       <c r="S18" t="n">
-        <v>60.32</v>
+        <v>61.86</v>
       </c>
     </row>
     <row r="19">
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1295.708336757981</v>
+        <v>1296.055569419957</v>
       </c>
       <c r="C19" t="n">
-        <v>1295.02</v>
+        <v>1295.37</v>
       </c>
       <c r="D19" t="n">
         <v>0.34</v>
       </c>
       <c r="E19" t="n">
-        <v>295.02</v>
+        <v>295.37</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1619,13 +1619,13 @@
         <v>0.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R19" t="n">
         <v>63.62</v>
       </c>
       <c r="S19" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="20">
@@ -1633,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1565.234901526838</v>
+        <v>1567.202303886082</v>
       </c>
       <c r="C20" t="n">
-        <v>1564.54</v>
+        <v>1566.51</v>
       </c>
       <c r="D20" t="n">
         <v>0.34</v>
       </c>
       <c r="E20" t="n">
-        <v>564.54</v>
+        <v>566.51</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1680,13 +1680,13 @@
         <v>0.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R20" t="n">
         <v>63.62</v>
       </c>
       <c r="S20" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="21">
@@ -1694,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>50.17490152683773</v>
+        <v>52.1423038860822</v>
       </c>
       <c r="C21" t="n">
-        <v>49.75</v>
+        <v>51.71</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>49.75</v>
+        <v>51.71</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1802,13 +1802,13 @@
         <v>0.17</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.71</v>
+        <v>0.79</v>
       </c>
       <c r="R22" t="n">
         <v>59.83</v>
       </c>
       <c r="S22" t="n">
-        <v>57.12</v>
+        <v>59.04</v>
       </c>
     </row>
     <row r="23">
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>404.8493787968124</v>
+        <v>405.3122969989876</v>
       </c>
       <c r="C23" t="n">
-        <v>404.18</v>
+        <v>404.65</v>
       </c>
       <c r="D23" t="n">
         <v>0.14</v>
@@ -1842,13 +1842,13 @@
         <v>1.11</v>
       </c>
       <c r="J23" t="n">
-        <v>-8.449999999999999</v>
+        <v>-8.460000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>8.67</v>
+        <v>8.68</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.21</v>
+        <v>-1.22</v>
       </c>
       <c r="M23" t="n">
         <v>31</v>
@@ -1857,19 +1857,19 @@
         <v>1.8</v>
       </c>
       <c r="O23" t="n">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="P23" t="n">
         <v>0.18</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.83</v>
+        <v>0.83</v>
       </c>
       <c r="R23" t="n">
-        <v>63.8</v>
+        <v>63.73</v>
       </c>
       <c r="S23" t="n">
-        <v>60.97</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="24">
@@ -1877,16 +1877,16 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1387.470513718759</v>
+        <v>1388.280426809484</v>
       </c>
       <c r="C24" t="n">
-        <v>1386.78</v>
+        <v>1387.59</v>
       </c>
       <c r="D24" t="n">
         <v>0.34</v>
       </c>
       <c r="E24" t="n">
-        <v>386.78</v>
+        <v>387.59</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1924,13 +1924,13 @@
         <v>0.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R24" t="n">
         <v>63.62</v>
       </c>
       <c r="S24" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="25">
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>871.1049015268377</v>
+        <v>873.0723038860822</v>
       </c>
       <c r="C25" t="n">
-        <v>870.42</v>
+        <v>872.39</v>
       </c>
       <c r="D25" t="n">
         <v>0.3</v>
@@ -1964,13 +1964,13 @@
         <v>2.38</v>
       </c>
       <c r="J25" t="n">
-        <v>-31.53</v>
+        <v>-31.65</v>
       </c>
       <c r="K25" t="n">
-        <v>15.03</v>
+        <v>15.06</v>
       </c>
       <c r="L25" t="n">
-        <v>-2.1</v>
+        <v>-2.11</v>
       </c>
       <c r="M25" t="n">
         <v>31</v>
@@ -1985,13 +1985,13 @@
         <v>0.27</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.82</v>
+        <v>0.82</v>
       </c>
       <c r="R25" t="n">
-        <v>64.40000000000001</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>61.58</v>
+        <v>63.42</v>
       </c>
     </row>
     <row r="26">
@@ -1999,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>973.4628801497297</v>
+        <v>975.1937343643782</v>
       </c>
       <c r="C26" t="n">
-        <v>972.78</v>
+        <v>974.51</v>
       </c>
       <c r="D26" t="n">
         <v>0.33</v>
@@ -2025,19 +2025,19 @@
         <v>2.62</v>
       </c>
       <c r="J26" t="n">
-        <v>-37.89</v>
+        <v>-38</v>
       </c>
       <c r="K26" t="n">
-        <v>16.16</v>
+        <v>16.18</v>
       </c>
       <c r="L26" t="n">
-        <v>-2.26</v>
+        <v>-2.27</v>
       </c>
       <c r="M26" t="n">
         <v>32</v>
       </c>
       <c r="N26" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="O26" t="n">
         <v>2.34</v>
@@ -2046,13 +2046,13 @@
         <v>0.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R26" t="n">
-        <v>63.43</v>
+        <v>63.32</v>
       </c>
       <c r="S26" t="n">
-        <v>60.66</v>
+        <v>62.51</v>
       </c>
     </row>
     <row r="27">
@@ -2060,16 +2060,16 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1276.874256740181</v>
+        <v>1278.77842113697</v>
       </c>
       <c r="C27" t="n">
-        <v>1276.19</v>
+        <v>1278.09</v>
       </c>
       <c r="D27" t="n">
         <v>0.34</v>
       </c>
       <c r="E27" t="n">
-        <v>276.19</v>
+        <v>278.09</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2107,13 +2107,13 @@
         <v>0.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R27" t="n">
         <v>63.62</v>
       </c>
       <c r="S27" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="28">
@@ -2121,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>274.4249015268377</v>
+        <v>276.3923038860822</v>
       </c>
       <c r="C28" t="n">
-        <v>273.78</v>
+        <v>275.74</v>
       </c>
       <c r="D28" t="n">
         <v>0.1</v>
@@ -2147,10 +2147,10 @@
         <v>0.79</v>
       </c>
       <c r="J28" t="n">
-        <v>-4.13</v>
+        <v>-4.19</v>
       </c>
       <c r="K28" t="n">
-        <v>6.27</v>
+        <v>6.31</v>
       </c>
       <c r="L28" t="n">
         <v>-0.88</v>
@@ -2159,22 +2159,22 @@
         <v>27</v>
       </c>
       <c r="N28" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="O28" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="P28" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.99</v>
+        <v>0.87</v>
       </c>
       <c r="R28" t="n">
-        <v>66.69</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>63.7</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="29">
@@ -2290,13 +2290,13 @@
         <v>0.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R30" t="n">
         <v>63.62</v>
       </c>
       <c r="S30" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="31">
@@ -2304,16 +2304,16 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>1475.564901526838</v>
+        <v>1477.532303886082</v>
       </c>
       <c r="C31" t="n">
-        <v>1474.87</v>
+        <v>1476.84</v>
       </c>
       <c r="D31" t="n">
         <v>0.34</v>
       </c>
       <c r="E31" t="n">
-        <v>474.87</v>
+        <v>476.84</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2351,13 +2351,13 @@
         <v>0.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R31" t="n">
         <v>63.62</v>
       </c>
       <c r="S31" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="32">
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>1565.234901526838</v>
+        <v>1567.202303886082</v>
       </c>
       <c r="C32" t="n">
-        <v>1564.54</v>
+        <v>1566.51</v>
       </c>
       <c r="D32" t="n">
         <v>0.34</v>
       </c>
       <c r="E32" t="n">
-        <v>564.54</v>
+        <v>566.51</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2412,13 +2412,13 @@
         <v>0.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R32" t="n">
         <v>63.62</v>
       </c>
       <c r="S32" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="33">
@@ -2426,16 +2426,16 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>2326.444901526838</v>
+        <v>2328.412303886082</v>
       </c>
       <c r="C33" t="n">
-        <v>2325.75</v>
+        <v>2327.72</v>
       </c>
       <c r="D33" t="n">
         <v>0.34</v>
       </c>
       <c r="E33" t="n">
-        <v>1325.75</v>
+        <v>1327.72</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2473,13 +2473,13 @@
         <v>0.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R33" t="n">
         <v>63.62</v>
       </c>
       <c r="S33" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="34">
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>5015.504901526838</v>
+        <v>5017.472303886083</v>
       </c>
       <c r="C34" t="n">
-        <v>5014.81</v>
+        <v>5016.78</v>
       </c>
       <c r="D34" t="n">
         <v>0.34</v>
       </c>
       <c r="E34" t="n">
-        <v>4014.81</v>
+        <v>4016.78</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2534,13 +2534,13 @@
         <v>0.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R34" t="n">
         <v>63.62</v>
       </c>
       <c r="S34" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="35">
@@ -2548,16 +2548,16 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>6275.684901526837</v>
+        <v>6277.652303886082</v>
       </c>
       <c r="C35" t="n">
-        <v>6274.99</v>
+        <v>6276.95</v>
       </c>
       <c r="D35" t="n">
         <v>0.34</v>
       </c>
       <c r="E35" t="n">
-        <v>5274.99</v>
+        <v>5276.95</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2595,13 +2595,13 @@
         <v>0.3</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R35" t="n">
         <v>63.62</v>
       </c>
       <c r="S35" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="36">
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>3660.914901526838</v>
+        <v>3662.882303886082</v>
       </c>
       <c r="C36" t="n">
-        <v>3660.22</v>
+        <v>3662.19</v>
       </c>
       <c r="D36" t="n">
         <v>0.34</v>
       </c>
       <c r="E36" t="n">
-        <v>2660.22</v>
+        <v>2662.19</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2656,13 +2656,13 @@
         <v>0.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R36" t="n">
         <v>63.62</v>
       </c>
       <c r="S36" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="37">
@@ -2670,16 +2670,16 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>3851.914901526838</v>
+        <v>3853.882303886082</v>
       </c>
       <c r="C37" t="n">
-        <v>3851.22</v>
+        <v>3853.19</v>
       </c>
       <c r="D37" t="n">
         <v>0.34</v>
       </c>
       <c r="E37" t="n">
-        <v>2851.22</v>
+        <v>2853.19</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2717,13 +2717,13 @@
         <v>0.3</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R37" t="n">
         <v>63.62</v>
       </c>
       <c r="S37" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="38">
@@ -2731,16 +2731,16 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>7236.824901526837</v>
+        <v>7238.792303886083</v>
       </c>
       <c r="C38" t="n">
-        <v>7236.13</v>
+        <v>7238.09</v>
       </c>
       <c r="D38" t="n">
         <v>0.34</v>
       </c>
       <c r="E38" t="n">
-        <v>6236.13</v>
+        <v>6238.09</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2778,13 +2778,13 @@
         <v>0.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R38" t="n">
         <v>63.62</v>
       </c>
       <c r="S38" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="39">
@@ -3083,13 +3083,13 @@
         <v>0.19</v>
       </c>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>0.88</v>
       </c>
       <c r="R43" t="n">
         <v>67.7</v>
       </c>
       <c r="S43" t="n">
-        <v>64.7</v>
+        <v>66.81999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3097,16 +3097,16 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>1386.812836516854</v>
+        <v>1387.680808145932</v>
       </c>
       <c r="C44" t="n">
-        <v>1386.12</v>
+        <v>1386.99</v>
       </c>
       <c r="D44" t="n">
         <v>0.34</v>
       </c>
       <c r="E44" t="n">
-        <v>386.12</v>
+        <v>386.99</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3144,13 +3144,13 @@
         <v>0.3</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R44" t="n">
         <v>63.62</v>
       </c>
       <c r="S44" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="45">
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>3084.854901526838</v>
+        <v>3086.822303886082</v>
       </c>
       <c r="C45" t="n">
-        <v>3084.16</v>
+        <v>3086.13</v>
       </c>
       <c r="D45" t="n">
         <v>0.34</v>
       </c>
       <c r="E45" t="n">
-        <v>2084.16</v>
+        <v>2086.13</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3205,13 +3205,13 @@
         <v>0.3</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R45" t="n">
         <v>63.62</v>
       </c>
       <c r="S45" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="46">
@@ -3219,16 +3219,16 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>4392.024901526837</v>
+        <v>4393.992303886082</v>
       </c>
       <c r="C46" t="n">
-        <v>4391.33</v>
+        <v>4393.3</v>
       </c>
       <c r="D46" t="n">
         <v>0.34</v>
       </c>
       <c r="E46" t="n">
-        <v>3391.33</v>
+        <v>3393.3</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3266,13 +3266,13 @@
         <v>0.3</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R46" t="n">
         <v>63.62</v>
       </c>
       <c r="S46" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="47">
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>3469.514901526838</v>
+        <v>3471.482303886082</v>
       </c>
       <c r="C47" t="n">
-        <v>3468.82</v>
+        <v>3470.79</v>
       </c>
       <c r="D47" t="n">
         <v>0.34</v>
       </c>
       <c r="E47" t="n">
-        <v>2468.82</v>
+        <v>2470.79</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3327,13 +3327,13 @@
         <v>0.3</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R47" t="n">
         <v>63.62</v>
       </c>
       <c r="S47" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="48">
@@ -3341,16 +3341,16 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>5645.324901526837</v>
+        <v>5647.292303886083</v>
       </c>
       <c r="C48" t="n">
-        <v>5644.63</v>
+        <v>5646.59</v>
       </c>
       <c r="D48" t="n">
         <v>0.34</v>
       </c>
       <c r="E48" t="n">
-        <v>4644.63</v>
+        <v>4646.59</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3388,13 +3388,13 @@
         <v>0.3</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R48" t="n">
         <v>63.62</v>
       </c>
       <c r="S48" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="49">
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>4392.024901526837</v>
+        <v>4393.992303886082</v>
       </c>
       <c r="C49" t="n">
-        <v>4391.33</v>
+        <v>4393.3</v>
       </c>
       <c r="D49" t="n">
         <v>0.34</v>
       </c>
       <c r="E49" t="n">
-        <v>3391.33</v>
+        <v>3393.3</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3449,13 +3449,13 @@
         <v>0.3</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R49" t="n">
         <v>63.62</v>
       </c>
       <c r="S49" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="50">
@@ -3463,16 +3463,16 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>11043.07490152684</v>
+        <v>11045.04230388608</v>
       </c>
       <c r="C50" t="n">
-        <v>11042.38</v>
+        <v>11044.34</v>
       </c>
       <c r="D50" t="n">
         <v>0.34</v>
       </c>
       <c r="E50" t="n">
-        <v>10042.38</v>
+        <v>10044.34</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3510,13 +3510,13 @@
         <v>0.3</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R50" t="n">
         <v>63.62</v>
       </c>
       <c r="S50" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="51">
@@ -3524,16 +3524,16 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>9311.784901526837</v>
+        <v>9313.752303886082</v>
       </c>
       <c r="C51" t="n">
-        <v>9311.09</v>
+        <v>9313.049999999999</v>
       </c>
       <c r="D51" t="n">
         <v>0.34</v>
       </c>
       <c r="E51" t="n">
-        <v>8311.09</v>
+        <v>8313.049999999999</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3571,13 +3571,3063 @@
         <v>0.3</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R51" t="n">
         <v>63.62</v>
       </c>
       <c r="S51" t="n">
-        <v>60.84</v>
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3471.482303886082</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3470.79</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2470.79</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K52" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M52" t="n">
+        <v>32</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R52" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S52" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3086.822303886082</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3086.13</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2086.13</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>4</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K53" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M53" t="n">
+        <v>32</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R53" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S53" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2896.632303886082</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2895.94</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1895.94</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>4</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K54" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M54" t="n">
+        <v>32</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R54" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S54" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1947.882303886082</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1947.19</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E55" t="n">
+        <v>947.1900000000001</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K55" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M55" t="n">
+        <v>32</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R55" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S55" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2518.212303886082</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2517.52</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1517.52</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K56" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M56" t="n">
+        <v>32</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R56" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S56" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>7604.092303886083</v>
+      </c>
+      <c r="C57" t="n">
+        <v>7603.39</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E57" t="n">
+        <v>6603.39</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K57" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M57" t="n">
+        <v>32</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R57" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S57" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>12477.71230388608</v>
+      </c>
+      <c r="C58" t="n">
+        <v>12477.01</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E58" t="n">
+        <v>11477.01</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K58" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M58" t="n">
+        <v>32</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R58" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S58" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>11045.04230388608</v>
+      </c>
+      <c r="C59" t="n">
+        <v>11044.34</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10044.34</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K59" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M59" t="n">
+        <v>32</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R59" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S59" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>10178.11230388608</v>
+      </c>
+      <c r="C60" t="n">
+        <v>10177.41</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9177.41</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K60" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M60" t="n">
+        <v>32</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R60" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S60" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>14165.57230388608</v>
+      </c>
+      <c r="C61" t="n">
+        <v>14164.87</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E61" t="n">
+        <v>13164.87</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K61" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M61" t="n">
+        <v>32</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R61" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S61" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>13043.80230388608</v>
+      </c>
+      <c r="C62" t="n">
+        <v>13043.1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12043.1</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K62" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M62" t="n">
+        <v>32</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R62" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S62" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>10178.11230388608</v>
+      </c>
+      <c r="C63" t="n">
+        <v>10177.41</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E63" t="n">
+        <v>9177.41</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K63" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M63" t="n">
+        <v>32</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R63" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S63" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>11045.04230388608</v>
+      </c>
+      <c r="C64" t="n">
+        <v>11044.34</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E64" t="n">
+        <v>10044.34</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K64" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M64" t="n">
+        <v>32</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R64" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S64" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>7604.092303886083</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7603.39</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E65" t="n">
+        <v>6603.39</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>4</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K65" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M65" t="n">
+        <v>32</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R65" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S65" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5647.292303886083</v>
+      </c>
+      <c r="C66" t="n">
+        <v>5646.59</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4646.59</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K66" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M66" t="n">
+        <v>32</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R66" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S66" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>7604.092303886083</v>
+      </c>
+      <c r="C67" t="n">
+        <v>7603.39</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E67" t="n">
+        <v>6603.39</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>4</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K67" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M67" t="n">
+        <v>32</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R67" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S67" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>11485.40230388608</v>
+      </c>
+      <c r="C68" t="n">
+        <v>11484.7</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E68" t="n">
+        <v>10484.7</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K68" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M68" t="n">
+        <v>32</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R68" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S68" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>hot standby</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>hot standby</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>hot standby</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>hot standby</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>hot standby</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>hot standby</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>hot standby</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>hot standby</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>hot standby</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>12499.26</v>
+      </c>
+      <c r="C78" t="n">
+        <v>12498.56</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>12490.06</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5668.84</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5668.14</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5659.64</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>13065.35</v>
+      </c>
+      <c r="C80" t="n">
+        <v>13064.65</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>13056.15</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11947.91</v>
+      </c>
+      <c r="C81" t="n">
+        <v>11947.21</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>11938.71</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11066.59</v>
+      </c>
+      <c r="C82" t="n">
+        <v>11065.89</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>11057.39</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>3</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3875.43</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3874.73</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3866.23</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>3</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>11947.91</v>
+      </c>
+      <c r="C84" t="n">
+        <v>11947.21</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>11938.71</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>3</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>20149.83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>20149.13</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>20140.63</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>18867.67</v>
+      </c>
+      <c r="C86" t="n">
+        <v>18866.97</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>18858.47</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>3</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>17608.59</v>
+      </c>
+      <c r="C87" t="n">
+        <v>17607.89</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>17599.39</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>3</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>15881.65</v>
+      </c>
+      <c r="C88" t="n">
+        <v>15880.95</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>15872.45</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>3</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>17608.59</v>
+      </c>
+      <c r="C89" t="n">
+        <v>17607.89</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>17599.39</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>15315.1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>15314.4</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>15305.9</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>3</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>17608.59</v>
+      </c>
+      <c r="C91" t="n">
+        <v>17607.89</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>17599.39</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>booting</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>18227.92</v>
+      </c>
+      <c r="C92" t="n">
+        <v>18227.22</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E92" t="n">
+        <v>17227.22</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>4</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K92" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L92" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M92" t="n">
+        <v>32</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O92" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R92" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S92" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>31765.11230388608</v>
+      </c>
+      <c r="C93" t="n">
+        <v>31764.41</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E93" t="n">
+        <v>30764.41</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K93" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M93" t="n">
+        <v>32</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O93" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R93" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S93" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>25294.26230388608</v>
+      </c>
+      <c r="C94" t="n">
+        <v>25293.56</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E94" t="n">
+        <v>24293.56</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>4</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K94" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L94" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M94" t="n">
+        <v>32</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R94" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S94" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>20128.28230388608</v>
+      </c>
+      <c r="C95" t="n">
+        <v>20127.58</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E95" t="n">
+        <v>19127.58</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>4</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K95" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L95" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M95" t="n">
+        <v>32</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O95" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R95" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S95" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>15293.55230388608</v>
+      </c>
+      <c r="C96" t="n">
+        <v>15292.85</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E96" t="n">
+        <v>14292.85</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>4</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K96" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M96" t="n">
+        <v>32</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O96" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R96" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S96" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>14165.57230388608</v>
+      </c>
+      <c r="C97" t="n">
+        <v>14164.87</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E97" t="n">
+        <v>13164.87</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>4</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K97" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M97" t="n">
+        <v>32</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O97" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R97" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S97" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>11045.04230388608</v>
+      </c>
+      <c r="C98" t="n">
+        <v>11044.34</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E98" t="n">
+        <v>10044.34</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>4</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K98" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L98" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M98" t="n">
+        <v>32</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O98" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R98" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S98" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>16432.71230388608</v>
+      </c>
+      <c r="C99" t="n">
+        <v>16432.01</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E99" t="n">
+        <v>15432.01</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>4</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K99" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M99" t="n">
+        <v>32</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R99" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S99" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>20128.28230388608</v>
+      </c>
+      <c r="C100" t="n">
+        <v>20127.58</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E100" t="n">
+        <v>19127.58</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>4</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K100" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L100" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M100" t="n">
+        <v>32</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O100" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R100" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S100" t="n">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>32823.93230388608</v>
+      </c>
+      <c r="C101" t="n">
+        <v>32823.23</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E101" t="n">
+        <v>31823.23</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>4</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K101" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L101" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M101" t="n">
+        <v>32</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O101" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R101" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S101" t="n">
+        <v>62.81</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,13 +582,13 @@
         <v>0.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.82</v>
+        <v>0.27</v>
       </c>
       <c r="R2" t="n">
         <v>64.16</v>
       </c>
       <c r="S2" t="n">
-        <v>63.34</v>
+        <v>63.89</v>
       </c>
     </row>
     <row r="3">
@@ -596,16 +596,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1482.473925728154</v>
+        <v>1482.908230517899</v>
       </c>
       <c r="C3" t="n">
-        <v>1481.78</v>
+        <v>1482.22</v>
       </c>
       <c r="D3" t="n">
         <v>0.34</v>
       </c>
       <c r="E3" t="n">
-        <v>481.78</v>
+        <v>482.22</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -643,13 +643,13 @@
         <v>0.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R3" t="n">
         <v>63.62</v>
       </c>
       <c r="S3" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="4">
@@ -657,16 +657,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1675.962303886082</v>
+        <v>1676.50920621391</v>
       </c>
       <c r="C4" t="n">
-        <v>1675.27</v>
+        <v>1675.82</v>
       </c>
       <c r="D4" t="n">
         <v>0.34</v>
       </c>
       <c r="E4" t="n">
-        <v>675.27</v>
+        <v>675.8200000000001</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -704,13 +704,13 @@
         <v>0.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R4" t="n">
         <v>63.62</v>
       </c>
       <c r="S4" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="5">
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>388.5223038860822</v>
+        <v>389.0692062139099</v>
       </c>
       <c r="C5" t="n">
-        <v>387.86</v>
+        <v>388.4</v>
       </c>
       <c r="D5" t="n">
         <v>0.14</v>
@@ -744,7 +744,7 @@
         <v>1.11</v>
       </c>
       <c r="J5" t="n">
-        <v>-7.85</v>
+        <v>-7.87</v>
       </c>
       <c r="K5" t="n">
         <v>8.4</v>
@@ -765,13 +765,13 @@
         <v>0.19</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.86</v>
+        <v>0.28</v>
       </c>
       <c r="R5" t="n">
-        <v>66.55</v>
+        <v>66.45</v>
       </c>
       <c r="S5" t="n">
-        <v>65.69</v>
+        <v>66.17</v>
       </c>
     </row>
     <row r="6">
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>177.4644455239207</v>
+        <v>177.6895431234665</v>
       </c>
       <c r="C6" t="n">
-        <v>176.84</v>
+        <v>177.07</v>
       </c>
       <c r="D6" t="n">
         <v>0.06</v>
@@ -817,22 +817,22 @@
         <v>32</v>
       </c>
       <c r="N6" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="O6" t="n">
-        <v>5.29</v>
+        <v>5.28</v>
       </c>
       <c r="P6" t="n">
         <v>0.17</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="R6" t="n">
-        <v>60.62</v>
+        <v>60.55</v>
       </c>
       <c r="S6" t="n">
-        <v>59.81</v>
+        <v>60.29</v>
       </c>
     </row>
     <row r="7">
@@ -840,16 +840,16 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>70.11576324998779</v>
+        <v>70.21228365481042</v>
       </c>
       <c r="C7" t="n">
-        <v>69.61</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>69.61</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -948,13 +948,13 @@
         <v>0.17</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.79</v>
+        <v>0.26</v>
       </c>
       <c r="R8" t="n">
         <v>59.83</v>
       </c>
       <c r="S8" t="n">
-        <v>59.04</v>
+        <v>59.57</v>
       </c>
     </row>
     <row r="9">
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>889.8622969989876</v>
+        <v>889.990979899653</v>
       </c>
       <c r="C9" t="n">
-        <v>889.1799999999999</v>
+        <v>889.3099999999999</v>
       </c>
       <c r="D9" t="n">
         <v>0.31</v>
@@ -1009,13 +1009,13 @@
         <v>0.27</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.83</v>
+        <v>0.27</v>
       </c>
       <c r="R9" t="n">
-        <v>65.19</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="S9" t="n">
-        <v>64.36</v>
+        <v>64.91</v>
       </c>
     </row>
     <row r="10">
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>390.746702409066</v>
+        <v>391.2450052405076</v>
       </c>
       <c r="C10" t="n">
-        <v>390.08</v>
+        <v>390.58</v>
       </c>
       <c r="D10" t="n">
         <v>0.14</v>
@@ -1049,10 +1049,10 @@
         <v>1.11</v>
       </c>
       <c r="J10" t="n">
-        <v>-7.93</v>
+        <v>-7.95</v>
       </c>
       <c r="K10" t="n">
-        <v>8.43</v>
+        <v>8.44</v>
       </c>
       <c r="L10" t="n">
         <v>-1.18</v>
@@ -1070,13 +1070,13 @@
         <v>0.19</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.86</v>
+        <v>0.28</v>
       </c>
       <c r="R10" t="n">
-        <v>66.16</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>65.3</v>
+        <v>65.79000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1084,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1490.724047435097</v>
+        <v>1490.94915381735</v>
       </c>
       <c r="C11" t="n">
-        <v>1490.03</v>
+        <v>1490.26</v>
       </c>
       <c r="D11" t="n">
         <v>0.34</v>
       </c>
       <c r="E11" t="n">
-        <v>490.03</v>
+        <v>490.26</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1131,13 +1131,13 @@
         <v>0.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R11" t="n">
         <v>63.62</v>
       </c>
       <c r="S11" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="12">
@@ -1145,16 +1145,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1567.202303886082</v>
+        <v>1567.74920621391</v>
       </c>
       <c r="C12" t="n">
-        <v>1566.51</v>
+        <v>1567.06</v>
       </c>
       <c r="D12" t="n">
         <v>0.34</v>
       </c>
       <c r="E12" t="n">
-        <v>566.51</v>
+        <v>567.0599999999999</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1192,13 +1192,13 @@
         <v>0.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R12" t="n">
         <v>63.62</v>
       </c>
       <c r="S12" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="13">
@@ -1206,16 +1206,16 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1076.422303886082</v>
+        <v>1076.96920621391</v>
       </c>
       <c r="C13" t="n">
-        <v>1075.74</v>
+        <v>1076.28</v>
       </c>
       <c r="D13" t="n">
         <v>0.34</v>
       </c>
       <c r="E13" t="n">
-        <v>75.73999999999999</v>
+        <v>76.28</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1253,13 +1253,13 @@
         <v>0.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R13" t="n">
         <v>63.62</v>
       </c>
       <c r="S13" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="14">
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>220.3323038860822</v>
+        <v>220.8792062139099</v>
       </c>
       <c r="C14" t="n">
-        <v>219.7</v>
+        <v>220.24</v>
       </c>
       <c r="D14" t="n">
         <v>0.08</v>
@@ -1293,34 +1293,34 @@
         <v>0.64</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.7</v>
+        <v>-2.71</v>
       </c>
       <c r="K14" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.71</v>
+        <v>-0.72</v>
       </c>
       <c r="M14" t="n">
         <v>27</v>
       </c>
       <c r="N14" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="O14" t="n">
-        <v>4.86</v>
+        <v>4.85</v>
       </c>
       <c r="P14" t="n">
         <v>0.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.87</v>
+        <v>0.28</v>
       </c>
       <c r="R14" t="n">
-        <v>65.88</v>
+        <v>65.72</v>
       </c>
       <c r="S14" t="n">
-        <v>65.01000000000001</v>
+        <v>65.44</v>
       </c>
     </row>
     <row r="15">
@@ -1328,16 +1328,16 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1494.321649500995</v>
+        <v>1494.450345526699</v>
       </c>
       <c r="C15" t="n">
-        <v>1493.63</v>
+        <v>1493.76</v>
       </c>
       <c r="D15" t="n">
         <v>0.34</v>
       </c>
       <c r="E15" t="n">
-        <v>493.63</v>
+        <v>493.76</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1375,13 +1375,13 @@
         <v>0.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R15" t="n">
         <v>63.62</v>
       </c>
       <c r="S15" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="16">
@@ -1389,16 +1389,16 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1076.422303886082</v>
+        <v>1076.96920621391</v>
       </c>
       <c r="C16" t="n">
-        <v>1075.74</v>
+        <v>1076.28</v>
       </c>
       <c r="D16" t="n">
         <v>0.34</v>
       </c>
       <c r="E16" t="n">
-        <v>75.73999999999999</v>
+        <v>76.28</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1436,13 +1436,13 @@
         <v>0.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R16" t="n">
         <v>63.62</v>
       </c>
       <c r="S16" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="17">
@@ -1450,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>656.7223038860822</v>
+        <v>657.2692062139099</v>
       </c>
       <c r="C17" t="n">
-        <v>656.04</v>
+        <v>656.59</v>
       </c>
       <c r="D17" t="n">
         <v>0.23</v>
@@ -1476,7 +1476,7 @@
         <v>1.83</v>
       </c>
       <c r="J17" t="n">
-        <v>-19.61</v>
+        <v>-19.64</v>
       </c>
       <c r="K17" t="n">
         <v>12.41</v>
@@ -1488,7 +1488,7 @@
         <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O17" t="n">
         <v>2.78</v>
@@ -1497,13 +1497,13 @@
         <v>0.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.84</v>
+        <v>0.27</v>
       </c>
       <c r="R17" t="n">
-        <v>65.28</v>
+        <v>65.23</v>
       </c>
       <c r="S17" t="n">
-        <v>64.44</v>
+        <v>64.95999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>171.8514167160982</v>
+        <v>172.2207535069591</v>
       </c>
       <c r="C18" t="n">
-        <v>171.23</v>
+        <v>171.6</v>
       </c>
       <c r="D18" t="n">
         <v>0.06</v>
@@ -1537,10 +1537,10 @@
         <v>0.48</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.61</v>
+        <v>-1.62</v>
       </c>
       <c r="K18" t="n">
-        <v>3.91</v>
+        <v>3.92</v>
       </c>
       <c r="L18" t="n">
         <v>-0.55</v>
@@ -1558,13 +1558,13 @@
         <v>0.18</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.84</v>
+        <v>0.27</v>
       </c>
       <c r="R18" t="n">
-        <v>62.7</v>
+        <v>62.55</v>
       </c>
       <c r="S18" t="n">
-        <v>61.86</v>
+        <v>62.28</v>
       </c>
     </row>
     <row r="19">
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1296.055569419957</v>
+        <v>1296.15209397129</v>
       </c>
       <c r="C19" t="n">
-        <v>1295.37</v>
+        <v>1295.46</v>
       </c>
       <c r="D19" t="n">
         <v>0.34</v>
       </c>
       <c r="E19" t="n">
-        <v>295.37</v>
+        <v>295.46</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1619,13 +1619,13 @@
         <v>0.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R19" t="n">
         <v>63.62</v>
       </c>
       <c r="S19" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="20">
@@ -1633,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1567.202303886082</v>
+        <v>1567.74920621391</v>
       </c>
       <c r="C20" t="n">
-        <v>1566.51</v>
+        <v>1567.06</v>
       </c>
       <c r="D20" t="n">
         <v>0.34</v>
       </c>
       <c r="E20" t="n">
-        <v>566.51</v>
+        <v>567.0599999999999</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1680,13 +1680,13 @@
         <v>0.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R20" t="n">
         <v>63.62</v>
       </c>
       <c r="S20" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="21">
@@ -1694,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>52.1423038860822</v>
+        <v>52.68920621390991</v>
       </c>
       <c r="C21" t="n">
-        <v>51.71</v>
+        <v>52.25</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>51.71</v>
+        <v>52.25</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1802,13 +1802,13 @@
         <v>0.17</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.79</v>
+        <v>0.26</v>
       </c>
       <c r="R22" t="n">
         <v>59.83</v>
       </c>
       <c r="S22" t="n">
-        <v>59.04</v>
+        <v>59.57</v>
       </c>
     </row>
     <row r="23">
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>405.3122969989876</v>
+        <v>405.4409798996529</v>
       </c>
       <c r="C23" t="n">
-        <v>404.65</v>
+        <v>404.78</v>
       </c>
       <c r="D23" t="n">
         <v>0.14</v>
@@ -1842,7 +1842,7 @@
         <v>1.11</v>
       </c>
       <c r="J23" t="n">
-        <v>-8.460000000000001</v>
+        <v>-8.470000000000001</v>
       </c>
       <c r="K23" t="n">
         <v>8.68</v>
@@ -1863,13 +1863,13 @@
         <v>0.18</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.83</v>
+        <v>0.27</v>
       </c>
       <c r="R23" t="n">
-        <v>63.73</v>
+        <v>63.71</v>
       </c>
       <c r="S23" t="n">
-        <v>62.9</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="24">
@@ -1877,16 +1877,16 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1388.280426809484</v>
+        <v>1388.505568332845</v>
       </c>
       <c r="C24" t="n">
-        <v>1387.59</v>
+        <v>1387.82</v>
       </c>
       <c r="D24" t="n">
         <v>0.34</v>
       </c>
       <c r="E24" t="n">
-        <v>387.59</v>
+        <v>387.82</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1924,13 +1924,13 @@
         <v>0.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R24" t="n">
         <v>63.62</v>
       </c>
       <c r="S24" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="25">
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>873.0723038860822</v>
+        <v>873.6192062139099</v>
       </c>
       <c r="C25" t="n">
-        <v>872.39</v>
+        <v>872.9400000000001</v>
       </c>
       <c r="D25" t="n">
         <v>0.3</v>
@@ -1964,7 +1964,7 @@
         <v>2.38</v>
       </c>
       <c r="J25" t="n">
-        <v>-31.65</v>
+        <v>-31.68</v>
       </c>
       <c r="K25" t="n">
         <v>15.06</v>
@@ -1985,13 +1985,13 @@
         <v>0.27</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.82</v>
+        <v>0.27</v>
       </c>
       <c r="R25" t="n">
-        <v>64.23999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="S25" t="n">
-        <v>63.42</v>
+        <v>63.93</v>
       </c>
     </row>
     <row r="26">
@@ -1999,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>975.1937343643782</v>
+        <v>975.6748755109459</v>
       </c>
       <c r="C26" t="n">
-        <v>974.51</v>
+        <v>974.99</v>
       </c>
       <c r="D26" t="n">
         <v>0.33</v>
@@ -2025,10 +2025,10 @@
         <v>2.62</v>
       </c>
       <c r="J26" t="n">
-        <v>-38</v>
+        <v>-38.03</v>
       </c>
       <c r="K26" t="n">
-        <v>16.18</v>
+        <v>16.19</v>
       </c>
       <c r="L26" t="n">
         <v>-2.27</v>
@@ -2040,19 +2040,19 @@
         <v>1.76</v>
       </c>
       <c r="O26" t="n">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="P26" t="n">
         <v>0.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="R26" t="n">
-        <v>63.32</v>
+        <v>63.3</v>
       </c>
       <c r="S26" t="n">
-        <v>62.51</v>
+        <v>63.04</v>
       </c>
     </row>
     <row r="27">
@@ -2060,16 +2060,16 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1278.77842113697</v>
+        <v>1279.307747829919</v>
       </c>
       <c r="C27" t="n">
-        <v>1278.09</v>
+        <v>1278.62</v>
       </c>
       <c r="D27" t="n">
         <v>0.34</v>
       </c>
       <c r="E27" t="n">
-        <v>278.09</v>
+        <v>278.62</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2107,13 +2107,13 @@
         <v>0.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R27" t="n">
         <v>63.62</v>
       </c>
       <c r="S27" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="28">
@@ -2121,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>276.3923038860822</v>
+        <v>276.9392062139099</v>
       </c>
       <c r="C28" t="n">
-        <v>275.74</v>
+        <v>276.29</v>
       </c>
       <c r="D28" t="n">
         <v>0.1</v>
@@ -2147,19 +2147,19 @@
         <v>0.79</v>
       </c>
       <c r="J28" t="n">
-        <v>-4.19</v>
+        <v>-4.21</v>
       </c>
       <c r="K28" t="n">
-        <v>6.31</v>
+        <v>6.32</v>
       </c>
       <c r="L28" t="n">
         <v>-0.88</v>
       </c>
       <c r="M28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N28" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="O28" t="n">
         <v>4.24</v>
@@ -2168,13 +2168,13 @@
         <v>0.18</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.87</v>
+        <v>0.28</v>
       </c>
       <c r="R28" t="n">
-        <v>66.20999999999999</v>
+        <v>66.08</v>
       </c>
       <c r="S28" t="n">
-        <v>65.34</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="29">
@@ -2290,13 +2290,13 @@
         <v>0.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R30" t="n">
         <v>63.62</v>
       </c>
       <c r="S30" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="31">
@@ -2304,16 +2304,16 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>1477.532303886082</v>
+        <v>1478.07920621391</v>
       </c>
       <c r="C31" t="n">
-        <v>1476.84</v>
+        <v>1477.39</v>
       </c>
       <c r="D31" t="n">
         <v>0.34</v>
       </c>
       <c r="E31" t="n">
-        <v>476.84</v>
+        <v>477.39</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2351,13 +2351,13 @@
         <v>0.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R31" t="n">
         <v>63.62</v>
       </c>
       <c r="S31" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="32">
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>1567.202303886082</v>
+        <v>1567.74920621391</v>
       </c>
       <c r="C32" t="n">
-        <v>1566.51</v>
+        <v>1567.06</v>
       </c>
       <c r="D32" t="n">
         <v>0.34</v>
       </c>
       <c r="E32" t="n">
-        <v>566.51</v>
+        <v>567.0599999999999</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2412,13 +2412,13 @@
         <v>0.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R32" t="n">
         <v>63.62</v>
       </c>
       <c r="S32" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="33">
@@ -2426,16 +2426,16 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>2328.412303886082</v>
+        <v>2328.95920621391</v>
       </c>
       <c r="C33" t="n">
-        <v>2327.72</v>
+        <v>2328.27</v>
       </c>
       <c r="D33" t="n">
         <v>0.34</v>
       </c>
       <c r="E33" t="n">
-        <v>1327.72</v>
+        <v>1328.27</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2473,13 +2473,13 @@
         <v>0.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R33" t="n">
         <v>63.62</v>
       </c>
       <c r="S33" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="34">
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>5017.472303886083</v>
+        <v>5018.01920621391</v>
       </c>
       <c r="C34" t="n">
-        <v>5016.78</v>
+        <v>5017.32</v>
       </c>
       <c r="D34" t="n">
         <v>0.34</v>
       </c>
       <c r="E34" t="n">
-        <v>4016.78</v>
+        <v>4017.32</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2534,13 +2534,13 @@
         <v>0.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R34" t="n">
         <v>63.62</v>
       </c>
       <c r="S34" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="35">
@@ -2548,16 +2548,16 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>6277.652303886082</v>
+        <v>6278.19920621391</v>
       </c>
       <c r="C35" t="n">
-        <v>6276.95</v>
+        <v>6277.5</v>
       </c>
       <c r="D35" t="n">
         <v>0.34</v>
       </c>
       <c r="E35" t="n">
-        <v>5276.95</v>
+        <v>5277.5</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2595,13 +2595,13 @@
         <v>0.3</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R35" t="n">
         <v>63.62</v>
       </c>
       <c r="S35" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="36">
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>3662.882303886082</v>
+        <v>3663.42920621391</v>
       </c>
       <c r="C36" t="n">
-        <v>3662.19</v>
+        <v>3662.73</v>
       </c>
       <c r="D36" t="n">
         <v>0.34</v>
       </c>
       <c r="E36" t="n">
-        <v>2662.19</v>
+        <v>2662.73</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2656,13 +2656,13 @@
         <v>0.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R36" t="n">
         <v>63.62</v>
       </c>
       <c r="S36" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="37">
@@ -2670,16 +2670,16 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>3853.882303886082</v>
+        <v>3854.42920621391</v>
       </c>
       <c r="C37" t="n">
-        <v>3853.19</v>
+        <v>3853.73</v>
       </c>
       <c r="D37" t="n">
         <v>0.34</v>
       </c>
       <c r="E37" t="n">
-        <v>2853.19</v>
+        <v>2853.73</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2717,13 +2717,13 @@
         <v>0.3</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R37" t="n">
         <v>63.62</v>
       </c>
       <c r="S37" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="38">
@@ -2731,16 +2731,16 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>7238.792303886083</v>
+        <v>7239.33920621391</v>
       </c>
       <c r="C38" t="n">
-        <v>7238.09</v>
+        <v>7238.64</v>
       </c>
       <c r="D38" t="n">
         <v>0.34</v>
       </c>
       <c r="E38" t="n">
-        <v>6238.09</v>
+        <v>6238.64</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2778,13 +2778,13 @@
         <v>0.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R38" t="n">
         <v>63.62</v>
       </c>
       <c r="S38" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="39">
@@ -3083,13 +3083,13 @@
         <v>0.19</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.88</v>
+        <v>0.29</v>
       </c>
       <c r="R43" t="n">
         <v>67.7</v>
       </c>
       <c r="S43" t="n">
-        <v>66.81999999999999</v>
+        <v>67.41</v>
       </c>
     </row>
     <row r="44">
@@ -3097,16 +3097,16 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>1387.680808145932</v>
+        <v>1387.92208858468</v>
       </c>
       <c r="C44" t="n">
-        <v>1386.99</v>
+        <v>1387.23</v>
       </c>
       <c r="D44" t="n">
         <v>0.34</v>
       </c>
       <c r="E44" t="n">
-        <v>386.99</v>
+        <v>387.23</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3144,13 +3144,13 @@
         <v>0.3</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R44" t="n">
         <v>63.62</v>
       </c>
       <c r="S44" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="45">
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>3086.822303886082</v>
+        <v>3087.36920621391</v>
       </c>
       <c r="C45" t="n">
-        <v>3086.13</v>
+        <v>3086.67</v>
       </c>
       <c r="D45" t="n">
         <v>0.34</v>
       </c>
       <c r="E45" t="n">
-        <v>2086.13</v>
+        <v>2086.67</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3205,13 +3205,13 @@
         <v>0.3</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R45" t="n">
         <v>63.62</v>
       </c>
       <c r="S45" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="46">
@@ -3219,16 +3219,16 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>4393.992303886082</v>
+        <v>4394.53920621391</v>
       </c>
       <c r="C46" t="n">
-        <v>4393.3</v>
+        <v>4393.84</v>
       </c>
       <c r="D46" t="n">
         <v>0.34</v>
       </c>
       <c r="E46" t="n">
-        <v>3393.3</v>
+        <v>3393.84</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3266,13 +3266,13 @@
         <v>0.3</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R46" t="n">
         <v>63.62</v>
       </c>
       <c r="S46" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="47">
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>3471.482303886082</v>
+        <v>3472.02920621391</v>
       </c>
       <c r="C47" t="n">
-        <v>3470.79</v>
+        <v>3471.33</v>
       </c>
       <c r="D47" t="n">
         <v>0.34</v>
       </c>
       <c r="E47" t="n">
-        <v>2470.79</v>
+        <v>2471.33</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3327,13 +3327,13 @@
         <v>0.3</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R47" t="n">
         <v>63.62</v>
       </c>
       <c r="S47" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="48">
@@ -3341,16 +3341,16 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>5647.292303886083</v>
+        <v>5647.83920621391</v>
       </c>
       <c r="C48" t="n">
-        <v>5646.59</v>
+        <v>5647.14</v>
       </c>
       <c r="D48" t="n">
         <v>0.34</v>
       </c>
       <c r="E48" t="n">
-        <v>4646.59</v>
+        <v>4647.14</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3388,13 +3388,13 @@
         <v>0.3</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R48" t="n">
         <v>63.62</v>
       </c>
       <c r="S48" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="49">
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>4393.992303886082</v>
+        <v>4394.53920621391</v>
       </c>
       <c r="C49" t="n">
-        <v>4393.3</v>
+        <v>4393.84</v>
       </c>
       <c r="D49" t="n">
         <v>0.34</v>
       </c>
       <c r="E49" t="n">
-        <v>3393.3</v>
+        <v>3393.84</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3449,13 +3449,13 @@
         <v>0.3</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R49" t="n">
         <v>63.62</v>
       </c>
       <c r="S49" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="50">
@@ -3463,16 +3463,16 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>11045.04230388608</v>
+        <v>11045.58920621391</v>
       </c>
       <c r="C50" t="n">
-        <v>11044.34</v>
+        <v>11044.89</v>
       </c>
       <c r="D50" t="n">
         <v>0.34</v>
       </c>
       <c r="E50" t="n">
-        <v>10044.34</v>
+        <v>10044.89</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3510,13 +3510,13 @@
         <v>0.3</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R50" t="n">
         <v>63.62</v>
       </c>
       <c r="S50" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="51">
@@ -3524,16 +3524,16 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>9313.752303886082</v>
+        <v>9314.299206213909</v>
       </c>
       <c r="C51" t="n">
-        <v>9313.049999999999</v>
+        <v>9313.6</v>
       </c>
       <c r="D51" t="n">
         <v>0.34</v>
       </c>
       <c r="E51" t="n">
-        <v>8313.049999999999</v>
+        <v>8313.6</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3571,13 +3571,13 @@
         <v>0.3</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R51" t="n">
         <v>63.62</v>
       </c>
       <c r="S51" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="52">
@@ -3585,16 +3585,16 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>3471.482303886082</v>
+        <v>3472.02920621391</v>
       </c>
       <c r="C52" t="n">
-        <v>3470.79</v>
+        <v>3471.33</v>
       </c>
       <c r="D52" t="n">
         <v>0.34</v>
       </c>
       <c r="E52" t="n">
-        <v>2470.79</v>
+        <v>2471.33</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3632,13 +3632,13 @@
         <v>0.3</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R52" t="n">
         <v>63.62</v>
       </c>
       <c r="S52" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="53">
@@ -3646,16 +3646,16 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>3086.822303886082</v>
+        <v>3087.36920621391</v>
       </c>
       <c r="C53" t="n">
-        <v>3086.13</v>
+        <v>3086.67</v>
       </c>
       <c r="D53" t="n">
         <v>0.34</v>
       </c>
       <c r="E53" t="n">
-        <v>2086.13</v>
+        <v>2086.67</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3693,13 +3693,13 @@
         <v>0.3</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R53" t="n">
         <v>63.62</v>
       </c>
       <c r="S53" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="54">
@@ -3707,16 +3707,16 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>2896.632303886082</v>
+        <v>2897.17920621391</v>
       </c>
       <c r="C54" t="n">
-        <v>2895.94</v>
+        <v>2896.48</v>
       </c>
       <c r="D54" t="n">
         <v>0.34</v>
       </c>
       <c r="E54" t="n">
-        <v>1895.94</v>
+        <v>1896.48</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3754,13 +3754,13 @@
         <v>0.3</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R54" t="n">
         <v>63.62</v>
       </c>
       <c r="S54" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="55">
@@ -3768,16 +3768,16 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>1947.882303886082</v>
+        <v>1948.42920621391</v>
       </c>
       <c r="C55" t="n">
-        <v>1947.19</v>
+        <v>1947.74</v>
       </c>
       <c r="D55" t="n">
         <v>0.34</v>
       </c>
       <c r="E55" t="n">
-        <v>947.1900000000001</v>
+        <v>947.74</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3815,13 +3815,13 @@
         <v>0.3</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R55" t="n">
         <v>63.62</v>
       </c>
       <c r="S55" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="56">
@@ -3829,16 +3829,16 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>2518.212303886082</v>
+        <v>2518.75920621391</v>
       </c>
       <c r="C56" t="n">
-        <v>2517.52</v>
+        <v>2518.06</v>
       </c>
       <c r="D56" t="n">
         <v>0.34</v>
       </c>
       <c r="E56" t="n">
-        <v>1517.52</v>
+        <v>1518.06</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3876,13 +3876,13 @@
         <v>0.3</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R56" t="n">
         <v>63.62</v>
       </c>
       <c r="S56" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="57">
@@ -3890,16 +3890,16 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>7604.092303886083</v>
+        <v>7604.63920621391</v>
       </c>
       <c r="C57" t="n">
-        <v>7603.39</v>
+        <v>7603.94</v>
       </c>
       <c r="D57" t="n">
         <v>0.34</v>
       </c>
       <c r="E57" t="n">
-        <v>6603.39</v>
+        <v>6603.94</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3937,13 +3937,13 @@
         <v>0.3</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R57" t="n">
         <v>63.62</v>
       </c>
       <c r="S57" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="58">
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>12477.71230388608</v>
+        <v>12478.25920621391</v>
       </c>
       <c r="C58" t="n">
-        <v>12477.01</v>
+        <v>12477.56</v>
       </c>
       <c r="D58" t="n">
         <v>0.34</v>
       </c>
       <c r="E58" t="n">
-        <v>11477.01</v>
+        <v>11477.56</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3998,13 +3998,13 @@
         <v>0.3</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R58" t="n">
         <v>63.62</v>
       </c>
       <c r="S58" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="59">
@@ -4012,16 +4012,16 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>11045.04230388608</v>
+        <v>11045.58920621391</v>
       </c>
       <c r="C59" t="n">
-        <v>11044.34</v>
+        <v>11044.89</v>
       </c>
       <c r="D59" t="n">
         <v>0.34</v>
       </c>
       <c r="E59" t="n">
-        <v>10044.34</v>
+        <v>10044.89</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -4059,13 +4059,13 @@
         <v>0.3</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R59" t="n">
         <v>63.62</v>
       </c>
       <c r="S59" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="60">
@@ -4073,16 +4073,16 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>10178.11230388608</v>
+        <v>10178.65920621391</v>
       </c>
       <c r="C60" t="n">
-        <v>10177.41</v>
+        <v>10177.96</v>
       </c>
       <c r="D60" t="n">
         <v>0.34</v>
       </c>
       <c r="E60" t="n">
-        <v>9177.41</v>
+        <v>9177.959999999999</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -4120,13 +4120,13 @@
         <v>0.3</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R60" t="n">
         <v>63.62</v>
       </c>
       <c r="S60" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="61">
@@ -4134,16 +4134,16 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>14165.57230388608</v>
+        <v>14166.11920621391</v>
       </c>
       <c r="C61" t="n">
-        <v>14164.87</v>
+        <v>14165.42</v>
       </c>
       <c r="D61" t="n">
         <v>0.34</v>
       </c>
       <c r="E61" t="n">
-        <v>13164.87</v>
+        <v>13165.42</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -4181,13 +4181,13 @@
         <v>0.3</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R61" t="n">
         <v>63.62</v>
       </c>
       <c r="S61" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="62">
@@ -4195,16 +4195,16 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>13043.80230388608</v>
+        <v>13044.34920621391</v>
       </c>
       <c r="C62" t="n">
-        <v>13043.1</v>
+        <v>13043.65</v>
       </c>
       <c r="D62" t="n">
         <v>0.34</v>
       </c>
       <c r="E62" t="n">
-        <v>12043.1</v>
+        <v>12043.65</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -4242,13 +4242,13 @@
         <v>0.3</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R62" t="n">
         <v>63.62</v>
       </c>
       <c r="S62" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="63">
@@ -4256,16 +4256,16 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>10178.11230388608</v>
+        <v>10178.65920621391</v>
       </c>
       <c r="C63" t="n">
-        <v>10177.41</v>
+        <v>10177.96</v>
       </c>
       <c r="D63" t="n">
         <v>0.34</v>
       </c>
       <c r="E63" t="n">
-        <v>9177.41</v>
+        <v>9177.959999999999</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -4303,13 +4303,13 @@
         <v>0.3</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R63" t="n">
         <v>63.62</v>
       </c>
       <c r="S63" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="64">
@@ -4317,16 +4317,16 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>11045.04230388608</v>
+        <v>11045.58920621391</v>
       </c>
       <c r="C64" t="n">
-        <v>11044.34</v>
+        <v>11044.89</v>
       </c>
       <c r="D64" t="n">
         <v>0.34</v>
       </c>
       <c r="E64" t="n">
-        <v>10044.34</v>
+        <v>10044.89</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -4364,13 +4364,13 @@
         <v>0.3</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R64" t="n">
         <v>63.62</v>
       </c>
       <c r="S64" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="65">
@@ -4378,16 +4378,16 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>7604.092303886083</v>
+        <v>7604.63920621391</v>
       </c>
       <c r="C65" t="n">
-        <v>7603.39</v>
+        <v>7603.94</v>
       </c>
       <c r="D65" t="n">
         <v>0.34</v>
       </c>
       <c r="E65" t="n">
-        <v>6603.39</v>
+        <v>6603.94</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -4425,13 +4425,13 @@
         <v>0.3</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R65" t="n">
         <v>63.62</v>
       </c>
       <c r="S65" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="66">
@@ -4439,16 +4439,16 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>5647.292303886083</v>
+        <v>5647.83920621391</v>
       </c>
       <c r="C66" t="n">
-        <v>5646.59</v>
+        <v>5647.14</v>
       </c>
       <c r="D66" t="n">
         <v>0.34</v>
       </c>
       <c r="E66" t="n">
-        <v>4646.59</v>
+        <v>4647.14</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -4486,13 +4486,13 @@
         <v>0.3</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R66" t="n">
         <v>63.62</v>
       </c>
       <c r="S66" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="67">
@@ -4500,16 +4500,16 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>7604.092303886083</v>
+        <v>7604.63920621391</v>
       </c>
       <c r="C67" t="n">
-        <v>7603.39</v>
+        <v>7603.94</v>
       </c>
       <c r="D67" t="n">
         <v>0.34</v>
       </c>
       <c r="E67" t="n">
-        <v>6603.39</v>
+        <v>6603.94</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -4547,13 +4547,13 @@
         <v>0.3</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R67" t="n">
         <v>63.62</v>
       </c>
       <c r="S67" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="68">
@@ -4561,16 +4561,16 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>11485.40230388608</v>
+        <v>11485.94920621391</v>
       </c>
       <c r="C68" t="n">
-        <v>11484.7</v>
+        <v>11485.25</v>
       </c>
       <c r="D68" t="n">
         <v>0.34</v>
       </c>
       <c r="E68" t="n">
-        <v>10484.7</v>
+        <v>10485.25</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -4608,13 +4608,13 @@
         <v>0.3</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R68" t="n">
         <v>63.62</v>
       </c>
       <c r="S68" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="69">
@@ -6072,13 +6072,13 @@
         <v>0.3</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R92" t="n">
         <v>63.62</v>
       </c>
       <c r="S92" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="93">
@@ -6086,16 +6086,16 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>31765.11230388608</v>
+        <v>31765.65920621391</v>
       </c>
       <c r="C93" t="n">
-        <v>31764.41</v>
+        <v>31764.96</v>
       </c>
       <c r="D93" t="n">
         <v>0.34</v>
       </c>
       <c r="E93" t="n">
-        <v>30764.41</v>
+        <v>30764.96</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -6133,13 +6133,13 @@
         <v>0.3</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R93" t="n">
         <v>63.62</v>
       </c>
       <c r="S93" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="94">
@@ -6147,16 +6147,16 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>25294.26230388608</v>
+        <v>25294.80920621391</v>
       </c>
       <c r="C94" t="n">
-        <v>25293.56</v>
+        <v>25294.11</v>
       </c>
       <c r="D94" t="n">
         <v>0.34</v>
       </c>
       <c r="E94" t="n">
-        <v>24293.56</v>
+        <v>24294.11</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -6194,13 +6194,13 @@
         <v>0.3</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R94" t="n">
         <v>63.62</v>
       </c>
       <c r="S94" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="95">
@@ -6208,16 +6208,16 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>20128.28230388608</v>
+        <v>20128.82920621391</v>
       </c>
       <c r="C95" t="n">
-        <v>20127.58</v>
+        <v>20128.13</v>
       </c>
       <c r="D95" t="n">
         <v>0.34</v>
       </c>
       <c r="E95" t="n">
-        <v>19127.58</v>
+        <v>19128.13</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -6255,13 +6255,13 @@
         <v>0.3</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R95" t="n">
         <v>63.62</v>
       </c>
       <c r="S95" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="96">
@@ -6269,16 +6269,16 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>15293.55230388608</v>
+        <v>15294.09920621391</v>
       </c>
       <c r="C96" t="n">
-        <v>15292.85</v>
+        <v>15293.4</v>
       </c>
       <c r="D96" t="n">
         <v>0.34</v>
       </c>
       <c r="E96" t="n">
-        <v>14292.85</v>
+        <v>14293.4</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -6316,13 +6316,13 @@
         <v>0.3</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R96" t="n">
         <v>63.62</v>
       </c>
       <c r="S96" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="97">
@@ -6330,16 +6330,16 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>14165.57230388608</v>
+        <v>14166.11920621391</v>
       </c>
       <c r="C97" t="n">
-        <v>14164.87</v>
+        <v>14165.42</v>
       </c>
       <c r="D97" t="n">
         <v>0.34</v>
       </c>
       <c r="E97" t="n">
-        <v>13164.87</v>
+        <v>13165.42</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -6377,13 +6377,13 @@
         <v>0.3</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R97" t="n">
         <v>63.62</v>
       </c>
       <c r="S97" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="98">
@@ -6391,16 +6391,16 @@
         <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>11045.04230388608</v>
+        <v>11045.58920621391</v>
       </c>
       <c r="C98" t="n">
-        <v>11044.34</v>
+        <v>11044.89</v>
       </c>
       <c r="D98" t="n">
         <v>0.34</v>
       </c>
       <c r="E98" t="n">
-        <v>10044.34</v>
+        <v>10044.89</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -6438,13 +6438,13 @@
         <v>0.3</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R98" t="n">
         <v>63.62</v>
       </c>
       <c r="S98" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="99">
@@ -6452,16 +6452,16 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>16432.71230388608</v>
+        <v>16433.25920621391</v>
       </c>
       <c r="C99" t="n">
-        <v>16432.01</v>
+        <v>16432.56</v>
       </c>
       <c r="D99" t="n">
         <v>0.34</v>
       </c>
       <c r="E99" t="n">
-        <v>15432.01</v>
+        <v>15432.56</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -6499,13 +6499,13 @@
         <v>0.3</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R99" t="n">
         <v>63.62</v>
       </c>
       <c r="S99" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="100">
@@ -6513,16 +6513,16 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>20128.28230388608</v>
+        <v>20128.82920621391</v>
       </c>
       <c r="C100" t="n">
-        <v>20127.58</v>
+        <v>20128.13</v>
       </c>
       <c r="D100" t="n">
         <v>0.34</v>
       </c>
       <c r="E100" t="n">
-        <v>19127.58</v>
+        <v>19128.13</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -6560,13 +6560,13 @@
         <v>0.3</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R100" t="n">
         <v>63.62</v>
       </c>
       <c r="S100" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="101">
@@ -6574,16 +6574,16 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>32823.93230388608</v>
+        <v>32824.47920621391</v>
       </c>
       <c r="C101" t="n">
-        <v>32823.23</v>
+        <v>32823.78</v>
       </c>
       <c r="D101" t="n">
         <v>0.34</v>
       </c>
       <c r="E101" t="n">
-        <v>31823.23</v>
+        <v>31823.78</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -6621,13 +6621,1233 @@
         <v>0.3</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="R101" t="n">
         <v>63.62</v>
       </c>
       <c r="S101" t="n">
-        <v>62.81</v>
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>28607.44920621391</v>
+      </c>
+      <c r="C102" t="n">
+        <v>28606.75</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E102" t="n">
+        <v>27606.75</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>4</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K102" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M102" t="n">
+        <v>32</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O102" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R102" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S102" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>36035.85920621391</v>
+      </c>
+      <c r="C103" t="n">
+        <v>36035.16</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E103" t="n">
+        <v>35035.16</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>4</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K103" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M103" t="n">
+        <v>32</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O103" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R103" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S103" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>37247.95920621391</v>
+      </c>
+      <c r="C104" t="n">
+        <v>37247.26</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E104" t="n">
+        <v>36247.26</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>4</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K104" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L104" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M104" t="n">
+        <v>32</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O104" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R104" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S104" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>32824.47920621391</v>
+      </c>
+      <c r="C105" t="n">
+        <v>32823.78</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E105" t="n">
+        <v>31823.78</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>4</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I105" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K105" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L105" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M105" t="n">
+        <v>32</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O105" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R105" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S105" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>31236.55920621391</v>
+      </c>
+      <c r="C106" t="n">
+        <v>31235.86</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E106" t="n">
+        <v>30235.86</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>4</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K106" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L106" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M106" t="n">
+        <v>32</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O106" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R106" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S106" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>33889.20920621391</v>
+      </c>
+      <c r="C107" t="n">
+        <v>33888.51</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E107" t="n">
+        <v>32888.51</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>4</v>
+      </c>
+      <c r="H107" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I107" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K107" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M107" t="n">
+        <v>32</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O107" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R107" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S107" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>33889.20920621391</v>
+      </c>
+      <c r="C108" t="n">
+        <v>33888.51</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E108" t="n">
+        <v>32888.51</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>4</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K108" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L108" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M108" t="n">
+        <v>32</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O108" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R108" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S108" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>34962.2692062139</v>
+      </c>
+      <c r="C109" t="n">
+        <v>34961.57</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E109" t="n">
+        <v>33961.57</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>4</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K109" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L109" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M109" t="n">
+        <v>32</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O109" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R109" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S109" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>32294.84920621391</v>
+      </c>
+      <c r="C110" t="n">
+        <v>32294.15</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E110" t="n">
+        <v>31294.15</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>4</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K110" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L110" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M110" t="n">
+        <v>32</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R110" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S110" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>23993.74920621391</v>
+      </c>
+      <c r="C111" t="n">
+        <v>23993.05</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E111" t="n">
+        <v>22993.05</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>4</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K111" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L111" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M111" t="n">
+        <v>32</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O111" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R111" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S111" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>29926.25920621391</v>
+      </c>
+      <c r="C112" t="n">
+        <v>29925.56</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E112" t="n">
+        <v>28925.56</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>4</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K112" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M112" t="n">
+        <v>32</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O112" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R112" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S112" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>26624.64920621391</v>
+      </c>
+      <c r="C113" t="n">
+        <v>26623.95</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E113" t="n">
+        <v>25623.95</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>4</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K113" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L113" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M113" t="n">
+        <v>32</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O113" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R113" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S113" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>22058.51920621391</v>
+      </c>
+      <c r="C114" t="n">
+        <v>22057.82</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E114" t="n">
+        <v>21057.82</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>4</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K114" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L114" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M114" t="n">
+        <v>32</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O114" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R114" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S114" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>15294.09920621391</v>
+      </c>
+      <c r="C115" t="n">
+        <v>15293.4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E115" t="n">
+        <v>14293.4</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>4</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K115" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L115" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M115" t="n">
+        <v>32</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O115" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R115" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S115" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>20128.82920621391</v>
+      </c>
+      <c r="C116" t="n">
+        <v>20128.13</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E116" t="n">
+        <v>19128.13</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>4</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K116" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L116" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M116" t="n">
+        <v>32</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O116" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R116" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S116" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>27949.43920621391</v>
+      </c>
+      <c r="C117" t="n">
+        <v>27948.74</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E117" t="n">
+        <v>26948.74</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>4</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K117" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L117" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M117" t="n">
+        <v>32</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O117" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R117" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S117" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>11926.90920621391</v>
+      </c>
+      <c r="C118" t="n">
+        <v>11926.21</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E118" t="n">
+        <v>10926.21</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>4</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K118" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M118" t="n">
+        <v>32</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O118" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R118" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S118" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6278.19920621391</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6277.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E119" t="n">
+        <v>5277.5</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>4</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K119" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L119" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M119" t="n">
+        <v>32</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O119" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R119" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S119" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>15294.09920621391</v>
+      </c>
+      <c r="C120" t="n">
+        <v>15293.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E120" t="n">
+        <v>14293.4</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>4</v>
+      </c>
+      <c r="H120" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K120" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L120" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M120" t="n">
+        <v>32</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O120" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R120" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S120" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>13044.34920621391</v>
+      </c>
+      <c r="C121" t="n">
+        <v>13043.65</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E121" t="n">
+        <v>12043.65</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>4</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="I121" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-39.64</v>
+      </c>
+      <c r="K121" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L121" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M121" t="n">
+        <v>32</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O121" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R121" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="S121" t="n">
+        <v>63.35</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -541,75 +541,79 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2015-01-01 00:00:00+00:00</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>785.67</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>784.99</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>784.99</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-26.54</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14.03</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.96</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.59</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.18</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>64.16</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>58.98</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>784.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2015-01-01 00:15:00+00:00</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>1499.08</v>
@@ -618,13 +622,13 @@
         <v>1498.39</v>
       </c>
       <c r="D3" t="n">
-        <v>1441.75</v>
+        <v>1498.39</v>
       </c>
       <c r="E3" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F3" t="n">
-        <v>441.75</v>
+        <v>498.39</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -635,13 +639,13 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J3" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K3" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L3" t="n">
         <v>16.45</v>
@@ -653,7 +657,7 @@
         <v>32</v>
       </c>
       <c r="O3" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P3" t="n">
         <v>2.3</v>
@@ -662,21 +666,23 @@
         <v>0.3</v>
       </c>
       <c r="R3" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T3" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1056.64</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2015-01-01 00:30:00+00:00</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>1697.51</v>
@@ -685,13 +691,13 @@
         <v>1696.82</v>
       </c>
       <c r="D4" t="n">
-        <v>1624.86</v>
+        <v>1676.01</v>
       </c>
       <c r="E4" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F4" t="n">
-        <v>624.86</v>
+        <v>676.01</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -702,13 +708,13 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J4" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K4" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L4" t="n">
         <v>16.45</v>
@@ -720,7 +726,7 @@
         <v>32</v>
       </c>
       <c r="O4" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P4" t="n">
         <v>2.3</v>
@@ -729,21 +735,23 @@
         <v>0.3</v>
       </c>
       <c r="R4" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T4" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2015-01-01 00:45:00+00:00</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>410.07</v>
@@ -752,10 +760,10 @@
         <v>409.4</v>
       </c>
       <c r="D5" t="n">
-        <v>337.44</v>
+        <v>388.59</v>
       </c>
       <c r="E5" t="n">
-        <v>0.12</v>
+        <v>2.08</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -769,48 +777,50 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.07</v>
+        <v>18.58</v>
       </c>
       <c r="J5" t="n">
-        <v>0.95</v>
+        <v>16.53</v>
       </c>
       <c r="K5" t="n">
-        <v>-6.1</v>
+        <v>-118.09</v>
       </c>
       <c r="L5" t="n">
-        <v>7.5</v>
+        <v>8.41</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.05</v>
+        <v>-1.18</v>
       </c>
       <c r="N5" t="n">
         <v>29</v>
       </c>
       <c r="O5" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="P5" t="n">
-        <v>3.81</v>
+        <v>3.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="R5" t="n">
-        <v>5.36</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>65.28</v>
+        <v>65.75</v>
       </c>
       <c r="T5" t="n">
-        <v>59.92</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>409.4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2015-01-01 01:00:00+00:00</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>185.82</v>
@@ -819,10 +829,10 @@
         <v>185.19</v>
       </c>
       <c r="D6" t="n">
-        <v>160.24</v>
+        <v>177.24</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05</v>
+        <v>0.9</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -836,48 +846,50 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>0.45</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4</v>
+        <v>7.15</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.4</v>
+        <v>-26.07</v>
       </c>
       <c r="L6" t="n">
-        <v>3.62</v>
+        <v>4.07</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.51</v>
+        <v>-0.57</v>
       </c>
       <c r="N6" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="P6" t="n">
-        <v>5.54</v>
+        <v>5.28</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="R6" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>55.08</v>
+        <v>60.49</v>
       </c>
       <c r="T6" t="n">
-        <v>50.38</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>185.19</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2015-01-01 01:15:00+00:00</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>73.69</v>
@@ -886,21 +898,21 @@
         <v>73.18000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>62.79</v>
+        <v>69.75</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>62.79</v>
+        <v>69.75</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -943,8 +955,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2015-01-01 01:30:00+00:00</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>241.88</v>
@@ -956,62 +970,64 @@
         <v>241.24</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>232.74</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.24</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>5.58</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.78</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.59</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>59.83</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>54.83</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2015-01-01 01:45:00+00:00</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>894.62</v>
@@ -1020,10 +1036,10 @@
         <v>893.9400000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>877.3200000000001</v>
+        <v>893.9400000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>4.62</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1037,48 +1053,50 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.68</v>
+        <v>41.27</v>
       </c>
       <c r="J9" t="n">
-        <v>2.38</v>
+        <v>36.73</v>
       </c>
       <c r="K9" t="n">
-        <v>-31.95</v>
+        <v>-494.33</v>
       </c>
       <c r="L9" t="n">
-        <v>15.11</v>
+        <v>15.3</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.12</v>
+        <v>-2.14</v>
       </c>
       <c r="N9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O9" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="P9" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q9" t="n">
         <v>0.27</v>
       </c>
       <c r="R9" t="n">
-        <v>5.15</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>63.87</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>58.72</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>893.9400000000001</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2015-01-01 02:00:00+00:00</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>410.07</v>
@@ -1087,10 +1105,10 @@
         <v>409.4</v>
       </c>
       <c r="D10" t="n">
-        <v>346.25</v>
+        <v>390.92</v>
       </c>
       <c r="E10" t="n">
-        <v>0.12</v>
+        <v>2.09</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1104,48 +1122,50 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.07</v>
+        <v>18.67</v>
       </c>
       <c r="J10" t="n">
-        <v>0.95</v>
+        <v>16.61</v>
       </c>
       <c r="K10" t="n">
-        <v>-6.39</v>
+        <v>-119.36</v>
       </c>
       <c r="L10" t="n">
-        <v>7.66</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.07</v>
+        <v>-1.18</v>
       </c>
       <c r="N10" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O10" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="P10" t="n">
-        <v>3.77</v>
+        <v>3.55</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="R10" t="n">
-        <v>5.22</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>63.56</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>58.34</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>409.4</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2015-01-01 02:15:00+00:00</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>1499.08</v>
@@ -1154,13 +1174,13 @@
         <v>1498.39</v>
       </c>
       <c r="D11" t="n">
-        <v>1473.44</v>
+        <v>1490.41</v>
       </c>
       <c r="E11" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F11" t="n">
-        <v>473.44</v>
+        <v>490.41</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1171,13 +1191,13 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J11" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K11" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L11" t="n">
         <v>16.45</v>
@@ -1189,7 +1209,7 @@
         <v>32</v>
       </c>
       <c r="O11" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P11" t="n">
         <v>2.3</v>
@@ -1198,21 +1218,23 @@
         <v>0.3</v>
       </c>
       <c r="R11" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T11" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1024.95</v>
+        <v>1007.98</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2015-01-01 02:30:00+00:00</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>1588.75</v>
@@ -1221,13 +1243,13 @@
         <v>1588.06</v>
       </c>
       <c r="D12" t="n">
-        <v>1516.1</v>
+        <v>1567.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F12" t="n">
-        <v>516.1</v>
+        <v>567.25</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1238,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J12" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K12" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L12" t="n">
         <v>16.45</v>
@@ -1256,7 +1278,7 @@
         <v>32</v>
       </c>
       <c r="O12" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P12" t="n">
         <v>2.3</v>
@@ -1265,21 +1287,23 @@
         <v>0.3</v>
       </c>
       <c r="R12" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T12" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2015-01-01 02:45:00+00:00</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>1097.97</v>
@@ -1288,13 +1312,13 @@
         <v>1097.28</v>
       </c>
       <c r="D13" t="n">
-        <v>1025.32</v>
+        <v>1076.47</v>
       </c>
       <c r="E13" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F13" t="n">
-        <v>25.32</v>
+        <v>76.47</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1305,13 +1329,13 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J13" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K13" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L13" t="n">
         <v>16.45</v>
@@ -1323,7 +1347,7 @@
         <v>32</v>
       </c>
       <c r="O13" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P13" t="n">
         <v>2.3</v>
@@ -1332,21 +1356,23 @@
         <v>0.3</v>
       </c>
       <c r="R13" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T13" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2015-01-01 03:00:00+00:00</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>241.88</v>
@@ -1355,10 +1381,10 @@
         <v>241.24</v>
       </c>
       <c r="D14" t="n">
-        <v>169.28</v>
+        <v>220.43</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06</v>
+        <v>1.14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1372,48 +1398,50 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>0.54</v>
+        <v>10.18</v>
       </c>
       <c r="J14" t="n">
-        <v>0.48</v>
+        <v>9.06</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.58</v>
+        <v>-40.75</v>
       </c>
       <c r="L14" t="n">
-        <v>3.86</v>
+        <v>5.11</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.54</v>
+        <v>-0.72</v>
       </c>
       <c r="N14" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O14" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="P14" t="n">
-        <v>5.4</v>
+        <v>4.85</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="R14" t="n">
-        <v>5.34</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.45</v>
+        <v>62.14</v>
       </c>
       <c r="T14" t="n">
-        <v>58.11</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>241.24</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2015-01-01 03:15:00+00:00</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>1499.08</v>
@@ -1422,13 +1450,13 @@
         <v>1498.39</v>
       </c>
       <c r="D15" t="n">
-        <v>1485.92</v>
+        <v>1494.05</v>
       </c>
       <c r="E15" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F15" t="n">
-        <v>485.92</v>
+        <v>494.05</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1439,13 +1467,13 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J15" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K15" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L15" t="n">
         <v>16.45</v>
@@ -1457,7 +1485,7 @@
         <v>32</v>
       </c>
       <c r="O15" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P15" t="n">
         <v>2.3</v>
@@ -1466,21 +1494,23 @@
         <v>0.3</v>
       </c>
       <c r="R15" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T15" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1012.47</v>
+        <v>1004.34</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2015-01-01 03:30:00+00:00</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>1097.97</v>
@@ -1489,13 +1519,13 @@
         <v>1097.28</v>
       </c>
       <c r="D16" t="n">
-        <v>1025.32</v>
+        <v>1076.47</v>
       </c>
       <c r="E16" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F16" t="n">
-        <v>25.32</v>
+        <v>76.47</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1506,13 +1536,13 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J16" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K16" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L16" t="n">
         <v>16.45</v>
@@ -1524,7 +1554,7 @@
         <v>32</v>
       </c>
       <c r="O16" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P16" t="n">
         <v>2.3</v>
@@ -1533,21 +1563,23 @@
         <v>0.3</v>
       </c>
       <c r="R16" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T16" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2015-01-01 03:45:00+00:00</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>678.27</v>
@@ -1556,10 +1588,10 @@
         <v>677.59</v>
       </c>
       <c r="D17" t="n">
-        <v>605.63</v>
+        <v>656.78</v>
       </c>
       <c r="E17" t="n">
-        <v>0.21</v>
+        <v>3.47</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1573,48 +1605,50 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.88</v>
+        <v>31</v>
       </c>
       <c r="J17" t="n">
-        <v>1.67</v>
+        <v>27.58</v>
       </c>
       <c r="K17" t="n">
-        <v>-17.11</v>
+        <v>-294.77</v>
       </c>
       <c r="L17" t="n">
-        <v>11.73</v>
+        <v>12.42</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.64</v>
+        <v>-1.74</v>
       </c>
       <c r="N17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O17" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="P17" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="R17" t="n">
-        <v>5.22</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.44</v>
+        <v>65.61</v>
       </c>
       <c r="T17" t="n">
-        <v>59.22</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>677.59</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2015-01-01 04:00:00+00:00</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>185.82</v>
@@ -1623,10 +1657,10 @@
         <v>185.19</v>
       </c>
       <c r="D18" t="n">
-        <v>141.35</v>
+        <v>171.69</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05</v>
+        <v>0.86</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1640,48 +1674,50 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>0.45</v>
+        <v>7.68</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4</v>
+        <v>6.84</v>
       </c>
       <c r="K18" t="n">
-        <v>-1.05</v>
+        <v>-24.36</v>
       </c>
       <c r="L18" t="n">
-        <v>3.09</v>
+        <v>3.93</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.43</v>
+        <v>-0.55</v>
       </c>
       <c r="N18" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O18" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="P18" t="n">
-        <v>6.13</v>
+        <v>5.37</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="R18" t="n">
-        <v>5.33</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>62.59</v>
+        <v>59.5</v>
       </c>
       <c r="T18" t="n">
-        <v>57.26</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>185.19</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2015-01-01 04:15:00+00:00</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>1299.63</v>
@@ -1690,13 +1726,13 @@
         <v>1298.94</v>
       </c>
       <c r="D19" t="n">
-        <v>1288.54</v>
+        <v>1295.66</v>
       </c>
       <c r="E19" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F19" t="n">
-        <v>288.54</v>
+        <v>295.66</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1707,13 +1743,13 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J19" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K19" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L19" t="n">
         <v>16.45</v>
@@ -1725,7 +1761,7 @@
         <v>32</v>
       </c>
       <c r="O19" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P19" t="n">
         <v>2.3</v>
@@ -1734,21 +1770,23 @@
         <v>0.3</v>
       </c>
       <c r="R19" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T19" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1010.4</v>
+        <v>1003.28</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>0</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2015-01-01 04:30:00+00:00</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>1588.75</v>
@@ -1757,13 +1795,13 @@
         <v>1588.06</v>
       </c>
       <c r="D20" t="n">
-        <v>1516.1</v>
+        <v>1567.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F20" t="n">
-        <v>516.1</v>
+        <v>567.25</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1774,13 +1812,13 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J20" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K20" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L20" t="n">
         <v>16.45</v>
@@ -1792,7 +1830,7 @@
         <v>32</v>
       </c>
       <c r="O20" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P20" t="n">
         <v>2.3</v>
@@ -1801,21 +1839,23 @@
         <v>0.3</v>
       </c>
       <c r="R20" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T20" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>0</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2015-01-01 04:45:00+00:00</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>73.69</v>
@@ -1824,21 +1864,21 @@
         <v>73.18000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>1.22</v>
+        <v>52.37</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.22</v>
+        <v>52.37</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1881,8 +1921,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>0</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2015-01-01 05:00:00+00:00</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>241.88</v>
@@ -1894,62 +1936,64 @@
         <v>241.24</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>232.74</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-3.24</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.58</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.78</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>4.59</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>59.83</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>54.83</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>241.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>0</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2015-01-01 05:15:00+00:00</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>410.07</v>
@@ -1958,10 +2002,10 @@
         <v>409.4</v>
       </c>
       <c r="D23" t="n">
-        <v>392.78</v>
+        <v>409.4</v>
       </c>
       <c r="E23" t="n">
-        <v>0.14</v>
+        <v>2.19</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1975,19 +2019,19 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.25</v>
+        <v>19.56</v>
       </c>
       <c r="J23" t="n">
-        <v>1.11</v>
+        <v>17.41</v>
       </c>
       <c r="K23" t="n">
-        <v>-8.029999999999999</v>
+        <v>-129.64</v>
       </c>
       <c r="L23" t="n">
-        <v>8.48</v>
+        <v>8.76</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.19</v>
+        <v>-1.23</v>
       </c>
       <c r="N23" t="n">
         <v>29</v>
@@ -1996,27 +2040,29 @@
         <v>1.86</v>
       </c>
       <c r="P23" t="n">
-        <v>3.54</v>
+        <v>3.47</v>
       </c>
       <c r="Q23" t="n">
         <v>0.19</v>
       </c>
       <c r="R23" t="n">
-        <v>5.37</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>65.69</v>
+        <v>65.8</v>
       </c>
       <c r="T23" t="n">
-        <v>60.32</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>409.4</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>0</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2015-01-01 05:30:00+00:00</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>1396.64</v>
@@ -2025,13 +2071,13 @@
         <v>1395.95</v>
       </c>
       <c r="D24" t="n">
-        <v>1366.83</v>
+        <v>1387.58</v>
       </c>
       <c r="E24" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F24" t="n">
-        <v>366.83</v>
+        <v>387.58</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2042,13 +2088,13 @@
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J24" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K24" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L24" t="n">
         <v>16.45</v>
@@ -2060,7 +2106,7 @@
         <v>32</v>
       </c>
       <c r="O24" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P24" t="n">
         <v>2.3</v>
@@ -2069,21 +2115,23 @@
         <v>0.3</v>
       </c>
       <c r="R24" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T24" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1029.12</v>
+        <v>1008.37</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>0</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2015-01-01 05:45:00+00:00</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>894.62</v>
@@ -2092,10 +2140,10 @@
         <v>893.9400000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>821.98</v>
+        <v>873.13</v>
       </c>
       <c r="E25" t="n">
-        <v>0.29</v>
+        <v>4.52</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2109,48 +2157,50 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>2.59</v>
+        <v>40.38</v>
       </c>
       <c r="J25" t="n">
-        <v>2.31</v>
+        <v>35.93</v>
       </c>
       <c r="K25" t="n">
-        <v>-28.67</v>
+        <v>-475.41</v>
       </c>
       <c r="L25" t="n">
-        <v>14.47</v>
+        <v>15.06</v>
       </c>
       <c r="M25" t="n">
-        <v>-2.03</v>
+        <v>-2.11</v>
       </c>
       <c r="N25" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O25" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="P25" t="n">
-        <v>2.54</v>
+        <v>2.47</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="R25" t="n">
-        <v>5.32</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>65.91</v>
+        <v>64.48</v>
       </c>
       <c r="T25" t="n">
-        <v>60.59</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>893.9400000000001</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>0</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2015-01-01 06:00:00+00:00</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>993.85</v>
@@ -2159,10 +2209,10 @@
         <v>993.16</v>
       </c>
       <c r="D26" t="n">
-        <v>932.24</v>
+        <v>975.14</v>
       </c>
       <c r="E26" t="n">
-        <v>0.32</v>
+        <v>5.01</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2176,48 +2226,50 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.86</v>
+        <v>44.76</v>
       </c>
       <c r="J26" t="n">
-        <v>2.54</v>
+        <v>39.83</v>
       </c>
       <c r="K26" t="n">
-        <v>-35.32</v>
+        <v>-570.59</v>
       </c>
       <c r="L26" t="n">
-        <v>15.72</v>
+        <v>16.19</v>
       </c>
       <c r="M26" t="n">
-        <v>-2.2</v>
+        <v>-2.27</v>
       </c>
       <c r="N26" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O26" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="P26" t="n">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="R26" t="n">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>64.17</v>
+        <v>64.09</v>
       </c>
       <c r="T26" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>993.16</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>0</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2015-01-01 06:15:00+00:00</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>1299.63</v>
@@ -2226,13 +2278,13 @@
         <v>1298.94</v>
       </c>
       <c r="D27" t="n">
-        <v>1231.4</v>
+        <v>1278.63</v>
       </c>
       <c r="E27" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F27" t="n">
-        <v>231.4</v>
+        <v>278.63</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2243,13 +2295,13 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J27" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K27" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L27" t="n">
         <v>16.45</v>
@@ -2261,7 +2313,7 @@
         <v>32</v>
       </c>
       <c r="O27" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P27" t="n">
         <v>2.3</v>
@@ -2270,21 +2322,23 @@
         <v>0.3</v>
       </c>
       <c r="R27" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T27" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1067.54</v>
+        <v>1020.31</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>0</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2015-01-01 06:30:00+00:00</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>297.94</v>
@@ -2293,10 +2347,10 @@
         <v>297.29</v>
       </c>
       <c r="D28" t="n">
-        <v>225.33</v>
+        <v>276.48</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08</v>
+        <v>1.46</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2310,48 +2364,50 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>0.71</v>
+        <v>13.04</v>
       </c>
       <c r="J28" t="n">
-        <v>0.64</v>
+        <v>11.61</v>
       </c>
       <c r="K28" t="n">
-        <v>-2.84</v>
+        <v>-63.17</v>
       </c>
       <c r="L28" t="n">
-        <v>5.23</v>
+        <v>6.32</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.73</v>
+        <v>-0.88</v>
       </c>
       <c r="N28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O28" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P28" t="n">
-        <v>4.79</v>
+        <v>4.24</v>
       </c>
       <c r="Q28" t="n">
         <v>0.18</v>
       </c>
       <c r="R28" t="n">
-        <v>5.35</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>64.18000000000001</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="T28" t="n">
-        <v>58.83</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>297.29</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>0</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2015-01-01 06:45:00+00:00</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -2370,11 +2426,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2417,8 +2473,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>0</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2015-01-01 07:00:00+00:00</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>1396.64</v>
@@ -2430,62 +2488,64 @@
         <v>1395.95</v>
       </c>
       <c r="E30" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>395.95</v>
+        <v>1387.45</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>-39.64</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>16.45</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>-2.3</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>63.62</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>0</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2015-01-01 07:15:00+00:00</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>1499.08</v>
@@ -2494,13 +2554,13 @@
         <v>1498.39</v>
       </c>
       <c r="D31" t="n">
-        <v>1426.43</v>
+        <v>1498.39</v>
       </c>
       <c r="E31" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F31" t="n">
-        <v>426.43</v>
+        <v>498.39</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2511,13 +2571,13 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J31" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K31" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L31" t="n">
         <v>16.45</v>
@@ -2529,7 +2589,7 @@
         <v>32</v>
       </c>
       <c r="O31" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P31" t="n">
         <v>2.3</v>
@@ -2538,21 +2598,23 @@
         <v>0.3</v>
       </c>
       <c r="R31" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T31" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1071.96</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>0</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2015-01-01 07:30:00+00:00</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>1588.75</v>
@@ -2561,13 +2623,13 @@
         <v>1588.06</v>
       </c>
       <c r="D32" t="n">
-        <v>1516.1</v>
+        <v>1567.25</v>
       </c>
       <c r="E32" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F32" t="n">
-        <v>516.1</v>
+        <v>567.25</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2578,13 +2640,13 @@
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J32" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K32" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L32" t="n">
         <v>16.45</v>
@@ -2596,7 +2658,7 @@
         <v>32</v>
       </c>
       <c r="O32" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P32" t="n">
         <v>2.3</v>
@@ -2605,21 +2667,23 @@
         <v>0.3</v>
       </c>
       <c r="R32" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T32" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>0</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2015-01-01 07:45:00+00:00</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>2349.96</v>
@@ -2628,13 +2692,13 @@
         <v>2349.27</v>
       </c>
       <c r="D33" t="n">
-        <v>2277.31</v>
+        <v>2328.46</v>
       </c>
       <c r="E33" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F33" t="n">
-        <v>1277.31</v>
+        <v>1328.46</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2645,13 +2709,13 @@
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J33" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K33" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L33" t="n">
         <v>16.45</v>
@@ -2663,7 +2727,7 @@
         <v>32</v>
       </c>
       <c r="O33" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P33" t="n">
         <v>2.3</v>
@@ -2672,21 +2736,23 @@
         <v>0.3</v>
       </c>
       <c r="R33" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T33" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>0</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2015-01-01 08:00:00+00:00</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>5039.02</v>
@@ -2695,13 +2761,13 @@
         <v>5038.32</v>
       </c>
       <c r="D34" t="n">
-        <v>4966.36</v>
+        <v>5017.51</v>
       </c>
       <c r="E34" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F34" t="n">
-        <v>3966.36</v>
+        <v>4017.51</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2712,13 +2778,13 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J34" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K34" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L34" t="n">
         <v>16.45</v>
@@ -2730,7 +2796,7 @@
         <v>32</v>
       </c>
       <c r="O34" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P34" t="n">
         <v>2.3</v>
@@ -2739,21 +2805,23 @@
         <v>0.3</v>
       </c>
       <c r="R34" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T34" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>0</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2015-01-01 08:15:00+00:00</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>6299.2</v>
@@ -2762,13 +2830,13 @@
         <v>6298.5</v>
       </c>
       <c r="D35" t="n">
-        <v>6226.54</v>
+        <v>6277.69</v>
       </c>
       <c r="E35" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F35" t="n">
-        <v>5226.54</v>
+        <v>5277.69</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2779,13 +2847,13 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J35" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K35" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L35" t="n">
         <v>16.45</v>
@@ -2797,7 +2865,7 @@
         <v>32</v>
       </c>
       <c r="O35" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P35" t="n">
         <v>2.3</v>
@@ -2806,21 +2874,23 @@
         <v>0.3</v>
       </c>
       <c r="R35" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T35" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>0</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2015-01-01 08:30:00+00:00</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>3684.43</v>
@@ -2829,13 +2899,13 @@
         <v>3683.73</v>
       </c>
       <c r="D36" t="n">
-        <v>3611.77</v>
+        <v>3662.92</v>
       </c>
       <c r="E36" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F36" t="n">
-        <v>2611.77</v>
+        <v>2662.92</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2846,13 +2916,13 @@
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J36" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K36" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L36" t="n">
         <v>16.45</v>
@@ -2864,7 +2934,7 @@
         <v>32</v>
       </c>
       <c r="O36" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P36" t="n">
         <v>2.3</v>
@@ -2873,21 +2943,23 @@
         <v>0.3</v>
       </c>
       <c r="R36" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T36" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>0</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2015-01-01 08:45:00+00:00</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>3875.43</v>
@@ -2896,13 +2968,13 @@
         <v>3874.73</v>
       </c>
       <c r="D37" t="n">
-        <v>3802.77</v>
+        <v>3853.92</v>
       </c>
       <c r="E37" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F37" t="n">
-        <v>2802.77</v>
+        <v>2853.92</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2913,13 +2985,13 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J37" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K37" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L37" t="n">
         <v>16.45</v>
@@ -2931,7 +3003,7 @@
         <v>32</v>
       </c>
       <c r="O37" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P37" t="n">
         <v>2.3</v>
@@ -2940,21 +3012,23 @@
         <v>0.3</v>
       </c>
       <c r="R37" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T37" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>0</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2015-01-01 09:00:00+00:00</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>7260.34</v>
@@ -2963,13 +3037,13 @@
         <v>7259.64</v>
       </c>
       <c r="D38" t="n">
-        <v>7187.68</v>
+        <v>7238.83</v>
       </c>
       <c r="E38" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F38" t="n">
-        <v>6187.68</v>
+        <v>6238.83</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2980,13 +3054,13 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J38" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K38" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L38" t="n">
         <v>16.45</v>
@@ -2998,7 +3072,7 @@
         <v>32</v>
       </c>
       <c r="O38" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P38" t="n">
         <v>2.3</v>
@@ -3007,21 +3081,23 @@
         <v>0.3</v>
       </c>
       <c r="R38" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T38" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>0</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2015-01-01 09:15:00+00:00</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -3040,11 +3116,11 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3087,8 +3163,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>0</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2015-01-01 09:30:00+00:00</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -3107,11 +3185,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3154,8 +3232,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>0</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2015-01-01 09:45:00+00:00</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -3174,11 +3254,11 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>hot standby</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3221,8 +3301,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>0</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2015-01-01 10:00:00+00:00</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -3241,11 +3323,11 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>cold standby</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3288,8 +3370,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>0</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2015-01-01 10:15:00+00:00</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>410.07</v>
@@ -3301,62 +3385,64 @@
         <v>409.4</v>
       </c>
       <c r="E43" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>400.9</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-8.640000000000001</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>8.76</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-1.23</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.52</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>67.7</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>62.18</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>409.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>0</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2015-01-01 10:30:00+00:00</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>1396.64</v>
@@ -3365,65 +3451,67 @@
         <v>1395.95</v>
       </c>
       <c r="D44" t="n">
-        <v>1364.75</v>
+        <v>1395.95</v>
       </c>
       <c r="E44" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>364.75</v>
+        <v>1387.45</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>booting</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>-39.64</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>16.45</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-2.3</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.62</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1031.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>0</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2015-01-01 10:45:00+00:00</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>3108.37</v>
@@ -3432,13 +3520,13 @@
         <v>3107.67</v>
       </c>
       <c r="D45" t="n">
-        <v>3035.71</v>
+        <v>3107.67</v>
       </c>
       <c r="E45" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F45" t="n">
-        <v>2035.71</v>
+        <v>2107.67</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3449,13 +3537,13 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J45" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K45" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L45" t="n">
         <v>16.45</v>
@@ -3467,7 +3555,7 @@
         <v>32</v>
       </c>
       <c r="O45" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P45" t="n">
         <v>2.3</v>
@@ -3476,21 +3564,23 @@
         <v>0.3</v>
       </c>
       <c r="R45" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T45" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1071.96</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>0</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2015-01-01 11:00:00+00:00</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>4415.54</v>
@@ -3499,13 +3589,13 @@
         <v>4414.84</v>
       </c>
       <c r="D46" t="n">
-        <v>4342.88</v>
+        <v>4394.03</v>
       </c>
       <c r="E46" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F46" t="n">
-        <v>3342.88</v>
+        <v>3394.03</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3516,13 +3606,13 @@
         <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J46" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K46" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L46" t="n">
         <v>16.45</v>
@@ -3534,7 +3624,7 @@
         <v>32</v>
       </c>
       <c r="O46" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P46" t="n">
         <v>2.3</v>
@@ -3543,21 +3633,23 @@
         <v>0.3</v>
       </c>
       <c r="R46" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T46" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>0</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2015-01-01 11:15:00+00:00</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>3493.03</v>
@@ -3566,13 +3658,13 @@
         <v>3492.33</v>
       </c>
       <c r="D47" t="n">
-        <v>3420.37</v>
+        <v>3471.52</v>
       </c>
       <c r="E47" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F47" t="n">
-        <v>2420.37</v>
+        <v>2471.52</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3583,13 +3675,13 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J47" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K47" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L47" t="n">
         <v>16.45</v>
@@ -3601,7 +3693,7 @@
         <v>32</v>
       </c>
       <c r="O47" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P47" t="n">
         <v>2.3</v>
@@ -3610,21 +3702,23 @@
         <v>0.3</v>
       </c>
       <c r="R47" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T47" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>0</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2015-01-01 11:30:00+00:00</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>5668.84</v>
@@ -3633,13 +3727,13 @@
         <v>5668.14</v>
       </c>
       <c r="D48" t="n">
-        <v>5596.18</v>
+        <v>5647.33</v>
       </c>
       <c r="E48" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F48" t="n">
-        <v>4596.18</v>
+        <v>4647.33</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -3650,13 +3744,13 @@
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J48" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K48" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L48" t="n">
         <v>16.45</v>
@@ -3668,7 +3762,7 @@
         <v>32</v>
       </c>
       <c r="O48" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P48" t="n">
         <v>2.3</v>
@@ -3677,21 +3771,23 @@
         <v>0.3</v>
       </c>
       <c r="R48" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T48" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>0</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2015-01-01 11:45:00+00:00</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>4415.54</v>
@@ -3700,13 +3796,13 @@
         <v>4414.84</v>
       </c>
       <c r="D49" t="n">
-        <v>4342.88</v>
+        <v>4394.03</v>
       </c>
       <c r="E49" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F49" t="n">
-        <v>3342.88</v>
+        <v>3394.03</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3717,13 +3813,13 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J49" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K49" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L49" t="n">
         <v>16.45</v>
@@ -3735,7 +3831,7 @@
         <v>32</v>
       </c>
       <c r="O49" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P49" t="n">
         <v>2.3</v>
@@ -3744,21 +3840,23 @@
         <v>0.3</v>
       </c>
       <c r="R49" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T49" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>0</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2015-01-01 12:00:00+00:00</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>11066.59</v>
@@ -3767,13 +3865,13 @@
         <v>11065.89</v>
       </c>
       <c r="D50" t="n">
-        <v>10993.93</v>
+        <v>11045.08</v>
       </c>
       <c r="E50" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F50" t="n">
-        <v>9993.93</v>
+        <v>10045.08</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3784,13 +3882,13 @@
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J50" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K50" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L50" t="n">
         <v>16.45</v>
@@ -3802,7 +3900,7 @@
         <v>32</v>
       </c>
       <c r="O50" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P50" t="n">
         <v>2.3</v>
@@ -3811,21 +3909,23 @@
         <v>0.3</v>
       </c>
       <c r="R50" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T50" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>0</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2015-01-01 12:15:00+00:00</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>9335.299999999999</v>
@@ -3834,13 +3934,13 @@
         <v>9334.6</v>
       </c>
       <c r="D51" t="n">
-        <v>9262.639999999999</v>
+        <v>9313.790000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.34</v>
+        <v>5.12</v>
       </c>
       <c r="F51" t="n">
-        <v>8262.639999999999</v>
+        <v>8313.790000000001</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3851,13 +3951,13 @@
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>3.04</v>
+        <v>45.74</v>
       </c>
       <c r="J51" t="n">
-        <v>2.7</v>
+        <v>40.7</v>
       </c>
       <c r="K51" t="n">
-        <v>-39.64</v>
+        <v>-594.67</v>
       </c>
       <c r="L51" t="n">
         <v>16.45</v>
@@ -3869,7 +3969,7 @@
         <v>32</v>
       </c>
       <c r="O51" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="P51" t="n">
         <v>2.3</v>
@@ -3878,16 +3978,16 @@
         <v>0.3</v>
       </c>
       <c r="R51" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>63.62</v>
+        <v>63.88</v>
       </c>
       <c r="T51" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>1071.96</v>
+        <v>1020.81</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -625,10 +625,10 @@
         <v>1498.39</v>
       </c>
       <c r="E3" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F3" t="n">
-        <v>498.39</v>
+        <v>998.39</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -639,13 +639,13 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J3" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K3" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L3" t="n">
         <v>16.45</v>
@@ -666,16 +666,16 @@
         <v>0.3</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S3" t="n">
         <v>63.88</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4">
@@ -691,13 +691,13 @@
         <v>1696.82</v>
       </c>
       <c r="D4" t="n">
-        <v>1676.01</v>
+        <v>1668.58</v>
       </c>
       <c r="E4" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F4" t="n">
-        <v>676.01</v>
+        <v>1168.58</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -708,13 +708,13 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J4" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K4" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L4" t="n">
         <v>16.45</v>
@@ -735,16 +735,16 @@
         <v>0.3</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S4" t="n">
         <v>63.88</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U4" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="5">
@@ -760,10 +760,10 @@
         <v>409.4</v>
       </c>
       <c r="D5" t="n">
-        <v>388.59</v>
+        <v>381.16</v>
       </c>
       <c r="E5" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -777,40 +777,40 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>18.58</v>
+        <v>17.87</v>
       </c>
       <c r="J5" t="n">
-        <v>16.53</v>
+        <v>15.9</v>
       </c>
       <c r="K5" t="n">
-        <v>-118.09</v>
+        <v>-189.54</v>
       </c>
       <c r="L5" t="n">
-        <v>8.41</v>
+        <v>13.76</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.18</v>
+        <v>-1.93</v>
       </c>
       <c r="N5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="P5" t="n">
-        <v>3.56</v>
+        <v>2.62</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>3.66</v>
       </c>
       <c r="S5" t="n">
-        <v>65.75</v>
+        <v>65.27</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>61.61</v>
       </c>
       <c r="U5" t="n">
         <v>409.4</v>
@@ -829,10 +829,10 @@
         <v>185.19</v>
       </c>
       <c r="D6" t="n">
-        <v>177.24</v>
+        <v>163.39</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -846,40 +846,40 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>8.039999999999999</v>
+        <v>7.77</v>
       </c>
       <c r="J6" t="n">
-        <v>7.15</v>
+        <v>6.92</v>
       </c>
       <c r="K6" t="n">
-        <v>-26.07</v>
+        <v>-43.12</v>
       </c>
       <c r="L6" t="n">
-        <v>4.07</v>
+        <v>7.3</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.57</v>
+        <v>-1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="P6" t="n">
-        <v>5.28</v>
+        <v>3.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>3.71</v>
       </c>
       <c r="S6" t="n">
-        <v>60.49</v>
+        <v>65.09</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>61.38</v>
       </c>
       <c r="U6" t="n">
         <v>185.19</v>
@@ -898,60 +898,60 @@
         <v>73.18000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>69.75</v>
+        <v>63.8</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F7" t="n">
-        <v>69.75</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>production</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-6.16</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.37</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>6.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>54.08</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>50.8</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>73.18000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -967,60 +967,60 @@
         <v>241.24</v>
       </c>
       <c r="D8" t="n">
+        <v>238.01</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-84.59999999999999</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="N8" t="n">
+        <v>29</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S8" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="T8" t="n">
+        <v>62.15</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.24</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>232.74</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>booting</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1036,13 +1036,13 @@
         <v>893.9400000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>893.9400000000001</v>
+        <v>880.22</v>
       </c>
       <c r="E9" t="n">
-        <v>4.62</v>
+        <v>2.56</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>380.22</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1053,43 +1053,43 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>41.27</v>
+        <v>22.87</v>
       </c>
       <c r="J9" t="n">
-        <v>36.73</v>
+        <v>20.35</v>
       </c>
       <c r="K9" t="n">
-        <v>-494.33</v>
+        <v>-297.34</v>
       </c>
       <c r="L9" t="n">
-        <v>15.3</v>
+        <v>16.45</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.14</v>
+        <v>-2.3</v>
       </c>
       <c r="N9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O9" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="P9" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S9" t="n">
-        <v>64.40000000000001</v>
+        <v>63.88</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U9" t="n">
-        <v>893.9400000000001</v>
+        <v>513.72</v>
       </c>
     </row>
     <row r="10">
@@ -1105,10 +1105,10 @@
         <v>409.4</v>
       </c>
       <c r="D10" t="n">
-        <v>390.92</v>
+        <v>381.16</v>
       </c>
       <c r="E10" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1122,40 +1122,40 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>18.67</v>
+        <v>17.87</v>
       </c>
       <c r="J10" t="n">
-        <v>16.61</v>
+        <v>15.9</v>
       </c>
       <c r="K10" t="n">
-        <v>-119.36</v>
+        <v>-189.54</v>
       </c>
       <c r="L10" t="n">
-        <v>8.449999999999999</v>
+        <v>13.76</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.18</v>
+        <v>-1.93</v>
       </c>
       <c r="N10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="P10" t="n">
-        <v>3.55</v>
+        <v>2.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>3.66</v>
       </c>
       <c r="S10" t="n">
-        <v>65.68000000000001</v>
+        <v>65.27</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>61.61</v>
       </c>
       <c r="U10" t="n">
         <v>409.4</v>
@@ -1174,13 +1174,13 @@
         <v>1498.39</v>
       </c>
       <c r="D11" t="n">
-        <v>1490.41</v>
+        <v>1476.59</v>
       </c>
       <c r="E11" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F11" t="n">
-        <v>490.41</v>
+        <v>976.59</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1191,13 +1191,13 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J11" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K11" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L11" t="n">
         <v>16.45</v>
@@ -1218,16 +1218,16 @@
         <v>0.3</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S11" t="n">
         <v>63.88</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U11" t="n">
-        <v>1007.98</v>
+        <v>521.8</v>
       </c>
     </row>
     <row r="12">
@@ -1243,13 +1243,13 @@
         <v>1588.06</v>
       </c>
       <c r="D12" t="n">
-        <v>1567.25</v>
+        <v>1559.82</v>
       </c>
       <c r="E12" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F12" t="n">
-        <v>567.25</v>
+        <v>1059.82</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1260,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J12" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K12" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L12" t="n">
         <v>16.45</v>
@@ -1287,16 +1287,16 @@
         <v>0.3</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S12" t="n">
         <v>63.88</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U12" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="13">
@@ -1312,13 +1312,13 @@
         <v>1097.28</v>
       </c>
       <c r="D13" t="n">
-        <v>1076.47</v>
+        <v>1069.04</v>
       </c>
       <c r="E13" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F13" t="n">
-        <v>76.47</v>
+        <v>569.04</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1329,13 +1329,13 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J13" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K13" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L13" t="n">
         <v>16.45</v>
@@ -1356,16 +1356,16 @@
         <v>0.3</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S13" t="n">
         <v>63.88</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U13" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="14">
@@ -1381,7 +1381,7 @@
         <v>241.24</v>
       </c>
       <c r="D14" t="n">
-        <v>220.43</v>
+        <v>213</v>
       </c>
       <c r="E14" t="n">
         <v>1.14</v>
@@ -1404,34 +1404,34 @@
         <v>9.06</v>
       </c>
       <c r="K14" t="n">
-        <v>-40.75</v>
+        <v>-69.56</v>
       </c>
       <c r="L14" t="n">
-        <v>5.11</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.72</v>
+        <v>-1.26</v>
       </c>
       <c r="N14" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O14" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="P14" t="n">
-        <v>4.85</v>
+        <v>3.41</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>3.73</v>
       </c>
       <c r="S14" t="n">
-        <v>62.14</v>
+        <v>65.89</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
       <c r="U14" t="n">
         <v>241.24</v>
@@ -1450,13 +1450,13 @@
         <v>1498.39</v>
       </c>
       <c r="D15" t="n">
-        <v>1494.05</v>
+        <v>1486.09</v>
       </c>
       <c r="E15" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F15" t="n">
-        <v>494.05</v>
+        <v>986.09</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1467,13 +1467,13 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J15" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K15" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L15" t="n">
         <v>16.45</v>
@@ -1494,16 +1494,16 @@
         <v>0.3</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S15" t="n">
         <v>63.88</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U15" t="n">
-        <v>1004.34</v>
+        <v>512.3</v>
       </c>
     </row>
     <row r="16">
@@ -1519,13 +1519,13 @@
         <v>1097.28</v>
       </c>
       <c r="D16" t="n">
-        <v>1076.47</v>
+        <v>1069.04</v>
       </c>
       <c r="E16" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F16" t="n">
-        <v>76.47</v>
+        <v>569.04</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1536,13 +1536,13 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J16" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K16" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L16" t="n">
         <v>16.45</v>
@@ -1563,16 +1563,16 @@
         <v>0.3</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S16" t="n">
         <v>63.88</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U16" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="17">
@@ -1588,13 +1588,13 @@
         <v>677.59</v>
       </c>
       <c r="D17" t="n">
-        <v>656.78</v>
+        <v>649.35</v>
       </c>
       <c r="E17" t="n">
-        <v>3.47</v>
+        <v>2.56</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>149.35</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1605,43 +1605,43 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>31</v>
+        <v>22.87</v>
       </c>
       <c r="J17" t="n">
-        <v>27.58</v>
+        <v>20.35</v>
       </c>
       <c r="K17" t="n">
-        <v>-294.77</v>
+        <v>-297.34</v>
       </c>
       <c r="L17" t="n">
-        <v>12.42</v>
+        <v>16.45</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.74</v>
+        <v>-2.3</v>
       </c>
       <c r="N17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O17" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="P17" t="n">
-        <v>2.78</v>
+        <v>2.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S17" t="n">
-        <v>65.61</v>
+        <v>63.88</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U17" t="n">
-        <v>677.59</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="18">
@@ -1657,10 +1657,10 @@
         <v>185.19</v>
       </c>
       <c r="D18" t="n">
-        <v>171.69</v>
+        <v>156.95</v>
       </c>
       <c r="E18" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1674,40 +1674,40 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>7.68</v>
+        <v>7.41</v>
       </c>
       <c r="J18" t="n">
-        <v>6.84</v>
+        <v>6.6</v>
       </c>
       <c r="K18" t="n">
-        <v>-24.36</v>
+        <v>-40.04</v>
       </c>
       <c r="L18" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="N18" t="n">
+        <v>29</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="P18" t="n">
         <v>3.93</v>
       </c>
-      <c r="M18" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="N18" t="n">
-        <v>33</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5.37</v>
-      </c>
       <c r="Q18" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="S18" t="n">
-        <v>59.5</v>
+        <v>64.55</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>60.87</v>
       </c>
       <c r="U18" t="n">
         <v>185.19</v>
@@ -1726,13 +1726,13 @@
         <v>1298.94</v>
       </c>
       <c r="D19" t="n">
-        <v>1295.66</v>
+        <v>1289.99</v>
       </c>
       <c r="E19" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F19" t="n">
-        <v>295.66</v>
+        <v>789.99</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1743,13 +1743,13 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J19" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K19" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L19" t="n">
         <v>16.45</v>
@@ -1770,16 +1770,16 @@
         <v>0.3</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S19" t="n">
         <v>63.88</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U19" t="n">
-        <v>1003.28</v>
+        <v>508.95</v>
       </c>
     </row>
     <row r="20">
@@ -1795,13 +1795,13 @@
         <v>1588.06</v>
       </c>
       <c r="D20" t="n">
-        <v>1567.25</v>
+        <v>1559.82</v>
       </c>
       <c r="E20" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F20" t="n">
-        <v>567.25</v>
+        <v>1059.82</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1812,13 +1812,13 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J20" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K20" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L20" t="n">
         <v>16.45</v>
@@ -1839,16 +1839,16 @@
         <v>0.3</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S20" t="n">
         <v>63.88</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U20" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="21">
@@ -1864,13 +1864,13 @@
         <v>73.18000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>52.37</v>
+        <v>44.94</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>52.37</v>
+        <v>44.94</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>232.74</v>
+        <v>236.99</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>409.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2019,40 +2019,40 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>19.56</v>
+        <v>19.03</v>
       </c>
       <c r="J23" t="n">
-        <v>17.41</v>
+        <v>16.93</v>
       </c>
       <c r="K23" t="n">
-        <v>-129.64</v>
+        <v>-213.61</v>
       </c>
       <c r="L23" t="n">
-        <v>8.76</v>
+        <v>14.44</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.23</v>
+        <v>-2.02</v>
       </c>
       <c r="N23" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O23" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="P23" t="n">
-        <v>3.47</v>
+        <v>2.54</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="S23" t="n">
-        <v>65.8</v>
+        <v>64.76000000000001</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>61.14</v>
       </c>
       <c r="U23" t="n">
         <v>409.4</v>
@@ -2071,13 +2071,13 @@
         <v>1395.95</v>
       </c>
       <c r="D24" t="n">
-        <v>1387.58</v>
+        <v>1372.68</v>
       </c>
       <c r="E24" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F24" t="n">
-        <v>387.58</v>
+        <v>872.6799999999999</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2088,13 +2088,13 @@
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J24" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K24" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L24" t="n">
         <v>16.45</v>
@@ -2115,16 +2115,16 @@
         <v>0.3</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S24" t="n">
         <v>63.88</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U24" t="n">
-        <v>1008.37</v>
+        <v>523.27</v>
       </c>
     </row>
     <row r="25">
@@ -2140,13 +2140,13 @@
         <v>893.9400000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>873.13</v>
+        <v>865.7</v>
       </c>
       <c r="E25" t="n">
-        <v>4.52</v>
+        <v>2.56</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>365.7</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2157,43 +2157,43 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>40.38</v>
+        <v>22.87</v>
       </c>
       <c r="J25" t="n">
-        <v>35.93</v>
+        <v>20.35</v>
       </c>
       <c r="K25" t="n">
-        <v>-475.41</v>
+        <v>-297.34</v>
       </c>
       <c r="L25" t="n">
-        <v>15.06</v>
+        <v>16.45</v>
       </c>
       <c r="M25" t="n">
-        <v>-2.11</v>
+        <v>-2.3</v>
       </c>
       <c r="N25" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O25" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P25" t="n">
-        <v>2.47</v>
+        <v>2.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S25" t="n">
-        <v>64.48</v>
+        <v>63.88</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U25" t="n">
-        <v>893.9400000000001</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="26">
@@ -2209,13 +2209,13 @@
         <v>993.16</v>
       </c>
       <c r="D26" t="n">
-        <v>975.14</v>
+        <v>964.92</v>
       </c>
       <c r="E26" t="n">
-        <v>5.01</v>
+        <v>2.56</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>464.92</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2226,19 +2226,19 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>44.76</v>
+        <v>22.87</v>
       </c>
       <c r="J26" t="n">
-        <v>39.83</v>
+        <v>20.35</v>
       </c>
       <c r="K26" t="n">
-        <v>-570.59</v>
+        <v>-297.34</v>
       </c>
       <c r="L26" t="n">
-        <v>16.19</v>
+        <v>16.45</v>
       </c>
       <c r="M26" t="n">
-        <v>-2.27</v>
+        <v>-2.3</v>
       </c>
       <c r="N26" t="n">
         <v>32</v>
@@ -2247,22 +2247,22 @@
         <v>1.78</v>
       </c>
       <c r="P26" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="Q26" t="n">
         <v>0.3</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S26" t="n">
-        <v>64.09</v>
+        <v>63.88</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U26" t="n">
-        <v>993.16</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="27">
@@ -2278,13 +2278,13 @@
         <v>1298.94</v>
       </c>
       <c r="D27" t="n">
-        <v>1278.63</v>
+        <v>1270.7</v>
       </c>
       <c r="E27" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F27" t="n">
-        <v>278.63</v>
+        <v>770.7</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2295,13 +2295,13 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J27" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K27" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L27" t="n">
         <v>16.45</v>
@@ -2322,16 +2322,16 @@
         <v>0.3</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S27" t="n">
         <v>63.88</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U27" t="n">
-        <v>1020.31</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="28">
@@ -2347,10 +2347,10 @@
         <v>297.29</v>
       </c>
       <c r="D28" t="n">
-        <v>276.48</v>
+        <v>269.05</v>
       </c>
       <c r="E28" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2364,40 +2364,40 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>13.04</v>
+        <v>12.77</v>
       </c>
       <c r="J28" t="n">
-        <v>11.61</v>
+        <v>11.37</v>
       </c>
       <c r="K28" t="n">
-        <v>-63.17</v>
+        <v>-104.73</v>
       </c>
       <c r="L28" t="n">
-        <v>6.32</v>
+        <v>10.77</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.88</v>
+        <v>-1.51</v>
       </c>
       <c r="N28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O28" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="P28" t="n">
-        <v>4.24</v>
+        <v>3.01</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="S28" t="n">
-        <v>64.15000000000001</v>
+        <v>65.81</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>62.11</v>
       </c>
       <c r="U28" t="n">
         <v>297.29</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1387.45</v>
+        <v>1391.7</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2557,10 +2557,10 @@
         <v>1498.39</v>
       </c>
       <c r="E31" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F31" t="n">
-        <v>498.39</v>
+        <v>998.39</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2571,13 +2571,13 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J31" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K31" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L31" t="n">
         <v>16.45</v>
@@ -2598,16 +2598,16 @@
         <v>0.3</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S31" t="n">
         <v>63.88</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U31" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32">
@@ -2623,13 +2623,13 @@
         <v>1588.06</v>
       </c>
       <c r="D32" t="n">
-        <v>1567.25</v>
+        <v>1559.82</v>
       </c>
       <c r="E32" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F32" t="n">
-        <v>567.25</v>
+        <v>1059.82</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2640,13 +2640,13 @@
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J32" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K32" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L32" t="n">
         <v>16.45</v>
@@ -2667,16 +2667,16 @@
         <v>0.3</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S32" t="n">
         <v>63.88</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U32" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="33">
@@ -2692,13 +2692,13 @@
         <v>2349.27</v>
       </c>
       <c r="D33" t="n">
-        <v>2328.46</v>
+        <v>2321.03</v>
       </c>
       <c r="E33" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F33" t="n">
-        <v>1328.46</v>
+        <v>1821.03</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2709,13 +2709,13 @@
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J33" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K33" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L33" t="n">
         <v>16.45</v>
@@ -2736,16 +2736,16 @@
         <v>0.3</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S33" t="n">
         <v>63.88</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U33" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="34">
@@ -2761,13 +2761,13 @@
         <v>5038.32</v>
       </c>
       <c r="D34" t="n">
-        <v>5017.51</v>
+        <v>5010.08</v>
       </c>
       <c r="E34" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F34" t="n">
-        <v>4017.51</v>
+        <v>4510.08</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2778,13 +2778,13 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J34" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K34" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L34" t="n">
         <v>16.45</v>
@@ -2805,16 +2805,16 @@
         <v>0.3</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S34" t="n">
         <v>63.88</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U34" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="35">
@@ -2830,13 +2830,13 @@
         <v>6298.5</v>
       </c>
       <c r="D35" t="n">
-        <v>6277.69</v>
+        <v>6270.26</v>
       </c>
       <c r="E35" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F35" t="n">
-        <v>5277.69</v>
+        <v>5770.26</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2847,13 +2847,13 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J35" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K35" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L35" t="n">
         <v>16.45</v>
@@ -2874,16 +2874,16 @@
         <v>0.3</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S35" t="n">
         <v>63.88</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U35" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="36">
@@ -2899,13 +2899,13 @@
         <v>3683.73</v>
       </c>
       <c r="D36" t="n">
-        <v>3662.92</v>
+        <v>3655.49</v>
       </c>
       <c r="E36" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F36" t="n">
-        <v>2662.92</v>
+        <v>3155.49</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2916,13 +2916,13 @@
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J36" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K36" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L36" t="n">
         <v>16.45</v>
@@ -2943,16 +2943,16 @@
         <v>0.3</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S36" t="n">
         <v>63.88</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U36" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="37">
@@ -2968,13 +2968,13 @@
         <v>3874.73</v>
       </c>
       <c r="D37" t="n">
-        <v>3853.92</v>
+        <v>3846.49</v>
       </c>
       <c r="E37" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F37" t="n">
-        <v>2853.92</v>
+        <v>3346.49</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2985,13 +2985,13 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J37" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K37" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L37" t="n">
         <v>16.45</v>
@@ -3012,16 +3012,16 @@
         <v>0.3</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S37" t="n">
         <v>63.88</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U37" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="38">
@@ -3037,13 +3037,13 @@
         <v>7259.64</v>
       </c>
       <c r="D38" t="n">
-        <v>7238.83</v>
+        <v>7231.4</v>
       </c>
       <c r="E38" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F38" t="n">
-        <v>6238.83</v>
+        <v>6731.4</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3054,13 +3054,13 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J38" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K38" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L38" t="n">
         <v>16.45</v>
@@ -3081,16 +3081,16 @@
         <v>0.3</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S38" t="n">
         <v>63.88</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U38" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="39">
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>400.9</v>
+        <v>405.15</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1387.45</v>
+        <v>1391.7</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3523,10 +3523,10 @@
         <v>3107.67</v>
       </c>
       <c r="E45" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F45" t="n">
-        <v>2107.67</v>
+        <v>2607.67</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3537,13 +3537,13 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J45" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K45" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L45" t="n">
         <v>16.45</v>
@@ -3564,16 +3564,16 @@
         <v>0.3</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S45" t="n">
         <v>63.88</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U45" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46">
@@ -3589,13 +3589,13 @@
         <v>4414.84</v>
       </c>
       <c r="D46" t="n">
-        <v>4394.03</v>
+        <v>4386.6</v>
       </c>
       <c r="E46" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F46" t="n">
-        <v>3394.03</v>
+        <v>3886.6</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3606,13 +3606,13 @@
         <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J46" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K46" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L46" t="n">
         <v>16.45</v>
@@ -3633,16 +3633,16 @@
         <v>0.3</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S46" t="n">
         <v>63.88</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U46" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="47">
@@ -3658,13 +3658,13 @@
         <v>3492.33</v>
       </c>
       <c r="D47" t="n">
-        <v>3471.52</v>
+        <v>3464.09</v>
       </c>
       <c r="E47" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F47" t="n">
-        <v>2471.52</v>
+        <v>2964.09</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3675,13 +3675,13 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J47" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K47" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L47" t="n">
         <v>16.45</v>
@@ -3702,16 +3702,16 @@
         <v>0.3</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S47" t="n">
         <v>63.88</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U47" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="48">
@@ -3727,13 +3727,13 @@
         <v>5668.14</v>
       </c>
       <c r="D48" t="n">
-        <v>5647.33</v>
+        <v>5639.9</v>
       </c>
       <c r="E48" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F48" t="n">
-        <v>4647.33</v>
+        <v>5139.9</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -3744,13 +3744,13 @@
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J48" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K48" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L48" t="n">
         <v>16.45</v>
@@ -3771,16 +3771,16 @@
         <v>0.3</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S48" t="n">
         <v>63.88</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U48" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="49">
@@ -3796,13 +3796,13 @@
         <v>4414.84</v>
       </c>
       <c r="D49" t="n">
-        <v>4394.03</v>
+        <v>4386.6</v>
       </c>
       <c r="E49" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F49" t="n">
-        <v>3394.03</v>
+        <v>3886.6</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3813,13 +3813,13 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J49" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K49" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L49" t="n">
         <v>16.45</v>
@@ -3840,16 +3840,16 @@
         <v>0.3</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S49" t="n">
         <v>63.88</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U49" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="50">
@@ -3865,13 +3865,13 @@
         <v>11065.89</v>
       </c>
       <c r="D50" t="n">
-        <v>11045.08</v>
+        <v>11037.65</v>
       </c>
       <c r="E50" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F50" t="n">
-        <v>10045.08</v>
+        <v>10537.65</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3882,13 +3882,13 @@
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J50" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K50" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L50" t="n">
         <v>16.45</v>
@@ -3909,16 +3909,16 @@
         <v>0.3</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S50" t="n">
         <v>63.88</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U50" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>9334.6</v>
       </c>
       <c r="D51" t="n">
-        <v>9313.790000000001</v>
+        <v>9306.360000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="F51" t="n">
-        <v>8313.790000000001</v>
+        <v>8806.360000000001</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3951,13 +3951,13 @@
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>45.74</v>
+        <v>22.87</v>
       </c>
       <c r="J51" t="n">
-        <v>40.7</v>
+        <v>20.35</v>
       </c>
       <c r="K51" t="n">
-        <v>-594.67</v>
+        <v>-297.34</v>
       </c>
       <c r="L51" t="n">
         <v>16.45</v>
@@ -3978,16 +3978,16 @@
         <v>0.3</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="S51" t="n">
         <v>63.88</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>60.31</v>
       </c>
       <c r="U51" t="n">
-        <v>1020.81</v>
+        <v>528.24</v>
       </c>
     </row>
   </sheetData>

--- a/vpplib/a_output.xlsx
+++ b/vpplib/a_output.xlsx
@@ -561,13 +561,11 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>hot</t>
-        </is>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -625,10 +623,10 @@
         <v>1498.39</v>
       </c>
       <c r="E3" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F3" t="n">
-        <v>998.39</v>
+        <v>498.39</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -639,13 +637,13 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J3" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K3" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L3" t="n">
         <v>16.45</v>
@@ -657,7 +655,7 @@
         <v>32</v>
       </c>
       <c r="O3" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P3" t="n">
         <v>2.3</v>
@@ -666,16 +664,16 @@
         <v>0.3</v>
       </c>
       <c r="R3" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S3" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T3" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U3" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -691,13 +689,13 @@
         <v>1696.82</v>
       </c>
       <c r="D4" t="n">
-        <v>1668.58</v>
+        <v>1640.55</v>
       </c>
       <c r="E4" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F4" t="n">
-        <v>1168.58</v>
+        <v>640.55</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -708,13 +706,13 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J4" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K4" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L4" t="n">
         <v>16.45</v>
@@ -726,7 +724,7 @@
         <v>32</v>
       </c>
       <c r="O4" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P4" t="n">
         <v>2.3</v>
@@ -735,16 +733,16 @@
         <v>0.3</v>
       </c>
       <c r="R4" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S4" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T4" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U4" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="5">
@@ -760,10 +758,10 @@
         <v>409.4</v>
       </c>
       <c r="D5" t="n">
-        <v>381.16</v>
+        <v>353.13</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>0.13</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -777,40 +775,40 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>17.87</v>
+        <v>1.16</v>
       </c>
       <c r="J5" t="n">
-        <v>15.9</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>-189.54</v>
+        <v>-6.62</v>
       </c>
       <c r="L5" t="n">
-        <v>13.76</v>
+        <v>7.78</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.93</v>
+        <v>-1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O5" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="P5" t="n">
-        <v>2.62</v>
+        <v>3.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="R5" t="n">
-        <v>3.66</v>
+        <v>3.85</v>
       </c>
       <c r="S5" t="n">
-        <v>65.27</v>
+        <v>67.78</v>
       </c>
       <c r="T5" t="n">
-        <v>61.61</v>
+        <v>63.93</v>
       </c>
       <c r="U5" t="n">
         <v>409.4</v>
@@ -829,10 +827,10 @@
         <v>185.19</v>
       </c>
       <c r="D6" t="n">
-        <v>163.39</v>
+        <v>164.16</v>
       </c>
       <c r="E6" t="n">
-        <v>0.87</v>
+        <v>0.05</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -846,40 +844,40 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>7.77</v>
+        <v>0.45</v>
       </c>
       <c r="J6" t="n">
-        <v>6.92</v>
+        <v>0.4</v>
       </c>
       <c r="K6" t="n">
-        <v>-43.12</v>
+        <v>-1.47</v>
       </c>
       <c r="L6" t="n">
-        <v>7.3</v>
+        <v>3.73</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.02</v>
+        <v>-0.52</v>
       </c>
       <c r="N6" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O6" t="n">
-        <v>1.85</v>
+        <v>1.59</v>
       </c>
       <c r="P6" t="n">
-        <v>3.87</v>
+        <v>5.48</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="R6" t="n">
-        <v>3.71</v>
+        <v>3.18</v>
       </c>
       <c r="S6" t="n">
-        <v>65.09</v>
+        <v>53.68</v>
       </c>
       <c r="T6" t="n">
-        <v>61.38</v>
+        <v>50.5</v>
       </c>
       <c r="U6" t="n">
         <v>185.19</v>
@@ -898,60 +896,60 @@
         <v>73.18000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>63.8</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-6.16</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.37</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>6.82</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>54.08</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>50.8</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>73.18000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -967,10 +965,10 @@
         <v>241.24</v>
       </c>
       <c r="D8" t="n">
-        <v>238.01</v>
+        <v>241.24</v>
       </c>
       <c r="E8" t="n">
-        <v>1.27</v>
+        <v>0.08</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -984,40 +982,40 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>11.35</v>
+        <v>0.71</v>
       </c>
       <c r="J8" t="n">
-        <v>10.1</v>
+        <v>0.64</v>
       </c>
       <c r="K8" t="n">
-        <v>-84.59999999999999</v>
+        <v>-3.24</v>
       </c>
       <c r="L8" t="n">
-        <v>9.83</v>
+        <v>5.58</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.38</v>
+        <v>-0.78</v>
       </c>
       <c r="N8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O8" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="P8" t="n">
-        <v>3.23</v>
+        <v>4.59</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="R8" t="n">
-        <v>3.72</v>
+        <v>3.47</v>
       </c>
       <c r="S8" t="n">
-        <v>65.87</v>
+        <v>59.83</v>
       </c>
       <c r="T8" t="n">
-        <v>62.15</v>
+        <v>56.36</v>
       </c>
       <c r="U8" t="n">
         <v>241.24</v>
@@ -1036,13 +1034,13 @@
         <v>893.9400000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>880.22</v>
+        <v>881.01</v>
       </c>
       <c r="E9" t="n">
-        <v>2.56</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
-        <v>380.22</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1053,43 +1051,43 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>22.87</v>
+        <v>2.68</v>
       </c>
       <c r="J9" t="n">
-        <v>20.35</v>
+        <v>2.38</v>
       </c>
       <c r="K9" t="n">
-        <v>-297.34</v>
+        <v>-32.17</v>
       </c>
       <c r="L9" t="n">
-        <v>16.45</v>
+        <v>15.15</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.3</v>
+        <v>-2.12</v>
       </c>
       <c r="N9" t="n">
         <v>32</v>
       </c>
       <c r="O9" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P9" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="R9" t="n">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="S9" t="n">
-        <v>63.88</v>
+        <v>63.6</v>
       </c>
       <c r="T9" t="n">
-        <v>60.31</v>
+        <v>60.04</v>
       </c>
       <c r="U9" t="n">
-        <v>513.72</v>
+        <v>893.9400000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1105,10 +1103,10 @@
         <v>409.4</v>
       </c>
       <c r="D10" t="n">
-        <v>381.16</v>
+        <v>360.09</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0.13</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1122,40 +1120,40 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>17.87</v>
+        <v>1.16</v>
       </c>
       <c r="J10" t="n">
-        <v>15.9</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>-189.54</v>
+        <v>-6.86</v>
       </c>
       <c r="L10" t="n">
-        <v>13.76</v>
+        <v>7.91</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.93</v>
+        <v>-1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O10" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P10" t="n">
-        <v>2.62</v>
+        <v>3.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="R10" t="n">
-        <v>3.66</v>
+        <v>3.77</v>
       </c>
       <c r="S10" t="n">
-        <v>65.27</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>61.61</v>
+        <v>62.66</v>
       </c>
       <c r="U10" t="n">
         <v>409.4</v>
@@ -1174,13 +1172,13 @@
         <v>1498.39</v>
       </c>
       <c r="D11" t="n">
-        <v>1476.59</v>
+        <v>1477.36</v>
       </c>
       <c r="E11" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F11" t="n">
-        <v>976.59</v>
+        <v>477.36</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1191,13 +1189,13 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J11" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K11" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L11" t="n">
         <v>16.45</v>
@@ -1209,7 +1207,7 @@
         <v>32</v>
       </c>
       <c r="O11" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P11" t="n">
         <v>2.3</v>
@@ -1218,16 +1216,16 @@
         <v>0.3</v>
       </c>
       <c r="R11" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S11" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T11" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U11" t="n">
-        <v>521.8</v>
+        <v>1021.03</v>
       </c>
     </row>
     <row r="12">
@@ -1243,13 +1241,13 @@
         <v>1588.06</v>
       </c>
       <c r="D12" t="n">
-        <v>1559.82</v>
+        <v>1531.79</v>
       </c>
       <c r="E12" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F12" t="n">
-        <v>1059.82</v>
+        <v>531.79</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1260,13 +1258,13 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J12" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K12" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L12" t="n">
         <v>16.45</v>
@@ -1278,7 +1276,7 @@
         <v>32</v>
       </c>
       <c r="O12" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P12" t="n">
         <v>2.3</v>
@@ -1287,16 +1285,16 @@
         <v>0.3</v>
       </c>
       <c r="R12" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S12" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T12" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U12" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="13">
@@ -1312,13 +1310,13 @@
         <v>1097.28</v>
       </c>
       <c r="D13" t="n">
-        <v>1069.04</v>
+        <v>1041.01</v>
       </c>
       <c r="E13" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F13" t="n">
-        <v>569.04</v>
+        <v>41.01</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1329,13 +1327,13 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J13" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K13" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L13" t="n">
         <v>16.45</v>
@@ -1347,7 +1345,7 @@
         <v>32</v>
       </c>
       <c r="O13" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P13" t="n">
         <v>2.3</v>
@@ -1356,16 +1354,16 @@
         <v>0.3</v>
       </c>
       <c r="R13" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S13" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T13" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U13" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="14">
@@ -1381,10 +1379,10 @@
         <v>241.24</v>
       </c>
       <c r="D14" t="n">
-        <v>213</v>
+        <v>184.97</v>
       </c>
       <c r="E14" t="n">
-        <v>1.14</v>
+        <v>0.06</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1398,40 +1396,40 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>10.18</v>
+        <v>0.54</v>
       </c>
       <c r="J14" t="n">
-        <v>9.06</v>
+        <v>0.48</v>
       </c>
       <c r="K14" t="n">
-        <v>-69.56</v>
+        <v>-1.9</v>
       </c>
       <c r="L14" t="n">
-        <v>9.039999999999999</v>
+        <v>4.27</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.26</v>
+        <v>-0.6</v>
       </c>
       <c r="N14" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="P14" t="n">
-        <v>3.41</v>
+        <v>5.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="R14" t="n">
-        <v>3.73</v>
+        <v>3.39</v>
       </c>
       <c r="S14" t="n">
-        <v>65.89</v>
+        <v>57.85</v>
       </c>
       <c r="T14" t="n">
-        <v>62.16</v>
+        <v>54.46</v>
       </c>
       <c r="U14" t="n">
         <v>241.24</v>
@@ -1450,13 +1448,13 @@
         <v>1498.39</v>
       </c>
       <c r="D15" t="n">
-        <v>1486.09</v>
+        <v>1488.69</v>
       </c>
       <c r="E15" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F15" t="n">
-        <v>986.09</v>
+        <v>488.69</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1467,13 +1465,13 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J15" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K15" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L15" t="n">
         <v>16.45</v>
@@ -1485,7 +1483,7 @@
         <v>32</v>
       </c>
       <c r="O15" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P15" t="n">
         <v>2.3</v>
@@ -1494,16 +1492,16 @@
         <v>0.3</v>
       </c>
       <c r="R15" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S15" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T15" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U15" t="n">
-        <v>512.3</v>
+        <v>1009.7</v>
       </c>
     </row>
     <row r="16">
@@ -1519,13 +1517,13 @@
         <v>1097.28</v>
       </c>
       <c r="D16" t="n">
-        <v>1069.04</v>
+        <v>1041.01</v>
       </c>
       <c r="E16" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F16" t="n">
-        <v>569.04</v>
+        <v>41.01</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1536,13 +1534,13 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J16" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K16" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L16" t="n">
         <v>16.45</v>
@@ -1554,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="O16" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P16" t="n">
         <v>2.3</v>
@@ -1563,16 +1561,16 @@
         <v>0.3</v>
       </c>
       <c r="R16" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S16" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T16" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U16" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="17">
@@ -1588,13 +1586,13 @@
         <v>677.59</v>
       </c>
       <c r="D17" t="n">
-        <v>649.35</v>
+        <v>621.3200000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>2.56</v>
+        <v>0.22</v>
       </c>
       <c r="F17" t="n">
-        <v>149.35</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1605,43 +1603,43 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>22.87</v>
+        <v>1.97</v>
       </c>
       <c r="J17" t="n">
-        <v>20.35</v>
+        <v>1.75</v>
       </c>
       <c r="K17" t="n">
-        <v>-297.34</v>
+        <v>-17.88</v>
       </c>
       <c r="L17" t="n">
-        <v>16.45</v>
+        <v>11.94</v>
       </c>
       <c r="M17" t="n">
-        <v>-2.3</v>
+        <v>-1.67</v>
       </c>
       <c r="N17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O17" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="P17" t="n">
-        <v>2.3</v>
+        <v>2.85</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="R17" t="n">
-        <v>3.57</v>
+        <v>3.7</v>
       </c>
       <c r="S17" t="n">
-        <v>63.88</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="T17" t="n">
-        <v>60.31</v>
+        <v>62.2</v>
       </c>
       <c r="U17" t="n">
-        <v>528.24</v>
+        <v>677.59</v>
       </c>
     </row>
     <row r="18">
@@ -1657,10 +1655,10 @@
         <v>185.19</v>
       </c>
       <c r="D18" t="n">
-        <v>156.95</v>
+        <v>149.4</v>
       </c>
       <c r="E18" t="n">
-        <v>0.83</v>
+        <v>0.05</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1674,40 +1672,40 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>7.41</v>
+        <v>0.45</v>
       </c>
       <c r="J18" t="n">
-        <v>6.6</v>
+        <v>0.4</v>
       </c>
       <c r="K18" t="n">
-        <v>-40.04</v>
+        <v>-1.19</v>
       </c>
       <c r="L18" t="n">
-        <v>7.06</v>
+        <v>3.32</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.99</v>
+        <v>-0.46</v>
       </c>
       <c r="N18" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O18" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="P18" t="n">
-        <v>3.93</v>
+        <v>5.73</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="R18" t="n">
-        <v>3.68</v>
+        <v>3.5</v>
       </c>
       <c r="S18" t="n">
-        <v>64.55</v>
+        <v>59.29</v>
       </c>
       <c r="T18" t="n">
-        <v>60.87</v>
+        <v>55.79</v>
       </c>
       <c r="U18" t="n">
         <v>185.19</v>
@@ -1726,13 +1724,13 @@
         <v>1298.94</v>
       </c>
       <c r="D19" t="n">
-        <v>1289.99</v>
+        <v>1290.85</v>
       </c>
       <c r="E19" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F19" t="n">
-        <v>789.99</v>
+        <v>290.85</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1743,13 +1741,13 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J19" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K19" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L19" t="n">
         <v>16.45</v>
@@ -1761,7 +1759,7 @@
         <v>32</v>
       </c>
       <c r="O19" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P19" t="n">
         <v>2.3</v>
@@ -1770,16 +1768,16 @@
         <v>0.3</v>
       </c>
       <c r="R19" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S19" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T19" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U19" t="n">
-        <v>508.95</v>
+        <v>1008.09</v>
       </c>
     </row>
     <row r="20">
@@ -1795,13 +1793,13 @@
         <v>1588.06</v>
       </c>
       <c r="D20" t="n">
-        <v>1559.82</v>
+        <v>1531.79</v>
       </c>
       <c r="E20" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F20" t="n">
-        <v>1059.82</v>
+        <v>531.79</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1812,13 +1810,13 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J20" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K20" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L20" t="n">
         <v>16.45</v>
@@ -1830,7 +1828,7 @@
         <v>32</v>
       </c>
       <c r="O20" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P20" t="n">
         <v>2.3</v>
@@ -1839,16 +1837,16 @@
         <v>0.3</v>
       </c>
       <c r="R20" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S20" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T20" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U20" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="21">
@@ -1864,21 +1862,21 @@
         <v>73.18000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>44.94</v>
+        <v>16.91</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>44.94</v>
+        <v>16.91</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1936,57 +1934,57 @@
         <v>241.24</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F22" t="n">
-        <v>236.99</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-3.24</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5.58</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-0.78</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>4.59</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>59.83</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>56.36</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>241.24</v>
       </c>
     </row>
     <row r="23">
@@ -2002,10 +2000,10 @@
         <v>409.4</v>
       </c>
       <c r="D23" t="n">
-        <v>409.4</v>
+        <v>396.47</v>
       </c>
       <c r="E23" t="n">
-        <v>2.13</v>
+        <v>0.14</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2019,40 +2017,40 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>19.03</v>
+        <v>1.25</v>
       </c>
       <c r="J23" t="n">
-        <v>16.93</v>
+        <v>1.11</v>
       </c>
       <c r="K23" t="n">
-        <v>-213.61</v>
+        <v>-8.16</v>
       </c>
       <c r="L23" t="n">
-        <v>14.44</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="M23" t="n">
-        <v>-2.02</v>
+        <v>-1.2</v>
       </c>
       <c r="N23" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O23" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="P23" t="n">
-        <v>2.54</v>
+        <v>3.52</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="R23" t="n">
-        <v>3.62</v>
+        <v>3.69</v>
       </c>
       <c r="S23" t="n">
-        <v>64.76000000000001</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="T23" t="n">
-        <v>61.14</v>
+        <v>61.38</v>
       </c>
       <c r="U23" t="n">
         <v>409.4</v>
@@ -2071,13 +2069,13 @@
         <v>1395.95</v>
       </c>
       <c r="D24" t="n">
-        <v>1372.68</v>
+        <v>1373.3</v>
       </c>
       <c r="E24" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F24" t="n">
-        <v>872.6799999999999</v>
+        <v>373.3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2088,13 +2086,13 @@
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J24" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K24" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L24" t="n">
         <v>16.45</v>
@@ -2106,7 +2104,7 @@
         <v>32</v>
       </c>
       <c r="O24" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P24" t="n">
         <v>2.3</v>
@@ -2115,16 +2113,16 @@
         <v>0.3</v>
       </c>
       <c r="R24" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S24" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T24" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U24" t="n">
-        <v>523.27</v>
+        <v>1022.65</v>
       </c>
     </row>
     <row r="25">
@@ -2140,13 +2138,13 @@
         <v>893.9400000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>865.7</v>
+        <v>837.67</v>
       </c>
       <c r="E25" t="n">
-        <v>2.56</v>
+        <v>0.29</v>
       </c>
       <c r="F25" t="n">
-        <v>365.7</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2157,43 +2155,43 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>22.87</v>
+        <v>2.59</v>
       </c>
       <c r="J25" t="n">
-        <v>20.35</v>
+        <v>2.31</v>
       </c>
       <c r="K25" t="n">
-        <v>-297.34</v>
+        <v>-29.58</v>
       </c>
       <c r="L25" t="n">
-        <v>16.45</v>
+        <v>14.66</v>
       </c>
       <c r="M25" t="n">
-        <v>-2.3</v>
+        <v>-2.05</v>
       </c>
       <c r="N25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O25" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P25" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="R25" t="n">
-        <v>3.57</v>
+        <v>3.62</v>
       </c>
       <c r="S25" t="n">
-        <v>63.88</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="T25" t="n">
-        <v>60.31</v>
+        <v>61.03</v>
       </c>
       <c r="U25" t="n">
-        <v>528.24</v>
+        <v>893.9400000000001</v>
       </c>
     </row>
     <row r="26">
@@ -2209,13 +2207,13 @@
         <v>993.16</v>
       </c>
       <c r="D26" t="n">
-        <v>964.92</v>
+        <v>945.59</v>
       </c>
       <c r="E26" t="n">
-        <v>2.56</v>
+        <v>0.32</v>
       </c>
       <c r="F26" t="n">
-        <v>464.92</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2226,43 +2224,43 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>22.87</v>
+        <v>2.86</v>
       </c>
       <c r="J26" t="n">
-        <v>20.35</v>
+        <v>2.54</v>
       </c>
       <c r="K26" t="n">
-        <v>-297.34</v>
+        <v>-36.16</v>
       </c>
       <c r="L26" t="n">
-        <v>16.45</v>
+        <v>15.87</v>
       </c>
       <c r="M26" t="n">
-        <v>-2.3</v>
+        <v>-2.22</v>
       </c>
       <c r="N26" t="n">
         <v>32</v>
       </c>
       <c r="O26" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="P26" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="R26" t="n">
-        <v>3.57</v>
+        <v>3.54</v>
       </c>
       <c r="S26" t="n">
-        <v>63.88</v>
+        <v>63.26</v>
       </c>
       <c r="T26" t="n">
-        <v>60.31</v>
+        <v>59.72</v>
       </c>
       <c r="U26" t="n">
-        <v>528.24</v>
+        <v>993.16</v>
       </c>
     </row>
     <row r="27">
@@ -2278,13 +2276,13 @@
         <v>1298.94</v>
       </c>
       <c r="D27" t="n">
-        <v>1270.7</v>
+        <v>1246.13</v>
       </c>
       <c r="E27" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F27" t="n">
-        <v>770.7</v>
+        <v>246.13</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2295,13 +2293,13 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J27" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K27" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L27" t="n">
         <v>16.45</v>
@@ -2313,7 +2311,7 @@
         <v>32</v>
       </c>
       <c r="O27" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P27" t="n">
         <v>2.3</v>
@@ -2322,16 +2320,16 @@
         <v>0.3</v>
       </c>
       <c r="R27" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S27" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T27" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U27" t="n">
-        <v>528.24</v>
+        <v>1052.81</v>
       </c>
     </row>
     <row r="28">
@@ -2347,10 +2345,10 @@
         <v>297.29</v>
       </c>
       <c r="D28" t="n">
-        <v>269.05</v>
+        <v>241.02</v>
       </c>
       <c r="E28" t="n">
-        <v>1.43</v>
+        <v>0.08</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2364,40 +2362,40 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>12.77</v>
+        <v>0.71</v>
       </c>
       <c r="J28" t="n">
-        <v>11.37</v>
+        <v>0.64</v>
       </c>
       <c r="K28" t="n">
-        <v>-104.73</v>
+        <v>-3.24</v>
       </c>
       <c r="L28" t="n">
-        <v>10.77</v>
+        <v>5.57</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.51</v>
+        <v>-0.78</v>
       </c>
       <c r="N28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O28" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="P28" t="n">
-        <v>3.01</v>
+        <v>4.59</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="R28" t="n">
-        <v>3.7</v>
+        <v>3.47</v>
       </c>
       <c r="S28" t="n">
-        <v>65.81</v>
+        <v>59.89</v>
       </c>
       <c r="T28" t="n">
-        <v>62.11</v>
+        <v>56.42</v>
       </c>
       <c r="U28" t="n">
         <v>297.29</v>
@@ -2426,11 +2424,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2488,57 +2486,57 @@
         <v>1395.95</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="F30" t="n">
-        <v>1391.7</v>
+        <v>395.95</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-39.64</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>16.45</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>-2.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>63.62</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>60.07</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -2554,13 +2552,13 @@
         <v>1498.39</v>
       </c>
       <c r="D31" t="n">
-        <v>1498.39</v>
+        <v>1442.12</v>
       </c>
       <c r="E31" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F31" t="n">
-        <v>998.39</v>
+        <v>442.12</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2571,13 +2569,13 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J31" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K31" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L31" t="n">
         <v>16.45</v>
@@ -2589,7 +2587,7 @@
         <v>32</v>
       </c>
       <c r="O31" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P31" t="n">
         <v>2.3</v>
@@ -2598,16 +2596,16 @@
         <v>0.3</v>
       </c>
       <c r="R31" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S31" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T31" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U31" t="n">
-        <v>500</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="32">
@@ -2623,13 +2621,13 @@
         <v>1588.06</v>
       </c>
       <c r="D32" t="n">
-        <v>1559.82</v>
+        <v>1531.79</v>
       </c>
       <c r="E32" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F32" t="n">
-        <v>1059.82</v>
+        <v>531.79</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2640,13 +2638,13 @@
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J32" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K32" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L32" t="n">
         <v>16.45</v>
@@ -2658,7 +2656,7 @@
         <v>32</v>
       </c>
       <c r="O32" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P32" t="n">
         <v>2.3</v>
@@ -2667,16 +2665,16 @@
         <v>0.3</v>
       </c>
       <c r="R32" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S32" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T32" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U32" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="33">
@@ -2692,13 +2690,13 @@
         <v>2349.27</v>
       </c>
       <c r="D33" t="n">
-        <v>2321.03</v>
+        <v>2293</v>
       </c>
       <c r="E33" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F33" t="n">
-        <v>1821.03</v>
+        <v>1293</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2709,13 +2707,13 @@
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J33" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K33" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L33" t="n">
         <v>16.45</v>
@@ -2727,7 +2725,7 @@
         <v>32</v>
       </c>
       <c r="O33" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P33" t="n">
         <v>2.3</v>
@@ -2736,16 +2734,16 @@
         <v>0.3</v>
       </c>
       <c r="R33" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S33" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T33" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U33" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="34">
@@ -2761,13 +2759,13 @@
         <v>5038.32</v>
       </c>
       <c r="D34" t="n">
-        <v>5010.08</v>
+        <v>4982.05</v>
       </c>
       <c r="E34" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F34" t="n">
-        <v>4510.08</v>
+        <v>3982.05</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2778,13 +2776,13 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J34" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K34" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L34" t="n">
         <v>16.45</v>
@@ -2796,7 +2794,7 @@
         <v>32</v>
       </c>
       <c r="O34" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P34" t="n">
         <v>2.3</v>
@@ -2805,16 +2803,16 @@
         <v>0.3</v>
       </c>
       <c r="R34" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S34" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T34" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U34" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="35">
@@ -2830,13 +2828,13 @@
         <v>6298.5</v>
       </c>
       <c r="D35" t="n">
-        <v>6270.26</v>
+        <v>6242.23</v>
       </c>
       <c r="E35" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F35" t="n">
-        <v>5770.26</v>
+        <v>5242.23</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2847,13 +2845,13 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J35" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K35" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L35" t="n">
         <v>16.45</v>
@@ -2865,7 +2863,7 @@
         <v>32</v>
       </c>
       <c r="O35" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P35" t="n">
         <v>2.3</v>
@@ -2874,16 +2872,16 @@
         <v>0.3</v>
       </c>
       <c r="R35" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S35" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T35" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U35" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="36">
@@ -2899,13 +2897,13 @@
         <v>3683.73</v>
       </c>
       <c r="D36" t="n">
-        <v>3655.49</v>
+        <v>3627.46</v>
       </c>
       <c r="E36" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F36" t="n">
-        <v>3155.49</v>
+        <v>2627.46</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2916,13 +2914,13 @@
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J36" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K36" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L36" t="n">
         <v>16.45</v>
@@ -2934,7 +2932,7 @@
         <v>32</v>
       </c>
       <c r="O36" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P36" t="n">
         <v>2.3</v>
@@ -2943,16 +2941,16 @@
         <v>0.3</v>
       </c>
       <c r="R36" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S36" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T36" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U36" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="37">
@@ -2968,13 +2966,13 @@
         <v>3874.73</v>
       </c>
       <c r="D37" t="n">
-        <v>3846.49</v>
+        <v>3818.46</v>
       </c>
       <c r="E37" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F37" t="n">
-        <v>3346.49</v>
+        <v>2818.46</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2985,13 +2983,13 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J37" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K37" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L37" t="n">
         <v>16.45</v>
@@ -3003,7 +3001,7 @@
         <v>32</v>
       </c>
       <c r="O37" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P37" t="n">
         <v>2.3</v>
@@ -3012,16 +3010,16 @@
         <v>0.3</v>
       </c>
       <c r="R37" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S37" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T37" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U37" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="38">
@@ -3037,13 +3035,13 @@
         <v>7259.64</v>
       </c>
       <c r="D38" t="n">
-        <v>7231.4</v>
+        <v>7203.37</v>
       </c>
       <c r="E38" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F38" t="n">
-        <v>6731.4</v>
+        <v>6203.37</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3054,13 +3052,13 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J38" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K38" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L38" t="n">
         <v>16.45</v>
@@ -3072,7 +3070,7 @@
         <v>32</v>
       </c>
       <c r="O38" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P38" t="n">
         <v>2.3</v>
@@ -3081,16 +3079,16 @@
         <v>0.3</v>
       </c>
       <c r="R38" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S38" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T38" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U38" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="39">
@@ -3116,11 +3114,11 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3185,11 +3183,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3254,11 +3252,11 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>hot standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3323,11 +3321,11 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>cold standby</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3385,57 +3383,57 @@
         <v>409.4</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F43" t="n">
-        <v>405.15</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-8.640000000000001</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>8.76</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-1.23</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>67.7</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>63.87</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>409.4</v>
       </c>
     </row>
     <row r="44">
@@ -3451,60 +3449,60 @@
         <v>1395.95</v>
       </c>
       <c r="D44" t="n">
-        <v>1395.95</v>
+        <v>1371.67</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="F44" t="n">
-        <v>1391.7</v>
+        <v>371.67</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>booting</t>
+          <t>production</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-39.64</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>16.45</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>-2.3</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>63.62</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>60.07</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1024.28</v>
       </c>
     </row>
     <row r="45">
@@ -3520,13 +3518,13 @@
         <v>3107.67</v>
       </c>
       <c r="D45" t="n">
-        <v>3107.67</v>
+        <v>3051.4</v>
       </c>
       <c r="E45" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F45" t="n">
-        <v>2607.67</v>
+        <v>2051.4</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3537,13 +3535,13 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J45" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K45" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L45" t="n">
         <v>16.45</v>
@@ -3555,7 +3553,7 @@
         <v>32</v>
       </c>
       <c r="O45" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P45" t="n">
         <v>2.3</v>
@@ -3564,16 +3562,16 @@
         <v>0.3</v>
       </c>
       <c r="R45" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S45" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T45" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U45" t="n">
-        <v>500</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="46">
@@ -3589,13 +3587,13 @@
         <v>4414.84</v>
       </c>
       <c r="D46" t="n">
-        <v>4386.6</v>
+        <v>4358.57</v>
       </c>
       <c r="E46" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F46" t="n">
-        <v>3886.6</v>
+        <v>3358.57</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3606,13 +3604,13 @@
         <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J46" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K46" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L46" t="n">
         <v>16.45</v>
@@ -3624,7 +3622,7 @@
         <v>32</v>
       </c>
       <c r="O46" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P46" t="n">
         <v>2.3</v>
@@ -3633,16 +3631,16 @@
         <v>0.3</v>
       </c>
       <c r="R46" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S46" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T46" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U46" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="47">
@@ -3658,13 +3656,13 @@
         <v>3492.33</v>
       </c>
       <c r="D47" t="n">
-        <v>3464.09</v>
+        <v>3436.06</v>
       </c>
       <c r="E47" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F47" t="n">
-        <v>2964.09</v>
+        <v>2436.06</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3675,13 +3673,13 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J47" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K47" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L47" t="n">
         <v>16.45</v>
@@ -3693,7 +3691,7 @@
         <v>32</v>
       </c>
       <c r="O47" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P47" t="n">
         <v>2.3</v>
@@ -3702,16 +3700,16 @@
         <v>0.3</v>
       </c>
       <c r="R47" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S47" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T47" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U47" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="48">
@@ -3727,13 +3725,13 @@
         <v>5668.14</v>
       </c>
       <c r="D48" t="n">
-        <v>5639.9</v>
+        <v>5611.87</v>
       </c>
       <c r="E48" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F48" t="n">
-        <v>5139.9</v>
+        <v>4611.87</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -3744,13 +3742,13 @@
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J48" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K48" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L48" t="n">
         <v>16.45</v>
@@ -3762,7 +3760,7 @@
         <v>32</v>
       </c>
       <c r="O48" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P48" t="n">
         <v>2.3</v>
@@ -3771,16 +3769,16 @@
         <v>0.3</v>
       </c>
       <c r="R48" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S48" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T48" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U48" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="49">
@@ -3796,13 +3794,13 @@
         <v>4414.84</v>
       </c>
       <c r="D49" t="n">
-        <v>4386.6</v>
+        <v>4358.57</v>
       </c>
       <c r="E49" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F49" t="n">
-        <v>3886.6</v>
+        <v>3358.57</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3813,13 +3811,13 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J49" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K49" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L49" t="n">
         <v>16.45</v>
@@ -3831,7 +3829,7 @@
         <v>32</v>
       </c>
       <c r="O49" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P49" t="n">
         <v>2.3</v>
@@ -3840,16 +3838,16 @@
         <v>0.3</v>
       </c>
       <c r="R49" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S49" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T49" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U49" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="50">
@@ -3865,13 +3863,13 @@
         <v>11065.89</v>
       </c>
       <c r="D50" t="n">
-        <v>11037.65</v>
+        <v>11009.62</v>
       </c>
       <c r="E50" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F50" t="n">
-        <v>10537.65</v>
+        <v>10009.62</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3882,13 +3880,13 @@
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J50" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K50" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L50" t="n">
         <v>16.45</v>
@@ -3900,7 +3898,7 @@
         <v>32</v>
       </c>
       <c r="O50" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P50" t="n">
         <v>2.3</v>
@@ -3909,16 +3907,16 @@
         <v>0.3</v>
       </c>
       <c r="R50" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S50" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T50" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U50" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>9334.6</v>
       </c>
       <c r="D51" t="n">
-        <v>9306.360000000001</v>
+        <v>9278.33</v>
       </c>
       <c r="E51" t="n">
-        <v>2.56</v>
+        <v>0.34</v>
       </c>
       <c r="F51" t="n">
-        <v>8806.360000000001</v>
+        <v>8278.33</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3951,13 +3949,13 @@
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>22.87</v>
+        <v>3.04</v>
       </c>
       <c r="J51" t="n">
-        <v>20.35</v>
+        <v>2.7</v>
       </c>
       <c r="K51" t="n">
-        <v>-297.34</v>
+        <v>-39.64</v>
       </c>
       <c r="L51" t="n">
         <v>16.45</v>
@@ -3969,7 +3967,7 @@
         <v>32</v>
       </c>
       <c r="O51" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P51" t="n">
         <v>2.3</v>
@@ -3978,16 +3976,16 @@
         <v>0.3</v>
       </c>
       <c r="R51" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="S51" t="n">
-        <v>63.88</v>
+        <v>63.62</v>
       </c>
       <c r="T51" t="n">
-        <v>60.31</v>
+        <v>60.07</v>
       </c>
       <c r="U51" t="n">
-        <v>528.24</v>
+        <v>1056.27</v>
       </c>
     </row>
   </sheetData>
